--- a/public/excel_templates/INVOICE_V1.xlsx
+++ b/public/excel_templates/INVOICE_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Facturacion\public\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A49ECB-4093-4757-B3FB-6481D2B831DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472AC0C-A2E2-4319-8E71-02F2124AD3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="124">
   <si>
     <t>INVOICING CALC SHEET</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>NUMERO DE POZO</t>
-  </si>
-  <si>
-    <t>SAMR22DH269</t>
   </si>
   <si>
     <t>NOMBRE PROYECTO</t>
@@ -423,7 +420,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -467,6 +464,13 @@
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -509,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1127,6 +1131,28 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1136,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1903,6 +1929,216 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
@@ -1923,10 +2159,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1936,10 +2168,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1960,213 +2188,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2890,7 +2924,7 @@
   <dimension ref="A2:WYI223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:J8"/>
+      <selection activeCell="C8" sqref="C8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3348,7 @@
       <c r="I3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="193" t="s">
+      <c r="J3" s="246" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -3322,14 +3356,14 @@
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="199" t="s">
+      <c r="N3" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200"/>
-      <c r="Q3" s="200"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="193" t="s">
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="246" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="5" t="s">
@@ -3337,39 +3371,35 @@
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="242" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="243"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="214"/>
     </row>
     <row r="4" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="184"/>
       <c r="D4" s="185"/>
       <c r="E4" s="185"/>
       <c r="F4" s="186"/>
-      <c r="I4" s="195" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="193"/>
+      <c r="I4" s="248" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="246"/>
       <c r="K4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="202" t="s">
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
+      <c r="R4" s="255"/>
+      <c r="S4" s="246"/>
+      <c r="T4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="204"/>
-      <c r="S4" s="193"/>
-      <c r="T4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="244">
-        <v>-54</v>
-      </c>
-      <c r="X4" s="245"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="216"/>
       <c r="Z4" s="1">
         <v>0.3</v>
       </c>
@@ -3394,18 +3424,18 @@
       <c r="D5" s="155"/>
       <c r="E5" s="155"/>
       <c r="F5" s="183"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="193"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="246"/>
       <c r="K5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" s="9"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
-      <c r="Q5" s="203"/>
-      <c r="R5" s="204"/>
-      <c r="S5" s="193"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="254"/>
+      <c r="Q5" s="254"/>
+      <c r="R5" s="255"/>
+      <c r="S5" s="246"/>
       <c r="T5" s="8"/>
       <c r="W5" s="189"/>
       <c r="X5" s="190"/>
@@ -3436,23 +3466,23 @@
       <c r="D6" s="173"/>
       <c r="E6" s="173"/>
       <c r="F6" s="188"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="194"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="247"/>
       <c r="K6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="205" t="s">
+      <c r="N6" s="256" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="257"/>
+      <c r="P6" s="257"/>
+      <c r="Q6" s="257"/>
+      <c r="R6" s="258"/>
+      <c r="S6" s="246"/>
+      <c r="T6" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="206"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
@@ -3462,471 +3492,471 @@
     </row>
     <row r="7" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="249" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="249"/>
+      <c r="E8" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="197" t="s">
+      <c r="F8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="198">
+      <c r="G8" s="244">
         <v>44743</v>
       </c>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198">
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244">
         <f>G8+1</f>
         <v>44744</v>
       </c>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198">
+      <c r="L8" s="244"/>
+      <c r="M8" s="244"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="244">
         <f>K8+1</f>
         <v>44745</v>
       </c>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198">
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244">
         <f>O8+1</f>
         <v>44746</v>
       </c>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="V8" s="198"/>
-      <c r="W8" s="198">
+      <c r="T8" s="244"/>
+      <c r="U8" s="244"/>
+      <c r="V8" s="244"/>
+      <c r="W8" s="244">
         <f>S8+1</f>
         <v>44747</v>
       </c>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="198"/>
-      <c r="AA8" s="198">
+      <c r="X8" s="244"/>
+      <c r="Y8" s="244"/>
+      <c r="Z8" s="244"/>
+      <c r="AA8" s="244">
         <f>W8+1</f>
         <v>44748</v>
       </c>
-      <c r="AB8" s="198"/>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="198"/>
-      <c r="AE8" s="198">
+      <c r="AB8" s="244"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="244"/>
+      <c r="AE8" s="244">
         <f>AA8+1</f>
         <v>44749</v>
       </c>
-      <c r="AF8" s="198"/>
-      <c r="AG8" s="198"/>
-      <c r="AH8" s="198"/>
-      <c r="AI8" s="198">
+      <c r="AF8" s="244"/>
+      <c r="AG8" s="244"/>
+      <c r="AH8" s="244"/>
+      <c r="AI8" s="244">
         <f>AE8+1</f>
         <v>44750</v>
       </c>
-      <c r="AJ8" s="198"/>
-      <c r="AK8" s="198"/>
-      <c r="AL8" s="198"/>
-      <c r="AM8" s="198">
+      <c r="AJ8" s="244"/>
+      <c r="AK8" s="244"/>
+      <c r="AL8" s="244"/>
+      <c r="AM8" s="244">
         <f>AI8+1</f>
         <v>44751</v>
       </c>
-      <c r="AN8" s="198"/>
-      <c r="AO8" s="198"/>
-      <c r="AP8" s="198"/>
-      <c r="AQ8" s="198">
+      <c r="AN8" s="244"/>
+      <c r="AO8" s="244"/>
+      <c r="AP8" s="244"/>
+      <c r="AQ8" s="244">
         <f>AM8+1</f>
         <v>44752</v>
       </c>
-      <c r="AR8" s="198"/>
-      <c r="AS8" s="198"/>
-      <c r="AT8" s="198"/>
-      <c r="AU8" s="198">
+      <c r="AR8" s="244"/>
+      <c r="AS8" s="244"/>
+      <c r="AT8" s="244"/>
+      <c r="AU8" s="244">
         <f>AQ8+1</f>
         <v>44753</v>
       </c>
-      <c r="AV8" s="198"/>
-      <c r="AW8" s="198"/>
-      <c r="AX8" s="198"/>
-      <c r="AY8" s="198">
+      <c r="AV8" s="244"/>
+      <c r="AW8" s="244"/>
+      <c r="AX8" s="244"/>
+      <c r="AY8" s="244">
         <f>AU8+1</f>
         <v>44754</v>
       </c>
-      <c r="AZ8" s="198"/>
-      <c r="BA8" s="198"/>
-      <c r="BB8" s="198"/>
-      <c r="BC8" s="198">
+      <c r="AZ8" s="244"/>
+      <c r="BA8" s="244"/>
+      <c r="BB8" s="244"/>
+      <c r="BC8" s="244">
         <f>AY8+1</f>
         <v>44755</v>
       </c>
-      <c r="BD8" s="198"/>
-      <c r="BE8" s="198"/>
-      <c r="BF8" s="198"/>
-      <c r="BG8" s="198">
+      <c r="BD8" s="244"/>
+      <c r="BE8" s="244"/>
+      <c r="BF8" s="244"/>
+      <c r="BG8" s="244">
         <f>BC8+1</f>
         <v>44756</v>
       </c>
-      <c r="BH8" s="198"/>
-      <c r="BI8" s="198"/>
-      <c r="BJ8" s="198"/>
-      <c r="BK8" s="198">
+      <c r="BH8" s="244"/>
+      <c r="BI8" s="244"/>
+      <c r="BJ8" s="244"/>
+      <c r="BK8" s="244">
         <f>BG8+1</f>
         <v>44757</v>
       </c>
-      <c r="BL8" s="198"/>
-      <c r="BM8" s="198"/>
-      <c r="BN8" s="198"/>
-      <c r="BO8" s="198">
+      <c r="BL8" s="244"/>
+      <c r="BM8" s="244"/>
+      <c r="BN8" s="244"/>
+      <c r="BO8" s="244">
         <f>BK8+1</f>
         <v>44758</v>
       </c>
-      <c r="BP8" s="198"/>
-      <c r="BQ8" s="198"/>
-      <c r="BR8" s="198"/>
-      <c r="BS8" s="208" t="s">
+      <c r="BP8" s="244"/>
+      <c r="BQ8" s="244"/>
+      <c r="BR8" s="244"/>
+      <c r="BS8" s="245" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT8" s="245" t="s">
         <v>18</v>
-      </c>
-      <c r="BT8" s="208" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="197"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="250"/>
       <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="230" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="209" t="s">
+      <c r="H9" s="230"/>
+      <c r="I9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209" t="s">
+      <c r="J9" s="230"/>
+      <c r="K9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="230"/>
+      <c r="M9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209" t="s">
+      <c r="N9" s="230"/>
+      <c r="O9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="230"/>
+      <c r="Q9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="209"/>
-      <c r="Q9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="209"/>
-      <c r="S9" s="209" t="s">
+      <c r="R9" s="230"/>
+      <c r="S9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="230"/>
+      <c r="U9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" s="209"/>
-      <c r="W9" s="209" t="s">
+      <c r="V9" s="230"/>
+      <c r="W9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" s="230"/>
+      <c r="Y9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="209"/>
-      <c r="AA9" s="209" t="s">
+      <c r="Z9" s="230"/>
+      <c r="AA9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="230"/>
+      <c r="AC9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AB9" s="209"/>
-      <c r="AC9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="209"/>
-      <c r="AE9" s="209" t="s">
+      <c r="AD9" s="230"/>
+      <c r="AE9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="230"/>
+      <c r="AG9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AF9" s="209"/>
-      <c r="AG9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH9" s="209"/>
-      <c r="AI9" s="209" t="s">
+      <c r="AH9" s="230"/>
+      <c r="AI9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ9" s="230"/>
+      <c r="AK9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AJ9" s="209"/>
-      <c r="AK9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL9" s="209"/>
-      <c r="AM9" s="209" t="s">
+      <c r="AL9" s="230"/>
+      <c r="AM9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN9" s="230"/>
+      <c r="AO9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="209"/>
-      <c r="AO9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP9" s="209"/>
-      <c r="AQ9" s="209" t="s">
+      <c r="AP9" s="230"/>
+      <c r="AQ9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR9" s="230"/>
+      <c r="AS9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AR9" s="209"/>
-      <c r="AS9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT9" s="209"/>
-      <c r="AU9" s="209" t="s">
+      <c r="AT9" s="230"/>
+      <c r="AU9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV9" s="230"/>
+      <c r="AW9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AV9" s="209"/>
-      <c r="AW9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX9" s="209"/>
-      <c r="AY9" s="209" t="s">
+      <c r="AX9" s="230"/>
+      <c r="AY9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ9" s="230"/>
+      <c r="BA9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="AZ9" s="209"/>
-      <c r="BA9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB9" s="209"/>
-      <c r="BC9" s="209" t="s">
+      <c r="BB9" s="230"/>
+      <c r="BC9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD9" s="230"/>
+      <c r="BE9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="BD9" s="209"/>
-      <c r="BE9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF9" s="209"/>
-      <c r="BG9" s="209" t="s">
+      <c r="BF9" s="230"/>
+      <c r="BG9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH9" s="230"/>
+      <c r="BI9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="BH9" s="209"/>
-      <c r="BI9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="BJ9" s="209"/>
-      <c r="BK9" s="209" t="s">
+      <c r="BJ9" s="230"/>
+      <c r="BK9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL9" s="230"/>
+      <c r="BM9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="BL9" s="209"/>
-      <c r="BM9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN9" s="209"/>
-      <c r="BO9" s="209" t="s">
+      <c r="BN9" s="230"/>
+      <c r="BO9" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="BP9" s="230"/>
+      <c r="BQ9" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="BP9" s="209"/>
-      <c r="BQ9" s="209" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR9" s="209"/>
-      <c r="BS9" s="208"/>
-      <c r="BT9" s="208"/>
+      <c r="BR9" s="230"/>
+      <c r="BS9" s="245"/>
+      <c r="BT9" s="245"/>
     </row>
     <row r="10" spans="3:72" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="197"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="250"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="I10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="K10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="M10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="O10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="Q10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="S10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="U10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="V10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="W10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="Y10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Z10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AA10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AB10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AC10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AD10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AE10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AF10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AG10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AH10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AI10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AJ10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AK10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AL10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AM10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AN10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AO10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AP10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AQ10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AR10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AS10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AT10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AU10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AV10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AW10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AX10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="AY10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AZ10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BA10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BB10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BC10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BD10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BE10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BF10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BG10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BH10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BI10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BJ10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BK10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BL10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BM10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BN10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BO10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BP10" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="BQ10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BR10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="BS10" s="208"/>
-      <c r="BT10" s="208"/>
+      <c r="BS10" s="245"/>
+      <c r="BT10" s="245"/>
     </row>
     <row r="11" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="20"/>
@@ -4001,15 +4031,15 @@
       <c r="BT11" s="20"/>
     </row>
     <row r="12" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="255" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="259"/>
-      <c r="E12" s="257" t="s">
+      <c r="C12" s="235" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="262"/>
+      <c r="E12" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G12" s="22">
         <v>0</v>
@@ -4143,13 +4173,13 @@
       <c r="BT12" s="23"/>
     </row>
     <row r="13" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="256"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="257" t="s">
-        <v>29</v>
+      <c r="C13" s="236"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="22">
         <v>0</v>
@@ -4283,10 +4313,10 @@
       <c r="BT13" s="23"/>
     </row>
     <row r="14" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="256"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="258" t="s">
-        <v>30</v>
+      <c r="C14" s="236"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25">
@@ -4456,13 +4486,13 @@
       <c r="BT14" s="26"/>
     </row>
     <row r="15" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="256"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="257" t="s">
+      <c r="C15" s="236"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G15" s="22">
         <v>0</v>
@@ -4596,13 +4626,13 @@
       <c r="BT15" s="23"/>
     </row>
     <row r="16" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="256"/>
+      <c r="C16" s="236"/>
       <c r="D16" s="260"/>
-      <c r="E16" s="257" t="s">
-        <v>29</v>
+      <c r="E16" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="22">
         <v>0</v>
@@ -4736,10 +4766,10 @@
       <c r="BT16" s="23"/>
     </row>
     <row r="17" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="256"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="258" t="s">
-        <v>30</v>
+      <c r="C17" s="236"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
@@ -4909,13 +4939,13 @@
       <c r="BT17" s="26"/>
     </row>
     <row r="18" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="256"/>
+      <c r="C18" s="236"/>
       <c r="D18" s="259"/>
-      <c r="E18" s="257" t="s">
+      <c r="E18" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G18" s="22">
         <v>0</v>
@@ -5049,13 +5079,13 @@
       <c r="BT18" s="23"/>
     </row>
     <row r="19" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="256"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="257" t="s">
-        <v>29</v>
+      <c r="C19" s="236"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="22">
         <v>0</v>
@@ -5189,10 +5219,10 @@
       <c r="BT19" s="23"/>
     </row>
     <row r="20" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="256"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="258" t="s">
-        <v>30</v>
+      <c r="C20" s="236"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
@@ -5362,13 +5392,13 @@
       <c r="BT20" s="26"/>
     </row>
     <row r="21" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="256"/>
+      <c r="C21" s="236"/>
       <c r="D21" s="259"/>
-      <c r="E21" s="257" t="s">
+      <c r="E21" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
@@ -5502,13 +5532,13 @@
       <c r="BT21" s="23"/>
     </row>
     <row r="22" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="256"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="257" t="s">
-        <v>29</v>
+      <c r="C22" s="236"/>
+      <c r="D22" s="260"/>
+      <c r="E22" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="22">
         <v>0</v>
@@ -5642,10 +5672,10 @@
       <c r="BT22" s="23"/>
     </row>
     <row r="23" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="256"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="258" t="s">
-        <v>30</v>
+      <c r="C23" s="236"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25">
@@ -5815,13 +5845,13 @@
       <c r="BT23" s="26"/>
     </row>
     <row r="24" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="256"/>
+      <c r="C24" s="236"/>
       <c r="D24" s="259"/>
-      <c r="E24" s="257" t="s">
+      <c r="E24" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G24" s="22">
         <v>0</v>
@@ -5955,13 +5985,13 @@
       <c r="BT24" s="23"/>
     </row>
     <row r="25" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="256"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="257" t="s">
-        <v>29</v>
+      <c r="C25" s="236"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="22">
         <v>0</v>
@@ -6095,10 +6125,10 @@
       <c r="BT25" s="23"/>
     </row>
     <row r="26" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="256"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="258" t="s">
-        <v>30</v>
+      <c r="C26" s="236"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="25">
@@ -6268,13 +6298,13 @@
       <c r="BT26" s="26"/>
     </row>
     <row r="27" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="256"/>
+      <c r="C27" s="236"/>
       <c r="D27" s="259"/>
-      <c r="E27" s="257" t="s">
+      <c r="E27" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G27" s="22">
         <v>0</v>
@@ -6408,13 +6438,13 @@
       <c r="BT27" s="23"/>
     </row>
     <row r="28" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="256"/>
-      <c r="D28" s="259"/>
-      <c r="E28" s="257" t="s">
-        <v>29</v>
+      <c r="C28" s="236"/>
+      <c r="D28" s="260"/>
+      <c r="E28" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="22">
         <v>0</v>
@@ -6548,10 +6578,10 @@
       <c r="BT28" s="23"/>
     </row>
     <row r="29" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="256"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="258" t="s">
-        <v>30</v>
+      <c r="C29" s="236"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25">
@@ -6721,13 +6751,13 @@
       <c r="BT29" s="26"/>
     </row>
     <row r="30" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="256"/>
+      <c r="C30" s="236"/>
       <c r="D30" s="259"/>
-      <c r="E30" s="257" t="s">
+      <c r="E30" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G30" s="22">
         <v>0</v>
@@ -6861,13 +6891,13 @@
       <c r="BT30" s="23"/>
     </row>
     <row r="31" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="256"/>
-      <c r="D31" s="259"/>
-      <c r="E31" s="257" t="s">
-        <v>29</v>
+      <c r="C31" s="236"/>
+      <c r="D31" s="260"/>
+      <c r="E31" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="22">
         <v>0</v>
@@ -7001,10 +7031,10 @@
       <c r="BT31" s="23"/>
     </row>
     <row r="32" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="256"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="258" t="s">
-        <v>30</v>
+      <c r="C32" s="236"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25">
@@ -7174,13 +7204,13 @@
       <c r="BT32" s="26"/>
     </row>
     <row r="33" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="256"/>
+      <c r="C33" s="236"/>
       <c r="D33" s="259"/>
-      <c r="E33" s="257" t="s">
+      <c r="E33" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G33" s="22">
         <v>0</v>
@@ -7314,13 +7344,13 @@
       <c r="BT33" s="23"/>
     </row>
     <row r="34" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="256"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="257" t="s">
-        <v>29</v>
+      <c r="C34" s="236"/>
+      <c r="D34" s="260"/>
+      <c r="E34" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="22">
         <v>0</v>
@@ -7454,10 +7484,10 @@
       <c r="BT34" s="23"/>
     </row>
     <row r="35" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="256"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="258" t="s">
-        <v>30</v>
+      <c r="C35" s="236"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="25">
@@ -7627,13 +7657,13 @@
       <c r="BT35" s="26"/>
     </row>
     <row r="36" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="256"/>
+      <c r="C36" s="236"/>
       <c r="D36" s="259"/>
-      <c r="E36" s="257" t="s">
+      <c r="E36" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G36" s="22">
         <v>0</v>
@@ -7767,13 +7797,13 @@
       <c r="BT36" s="23"/>
     </row>
     <row r="37" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="256"/>
-      <c r="D37" s="259"/>
-      <c r="E37" s="257" t="s">
-        <v>29</v>
+      <c r="C37" s="236"/>
+      <c r="D37" s="260"/>
+      <c r="E37" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="22">
         <v>0</v>
@@ -7907,10 +7937,10 @@
       <c r="BT37" s="23"/>
     </row>
     <row r="38" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="256"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="258" t="s">
-        <v>30</v>
+      <c r="C38" s="236"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="25">
@@ -8080,13 +8110,13 @@
       <c r="BT38" s="26"/>
     </row>
     <row r="39" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="256"/>
+      <c r="C39" s="236"/>
       <c r="D39" s="259"/>
-      <c r="E39" s="257" t="s">
+      <c r="E39" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="G39" s="22">
         <v>0</v>
@@ -8220,13 +8250,13 @@
       <c r="BT39" s="23"/>
     </row>
     <row r="40" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="256"/>
-      <c r="D40" s="259"/>
-      <c r="E40" s="257" t="s">
-        <v>29</v>
+      <c r="C40" s="236"/>
+      <c r="D40" s="260"/>
+      <c r="E40" s="193" t="s">
+        <v>28</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" s="22">
         <v>0</v>
@@ -8360,10 +8390,10 @@
       <c r="BT40" s="23"/>
     </row>
     <row r="41" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="256"/>
-      <c r="D41" s="259"/>
-      <c r="E41" s="258" t="s">
-        <v>30</v>
+      <c r="C41" s="236"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="194" t="s">
+        <v>29</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="25">
@@ -8533,11 +8563,11 @@
       <c r="BT41" s="26"/>
     </row>
     <row r="42" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="254"/>
-      <c r="D42" s="211"/>
-      <c r="E42" s="211"/>
+      <c r="C42" s="237"/>
+      <c r="D42" s="238"/>
+      <c r="E42" s="238"/>
       <c r="F42" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G42" s="28">
         <f>G14+G17+G20+G23+G26+G29+G32+G35+G38+G41</f>
@@ -8545,7 +8575,7 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28">
-        <f t="shared" ref="H42:BR42" si="0">I14+I17+I20+I23+I26+I29+I32+I35+I38+I41</f>
+        <f t="shared" ref="I42:BQ42" si="0">I14+I17+I20+I23+I26+I29+I32+I35+I38+I41</f>
         <v>0</v>
       </c>
       <c r="J42" s="28">
@@ -8781,14 +8811,14 @@
       <c r="BT43" s="33"/>
     </row>
     <row r="44" spans="1:74" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="214" t="s">
+      <c r="C44" s="241" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="218" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="218"/>
-      <c r="F44" s="218"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="229"/>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -8854,27 +8884,27 @@
       <c r="BQ44" s="34"/>
       <c r="BR44" s="34"/>
       <c r="BS44" s="35">
-        <f>G44+I44+K44+M44+O44+S44+U44+W44+Y44+AA44+AC44+AE44+AG44+AI44+AK44+AM44+AO44+AQ44+AS44+AU44+AW44+AY44+BA44+BC44+BE44+BG44+BI44+BK44+BM44+BO44+BQ44+Q44</f>
+        <f t="shared" ref="BS44:BS63" si="2">G44+I44+K44+M44+O44+S44+U44+W44+Y44+AA44+AC44+AE44+AG44+AI44+AK44+AM44+AO44+AQ44+AS44+AU44+AW44+AY44+BA44+BC44+BE44+BG44+BI44+BK44+BM44+BO44+BQ44+Q44</f>
         <v>0</v>
       </c>
       <c r="BT44" s="36">
-        <f>H44+J44+L44+N44+P44+T44+V44+X44+Z44+AB44+AD44+AF44+AH44+AJ44+AL44+AN44+AP44+AR44+AT44+AV44+AX44+AZ44+BB44+BD44+BF44+BH44+BJ44+BL44+BN44+BP44+BR44+R44</f>
+        <f t="shared" ref="BT44:BT63" si="3">H44+J44+L44+N44+P44+T44+V44+X44+Z44+AB44+AD44+AF44+AH44+AJ44+AL44+AN44+AP44+AR44+AT44+AV44+AX44+AZ44+BB44+BD44+BF44+BH44+BJ44+BL44+BN44+BP44+BR44+R44</f>
         <v>0</v>
       </c>
       <c r="BU44" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV44" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C45" s="214"/>
-      <c r="D45" s="202" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="202"/>
-      <c r="F45" s="202"/>
+      <c r="C45" s="241"/>
+      <c r="D45" s="195" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="195"/>
+      <c r="F45" s="195"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
@@ -8940,27 +8970,27 @@
       <c r="BQ45" s="34"/>
       <c r="BR45" s="34"/>
       <c r="BS45" s="38">
-        <f>G45+I45+K45+M45+O45+S45+U45+W45+Y45+AA45+AC45+AE45+AG45+AI45+AK45+AM45+AO45+AQ45+AS45+AU45+AW45+AY45+BA45+BC45+BE45+BG45+BI45+BK45+BM45+BO45+BQ45+Q45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT45" s="39">
-        <f>H45+J45+L45+N45+P45+T45+V45+X45+Z45+AB45+AD45+AF45+AH45+AJ45+AL45+AN45+AP45+AR45+AT45+AV45+AX45+AZ45+BB45+BD45+BF45+BH45+BJ45+BL45+BN45+BP45+BR45+R45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU45" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV45" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="214"/>
+      <c r="C46" s="241"/>
       <c r="D46" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="34"/>
@@ -9028,24 +9058,24 @@
       <c r="BQ46" s="34"/>
       <c r="BR46" s="34"/>
       <c r="BS46" s="38">
-        <f>G46+I46+K46+M46+O46+S46+U46+W46+Y46+AA46+AC46+AE46+AG46+AI46+AK46+AM46+AO46+AQ46+AS46+AU46+AW46+AY46+BA46+BC46+BE46+BG46+BI46+BK46+BM46+BO46+BQ46+Q46</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT46" s="39">
-        <f>H46+J46+L46+N46+P46+T46+V46+X46+Z46+AB46+AD46+AF46+AH46+AJ46+AL46+AN46+AP46+AR46+AT46+AV46+AX46+AZ46+BB46+BD46+BF46+BH46+BJ46+BL46+BN46+BP46+BR46+R46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU46" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV46" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C47" s="214"/>
+      <c r="C47" s="241"/>
       <c r="D47" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="34"/>
@@ -9113,24 +9143,24 @@
       <c r="BQ47" s="34"/>
       <c r="BR47" s="34"/>
       <c r="BS47" s="38">
-        <f>G47+I47+K47+M47+O47+S47+U47+W47+Y47+AA47+AC47+AE47+AG47+AI47+AK47+AM47+AO47+AQ47+AS47+AU47+AW47+AY47+BA47+BC47+BE47+BG47+BI47+BK47+BM47+BO47+BQ47+Q47</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT47" s="39">
-        <f>H47+J47+L47+N47+P47+T47+V47+X47+Z47+AB47+AD47+AF47+AH47+AJ47+AL47+AN47+AP47+AR47+AT47+AV47+AX47+AZ47+BB47+BD47+BF47+BH47+BJ47+BL47+BN47+BP47+BR47+R47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU47" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV47" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C48" s="214"/>
+      <c r="C48" s="241"/>
       <c r="D48" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="34"/>
@@ -9198,24 +9228,24 @@
       <c r="BQ48" s="34"/>
       <c r="BR48" s="34"/>
       <c r="BS48" s="38">
-        <f>G48+I48+K48+M48+O48+S48+U48+W48+Y48+AA48+AC48+AE48+AG48+AI48+AK48+AM48+AO48+AQ48+AS48+AU48+AW48+AY48+BA48+BC48+BE48+BG48+BI48+BK48+BM48+BO48+BQ48+Q48</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT48" s="39">
-        <f>H48+J48+L48+N48+P48+T48+V48+X48+Z48+AB48+AD48+AF48+AH48+AJ48+AL48+AN48+AP48+AR48+AT48+AV48+AX48+AZ48+BB48+BD48+BF48+BH48+BJ48+BL48+BN48+BP48+BR48+R48</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU48" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV48" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C49" s="214"/>
+      <c r="C49" s="241"/>
       <c r="D49" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="34"/>
@@ -9283,27 +9313,27 @@
       <c r="BQ49" s="34"/>
       <c r="BR49" s="34"/>
       <c r="BS49" s="38">
-        <f>G49+I49+K49+M49+O49+S49+U49+W49+Y49+AA49+AC49+AE49+AG49+AI49+AK49+AM49+AO49+AQ49+AS49+AU49+AW49+AY49+BA49+BC49+BE49+BG49+BI49+BK49+BM49+BO49+BQ49+Q49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT49" s="39">
-        <f>H49+J49+L49+N49+P49+T49+V49+X49+Z49+AB49+AD49+AF49+AH49+AJ49+AL49+AN49+AP49+AR49+AT49+AV49+AX49+AZ49+BB49+BD49+BF49+BH49+BJ49+BL49+BN49+BP49+BR49+R49</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU49" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV49" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C50" s="214"/>
+      <c r="C50" s="241"/>
       <c r="D50" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="34"/>
@@ -9371,18 +9401,18 @@
       <c r="BQ50" s="34"/>
       <c r="BR50" s="34"/>
       <c r="BS50" s="38">
-        <f>G50+I50+K50+M50+O50+S50+U50+W50+Y50+AA50+AC50+AE50+AG50+AI50+AK50+AM50+AO50+AQ50+AS50+AU50+AW50+AY50+BA50+BC50+BE50+BG50+BI50+BK50+BM50+BO50+BQ50+Q50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT50" s="39">
-        <f>H50+J50+L50+N50+P50+T50+V50+X50+Z50+AB50+AD50+AF50+AH50+AJ50+AL50+AN50+AP50+AR50+AT50+AV50+AX50+AZ50+BB50+BD50+BF50+BH50+BJ50+BL50+BN50+BP50+BR50+R50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU50" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV50" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BW50" s="40"/>
       <c r="BX50" s="40"/>
@@ -9400,9 +9430,9 @@
       <c r="CJ50" s="40"/>
     </row>
     <row r="51" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C51" s="214"/>
+      <c r="C51" s="241"/>
       <c r="D51" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="34"/>
@@ -9470,24 +9500,24 @@
       <c r="BQ51" s="34"/>
       <c r="BR51" s="34"/>
       <c r="BS51" s="38">
-        <f>G51+I51+K51+M51+O51+S51+U51+W51+Y51+AA51+AC51+AE51+AG51+AI51+AK51+AM51+AO51+AQ51+AS51+AU51+AW51+AY51+BA51+BC51+BE51+BG51+BI51+BK51+BM51+BO51+BQ51+Q51</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT51" s="39">
-        <f>H51+J51+L51+N51+P51+T51+V51+X51+Z51+AB51+AD51+AF51+AH51+AJ51+AL51+AN51+AP51+AR51+AT51+AV51+AX51+AZ51+BB51+BD51+BF51+BH51+BJ51+BL51+BN51+BP51+BR51+R51</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU51" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV51" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C52" s="214"/>
+      <c r="C52" s="241"/>
       <c r="D52" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="34"/>
@@ -9555,24 +9585,24 @@
       <c r="BQ52" s="34"/>
       <c r="BR52" s="34"/>
       <c r="BS52" s="38">
-        <f>G52+I52+K52+M52+O52+S52+U52+W52+Y52+AA52+AC52+AE52+AG52+AI52+AK52+AM52+AO52+AQ52+AS52+AU52+AW52+AY52+BA52+BC52+BE52+BG52+BI52+BK52+BM52+BO52+BQ52+Q52</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT52" s="39">
-        <f>H52+J52+L52+N52+P52+T52+V52+X52+Z52+AB52+AD52+AF52+AH52+AJ52+AL52+AN52+AP52+AR52+AT52+AV52+AX52+AZ52+BB52+BD52+BF52+BH52+BJ52+BL52+BN52+BP52+BR52+R52</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU52" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV52" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C53" s="214"/>
+      <c r="C53" s="241"/>
       <c r="D53" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="34"/>
@@ -9640,24 +9670,24 @@
       <c r="BQ53" s="34"/>
       <c r="BR53" s="34"/>
       <c r="BS53" s="38">
-        <f>G53+I53+K53+M53+O53+S53+U53+W53+Y53+AA53+AC53+AE53+AG53+AI53+AK53+AM53+AO53+AQ53+AS53+AU53+AW53+AY53+BA53+BC53+BE53+BG53+BI53+BK53+BM53+BO53+BQ53+Q53</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT53" s="39">
-        <f>H53+J53+L53+N53+P53+T53+V53+X53+Z53+AB53+AD53+AF53+AH53+AJ53+AL53+AN53+AP53+AR53+AT53+AV53+AX53+AZ53+BB53+BD53+BF53+BH53+BJ53+BL53+BN53+BP53+BR53+R53</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU53" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV53" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C54" s="214"/>
+      <c r="C54" s="241"/>
       <c r="D54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="34"/>
@@ -9725,24 +9755,24 @@
       <c r="BQ54" s="34"/>
       <c r="BR54" s="34"/>
       <c r="BS54" s="38">
-        <f>G54+I54+K54+M54+O54+S54+U54+W54+Y54+AA54+AC54+AE54+AG54+AI54+AK54+AM54+AO54+AQ54+AS54+AU54+AW54+AY54+BA54+BC54+BE54+BG54+BI54+BK54+BM54+BO54+BQ54+Q54</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT54" s="39">
-        <f>H54+J54+L54+N54+P54+T54+V54+X54+Z54+AB54+AD54+AF54+AH54+AJ54+AL54+AN54+AP54+AR54+AT54+AV54+AX54+AZ54+BB54+BD54+BF54+BH54+BJ54+BL54+BN54+BP54+BR54+R54</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU54" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV54" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C55" s="214"/>
+      <c r="C55" s="241"/>
       <c r="D55" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="34"/>
@@ -9810,24 +9840,24 @@
       <c r="BQ55" s="34"/>
       <c r="BR55" s="34"/>
       <c r="BS55" s="38">
-        <f>G55+I55+K55+M55+O55+S55+U55+W55+Y55+AA55+AC55+AE55+AG55+AI55+AK55+AM55+AO55+AQ55+AS55+AU55+AW55+AY55+BA55+BC55+BE55+BG55+BI55+BK55+BM55+BO55+BQ55+Q55</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT55" s="39">
-        <f>H55+J55+L55+N55+P55+T55+V55+X55+Z55+AB55+AD55+AF55+AH55+AJ55+AL55+AN55+AP55+AR55+AT55+AV55+AX55+AZ55+BB55+BD55+BF55+BH55+BJ55+BL55+BN55+BP55+BR55+R55</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU55" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV55" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C56" s="214"/>
+      <c r="C56" s="241"/>
       <c r="D56" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="34"/>
@@ -9895,24 +9925,24 @@
       <c r="BQ56" s="34"/>
       <c r="BR56" s="34"/>
       <c r="BS56" s="38">
-        <f>G56+I56+K56+M56+O56+S56+U56+W56+Y56+AA56+AC56+AE56+AG56+AI56+AK56+AM56+AO56+AQ56+AS56+AU56+AW56+AY56+BA56+BC56+BE56+BG56+BI56+BK56+BM56+BO56+BQ56+Q56</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT56" s="39">
-        <f>H56+J56+L56+N56+P56+T56+V56+X56+Z56+AB56+AD56+AF56+AH56+AJ56+AL56+AN56+AP56+AR56+AT56+AV56+AX56+AZ56+BB56+BD56+BF56+BH56+BJ56+BL56+BN56+BP56+BR56+R56</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU56" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV56" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C57" s="214"/>
+      <c r="C57" s="241"/>
       <c r="D57" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="34"/>
@@ -9980,24 +10010,24 @@
       <c r="BQ57" s="34"/>
       <c r="BR57" s="34"/>
       <c r="BS57" s="38">
-        <f>G57+I57+K57+M57+O57+S57+U57+W57+Y57+AA57+AC57+AE57+AG57+AI57+AK57+AM57+AO57+AQ57+AS57+AU57+AW57+AY57+BA57+BC57+BE57+BG57+BI57+BK57+BM57+BO57+BQ57+Q57</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT57" s="39">
-        <f>H57+J57+L57+N57+P57+T57+V57+X57+Z57+AB57+AD57+AF57+AH57+AJ57+AL57+AN57+AP57+AR57+AT57+AV57+AX57+AZ57+BB57+BD57+BF57+BH57+BJ57+BL57+BN57+BP57+BR57+R57</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU57" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV57" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C58" s="214"/>
+      <c r="C58" s="241"/>
       <c r="D58" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="41"/>
@@ -10065,24 +10095,24 @@
       <c r="BQ58" s="41"/>
       <c r="BR58" s="41"/>
       <c r="BS58" s="38">
-        <f>G58+I58+K58+M58+O58+S58+U58+W58+Y58+AA58+AC58+AE58+AG58+AI58+AK58+AM58+AO58+AQ58+AS58+AU58+AW58+AY58+BA58+BC58+BE58+BG58+BI58+BK58+BM58+BO58+BQ58+Q58</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT58" s="39">
-        <f>H58+J58+L58+N58+P58+T58+V58+X58+Z58+AB58+AD58+AF58+AH58+AJ58+AL58+AN58+AP58+AR58+AT58+AV58+AX58+AZ58+BB58+BD58+BF58+BH58+BJ58+BL58+BN58+BP58+BR58+R58</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU58" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV58" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C59" s="214"/>
+      <c r="C59" s="241"/>
       <c r="D59" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="41"/>
@@ -10150,24 +10180,24 @@
       <c r="BQ59" s="41"/>
       <c r="BR59" s="41"/>
       <c r="BS59" s="38">
-        <f>G59+I59+K59+M59+O59+S59+U59+W59+Y59+AA59+AC59+AE59+AG59+AI59+AK59+AM59+AO59+AQ59+AS59+AU59+AW59+AY59+BA59+BC59+BE59+BG59+BI59+BK59+BM59+BO59+BQ59+Q59</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT59" s="39">
-        <f>H59+J59+L59+N59+P59+T59+V59+X59+Z59+AB59+AD59+AF59+AH59+AJ59+AL59+AN59+AP59+AR59+AT59+AV59+AX59+AZ59+BB59+BD59+BF59+BH59+BJ59+BL59+BN59+BP59+BR59+R59</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU59" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV59" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C60" s="214"/>
+      <c r="C60" s="241"/>
       <c r="D60" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="41"/>
@@ -10235,24 +10265,24 @@
       <c r="BQ60" s="41"/>
       <c r="BR60" s="41"/>
       <c r="BS60" s="38">
-        <f>G60+I60+K60+M60+O60+S60+U60+W60+Y60+AA60+AC60+AE60+AG60+AI60+AK60+AM60+AO60+AQ60+AS60+AU60+AW60+AY60+BA60+BC60+BE60+BG60+BI60+BK60+BM60+BO60+BQ60+Q60</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT60" s="39">
-        <f>H60+J60+L60+N60+P60+T60+V60+X60+Z60+AB60+AD60+AF60+AH60+AJ60+AL60+AN60+AP60+AR60+AT60+AV60+AX60+AZ60+BB60+BD60+BF60+BH60+BJ60+BL60+BN60+BP60+BR60+R60</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU60" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV60" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C61" s="214"/>
+      <c r="C61" s="241"/>
       <c r="D61" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="41"/>
@@ -10320,24 +10350,24 @@
       <c r="BQ61" s="41"/>
       <c r="BR61" s="41"/>
       <c r="BS61" s="38">
-        <f>G61+I61+K61+M61+O61+S61+U61+W61+Y61+AA61+AC61+AE61+AG61+AI61+AK61+AM61+AO61+AQ61+AS61+AU61+AW61+AY61+BA61+BC61+BE61+BG61+BI61+BK61+BM61+BO61+BQ61+Q61</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT61" s="39">
-        <f>H61+J61+L61+N61+P61+T61+V61+X61+Z61+AB61+AD61+AF61+AH61+AJ61+AL61+AN61+AP61+AR61+AT61+AV61+AX61+AZ61+BB61+BD61+BF61+BH61+BJ61+BL61+BN61+BP61+BR61+R61</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU61" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV61" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C62" s="214"/>
+      <c r="C62" s="241"/>
       <c r="D62" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="34"/>
@@ -10405,24 +10435,24 @@
       <c r="BQ62" s="34"/>
       <c r="BR62" s="34"/>
       <c r="BS62" s="38">
-        <f>G62+I62+K62+M62+O62+S62+U62+W62+Y62+AA62+AC62+AE62+AG62+AI62+AK62+AM62+AO62+AQ62+AS62+AU62+AW62+AY62+BA62+BC62+BE62+BG62+BI62+BK62+BM62+BO62+BQ62+Q62</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT62" s="39">
-        <f>H62+J62+L62+N62+P62+T62+V62+X62+Z62+AB62+AD62+AF62+AH62+AJ62+AL62+AN62+AP62+AR62+AT62+AV62+AX62+AZ62+BB62+BD62+BF62+BH62+BJ62+BL62+BN62+BP62+BR62+R62</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU62" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV62" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C63" s="214"/>
+      <c r="C63" s="241"/>
       <c r="D63" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="41"/>
@@ -10490,289 +10520,289 @@
       <c r="BQ63" s="41"/>
       <c r="BR63" s="41"/>
       <c r="BS63" s="38">
-        <f>G63+I63+K63+M63+O63+S63+U63+W63+Y63+AA63+AC63+AE63+AG63+AI63+AK63+AM63+AO63+AQ63+AS63+AU63+AW63+AY63+BA63+BC63+BE63+BG63+BI63+BK63+BM63+BO63+BQ63+Q63</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BT63" s="39">
-        <f>H63+J63+L63+N63+P63+T63+V63+X63+Z63+AB63+AD63+AF63+AH63+AJ63+AL63+AN63+AP63+AR63+AT63+AV63+AX63+AZ63+BB63+BD63+BF63+BH63+BJ63+BL63+BN63+BP63+BR63+R63</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BU63" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BV63" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C64" s="214"/>
+      <c r="C64" s="241"/>
       <c r="D64" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E64" s="43"/>
       <c r="F64" s="44"/>
       <c r="G64" s="45">
-        <f t="shared" ref="G64:AL64" si="2">SUM(G44:G63)</f>
+        <f t="shared" ref="G64:AL64" si="4">SUM(G44:G63)</f>
         <v>0</v>
       </c>
       <c r="H64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL64" s="45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM64" s="45">
-        <f t="shared" ref="AM64:BR64" si="3">SUM(AM44:AM63)</f>
+        <f t="shared" ref="AM64:BR64" si="5">SUM(AM44:AM63)</f>
         <v>0</v>
       </c>
       <c r="AN64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AV64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AX64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AY64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AZ64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BA64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BD64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BL64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BM64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BN64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BO64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BP64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BQ64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BR64" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BS64" s="45">
-        <f t="shared" ref="BS64:BT64" si="4">SUM(BS44:BS63)</f>
+        <f t="shared" ref="BS64:BT64" si="6">SUM(BS44:BS63)</f>
         <v>0</v>
       </c>
       <c r="BT64" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU64" s="47"/>
@@ -10781,31 +10811,31 @@
       <c r="C65" s="48"/>
       <c r="D65" s="49"/>
       <c r="G65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H65" s="49"/>
       <c r="I65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J65" s="49"/>
       <c r="K65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L65" s="49"/>
       <c r="M65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N65" s="49"/>
       <c r="O65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P65" s="49"/>
       <c r="Q65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R65" s="49"/>
       <c r="S65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T65" s="49"/>
       <c r="U65" s="47">
@@ -10901,11 +10931,11 @@
       </c>
       <c r="BN65" s="49"/>
       <c r="BO65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BP65" s="49"/>
       <c r="BQ65" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BR65" s="49"/>
       <c r="BS65" s="47">
@@ -11081,11 +11111,11 @@
       </c>
       <c r="BR66" s="51"/>
       <c r="BS66" s="51">
-        <f>G66+I66+K66+M66+O66+Q66+S66+U66+W66+Y66+AA66+AC66+AE66+AG66+AI66+AK66+AM66+AO66+AQ66+AS66+AU66+AW66+AY66+BA66+BC66+BE66+BG66+BI66+BK66+BM66+BO66+BQ66</f>
+        <f t="shared" ref="BS66:BT72" si="7">G66+I66+K66+M66+O66+Q66+S66+U66+W66+Y66+AA66+AC66+AE66+AG66+AI66+AK66+AM66+AO66+AQ66+AS66+AU66+AW66+AY66+BA66+BC66+BE66+BG66+BI66+BK66+BM66+BO66+BQ66</f>
         <v>0</v>
       </c>
       <c r="BT66" s="52">
-        <f>H66+J66+L66+N66+P66+R66+T66+V66+X66+Z66+AB66+AD66+AF66+AH66+AJ66+AL66+AN66+AP66+AR66+AT66+AV66+AX66+AZ66+BB66+BD66+BF66+BH66+BJ66+BL66+BN66+BP66+BR66</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11256,11 +11286,11 @@
       </c>
       <c r="BR67" s="51"/>
       <c r="BS67" s="51">
-        <f>G67+I67+K67+M67+O67+Q67+S67+U67+W67+Y67+AA67+AC67+AE67+AG67+AI67+AK67+AM67+AO67+AQ67+AS67+AU67+AW67+AY67+BA67+BC67+BE67+BG67+BI67+BK67+BM67+BO67+BQ67</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT67" s="52">
-        <f>H67+J67+L67+N67+P67+R67+T67+V67+X67+Z67+AB67+AD67+AF67+AH67+AJ67+AL67+AN67+AP67+AR67+AT67+AV67+AX67+AZ67+BB67+BD67+BF67+BH67+BJ67+BL67+BN67+BP67+BR67</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11431,11 +11461,11 @@
       </c>
       <c r="BR68" s="51"/>
       <c r="BS68" s="51">
-        <f>G68+I68+K68+M68+O68+Q68+S68+U68+W68+Y68+AA68+AC68+AE68+AG68+AI68+AK68+AM68+AO68+AQ68+AS68+AU68+AW68+AY68+BA68+BC68+BE68+BG68+BI68+BK68+BM68+BO68+BQ68</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT68" s="52">
-        <f>H68+J68+L68+N68+P68+R68+T68+V68+X68+Z68+AB68+AD68+AF68+AH68+AJ68+AL68+AN68+AP68+AR68+AT68+AV68+AX68+AZ68+BB68+BD68+BF68+BH68+BJ68+BL68+BN68+BP68+BR68</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11606,11 +11636,11 @@
       </c>
       <c r="BR69" s="51"/>
       <c r="BS69" s="51">
-        <f>G69+I69+K69+M69+O69+Q69+S69+U69+W69+Y69+AA69+AC69+AE69+AG69+AI69+AK69+AM69+AO69+AQ69+AS69+AU69+AW69+AY69+BA69+BC69+BE69+BG69+BI69+BK69+BM69+BO69+BQ69</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT69" s="52">
-        <f>H69+J69+L69+N69+P69+R69+T69+V69+X69+Z69+AB69+AD69+AF69+AH69+AJ69+AL69+AN69+AP69+AR69+AT69+AV69+AX69+AZ69+BB69+BD69+BF69+BH69+BJ69+BL69+BN69+BP69+BR69</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11781,11 +11811,11 @@
       </c>
       <c r="BR70" s="51"/>
       <c r="BS70" s="51">
-        <f>G70+I70+K70+M70+O70+Q70+S70+U70+W70+Y70+AA70+AC70+AE70+AG70+AI70+AK70+AM70+AO70+AQ70+AS70+AU70+AW70+AY70+BA70+BC70+BE70+BG70+BI70+BK70+BM70+BO70+BQ70</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT70" s="52">
-        <f>H70+J70+L70+N70+P70+R70+T70+V70+X70+Z70+AB70+AD70+AF70+AH70+AJ70+AL70+AN70+AP70+AR70+AT70+AV70+AX70+AZ70+BB70+BD70+BF70+BH70+BJ70+BL70+BN70+BP70+BR70</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -11956,18 +11986,18 @@
       </c>
       <c r="BR71" s="51"/>
       <c r="BS71" s="51">
-        <f>G71+I71+K71+M71+O71+Q71+S71+U71+W71+Y71+AA71+AC71+AE71+AG71+AI71+AK71+AM71+AO71+AQ71+AS71+AU71+AW71+AY71+BA71+BC71+BE71+BG71+BI71+BK71+BM71+BO71+BQ71</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT71" s="52">
-        <f>H71+J71+L71+N71+P71+R71+T71+V71+X71+Z71+AB71+AD71+AF71+AH71+AJ71+AL71+AN71+AP71+AR71+AT71+AV71+AX71+AZ71+BB71+BD71+BF71+BH71+BJ71+BL71+BN71+BP71+BR71</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="C72" s="48"/>
       <c r="D72" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G72" s="51">
         <f>IF((G54+H54)&gt;2,(G54+H54)-2,0)</f>
@@ -12130,11 +12160,11 @@
       </c>
       <c r="BR72" s="51"/>
       <c r="BS72" s="51">
-        <f>G72+I72+K72+M72+O72+Q72+S72+U72+W72+Y72+AA72+AC72+AE72+AG72+AI72+AK72+AM72+AO72+AQ72+AS72+AU72+AW72+AY72+BA72+BC72+BE72+BG72+BI72+BK72+BM72+BO72+BQ72</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT72" s="52">
-        <f>H72+J72+L72+N72+P72+R72+T72+V72+X72+Z72+AB72+AD72+AF72+AH72+AJ72+AL72+AN72+AP72+AR72+AT72+AV72+AX72+AZ72+BB72+BD72+BF72+BH72+BJ72+BL72+BN72+BP72+BR72</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12210,14 +12240,14 @@
     </row>
     <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
-      <c r="C74" s="210" t="s">
+      <c r="C74" s="242" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="D74" s="215" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="215"/>
-      <c r="F74" s="215"/>
+      <c r="E74" s="243"/>
+      <c r="F74" s="243"/>
       <c r="G74" s="53"/>
       <c r="H74" s="53"/>
       <c r="I74" s="53"/>
@@ -12289,12 +12319,12 @@
       </c>
     </row>
     <row r="75" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C75" s="210"/>
-      <c r="D75" s="216" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" s="216"/>
-      <c r="F75" s="216"/>
+      <c r="C75" s="242"/>
+      <c r="D75" s="227" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="227"/>
+      <c r="F75" s="227"/>
       <c r="G75" s="55"/>
       <c r="H75" s="55"/>
       <c r="I75" s="55"/>
@@ -12361,17 +12391,17 @@
       <c r="BR75" s="55"/>
       <c r="BS75" s="55"/>
       <c r="BT75" s="56">
-        <f>SUM(G75:BR75)</f>
+        <f t="shared" ref="BT75:BT85" si="8">SUM(G75:BR75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C76" s="210"/>
-      <c r="D76" s="216" t="s">
-        <v>58</v>
-      </c>
-      <c r="E76" s="216"/>
-      <c r="F76" s="216"/>
+      <c r="C76" s="242"/>
+      <c r="D76" s="227" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="227"/>
+      <c r="F76" s="227"/>
       <c r="G76" s="55"/>
       <c r="H76" s="55"/>
       <c r="I76" s="55"/>
@@ -12438,17 +12468,17 @@
       <c r="BR76" s="55"/>
       <c r="BS76" s="55"/>
       <c r="BT76" s="56">
-        <f>SUM(G76:BR76)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C77" s="210"/>
-      <c r="D77" s="216" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="216"/>
-      <c r="F77" s="216"/>
+      <c r="C77" s="242"/>
+      <c r="D77" s="227" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="227"/>
+      <c r="F77" s="227"/>
       <c r="G77" s="55"/>
       <c r="H77" s="55"/>
       <c r="I77" s="55"/>
@@ -12515,17 +12545,17 @@
       <c r="BR77" s="55"/>
       <c r="BS77" s="55"/>
       <c r="BT77" s="56">
-        <f>SUM(G77:BR77)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C78" s="210"/>
-      <c r="D78" s="216" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" s="216"/>
-      <c r="F78" s="216"/>
+      <c r="C78" s="242"/>
+      <c r="D78" s="227" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="227"/>
+      <c r="F78" s="227"/>
       <c r="G78" s="55"/>
       <c r="H78" s="55"/>
       <c r="I78" s="55"/>
@@ -12592,7 +12622,7 @@
       <c r="BR78" s="55"/>
       <c r="BS78" s="55"/>
       <c r="BT78" s="56">
-        <f>SUM(G78:BR78)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12600,12 +12630,12 @@
       <c r="A79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="210"/>
-      <c r="D79" s="216" t="s">
-        <v>61</v>
-      </c>
-      <c r="E79" s="216"/>
-      <c r="F79" s="216"/>
+      <c r="C79" s="242"/>
+      <c r="D79" s="227" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="227"/>
+      <c r="F79" s="227"/>
       <c r="G79" s="55"/>
       <c r="H79" s="55"/>
       <c r="I79" s="55"/>
@@ -12672,17 +12702,17 @@
       <c r="BR79" s="55"/>
       <c r="BS79" s="55"/>
       <c r="BT79" s="56">
-        <f>SUM(G79:BR79)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C80" s="210"/>
-      <c r="D80" s="216" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" s="216"/>
-      <c r="F80" s="216"/>
+      <c r="C80" s="242"/>
+      <c r="D80" s="227" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="227"/>
+      <c r="F80" s="227"/>
       <c r="G80" s="55"/>
       <c r="H80" s="55"/>
       <c r="I80" s="55"/>
@@ -12749,17 +12779,17 @@
       <c r="BR80" s="55"/>
       <c r="BS80" s="55"/>
       <c r="BT80" s="56">
-        <f>SUM(G80:BR80)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C81" s="210"/>
-      <c r="D81" s="216" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="216"/>
-      <c r="F81" s="216"/>
+      <c r="C81" s="242"/>
+      <c r="D81" s="227" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="227"/>
+      <c r="F81" s="227"/>
       <c r="G81" s="55"/>
       <c r="H81" s="55"/>
       <c r="I81" s="55"/>
@@ -12826,17 +12856,17 @@
       <c r="BR81" s="55"/>
       <c r="BS81" s="55"/>
       <c r="BT81" s="56">
-        <f>SUM(G81:BR81)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C82" s="210"/>
-      <c r="D82" s="216" t="s">
-        <v>64</v>
-      </c>
-      <c r="E82" s="216"/>
-      <c r="F82" s="216"/>
+      <c r="C82" s="242"/>
+      <c r="D82" s="227" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="227"/>
+      <c r="F82" s="227"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55"/>
       <c r="I82" s="55"/>
@@ -12903,17 +12933,17 @@
       <c r="BR82" s="55"/>
       <c r="BS82" s="55"/>
       <c r="BT82" s="56">
-        <f>SUM(G82:BR82)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C83" s="210"/>
-      <c r="D83" s="216" t="s">
-        <v>65</v>
-      </c>
-      <c r="E83" s="216"/>
-      <c r="F83" s="216"/>
+      <c r="C83" s="242"/>
+      <c r="D83" s="227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="227"/>
+      <c r="F83" s="227"/>
       <c r="G83" s="55"/>
       <c r="H83" s="55"/>
       <c r="I83" s="55"/>
@@ -12980,17 +13010,17 @@
       <c r="BR83" s="55"/>
       <c r="BS83" s="55"/>
       <c r="BT83" s="56">
-        <f>SUM(G83:BR83)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C84" s="210"/>
-      <c r="D84" s="216" t="s">
-        <v>66</v>
-      </c>
-      <c r="E84" s="216"/>
-      <c r="F84" s="216"/>
+      <c r="C84" s="242"/>
+      <c r="D84" s="227" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="227"/>
+      <c r="F84" s="227"/>
       <c r="G84" s="55"/>
       <c r="H84" s="55"/>
       <c r="I84" s="55"/>
@@ -13057,17 +13087,17 @@
       <c r="BR84" s="55"/>
       <c r="BS84" s="55"/>
       <c r="BT84" s="56">
-        <f>SUM(G84:BR84)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C85" s="210"/>
-      <c r="D85" s="217" t="s">
-        <v>67</v>
-      </c>
-      <c r="E85" s="217"/>
-      <c r="F85" s="217"/>
+      <c r="C85" s="242"/>
+      <c r="D85" s="228" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="228"/>
+      <c r="F85" s="228"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
       <c r="I85" s="57"/>
@@ -13134,7 +13164,7 @@
       <c r="BR85" s="57"/>
       <c r="BS85" s="57"/>
       <c r="BT85" s="58">
-        <f>SUM(G85:BR85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13145,11 +13175,11 @@
       <c r="F86" s="10"/>
     </row>
     <row r="87" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="212" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" s="213" t="s">
-        <v>26</v>
+      <c r="C87" s="239" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="240" t="s">
+        <v>25</v>
       </c>
       <c r="E87" s="60"/>
       <c r="F87" s="61">
@@ -13316,13 +13346,13 @@
       </c>
       <c r="BR87" s="62"/>
       <c r="BS87" s="63">
-        <f>SUM(G87:BR87)</f>
+        <f t="shared" ref="BS87:BS109" si="9">SUM(G87:BR87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="212"/>
-      <c r="D88" s="213"/>
+      <c r="C88" s="239"/>
+      <c r="D88" s="240"/>
       <c r="E88" s="64"/>
       <c r="F88" s="65">
         <v>100</v>
@@ -13488,13 +13518,13 @@
       </c>
       <c r="BR88" s="66"/>
       <c r="BS88" s="67">
-        <f>SUM(G88:BR88)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="212"/>
-      <c r="D89" s="213"/>
+      <c r="C89" s="239"/>
+      <c r="D89" s="240"/>
       <c r="E89" s="64"/>
       <c r="F89" s="65">
         <v>2000</v>
@@ -13660,16 +13690,16 @@
       </c>
       <c r="BR89" s="66"/>
       <c r="BS89" s="67">
-        <f>SUM(G89:BR89)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="212"/>
-      <c r="D90" s="213"/>
+      <c r="C90" s="239"/>
+      <c r="D90" s="240"/>
       <c r="E90" s="68"/>
       <c r="F90" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G90" s="70">
         <f>SUM(G87:G89)</f>
@@ -13832,14 +13862,14 @@
       </c>
       <c r="BR90" s="70"/>
       <c r="BS90" s="71">
-        <f>SUM(G90:BR90)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="212"/>
-      <c r="D91" s="213" t="s">
-        <v>70</v>
+      <c r="C91" s="239"/>
+      <c r="D91" s="240" t="s">
+        <v>69</v>
       </c>
       <c r="E91" s="60"/>
       <c r="F91" s="61">
@@ -14006,13 +14036,13 @@
       </c>
       <c r="BR91" s="62"/>
       <c r="BS91" s="63">
-        <f>SUM(G91:BR91)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="212"/>
-      <c r="D92" s="213"/>
+      <c r="C92" s="239"/>
+      <c r="D92" s="240"/>
       <c r="E92" s="64"/>
       <c r="F92" s="65">
         <v>40</v>
@@ -14178,13 +14208,13 @@
       </c>
       <c r="BR92" s="66"/>
       <c r="BS92" s="67">
-        <f>SUM(G92:BR92)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="212"/>
-      <c r="D93" s="213"/>
+      <c r="C93" s="239"/>
+      <c r="D93" s="240"/>
       <c r="E93" s="64"/>
       <c r="F93" s="65">
         <v>2000</v>
@@ -14350,16 +14380,16 @@
       </c>
       <c r="BR93" s="66"/>
       <c r="BS93" s="67">
-        <f>SUM(G93:BR93)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="212"/>
-      <c r="D94" s="213"/>
+      <c r="C94" s="239"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="68"/>
       <c r="F94" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G94" s="70">
         <f>SUM(G91:G93)</f>
@@ -14522,14 +14552,14 @@
       </c>
       <c r="BR94" s="70"/>
       <c r="BS94" s="71">
-        <f>SUM(G94:BR94)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="212"/>
-      <c r="D95" s="213" t="s">
-        <v>71</v>
+      <c r="C95" s="239"/>
+      <c r="D95" s="240" t="s">
+        <v>70</v>
       </c>
       <c r="E95" s="60"/>
       <c r="F95" s="61">
@@ -14696,13 +14726,13 @@
       </c>
       <c r="BR95" s="62"/>
       <c r="BS95" s="63">
-        <f>SUM(G95:BR95)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="212"/>
-      <c r="D96" s="213"/>
+      <c r="C96" s="239"/>
+      <c r="D96" s="240"/>
       <c r="E96" s="64"/>
       <c r="F96" s="65">
         <v>200</v>
@@ -14868,13 +14898,13 @@
       </c>
       <c r="BR96" s="66"/>
       <c r="BS96" s="67">
-        <f>SUM(G96:BR96)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="212"/>
-      <c r="D97" s="213"/>
+      <c r="C97" s="239"/>
+      <c r="D97" s="240"/>
       <c r="E97" s="64"/>
       <c r="F97" s="65">
         <v>2000</v>
@@ -15040,16 +15070,16 @@
       </c>
       <c r="BR97" s="66"/>
       <c r="BS97" s="67">
-        <f>SUM(G97:BR97)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="212"/>
-      <c r="D98" s="213"/>
+      <c r="C98" s="239"/>
+      <c r="D98" s="240"/>
       <c r="E98" s="68"/>
       <c r="F98" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G98" s="66">
         <f>SUM(G95:G97)</f>
@@ -15212,14 +15242,14 @@
       </c>
       <c r="BR98" s="66"/>
       <c r="BS98" s="71">
-        <f>SUM(G98:BR98)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="212"/>
-      <c r="D99" s="213" t="s">
-        <v>31</v>
+      <c r="C99" s="239"/>
+      <c r="D99" s="240" t="s">
+        <v>30</v>
       </c>
       <c r="E99" s="60"/>
       <c r="F99" s="61">
@@ -15386,13 +15416,13 @@
       </c>
       <c r="BR99" s="62"/>
       <c r="BS99" s="63">
-        <f>SUM(G99:BR99)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="212"/>
-      <c r="D100" s="213"/>
+      <c r="C100" s="239"/>
+      <c r="D100" s="240"/>
       <c r="E100" s="64"/>
       <c r="F100" s="65">
         <v>300</v>
@@ -15558,13 +15588,13 @@
       </c>
       <c r="BR100" s="66"/>
       <c r="BS100" s="67">
-        <f>SUM(G100:BR100)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="212"/>
-      <c r="D101" s="213"/>
+      <c r="C101" s="239"/>
+      <c r="D101" s="240"/>
       <c r="E101" s="64"/>
       <c r="F101" s="65">
         <v>2000</v>
@@ -15730,16 +15760,16 @@
       </c>
       <c r="BR101" s="66"/>
       <c r="BS101" s="67">
-        <f>SUM(G101:BR101)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="212"/>
-      <c r="D102" s="213"/>
+      <c r="C102" s="239"/>
+      <c r="D102" s="240"/>
       <c r="E102" s="68"/>
       <c r="F102" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G102" s="66">
         <f>SUM(G99:G101)</f>
@@ -15902,14 +15932,14 @@
       </c>
       <c r="BR102" s="66"/>
       <c r="BS102" s="71">
-        <f>SUM(G102:BR102)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="212"/>
-      <c r="D103" s="213" t="s">
-        <v>32</v>
+      <c r="C103" s="239"/>
+      <c r="D103" s="240" t="s">
+        <v>31</v>
       </c>
       <c r="E103" s="60"/>
       <c r="F103" s="61">
@@ -16076,13 +16106,13 @@
       </c>
       <c r="BR103" s="62"/>
       <c r="BS103" s="63">
-        <f>SUM(G103:BR103)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="212"/>
-      <c r="D104" s="213"/>
+      <c r="C104" s="239"/>
+      <c r="D104" s="240"/>
       <c r="E104" s="64"/>
       <c r="F104" s="65">
         <v>300</v>
@@ -16248,13 +16278,13 @@
       </c>
       <c r="BR104" s="66"/>
       <c r="BS104" s="67">
-        <f>SUM(G104:BR104)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="212"/>
-      <c r="D105" s="213"/>
+      <c r="C105" s="239"/>
+      <c r="D105" s="240"/>
       <c r="E105" s="64"/>
       <c r="F105" s="65">
         <v>500</v>
@@ -16420,13 +16450,13 @@
       </c>
       <c r="BR105" s="66"/>
       <c r="BS105" s="67">
-        <f>SUM(G105:BR105)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="212"/>
-      <c r="D106" s="213"/>
+      <c r="C106" s="239"/>
+      <c r="D106" s="240"/>
       <c r="E106" s="64"/>
       <c r="F106" s="65">
         <v>800</v>
@@ -16592,13 +16622,13 @@
       </c>
       <c r="BR106" s="66"/>
       <c r="BS106" s="67">
-        <f>SUM(G106:BR106)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="212"/>
-      <c r="D107" s="213"/>
+      <c r="C107" s="239"/>
+      <c r="D107" s="240"/>
       <c r="E107" s="64"/>
       <c r="F107" s="65">
         <v>1000</v>
@@ -16764,13 +16794,13 @@
       </c>
       <c r="BR107" s="66"/>
       <c r="BS107" s="67">
-        <f>SUM(G107:BR107)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="212"/>
-      <c r="D108" s="213"/>
+      <c r="C108" s="239"/>
+      <c r="D108" s="240"/>
       <c r="E108" s="64"/>
       <c r="F108" s="65">
         <v>2000</v>
@@ -16936,16 +16966,16 @@
       </c>
       <c r="BR108" s="66"/>
       <c r="BS108" s="67">
-        <f>SUM(G108:BR108)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="212"/>
-      <c r="D109" s="213"/>
+      <c r="C109" s="239"/>
+      <c r="D109" s="240"/>
       <c r="E109" s="68"/>
       <c r="F109" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G109" s="74">
         <f>SUM(G103:G108)</f>
@@ -17108,7 +17138,7 @@
       </c>
       <c r="BR109" s="70"/>
       <c r="BS109" s="71">
-        <f>SUM(G109:BR109)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -17191,7 +17221,7 @@
       <c r="E111" s="77"/>
       <c r="F111" s="77"/>
       <c r="I111" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M111" s="49"/>
       <c r="N111" s="78" t="str">
@@ -17201,7 +17231,7 @@
       <c r="O111" s="10"/>
       <c r="P111" s="79"/>
       <c r="Q111" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R111" s="80"/>
       <c r="S111" s="81"/>
@@ -17221,7 +17251,7 @@
       <c r="E112" s="77"/>
       <c r="F112" s="77"/>
       <c r="I112" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M112" s="78"/>
       <c r="N112" s="78">
@@ -17230,25 +17260,25 @@
       </c>
       <c r="O112" s="78"/>
       <c r="P112" s="79"/>
-      <c r="Q112" s="221" t="s">
+      <c r="Q112" s="203" t="s">
+        <v>74</v>
+      </c>
+      <c r="R112" s="203"/>
+      <c r="S112" s="203"/>
+      <c r="T112" s="203"/>
+      <c r="U112" s="203"/>
+      <c r="V112" s="203"/>
+      <c r="W112" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="R112" s="221"/>
-      <c r="S112" s="221"/>
-      <c r="T112" s="221"/>
-      <c r="U112" s="221"/>
-      <c r="V112" s="221"/>
-      <c r="W112" s="221" t="s">
+      <c r="X112" s="203"/>
+      <c r="Y112" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="X112" s="221"/>
-      <c r="Y112" s="221" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z112" s="221"/>
-      <c r="AA112" s="221"/>
+      <c r="Z112" s="203"/>
+      <c r="AA112" s="203"/>
       <c r="AB112" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17257,27 +17287,27 @@
       <c r="E113" s="77"/>
       <c r="F113" s="77"/>
       <c r="I113" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M113" s="83"/>
       <c r="N113" s="83"/>
       <c r="O113" s="78"/>
       <c r="P113" s="79"/>
-      <c r="Q113" s="221"/>
-      <c r="R113" s="221"/>
-      <c r="S113" s="221"/>
-      <c r="T113" s="221"/>
-      <c r="U113" s="221"/>
-      <c r="V113" s="221"/>
-      <c r="W113" s="221"/>
-      <c r="X113" s="221"/>
-      <c r="Y113" s="222" t="s">
+      <c r="Q113" s="203"/>
+      <c r="R113" s="203"/>
+      <c r="S113" s="203"/>
+      <c r="T113" s="203"/>
+      <c r="U113" s="203"/>
+      <c r="V113" s="203"/>
+      <c r="W113" s="203"/>
+      <c r="X113" s="203"/>
+      <c r="Y113" s="204" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z113" s="204"/>
+      <c r="AA113" s="204"/>
+      <c r="AB113" s="84" t="s">
         <v>79</v>
-      </c>
-      <c r="Z113" s="222"/>
-      <c r="AA113" s="222"/>
-      <c r="AB113" s="84" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="114" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17286,12 +17316,12 @@
       <c r="E114" s="77"/>
       <c r="F114" s="77"/>
       <c r="I114" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M114" s="78"/>
-      <c r="N114" s="78" t="str">
+      <c r="N114" s="78">
         <f>W3</f>
-        <v>SAMR22DH269</v>
+        <v>0</v>
       </c>
       <c r="O114" s="78"/>
       <c r="P114" s="79"/>
@@ -17301,15 +17331,15 @@
       <c r="T114" s="85"/>
       <c r="U114" s="85"/>
       <c r="V114" s="85"/>
-      <c r="W114" s="223"/>
-      <c r="X114" s="223"/>
-      <c r="Y114" s="223"/>
-      <c r="Z114" s="223"/>
-      <c r="AA114" s="224">
+      <c r="W114" s="231"/>
+      <c r="X114" s="231"/>
+      <c r="Y114" s="231"/>
+      <c r="Z114" s="231"/>
+      <c r="AA114" s="208">
         <f>W114*Y114</f>
         <v>0</v>
       </c>
-      <c r="AB114" s="224"/>
+      <c r="AB114" s="208"/>
       <c r="AC114" s="86"/>
       <c r="AD114" s="86"/>
     </row>
@@ -17319,7 +17349,7 @@
       <c r="E115" s="77"/>
       <c r="F115" s="77"/>
       <c r="I115" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M115" s="78"/>
       <c r="N115" s="78" t="str">
@@ -17334,15 +17364,15 @@
       <c r="T115" s="87"/>
       <c r="U115" s="87"/>
       <c r="V115" s="87"/>
-      <c r="W115" s="225"/>
-      <c r="X115" s="225"/>
+      <c r="W115" s="232"/>
+      <c r="X115" s="232"/>
       <c r="Y115" s="88"/>
       <c r="Z115" s="88"/>
-      <c r="AA115" s="220">
+      <c r="AA115" s="198">
         <f>W115*Z115</f>
         <v>0</v>
       </c>
-      <c r="AB115" s="220"/>
+      <c r="AB115" s="198"/>
       <c r="AC115" s="86"/>
       <c r="AD115" s="86"/>
     </row>
@@ -17352,7 +17382,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="I116" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J116" s="10"/>
       <c r="K116" s="10"/>
@@ -17366,33 +17396,33 @@
       <c r="T116" s="87"/>
       <c r="U116" s="87"/>
       <c r="V116" s="87"/>
-      <c r="W116" s="226"/>
-      <c r="X116" s="226"/>
+      <c r="W116" s="233"/>
+      <c r="X116" s="233"/>
       <c r="Y116" s="87"/>
       <c r="Z116" s="88"/>
-      <c r="AA116" s="220">
+      <c r="AA116" s="198">
         <f>W116*Z116</f>
         <v>0</v>
       </c>
-      <c r="AB116" s="220"/>
+      <c r="AB116" s="198"/>
       <c r="AC116" s="86"/>
       <c r="AD116" s="86"/>
     </row>
     <row r="117" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D117" s="92"/>
       <c r="E117" s="92"/>
       <c r="F117" s="92"/>
       <c r="I117" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M117" s="227">
+        <v>84</v>
+      </c>
+      <c r="M117" s="225">
         <f>G8</f>
         <v>44743</v>
       </c>
-      <c r="N117" s="227"/>
+      <c r="N117" s="225"/>
       <c r="O117" s="93"/>
       <c r="P117" s="79"/>
       <c r="Q117" s="87"/>
@@ -17405,17 +17435,17 @@
       <c r="X117" s="88"/>
       <c r="Y117" s="88"/>
       <c r="Z117" s="88"/>
-      <c r="AA117" s="220">
-        <f t="shared" ref="AA117:AA136" si="5">Z117*X117</f>
-        <v>0</v>
-      </c>
-      <c r="AB117" s="220"/>
+      <c r="AA117" s="198">
+        <f t="shared" ref="AA117:AA136" si="10">Z117*X117</f>
+        <v>0</v>
+      </c>
+      <c r="AB117" s="198"/>
       <c r="AC117" s="86"/>
       <c r="AD117" s="86"/>
     </row>
     <row r="118" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D118" s="95"/>
       <c r="E118" s="95"/>
@@ -17423,13 +17453,13 @@
       <c r="G118" s="96"/>
       <c r="H118" s="96"/>
       <c r="I118" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M118" s="227">
+        <v>86</v>
+      </c>
+      <c r="M118" s="225">
         <f>BK8</f>
         <v>44757</v>
       </c>
-      <c r="N118" s="227"/>
+      <c r="N118" s="225"/>
       <c r="O118" s="93"/>
       <c r="P118" s="79"/>
       <c r="Q118" s="87"/>
@@ -17442,17 +17472,17 @@
       <c r="X118" s="88"/>
       <c r="Y118" s="88"/>
       <c r="Z118" s="88"/>
-      <c r="AA118" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB118" s="220"/>
+      <c r="AA118" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB118" s="198"/>
       <c r="AC118" s="86"/>
       <c r="AD118" s="86"/>
     </row>
     <row r="119" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D119" s="95"/>
       <c r="E119" s="95"/>
@@ -17460,13 +17490,13 @@
       <c r="G119" s="96"/>
       <c r="H119" s="96"/>
       <c r="I119" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M119" s="231">
+        <v>88</v>
+      </c>
+      <c r="M119" s="226">
         <f>D127+D130+D133+D137+D140</f>
         <v>0</v>
       </c>
-      <c r="N119" s="231"/>
+      <c r="N119" s="226"/>
       <c r="O119" s="97"/>
       <c r="P119" s="79"/>
       <c r="Q119" s="87"/>
@@ -17479,17 +17509,17 @@
       <c r="X119" s="88"/>
       <c r="Y119" s="88"/>
       <c r="Z119" s="88"/>
-      <c r="AA119" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB119" s="220"/>
+      <c r="AA119" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB119" s="198"/>
       <c r="AC119" s="86"/>
       <c r="AD119" s="86"/>
     </row>
     <row r="120" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D120" s="95"/>
       <c r="E120" s="95"/>
@@ -17514,17 +17544,17 @@
       <c r="X120" s="88"/>
       <c r="Y120" s="88"/>
       <c r="Z120" s="88"/>
-      <c r="AA120" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB120" s="220"/>
+      <c r="AA120" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB120" s="198"/>
       <c r="AC120" s="86"/>
       <c r="AD120" s="86"/>
     </row>
     <row r="121" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D121" s="95"/>
       <c r="E121" s="95"/>
@@ -17532,16 +17562,16 @@
       <c r="G121" s="96"/>
       <c r="H121" s="96"/>
       <c r="I121" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J121" s="100"/>
       <c r="K121" s="100"/>
       <c r="L121" s="100"/>
-      <c r="M121" s="228">
+      <c r="M121" s="234">
         <f>AA169</f>
         <v>0</v>
       </c>
-      <c r="N121" s="228"/>
+      <c r="N121" s="234"/>
       <c r="O121" s="97"/>
       <c r="P121" s="79"/>
       <c r="Q121" s="87"/>
@@ -17554,11 +17584,11 @@
       <c r="X121" s="88"/>
       <c r="Y121" s="88"/>
       <c r="Z121" s="88"/>
-      <c r="AA121" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB121" s="220"/>
+      <c r="AA121" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB121" s="198"/>
       <c r="AC121" s="86"/>
       <c r="AD121" s="86"/>
     </row>
@@ -17580,17 +17610,17 @@
       <c r="X122" s="88"/>
       <c r="Y122" s="88"/>
       <c r="Z122" s="88"/>
-      <c r="AA122" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB122" s="220"/>
+      <c r="AA122" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB122" s="198"/>
       <c r="AC122" s="86"/>
       <c r="AD122" s="86"/>
     </row>
     <row r="123" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M123" s="83"/>
       <c r="N123" s="83"/>
@@ -17606,40 +17636,40 @@
       <c r="X123" s="88"/>
       <c r="Y123" s="88"/>
       <c r="Z123" s="88"/>
-      <c r="AA123" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB123" s="220"/>
+      <c r="AA123" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB123" s="198"/>
       <c r="AC123" s="86"/>
       <c r="AD123" s="86"/>
     </row>
     <row r="124" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="219" t="s">
+      <c r="C124" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E124" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="F124" s="217" t="s">
         <v>94</v>
       </c>
-      <c r="D124" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="E124" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="F124" s="219" t="s">
-        <v>95</v>
-      </c>
-      <c r="G124" s="219"/>
+      <c r="G124" s="217"/>
       <c r="H124" s="101"/>
       <c r="I124" s="101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J124" s="101"/>
       <c r="K124" s="101"/>
       <c r="L124" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M124" s="102"/>
       <c r="N124" s="102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O124" s="97"/>
       <c r="P124" s="79"/>
@@ -17653,38 +17683,38 @@
       <c r="X124" s="88"/>
       <c r="Y124" s="88"/>
       <c r="Z124" s="88"/>
-      <c r="AA124" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB124" s="220"/>
+      <c r="AA124" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB124" s="198"/>
       <c r="AC124" s="86"/>
       <c r="AD124" s="86"/>
     </row>
     <row r="125" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="219"/>
+      <c r="C125" s="217"/>
       <c r="D125" s="103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125" s="103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F125" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="G125" s="103" t="s">
         <v>98</v>
-      </c>
-      <c r="G125" s="103" t="s">
-        <v>99</v>
       </c>
       <c r="H125" s="103"/>
       <c r="I125" s="103"/>
       <c r="J125" s="103"/>
       <c r="K125" s="103"/>
       <c r="L125" s="103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M125" s="104"/>
       <c r="N125" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O125" s="97"/>
       <c r="P125" s="79"/>
@@ -17698,11 +17728,11 @@
       <c r="X125" s="88"/>
       <c r="Y125" s="88"/>
       <c r="Z125" s="88"/>
-      <c r="AA125" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB125" s="220"/>
+      <c r="AA125" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB125" s="198"/>
       <c r="AC125" s="86"/>
       <c r="AD125" s="86"/>
     </row>
@@ -17723,11 +17753,11 @@
       <c r="L126" s="105">
         <v>5</v>
       </c>
-      <c r="M126" s="234">
-        <f t="shared" ref="M126:M144" si="6">I126*L126</f>
-        <v>0</v>
-      </c>
-      <c r="N126" s="234"/>
+      <c r="M126" s="222">
+        <f t="shared" ref="M126:M144" si="11">I126*L126</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="222"/>
       <c r="O126" s="97"/>
       <c r="P126" s="79"/>
       <c r="Q126" s="87"/>
@@ -17740,17 +17770,17 @@
       <c r="X126" s="88"/>
       <c r="Y126" s="88"/>
       <c r="Z126" s="88"/>
-      <c r="AA126" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB126" s="220"/>
+      <c r="AA126" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB126" s="198"/>
       <c r="AC126" s="86"/>
       <c r="AD126" s="86"/>
     </row>
     <row r="127" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127" s="37">
         <f>SUM(I126:I128)</f>
@@ -17776,11 +17806,11 @@
       <c r="L127" s="105">
         <v>5</v>
       </c>
-      <c r="M127" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N127" s="230"/>
+      <c r="M127" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="207"/>
       <c r="O127" s="97"/>
       <c r="P127" s="79"/>
       <c r="Q127" s="87"/>
@@ -17793,11 +17823,11 @@
       <c r="X127" s="88"/>
       <c r="Y127" s="88"/>
       <c r="Z127" s="88"/>
-      <c r="AA127" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB127" s="220"/>
+      <c r="AA127" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB127" s="198"/>
       <c r="AC127" s="86"/>
       <c r="AD127" s="86"/>
     </row>
@@ -17808,7 +17838,7 @@
         <v>100</v>
       </c>
       <c r="G128" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H128" s="75"/>
       <c r="I128" s="105">
@@ -17820,11 +17850,11 @@
       <c r="L128" s="105">
         <v>5</v>
       </c>
-      <c r="M128" s="233">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N128" s="233"/>
+      <c r="M128" s="220">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="220"/>
       <c r="O128" s="97"/>
       <c r="P128" s="79"/>
       <c r="Q128" s="87"/>
@@ -17837,11 +17867,11 @@
       <c r="X128" s="88"/>
       <c r="Y128" s="88"/>
       <c r="Z128" s="88"/>
-      <c r="AA128" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB128" s="220"/>
+      <c r="AA128" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB128" s="198"/>
       <c r="AC128" s="86"/>
       <c r="AD128" s="86"/>
     </row>
@@ -17865,11 +17895,11 @@
       <c r="L129" s="108">
         <v>5</v>
       </c>
-      <c r="M129" s="229">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N129" s="229"/>
+      <c r="M129" s="221">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="221"/>
       <c r="O129" s="109"/>
       <c r="P129" s="79"/>
       <c r="Q129" s="87"/>
@@ -17882,17 +17912,17 @@
       <c r="X129" s="88"/>
       <c r="Y129" s="88"/>
       <c r="Z129" s="88"/>
-      <c r="AA129" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB129" s="220"/>
+      <c r="AA129" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB129" s="198"/>
       <c r="AC129" s="86"/>
       <c r="AD129" s="86"/>
     </row>
     <row r="130" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D130" s="105">
         <f>SUM(I129:I131)</f>
@@ -17918,11 +17948,11 @@
       <c r="L130" s="105">
         <v>5</v>
       </c>
-      <c r="M130" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N130" s="230"/>
+      <c r="M130" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N130" s="207"/>
       <c r="P130" s="79"/>
       <c r="Q130" s="87"/>
       <c r="R130" s="87"/>
@@ -17934,11 +17964,11 @@
       <c r="X130" s="88"/>
       <c r="Y130" s="88"/>
       <c r="Z130" s="88"/>
-      <c r="AA130" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB130" s="220"/>
+      <c r="AA130" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB130" s="198"/>
       <c r="AC130" s="86"/>
       <c r="AD130" s="37"/>
     </row>
@@ -17949,7 +17979,7 @@
         <v>40</v>
       </c>
       <c r="G131" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H131" s="75"/>
       <c r="I131" s="105">
@@ -17961,11 +17991,11 @@
       <c r="L131" s="105">
         <v>5</v>
       </c>
-      <c r="M131" s="233">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N131" s="233"/>
+      <c r="M131" s="220">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N131" s="220"/>
       <c r="P131" s="79"/>
       <c r="Q131" s="87"/>
       <c r="R131" s="87"/>
@@ -17977,11 +18007,11 @@
       <c r="X131" s="88"/>
       <c r="Y131" s="88"/>
       <c r="Z131" s="88"/>
-      <c r="AA131" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB131" s="220"/>
+      <c r="AA131" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB131" s="198"/>
       <c r="AC131" s="86"/>
       <c r="AD131" s="86"/>
     </row>
@@ -18005,11 +18035,11 @@
       <c r="L132" s="108">
         <v>0</v>
       </c>
-      <c r="M132" s="229">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N132" s="229"/>
+      <c r="M132" s="221">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N132" s="221"/>
       <c r="P132" s="79"/>
       <c r="Q132" s="87"/>
       <c r="R132" s="87"/>
@@ -18021,16 +18051,16 @@
       <c r="X132" s="88"/>
       <c r="Y132" s="88"/>
       <c r="Z132" s="88"/>
-      <c r="AA132" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB132" s="220"/>
+      <c r="AA132" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB132" s="198"/>
       <c r="AC132" s="86"/>
     </row>
     <row r="133" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D133" s="105">
         <f>SUM(I132:I135)</f>
@@ -18056,11 +18086,11 @@
       <c r="L133" s="105">
         <v>0</v>
       </c>
-      <c r="M133" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N133" s="230"/>
+      <c r="M133" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N133" s="207"/>
       <c r="O133" s="75"/>
       <c r="P133" s="79"/>
       <c r="Q133" s="87"/>
@@ -18073,11 +18103,11 @@
       <c r="X133" s="110"/>
       <c r="Y133" s="110"/>
       <c r="Z133" s="110"/>
-      <c r="AA133" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB133" s="220"/>
+      <c r="AA133" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB133" s="198"/>
       <c r="AC133" s="86"/>
     </row>
     <row r="134" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18100,11 +18130,11 @@
       <c r="L134" s="105">
         <v>0</v>
       </c>
-      <c r="M134" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N134" s="230"/>
+      <c r="M134" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N134" s="207"/>
       <c r="O134" s="75"/>
       <c r="P134" s="79"/>
       <c r="Q134" s="87"/>
@@ -18117,11 +18147,11 @@
       <c r="X134" s="88"/>
       <c r="Y134" s="88"/>
       <c r="Z134" s="88"/>
-      <c r="AA134" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB134" s="220"/>
+      <c r="AA134" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB134" s="198"/>
       <c r="AC134" s="86"/>
     </row>
     <row r="135" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18132,7 +18162,7 @@
         <v>300</v>
       </c>
       <c r="G135" s="112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H135" s="112"/>
       <c r="I135" s="105">
@@ -18143,11 +18173,11 @@
       <c r="L135" s="105">
         <v>0</v>
       </c>
-      <c r="M135" s="235">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N135" s="235"/>
+      <c r="M135" s="223">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="223"/>
       <c r="P135" s="79"/>
       <c r="Q135" s="87"/>
       <c r="R135" s="87"/>
@@ -18159,11 +18189,11 @@
       <c r="X135" s="88"/>
       <c r="Y135" s="88"/>
       <c r="Z135" s="88"/>
-      <c r="AA135" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB135" s="220"/>
+      <c r="AA135" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB135" s="198"/>
       <c r="AC135" s="86"/>
     </row>
     <row r="136" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18183,11 +18213,11 @@
       <c r="L136" s="108">
         <v>11</v>
       </c>
-      <c r="M136" s="236">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N136" s="236"/>
+      <c r="M136" s="224">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N136" s="224"/>
       <c r="P136" s="79"/>
       <c r="Q136" s="87"/>
       <c r="R136" s="87"/>
@@ -18199,16 +18229,16 @@
       <c r="X136" s="88"/>
       <c r="Y136" s="88"/>
       <c r="Z136" s="88"/>
-      <c r="AA136" s="220">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB136" s="220"/>
+      <c r="AA136" s="198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB136" s="198"/>
       <c r="AC136" s="86"/>
     </row>
     <row r="137" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D137" s="105">
         <f>SUM(I136:I138)</f>
@@ -18234,14 +18264,14 @@
       <c r="L137" s="105">
         <v>11</v>
       </c>
-      <c r="M137" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N137" s="230"/>
+      <c r="M137" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N137" s="207"/>
       <c r="P137" s="79"/>
       <c r="Q137" s="115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R137" s="115"/>
       <c r="S137" s="115"/>
@@ -18252,11 +18282,11 @@
       <c r="X137" s="117"/>
       <c r="Y137" s="118"/>
       <c r="Z137" s="118"/>
-      <c r="AA137" s="232">
+      <c r="AA137" s="209">
         <f>(SUM(AA114:AB136)*X137)</f>
         <v>0</v>
       </c>
-      <c r="AB137" s="232"/>
+      <c r="AB137" s="209"/>
       <c r="AC137" s="86"/>
     </row>
     <row r="138" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18267,7 +18297,7 @@
         <v>300</v>
       </c>
       <c r="G138" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H138" s="75"/>
       <c r="I138" s="105">
@@ -18279,14 +18309,14 @@
       <c r="L138" s="105">
         <v>11</v>
       </c>
-      <c r="M138" s="233">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N138" s="233"/>
+      <c r="M138" s="220">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N138" s="220"/>
       <c r="P138" s="79"/>
       <c r="Q138" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R138" s="119"/>
       <c r="S138" s="119"/>
@@ -18297,11 +18327,11 @@
       <c r="X138" s="122"/>
       <c r="Y138" s="122"/>
       <c r="Z138" s="123"/>
-      <c r="AA138" s="237">
+      <c r="AA138" s="211">
         <f>SUM(AA114:AB137)</f>
         <v>0</v>
       </c>
-      <c r="AB138" s="237"/>
+      <c r="AB138" s="211"/>
       <c r="AC138" s="86"/>
     </row>
     <row r="139" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18316,7 +18346,7 @@
       </c>
       <c r="H139" s="107"/>
       <c r="I139" s="108">
-        <f t="shared" ref="I139:I144" si="7">BS103</f>
+        <f t="shared" ref="I139:I144" si="12">BS103</f>
         <v>0</v>
       </c>
       <c r="J139" s="108"/>
@@ -18324,11 +18354,11 @@
       <c r="L139" s="108">
         <v>10</v>
       </c>
-      <c r="M139" s="229">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N139" s="229"/>
+      <c r="M139" s="221">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N139" s="221"/>
       <c r="P139" s="79"/>
       <c r="AA139" s="37"/>
       <c r="AB139" s="37"/>
@@ -18336,7 +18366,7 @@
     </row>
     <row r="140" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D140" s="105">
         <f>SUM(I139:I144)</f>
@@ -18354,7 +18384,7 @@
       </c>
       <c r="H140" s="75"/>
       <c r="I140" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J140" s="105"/>
@@ -18362,14 +18392,14 @@
       <c r="L140" s="105">
         <v>10</v>
       </c>
-      <c r="M140" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N140" s="230"/>
+      <c r="M140" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N140" s="207"/>
       <c r="P140" s="79"/>
       <c r="Q140" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R140" s="80"/>
       <c r="S140" s="81"/>
@@ -18396,7 +18426,7 @@
       </c>
       <c r="H141" s="75"/>
       <c r="I141" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J141" s="105"/>
@@ -18404,31 +18434,31 @@
       <c r="L141" s="105">
         <v>10</v>
       </c>
-      <c r="M141" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N141" s="230"/>
+      <c r="M141" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N141" s="207"/>
       <c r="P141" s="79"/>
-      <c r="Q141" s="221" t="s">
-        <v>75</v>
-      </c>
-      <c r="R141" s="221"/>
-      <c r="S141" s="221"/>
-      <c r="T141" s="221"/>
+      <c r="Q141" s="203" t="s">
+        <v>74</v>
+      </c>
+      <c r="R141" s="203"/>
+      <c r="S141" s="203"/>
+      <c r="T141" s="203"/>
       <c r="U141" s="125"/>
       <c r="V141" s="125"/>
-      <c r="W141" s="221" t="s">
+      <c r="W141" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="X141" s="203"/>
+      <c r="Y141" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="X141" s="221"/>
-      <c r="Y141" s="221" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z141" s="221"/>
-      <c r="AA141" s="221"/>
+      <c r="Z141" s="203"/>
+      <c r="AA141" s="203"/>
       <c r="AB141" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18443,7 +18473,7 @@
       </c>
       <c r="H142" s="75"/>
       <c r="I142" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J142" s="105"/>
@@ -18451,27 +18481,27 @@
       <c r="L142" s="105">
         <v>10</v>
       </c>
-      <c r="M142" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N142" s="230"/>
+      <c r="M142" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N142" s="207"/>
       <c r="P142" s="79"/>
-      <c r="Q142" s="221"/>
-      <c r="R142" s="221"/>
-      <c r="S142" s="221"/>
-      <c r="T142" s="221"/>
+      <c r="Q142" s="203"/>
+      <c r="R142" s="203"/>
+      <c r="S142" s="203"/>
+      <c r="T142" s="203"/>
       <c r="U142" s="12"/>
       <c r="V142" s="12"/>
-      <c r="W142" s="221"/>
-      <c r="X142" s="221"/>
-      <c r="Y142" s="222" t="s">
+      <c r="W142" s="203"/>
+      <c r="X142" s="203"/>
+      <c r="Y142" s="204" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z142" s="204"/>
+      <c r="AA142" s="204"/>
+      <c r="AB142" s="84" t="s">
         <v>79</v>
-      </c>
-      <c r="Z142" s="222"/>
-      <c r="AA142" s="222"/>
-      <c r="AB142" s="84" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="143" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18486,7 +18516,7 @@
       </c>
       <c r="H143" s="75"/>
       <c r="I143" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J143" s="105"/>
@@ -18494,14 +18524,14 @@
       <c r="L143" s="105">
         <v>10</v>
       </c>
-      <c r="M143" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N143" s="230"/>
+      <c r="M143" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N143" s="207"/>
       <c r="P143" s="79"/>
       <c r="Q143" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R143" s="85"/>
       <c r="S143" s="85"/>
@@ -18514,11 +18544,11 @@
       <c r="Z143" s="126">
         <v>2500</v>
       </c>
-      <c r="AA143" s="224">
+      <c r="AA143" s="208">
         <f>X143*Z143</f>
         <v>0</v>
       </c>
-      <c r="AB143" s="224"/>
+      <c r="AB143" s="208"/>
       <c r="AC143" s="86"/>
     </row>
     <row r="144" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18533,7 +18563,7 @@
       </c>
       <c r="H144" s="75"/>
       <c r="I144" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J144" s="105"/>
@@ -18541,14 +18571,14 @@
       <c r="L144" s="105">
         <v>10</v>
       </c>
-      <c r="M144" s="230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N144" s="230"/>
+      <c r="M144" s="207">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N144" s="207"/>
       <c r="P144" s="79"/>
       <c r="Q144" s="87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R144" s="87"/>
       <c r="S144" s="87"/>
@@ -18561,16 +18591,16 @@
       <c r="Z144" s="128">
         <v>2500</v>
       </c>
-      <c r="AA144" s="220">
+      <c r="AA144" s="198">
         <f>X144*Z144</f>
         <v>0</v>
       </c>
-      <c r="AB144" s="220"/>
+      <c r="AB144" s="198"/>
       <c r="AC144" s="86"/>
     </row>
     <row r="145" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D145" s="130"/>
       <c r="E145" s="130"/>
@@ -18581,21 +18611,21 @@
       <c r="J145" s="132"/>
       <c r="K145" s="132"/>
       <c r="L145" s="132"/>
-      <c r="M145" s="238">
+      <c r="M145" s="210">
         <f>SUM(M126:N144)</f>
         <v>0</v>
       </c>
-      <c r="N145" s="238"/>
+      <c r="N145" s="210"/>
       <c r="P145" s="79"/>
       <c r="Q145" s="87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R145" s="87"/>
       <c r="S145" s="87"/>
       <c r="T145" s="87"/>
       <c r="U145" s="87"/>
       <c r="V145" s="133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W145" s="134"/>
       <c r="X145" s="90">
@@ -18606,11 +18636,11 @@
       <c r="Z145" s="110">
         <v>5</v>
       </c>
-      <c r="AA145" s="220">
+      <c r="AA145" s="198">
         <f>X145*Z145</f>
         <v>0</v>
       </c>
-      <c r="AB145" s="220"/>
+      <c r="AB145" s="198"/>
       <c r="AC145" s="86"/>
     </row>
     <row r="146" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18646,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F147" s="75"/>
       <c r="G147" s="75"/>
@@ -18659,7 +18689,7 @@
       <c r="N147" s="37"/>
       <c r="P147" s="79"/>
       <c r="Q147" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R147" s="87"/>
       <c r="S147" s="87"/>
@@ -18675,37 +18705,37 @@
       </c>
       <c r="Y147" s="128"/>
       <c r="Z147" s="128"/>
-      <c r="AA147" s="220">
+      <c r="AA147" s="198">
         <f>W147*X147</f>
         <v>0</v>
       </c>
-      <c r="AB147" s="220"/>
+      <c r="AB147" s="198"/>
       <c r="AC147" s="86"/>
     </row>
     <row r="148" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="219" t="s">
-        <v>75</v>
-      </c>
-      <c r="D148" s="219"/>
-      <c r="E148" s="219"/>
-      <c r="F148" s="219"/>
-      <c r="G148" s="219"/>
+      <c r="C148" s="217" t="s">
+        <v>74</v>
+      </c>
+      <c r="D148" s="217"/>
+      <c r="E148" s="217"/>
+      <c r="F148" s="217"/>
+      <c r="G148" s="217"/>
       <c r="H148" s="101"/>
       <c r="I148" s="101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J148" s="101"/>
       <c r="K148" s="101"/>
       <c r="L148" s="101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M148" s="138"/>
       <c r="N148" s="139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P148" s="79"/>
       <c r="Q148" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R148" s="87"/>
       <c r="S148" s="87"/>
@@ -18721,35 +18751,35 @@
       </c>
       <c r="Y148" s="118"/>
       <c r="Z148" s="118"/>
-      <c r="AA148" s="232">
+      <c r="AA148" s="209">
         <f>W148*X148</f>
         <v>0</v>
       </c>
-      <c r="AB148" s="232"/>
+      <c r="AB148" s="209"/>
       <c r="AC148" s="86"/>
     </row>
     <row r="149" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="219"/>
-      <c r="D149" s="219"/>
-      <c r="E149" s="219"/>
-      <c r="F149" s="219"/>
-      <c r="G149" s="219"/>
+      <c r="C149" s="217"/>
+      <c r="D149" s="217"/>
+      <c r="E149" s="217"/>
+      <c r="F149" s="217"/>
+      <c r="G149" s="217"/>
       <c r="H149" s="103"/>
       <c r="I149" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J149" s="103"/>
       <c r="K149" s="103"/>
       <c r="L149" s="103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M149" s="140"/>
       <c r="N149" s="141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P149" s="79"/>
       <c r="Q149" s="119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R149" s="119"/>
       <c r="S149" s="20"/>
@@ -18760,11 +18790,11 @@
       <c r="X149" s="143"/>
       <c r="Y149" s="143"/>
       <c r="Z149" s="144"/>
-      <c r="AA149" s="237">
+      <c r="AA149" s="211">
         <f>SUM(AA143:AB148)</f>
         <v>0</v>
       </c>
-      <c r="AB149" s="237"/>
+      <c r="AB149" s="211"/>
       <c r="AC149" s="86"/>
     </row>
     <row r="150" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18772,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="145" t="str">
-        <f t="shared" ref="C150:C168" si="8">D44</f>
+        <f t="shared" ref="C150:C168" si="13">D44</f>
         <v>MOVIMIENTO/DESMANTELAMIENTO</v>
       </c>
       <c r="D150" s="145"/>
@@ -18781,19 +18811,19 @@
       <c r="G150" s="145"/>
       <c r="H150" s="145"/>
       <c r="I150" s="147">
-        <f t="shared" ref="I150:I168" si="9">BS44</f>
+        <f t="shared" ref="I150:I168" si="14">BS44</f>
         <v>0</v>
       </c>
       <c r="J150" s="147"/>
-      <c r="K150" s="239">
+      <c r="K150" s="218">
         <v>8</v>
       </c>
-      <c r="L150" s="239"/>
-      <c r="M150" s="240">
+      <c r="L150" s="218"/>
+      <c r="M150" s="197">
         <f>IF(I150&gt;24,(I150-24)*K150,0)</f>
         <v>0</v>
       </c>
-      <c r="N150" s="240"/>
+      <c r="N150" s="197"/>
       <c r="P150" s="79"/>
       <c r="Q150" s="87"/>
       <c r="R150" s="87"/>
@@ -18802,9 +18832,9 @@
       <c r="U150" s="87"/>
       <c r="V150" s="87"/>
       <c r="W150" s="90"/>
-      <c r="X150" s="241"/>
-      <c r="Y150" s="241"/>
-      <c r="Z150" s="241"/>
+      <c r="X150" s="219"/>
+      <c r="Y150" s="219"/>
+      <c r="Z150" s="219"/>
       <c r="AA150" s="86"/>
       <c r="AM150" s="148"/>
       <c r="AN150" s="148"/>
@@ -18814,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>ENCAMISADO</v>
       </c>
       <c r="D151" s="149"/>
@@ -18823,22 +18853,22 @@
       <c r="G151" s="149"/>
       <c r="H151" s="149"/>
       <c r="I151" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J151" s="151"/>
-      <c r="K151" s="246">
-        <v>0</v>
-      </c>
-      <c r="L151" s="246"/>
-      <c r="M151" s="240">
-        <f t="shared" ref="M151:M168" si="10">I151*K151</f>
-        <v>0</v>
-      </c>
-      <c r="N151" s="240"/>
+      <c r="K151" s="196">
+        <v>0</v>
+      </c>
+      <c r="L151" s="196"/>
+      <c r="M151" s="197">
+        <f t="shared" ref="M151:M168" si="15">I151*K151</f>
+        <v>0</v>
+      </c>
+      <c r="N151" s="197"/>
       <c r="P151" s="79"/>
       <c r="Q151" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R151" s="80"/>
       <c r="S151" s="81"/>
@@ -18860,7 +18890,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>PERFORACIÓN</v>
       </c>
       <c r="D152" s="149"/>
@@ -18869,45 +18899,45 @@
       <c r="G152" s="149"/>
       <c r="H152" s="149"/>
       <c r="I152" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J152" s="151"/>
-      <c r="K152" s="246">
-        <v>0</v>
-      </c>
-      <c r="L152" s="246"/>
-      <c r="M152" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N152" s="240"/>
+      <c r="K152" s="196">
+        <v>0</v>
+      </c>
+      <c r="L152" s="196"/>
+      <c r="M152" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N152" s="197"/>
       <c r="P152" s="79"/>
-      <c r="Q152" s="221" t="s">
+      <c r="Q152" s="203" t="s">
+        <v>74</v>
+      </c>
+      <c r="R152" s="203"/>
+      <c r="S152" s="203"/>
+      <c r="T152" s="203"/>
+      <c r="U152" s="203"/>
+      <c r="W152" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="R152" s="221"/>
-      <c r="S152" s="221"/>
-      <c r="T152" s="221"/>
-      <c r="U152" s="221"/>
-      <c r="W152" s="152" t="s">
+      <c r="X152" s="152"/>
+      <c r="Y152" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="X152" s="152"/>
-      <c r="Y152" s="221" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z152" s="221"/>
-      <c r="AA152" s="221"/>
+      <c r="Z152" s="203"/>
+      <c r="AA152" s="203"/>
       <c r="AB152" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC152" s="135"/>
       <c r="AD152" s="86"/>
     </row>
     <row r="153" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>MOVILIZAC / DESMOVILIZ DESDE BASE</v>
       </c>
       <c r="D153" s="149"/>
@@ -18916,43 +18946,43 @@
       <c r="G153" s="149"/>
       <c r="H153" s="149"/>
       <c r="I153" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J153" s="151"/>
-      <c r="K153" s="246">
-        <v>0</v>
-      </c>
-      <c r="L153" s="246"/>
-      <c r="M153" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N153" s="240"/>
+      <c r="K153" s="196">
+        <v>0</v>
+      </c>
+      <c r="L153" s="196"/>
+      <c r="M153" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N153" s="197"/>
       <c r="O153" s="37"/>
       <c r="P153" s="79"/>
-      <c r="Q153" s="221"/>
-      <c r="R153" s="221"/>
-      <c r="S153" s="221"/>
-      <c r="T153" s="221"/>
-      <c r="U153" s="221"/>
+      <c r="Q153" s="203"/>
+      <c r="R153" s="203"/>
+      <c r="S153" s="203"/>
+      <c r="T153" s="203"/>
+      <c r="U153" s="203"/>
       <c r="V153" s="12"/>
       <c r="W153" s="153"/>
       <c r="X153" s="153"/>
-      <c r="Y153" s="222" t="s">
+      <c r="Y153" s="204" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z153" s="204"/>
+      <c r="AA153" s="204"/>
+      <c r="AB153" s="84" t="s">
         <v>79</v>
-      </c>
-      <c r="Z153" s="222"/>
-      <c r="AA153" s="222"/>
-      <c r="AB153" s="84" t="s">
-        <v>80</v>
       </c>
       <c r="AC153" s="135"/>
       <c r="AD153" s="86"/>
     </row>
     <row r="154" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>ANCLAJE E INSTALACIÓN</v>
       </c>
       <c r="D154" s="149"/>
@@ -18961,23 +18991,23 @@
       <c r="G154" s="149"/>
       <c r="H154" s="149"/>
       <c r="I154" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J154" s="151"/>
-      <c r="K154" s="246">
+      <c r="K154" s="196">
         <v>8</v>
       </c>
-      <c r="L154" s="246"/>
-      <c r="M154" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N154" s="240"/>
+      <c r="L154" s="196"/>
+      <c r="M154" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N154" s="197"/>
       <c r="O154" s="86"/>
       <c r="P154" s="79"/>
       <c r="Q154" s="87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R154" s="87"/>
       <c r="S154" s="87"/>
@@ -18990,17 +19020,17 @@
       </c>
       <c r="Y154" s="154"/>
       <c r="Z154" s="154"/>
-      <c r="AA154" s="252">
+      <c r="AA154" s="205">
         <f>X154*Z154</f>
         <v>0</v>
       </c>
-      <c r="AB154" s="252"/>
+      <c r="AB154" s="205"/>
       <c r="AC154" s="86"/>
       <c r="AD154" s="86"/>
     </row>
     <row r="155" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>SUMINISTRO DE AGUA</v>
       </c>
       <c r="D155" s="149"/>
@@ -19009,23 +19039,23 @@
       <c r="G155" s="149"/>
       <c r="H155" s="149"/>
       <c r="I155" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J155" s="151"/>
-      <c r="K155" s="246">
+      <c r="K155" s="196">
         <v>8</v>
       </c>
-      <c r="L155" s="246"/>
-      <c r="M155" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N155" s="240"/>
+      <c r="L155" s="196"/>
+      <c r="M155" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N155" s="197"/>
       <c r="O155" s="37"/>
       <c r="P155" s="79"/>
       <c r="Q155" s="115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R155" s="115"/>
       <c r="S155" s="115"/>
@@ -19035,16 +19065,16 @@
       <c r="X155" s="115"/>
       <c r="Y155" s="115"/>
       <c r="Z155" s="115"/>
-      <c r="AA155" s="253">
-        <v>0</v>
-      </c>
-      <c r="AB155" s="253"/>
+      <c r="AA155" s="206">
+        <v>0</v>
+      </c>
+      <c r="AB155" s="206"/>
       <c r="AC155" s="86"/>
       <c r="AD155" s="37"/>
     </row>
     <row r="156" spans="1:42" s="155" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>RIMADO</v>
       </c>
       <c r="D156" s="156"/>
@@ -19053,23 +19083,23 @@
       <c r="G156" s="156"/>
       <c r="H156" s="156"/>
       <c r="I156" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J156" s="158"/>
-      <c r="K156" s="247">
+      <c r="K156" s="200">
         <v>10</v>
       </c>
-      <c r="L156" s="247"/>
-      <c r="M156" s="248">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N156" s="248"/>
+      <c r="L156" s="200"/>
+      <c r="M156" s="201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N156" s="201"/>
       <c r="O156" s="159"/>
       <c r="P156" s="160"/>
       <c r="Q156" s="161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R156" s="161"/>
       <c r="S156" s="162"/>
@@ -19080,11 +19110,11 @@
       <c r="X156" s="164"/>
       <c r="Y156" s="164"/>
       <c r="Z156" s="162"/>
-      <c r="AA156" s="251">
+      <c r="AA156" s="202">
         <f>SUM(AA154:AB155)</f>
         <v>0</v>
       </c>
-      <c r="AB156" s="251"/>
+      <c r="AB156" s="202"/>
       <c r="AC156" s="165"/>
       <c r="AD156" s="165"/>
     </row>
@@ -19093,7 +19123,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>ESTABILIZ / ACONDICIONAM</v>
       </c>
       <c r="D157" s="156"/>
@@ -19102,19 +19132,19 @@
       <c r="G157" s="156"/>
       <c r="H157" s="156"/>
       <c r="I157" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J157" s="158"/>
-      <c r="K157" s="247">
-        <v>0</v>
-      </c>
-      <c r="L157" s="247"/>
-      <c r="M157" s="248">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N157" s="248"/>
+      <c r="K157" s="200">
+        <v>0</v>
+      </c>
+      <c r="L157" s="200"/>
+      <c r="M157" s="201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N157" s="201"/>
       <c r="O157" s="166"/>
       <c r="P157" s="160"/>
       <c r="AA157" s="167"/>
@@ -19123,7 +19153,7 @@
     </row>
     <row r="158" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>CEMENTACIÓN</v>
       </c>
       <c r="D158" s="149"/>
@@ -19132,23 +19162,23 @@
       <c r="G158" s="149"/>
       <c r="H158" s="149"/>
       <c r="I158" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J158" s="151"/>
-      <c r="K158" s="246">
-        <v>0</v>
-      </c>
-      <c r="L158" s="246"/>
-      <c r="M158" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N158" s="240"/>
+      <c r="K158" s="196">
+        <v>0</v>
+      </c>
+      <c r="L158" s="196"/>
+      <c r="M158" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N158" s="197"/>
       <c r="O158" s="135"/>
       <c r="P158" s="79"/>
       <c r="Q158" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R158" s="80"/>
       <c r="S158" s="81"/>
@@ -19168,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>CAMBIO LÍNEA / REDUCCIÓN</v>
       </c>
       <c r="D159" s="106"/>
@@ -19177,23 +19207,23 @@
       <c r="G159" s="106"/>
       <c r="H159" s="106"/>
       <c r="I159" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J159" s="151"/>
-      <c r="K159" s="246">
-        <v>0</v>
-      </c>
-      <c r="L159" s="246"/>
-      <c r="M159" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N159" s="240"/>
+      <c r="K159" s="196">
+        <v>0</v>
+      </c>
+      <c r="L159" s="196"/>
+      <c r="M159" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N159" s="197"/>
       <c r="O159" s="86"/>
       <c r="P159" s="79"/>
       <c r="Q159" s="169" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R159" s="169"/>
       <c r="S159" s="169"/>
@@ -19204,11 +19234,11 @@
       <c r="X159" s="169"/>
       <c r="Y159" s="169"/>
       <c r="Z159" s="169"/>
-      <c r="AA159" s="249">
+      <c r="AA159" s="199">
         <f>AA149</f>
         <v>0</v>
       </c>
-      <c r="AB159" s="249"/>
+      <c r="AB159" s="199"/>
       <c r="AC159" s="86"/>
     </row>
     <row r="160" spans="1:42" s="155" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19216,7 +19246,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>EXTRACCIÓN DE TUBERÍA</v>
       </c>
       <c r="D160" s="170"/>
@@ -19225,29 +19255,29 @@
       <c r="G160" s="170"/>
       <c r="H160" s="170"/>
       <c r="I160" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J160" s="158"/>
-      <c r="K160" s="247">
-        <v>0</v>
-      </c>
-      <c r="L160" s="247"/>
-      <c r="M160" s="248">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N160" s="248"/>
+      <c r="K160" s="200">
+        <v>0</v>
+      </c>
+      <c r="L160" s="200"/>
+      <c r="M160" s="201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N160" s="201"/>
       <c r="O160" s="165"/>
       <c r="P160" s="160"/>
       <c r="Q160" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA160" s="250">
+        <v>117</v>
+      </c>
+      <c r="AA160" s="212">
         <f>AA156</f>
         <v>0</v>
       </c>
-      <c r="AB160" s="250"/>
+      <c r="AB160" s="212"/>
       <c r="AC160" s="165"/>
     </row>
     <row r="161" spans="1:29" s="155" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19255,7 +19285,7 @@
         <v>0</v>
       </c>
       <c r="C161" s="156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>ENSAYOS / REGISTROS</v>
       </c>
       <c r="D161" s="170"/>
@@ -19264,23 +19294,23 @@
       <c r="G161" s="170"/>
       <c r="H161" s="170"/>
       <c r="I161" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J161" s="158"/>
-      <c r="K161" s="247">
+      <c r="K161" s="200">
         <v>8</v>
       </c>
-      <c r="L161" s="247"/>
-      <c r="M161" s="248">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N161" s="248"/>
+      <c r="L161" s="200"/>
+      <c r="M161" s="201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N161" s="201"/>
       <c r="O161" s="165"/>
       <c r="P161" s="160"/>
       <c r="Q161" s="161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R161" s="161"/>
       <c r="S161" s="162"/>
@@ -19291,11 +19321,11 @@
       <c r="X161" s="164"/>
       <c r="Y161" s="164"/>
       <c r="Z161" s="162"/>
-      <c r="AA161" s="251">
+      <c r="AA161" s="202">
         <f>SUM(AA159:AB160)</f>
         <v>0</v>
       </c>
-      <c r="AB161" s="251"/>
+      <c r="AB161" s="202"/>
       <c r="AC161" s="165"/>
     </row>
     <row r="162" spans="1:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19303,7 +19333,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>RECUPERACIÓN DE HERRAMIENTA</v>
       </c>
       <c r="D162" s="106"/>
@@ -19312,19 +19342,19 @@
       <c r="G162" s="106"/>
       <c r="H162" s="106"/>
       <c r="I162" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J162" s="151"/>
-      <c r="K162" s="246">
-        <v>0</v>
-      </c>
-      <c r="L162" s="246"/>
-      <c r="M162" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N162" s="240"/>
+      <c r="K162" s="196">
+        <v>0</v>
+      </c>
+      <c r="L162" s="196"/>
+      <c r="M162" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N162" s="197"/>
       <c r="O162" s="86"/>
       <c r="P162" s="79"/>
       <c r="Q162" s="49"/>
@@ -19338,7 +19368,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>TIEMPO DE ESPERA</v>
       </c>
       <c r="D163" s="170"/>
@@ -19347,23 +19377,23 @@
       <c r="G163" s="170"/>
       <c r="H163" s="170"/>
       <c r="I163" s="158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J163" s="158"/>
-      <c r="K163" s="247">
+      <c r="K163" s="200">
         <v>8</v>
       </c>
-      <c r="L163" s="247"/>
-      <c r="M163" s="248">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N163" s="248"/>
+      <c r="L163" s="200"/>
+      <c r="M163" s="201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N163" s="201"/>
       <c r="O163" s="165"/>
       <c r="P163" s="160"/>
       <c r="Q163" s="172" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R163" s="172"/>
       <c r="S163" s="173"/>
@@ -19383,7 +19413,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>VIAJE</v>
       </c>
       <c r="D164" s="106"/>
@@ -19392,19 +19422,19 @@
       <c r="G164" s="106"/>
       <c r="H164" s="106"/>
       <c r="I164" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J164" s="151"/>
-      <c r="K164" s="246">
-        <v>0</v>
-      </c>
-      <c r="L164" s="246"/>
-      <c r="M164" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N164" s="240"/>
+      <c r="K164" s="196">
+        <v>0</v>
+      </c>
+      <c r="L164" s="196"/>
+      <c r="M164" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N164" s="197"/>
       <c r="O164" s="86"/>
       <c r="P164" s="79"/>
       <c r="Q164" s="169" t="str">
@@ -19420,16 +19450,16 @@
       <c r="X164" s="169"/>
       <c r="Y164" s="169"/>
       <c r="Z164" s="175"/>
-      <c r="AA164" s="249">
+      <c r="AA164" s="199">
         <f>M145</f>
         <v>0</v>
       </c>
-      <c r="AB164" s="249"/>
+      <c r="AB164" s="199"/>
       <c r="AC164" s="86"/>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C165" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>MANTENIMIENTO</v>
       </c>
       <c r="D165" s="106"/>
@@ -19438,19 +19468,19 @@
       <c r="G165" s="106"/>
       <c r="H165" s="106"/>
       <c r="I165" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J165" s="151"/>
-      <c r="K165" s="246">
-        <v>0</v>
-      </c>
-      <c r="L165" s="246"/>
-      <c r="M165" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N165" s="240"/>
+      <c r="K165" s="196">
+        <v>0</v>
+      </c>
+      <c r="L165" s="196"/>
+      <c r="M165" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N165" s="197"/>
       <c r="O165" s="86"/>
       <c r="P165" s="79"/>
       <c r="Q165" s="87" t="str">
@@ -19466,16 +19496,16 @@
       <c r="X165" s="87"/>
       <c r="Y165" s="87"/>
       <c r="Z165" s="176"/>
-      <c r="AA165" s="220">
+      <c r="AA165" s="198">
         <f>M169</f>
         <v>0</v>
       </c>
-      <c r="AB165" s="220"/>
+      <c r="AB165" s="198"/>
       <c r="AC165" s="86"/>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C166" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>FORMACIÓN EN SEGURIDAD</v>
       </c>
       <c r="D166" s="106"/>
@@ -19484,19 +19514,19 @@
       <c r="G166" s="106"/>
       <c r="H166" s="106"/>
       <c r="I166" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J166" s="151"/>
-      <c r="K166" s="246">
-        <v>0</v>
-      </c>
-      <c r="L166" s="246"/>
-      <c r="M166" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N166" s="240"/>
+      <c r="K166" s="196">
+        <v>0</v>
+      </c>
+      <c r="L166" s="196"/>
+      <c r="M166" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N166" s="197"/>
       <c r="O166" s="86"/>
       <c r="P166" s="79"/>
       <c r="Q166" s="87" t="str">
@@ -19512,16 +19542,16 @@
       <c r="X166" s="87"/>
       <c r="Y166" s="87"/>
       <c r="Z166" s="176"/>
-      <c r="AA166" s="220">
+      <c r="AA166" s="198">
         <f>AA149</f>
         <v>0</v>
       </c>
-      <c r="AB166" s="220"/>
+      <c r="AB166" s="198"/>
       <c r="AC166" s="86"/>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C167" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>ALIMENTACIÓN</v>
       </c>
       <c r="D167" s="106"/>
@@ -19530,19 +19560,19 @@
       <c r="G167" s="106"/>
       <c r="H167" s="106"/>
       <c r="I167" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J167" s="151"/>
-      <c r="K167" s="246">
-        <v>0</v>
-      </c>
-      <c r="L167" s="246"/>
-      <c r="M167" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N167" s="240"/>
+      <c r="K167" s="196">
+        <v>0</v>
+      </c>
+      <c r="L167" s="196"/>
+      <c r="M167" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N167" s="197"/>
       <c r="O167" s="86"/>
       <c r="P167" s="79"/>
       <c r="Q167" s="87" t="str">
@@ -19558,16 +19588,16 @@
       <c r="X167" s="87"/>
       <c r="Y167" s="87"/>
       <c r="Z167" s="176"/>
-      <c r="AA167" s="220">
+      <c r="AA167" s="198">
         <f>AA138</f>
         <v>0</v>
       </c>
-      <c r="AB167" s="220"/>
+      <c r="AB167" s="198"/>
       <c r="AC167" s="86"/>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C168" s="149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>OTHER</v>
       </c>
       <c r="D168" s="106"/>
@@ -19576,23 +19606,23 @@
       <c r="G168" s="106"/>
       <c r="H168" s="106"/>
       <c r="I168" s="151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J168" s="151"/>
-      <c r="K168" s="246">
-        <v>0</v>
-      </c>
-      <c r="L168" s="246"/>
-      <c r="M168" s="240">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N168" s="240"/>
+      <c r="K168" s="196">
+        <v>0</v>
+      </c>
+      <c r="L168" s="196"/>
+      <c r="M168" s="197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="197"/>
       <c r="O168" s="86"/>
       <c r="P168" s="79"/>
       <c r="Q168" s="115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R168" s="115"/>
       <c r="S168" s="115"/>
@@ -19603,16 +19633,16 @@
       <c r="X168" s="115"/>
       <c r="Y168" s="115"/>
       <c r="Z168" s="177"/>
-      <c r="AA168" s="232">
+      <c r="AA168" s="209">
         <f>AA156</f>
         <v>0</v>
       </c>
-      <c r="AB168" s="232"/>
+      <c r="AB168" s="209"/>
       <c r="AC168" s="86"/>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C169" s="129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D169" s="130"/>
       <c r="E169" s="130"/>
@@ -19623,15 +19653,15 @@
       <c r="J169" s="132"/>
       <c r="K169" s="132"/>
       <c r="L169" s="132"/>
-      <c r="M169" s="238">
+      <c r="M169" s="210">
         <f>SUM(M150:N168)</f>
         <v>0</v>
       </c>
-      <c r="N169" s="238"/>
+      <c r="N169" s="210"/>
       <c r="O169" s="86"/>
       <c r="P169" s="79"/>
       <c r="Q169" s="119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R169" s="119"/>
       <c r="S169" s="20"/>
@@ -19642,11 +19672,11 @@
       <c r="X169" s="142"/>
       <c r="Y169" s="142"/>
       <c r="Z169" s="178"/>
-      <c r="AA169" s="237">
+      <c r="AA169" s="211">
         <f>SUM(AA164:AB168)</f>
         <v>0</v>
       </c>
-      <c r="AB169" s="237"/>
+      <c r="AB169" s="211"/>
       <c r="AC169" s="86"/>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
@@ -19733,44 +19763,160 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="220">
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="AA166:AB166"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="AA167:AB167"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="AA164:AB164"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="AA165:AB165"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="AA161:AB161"/>
-    <mergeCell ref="Y152:AA152"/>
-    <mergeCell ref="Y153:AA153"/>
-    <mergeCell ref="AA156:AB156"/>
-    <mergeCell ref="AA154:AB154"/>
-    <mergeCell ref="AA155:AB155"/>
-    <mergeCell ref="Q152:U153"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="AA143:AB143"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="AA168:AB168"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="AA169:AB169"/>
-    <mergeCell ref="AA159:AB159"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="AA160:AB160"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="BS8:BS10"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AU8:AX8"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="BC8:BF8"/>
+    <mergeCell ref="BG8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BR8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="C12:C42"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C87:C109"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="D103:D109"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C74:C85"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="AA124:AB124"/>
+    <mergeCell ref="AA125:AB125"/>
+    <mergeCell ref="Q112:V113"/>
+    <mergeCell ref="W112:X113"/>
+    <mergeCell ref="Y112:AA112"/>
+    <mergeCell ref="Y113:AA113"/>
+    <mergeCell ref="W114:X114"/>
+    <mergeCell ref="Y114:Z114"/>
+    <mergeCell ref="AA114:AB114"/>
+    <mergeCell ref="W115:X115"/>
+    <mergeCell ref="AA115:AB115"/>
+    <mergeCell ref="W116:X116"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="AA117:AB117"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="AA121:AB121"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="AA129:AB129"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="AA130:AB130"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="AA118:AB118"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="AA119:AB119"/>
+    <mergeCell ref="AA120:AB120"/>
+    <mergeCell ref="AA122:AB122"/>
+    <mergeCell ref="AA123:AB123"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="AA137:AB137"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="AA131:AB131"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="AA126:AB126"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="AA127:AB127"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="AA128:AB128"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="AA132:AB132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="AA133:AB133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="AA134:AB134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="AA135:AB135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="AA136:AB136"/>
+    <mergeCell ref="AA147:AB147"/>
+    <mergeCell ref="C148:G149"/>
+    <mergeCell ref="AA148:AB148"/>
+    <mergeCell ref="AA149:AB149"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="X150:Z150"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="AA138:AB138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="Q141:T142"/>
+    <mergeCell ref="W141:X142"/>
+    <mergeCell ref="Y141:AA141"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="Y142:AA142"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="K162:L162"/>
@@ -19795,164 +19941,48 @@
     <mergeCell ref="M151:N151"/>
     <mergeCell ref="K152:L152"/>
     <mergeCell ref="M152:N152"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="AA168:AB168"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="AA169:AB169"/>
+    <mergeCell ref="AA159:AB159"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="AA160:AB160"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="AA167:AB167"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="AA164:AB164"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="AA165:AB165"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="AA166:AB166"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="AA161:AB161"/>
+    <mergeCell ref="Y152:AA152"/>
+    <mergeCell ref="Y153:AA153"/>
+    <mergeCell ref="AA156:AB156"/>
+    <mergeCell ref="AA154:AB154"/>
+    <mergeCell ref="AA155:AB155"/>
+    <mergeCell ref="Q152:U153"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="AA143:AB143"/>
     <mergeCell ref="M144:N144"/>
     <mergeCell ref="AA144:AB144"/>
     <mergeCell ref="M145:N145"/>
     <mergeCell ref="AA145:AB145"/>
-    <mergeCell ref="AA147:AB147"/>
-    <mergeCell ref="C148:G149"/>
-    <mergeCell ref="AA148:AB148"/>
-    <mergeCell ref="AA149:AB149"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="X150:Z150"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="AA138:AB138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="Q141:T142"/>
-    <mergeCell ref="W141:X142"/>
-    <mergeCell ref="Y141:AA141"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="Y142:AA142"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="AA137:AB137"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="AA131:AB131"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="AA126:AB126"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="AA127:AB127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="AA128:AB128"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="AA132:AB132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="AA133:AB133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="AA134:AB134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="AA135:AB135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="AA136:AB136"/>
-    <mergeCell ref="AA121:AB121"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="AA129:AB129"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="AA130:AB130"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="AA118:AB118"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="AA119:AB119"/>
-    <mergeCell ref="AA120:AB120"/>
-    <mergeCell ref="AA122:AB122"/>
-    <mergeCell ref="AA123:AB123"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="AA124:AB124"/>
-    <mergeCell ref="AA125:AB125"/>
-    <mergeCell ref="Q112:V113"/>
-    <mergeCell ref="W112:X113"/>
-    <mergeCell ref="Y112:AA112"/>
-    <mergeCell ref="Y113:AA113"/>
-    <mergeCell ref="W114:X114"/>
-    <mergeCell ref="Y114:Z114"/>
-    <mergeCell ref="AA114:AB114"/>
-    <mergeCell ref="W115:X115"/>
-    <mergeCell ref="AA115:AB115"/>
-    <mergeCell ref="W116:X116"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="AA117:AB117"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="C12:C42"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C87:C109"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="D103:D109"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C74:C85"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="BS8:BS10"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AU8:AX8"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="BC8:BF8"/>
-    <mergeCell ref="BG8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BR8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="X150:Y150">
     <cfRule type="expression" dxfId="45" priority="1">
@@ -20185,6 +20215,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/excel_templates/INVOICE_V1.xlsx
+++ b/public/excel_templates/INVOICE_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Facturacion\public\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDA8207-8876-409A-842D-F1B950740152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F216B9-E112-41A7-9089-D8A100443061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>RAZON SOCIAL CLIENTE</t>
   </si>
   <si>
-    <t>MIRANDA GOLD COLOMBIA II LTD</t>
-  </si>
-  <si>
     <t>POZO</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>NOMBRE PROYECTO</t>
   </si>
   <si>
-    <t>SANTA ANA</t>
-  </si>
-  <si>
     <t>INCLINACION POZO</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
   </si>
   <si>
     <t>LOCALIZACION</t>
-  </si>
-  <si>
-    <t>FALAN - TOLIMA</t>
   </si>
   <si>
     <t>ELEVACION PLATAFORMA</t>
@@ -346,6 +337,15 @@
   <si>
     <t>PRECIO USD</t>
   </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +360,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -414,6 +414,19 @@
     <font>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1206,15 +1219,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1297,11 +1301,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1983,14 +1998,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -2007,15 +2014,15 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2023,7 +2030,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2031,374 +2038,375 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
@@ -2411,10 +2419,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2471,8 +2475,31 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -3233,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:WYI261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="B119" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124:E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,7 +3270,9 @@
     <col min="2" max="2" width="1.28515625" style="1" customWidth="1"/>
     <col min="3" max="5" width="6.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="72" width="7.42578125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" customWidth="1"/>
+    <col min="13" max="72" width="7.42578125" style="1" customWidth="1"/>
     <col min="73" max="78" width="6.140625" style="1" customWidth="1"/>
     <col min="79" max="256" width="11.42578125" style="1" customWidth="1"/>
     <col min="257" max="257" width="0" style="1" hidden="1" customWidth="1"/>
@@ -3628,10 +3657,10 @@
   <sheetData>
     <row r="1" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="205"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="203"/>
       <c r="I2" s="167" t="s">
         <v>0</v>
       </c>
@@ -3652,68 +3681,68 @@
       <c r="X2" s="169"/>
     </row>
     <row r="3" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="206"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="208"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="206"/>
       <c r="I3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="231" t="s">
+      <c r="J3" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="212" t="s">
+      <c r="K3" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="213"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="238" t="s">
+      <c r="L3" s="211"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="296" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="231" t="s">
+      <c r="T3" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="212" t="s">
+      <c r="U3" s="211"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="279"/>
+    </row>
+    <row r="4" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="204"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="206"/>
+      <c r="I4" s="231" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="229"/>
+      <c r="K4" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="213"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="282"/>
-    </row>
-    <row r="4" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="206"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="208"/>
-      <c r="I4" s="233" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="231"/>
-      <c r="K4" s="215" t="s">
+      <c r="L4" s="186"/>
+      <c r="M4" s="238"/>
+      <c r="N4" s="295" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="238"/>
+      <c r="S4" s="229"/>
+      <c r="T4" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="188"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="215" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="188"/>
-      <c r="R4" s="241"/>
-      <c r="S4" s="231"/>
-      <c r="T4" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="188"/>
-      <c r="V4" s="216"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="284"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="214"/>
+      <c r="W4" s="280"/>
+      <c r="X4" s="281"/>
       <c r="Z4" s="1">
         <v>0.3</v>
       </c>
@@ -3734,23 +3763,23 @@
       </c>
     </row>
     <row r="5" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="206"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="208"/>
-      <c r="I5" s="233"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="188"/>
-      <c r="M5" s="241"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="241"/>
-      <c r="S5" s="231"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="206"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="213" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="186"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="229"/>
       <c r="T5" s="3"/>
       <c r="W5" s="163"/>
       <c r="X5" s="171"/>
@@ -3777,501 +3806,501 @@
       </c>
     </row>
     <row r="6" spans="3:72" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="209"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="211"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="232"/>
-      <c r="K6" s="242" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="243"/>
-      <c r="M6" s="244"/>
-      <c r="N6" s="242" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="243"/>
-      <c r="P6" s="243"/>
-      <c r="Q6" s="243"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="232"/>
-      <c r="T6" s="172" t="s">
-        <v>13</v>
-      </c>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="175"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="209"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="239" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="240"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="297" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="241"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="239" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="240"/>
+      <c r="V6" s="298"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="173"/>
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="235" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="235"/>
-      <c r="E8" s="236" t="s">
-        <v>15</v>
+      <c r="C8" s="233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="233"/>
+      <c r="E8" s="234" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="237">
+        <v>13</v>
+      </c>
+      <c r="G8" s="235">
         <v>44743</v>
       </c>
-      <c r="H8" s="237"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237">
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235">
         <f>G8+1</f>
         <v>44744</v>
       </c>
-      <c r="L8" s="237"/>
-      <c r="M8" s="237"/>
-      <c r="N8" s="237"/>
-      <c r="O8" s="237">
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="235">
         <f>K8+1</f>
         <v>44745</v>
       </c>
-      <c r="P8" s="237"/>
-      <c r="Q8" s="237"/>
-      <c r="R8" s="237"/>
-      <c r="S8" s="237">
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235">
         <f>O8+1</f>
         <v>44746</v>
       </c>
-      <c r="T8" s="237"/>
-      <c r="U8" s="237"/>
-      <c r="V8" s="237"/>
-      <c r="W8" s="237">
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235">
         <f>S8+1</f>
         <v>44747</v>
       </c>
-      <c r="X8" s="237"/>
-      <c r="Y8" s="237"/>
-      <c r="Z8" s="237"/>
-      <c r="AA8" s="237">
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235">
         <f>W8+1</f>
         <v>44748</v>
       </c>
-      <c r="AB8" s="237"/>
-      <c r="AC8" s="237"/>
-      <c r="AD8" s="237"/>
-      <c r="AE8" s="237">
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="235">
         <f>AA8+1</f>
         <v>44749</v>
       </c>
-      <c r="AF8" s="237"/>
-      <c r="AG8" s="237"/>
-      <c r="AH8" s="237"/>
-      <c r="AI8" s="237">
+      <c r="AF8" s="235"/>
+      <c r="AG8" s="235"/>
+      <c r="AH8" s="235"/>
+      <c r="AI8" s="235">
         <f>AE8+1</f>
         <v>44750</v>
       </c>
-      <c r="AJ8" s="237"/>
-      <c r="AK8" s="237"/>
-      <c r="AL8" s="237"/>
-      <c r="AM8" s="237">
+      <c r="AJ8" s="235"/>
+      <c r="AK8" s="235"/>
+      <c r="AL8" s="235"/>
+      <c r="AM8" s="235">
         <f>AI8+1</f>
         <v>44751</v>
       </c>
-      <c r="AN8" s="237"/>
-      <c r="AO8" s="237"/>
-      <c r="AP8" s="237"/>
-      <c r="AQ8" s="237">
+      <c r="AN8" s="235"/>
+      <c r="AO8" s="235"/>
+      <c r="AP8" s="235"/>
+      <c r="AQ8" s="235">
         <f>AM8+1</f>
         <v>44752</v>
       </c>
-      <c r="AR8" s="237"/>
-      <c r="AS8" s="237"/>
-      <c r="AT8" s="237"/>
-      <c r="AU8" s="237">
+      <c r="AR8" s="235"/>
+      <c r="AS8" s="235"/>
+      <c r="AT8" s="235"/>
+      <c r="AU8" s="235">
         <f>AQ8+1</f>
         <v>44753</v>
       </c>
-      <c r="AV8" s="237"/>
-      <c r="AW8" s="237"/>
-      <c r="AX8" s="237"/>
-      <c r="AY8" s="237">
+      <c r="AV8" s="235"/>
+      <c r="AW8" s="235"/>
+      <c r="AX8" s="235"/>
+      <c r="AY8" s="235">
         <f>AU8+1</f>
         <v>44754</v>
       </c>
-      <c r="AZ8" s="237"/>
-      <c r="BA8" s="237"/>
-      <c r="BB8" s="237"/>
-      <c r="BC8" s="237">
+      <c r="AZ8" s="235"/>
+      <c r="BA8" s="235"/>
+      <c r="BB8" s="235"/>
+      <c r="BC8" s="235">
         <f>AY8+1</f>
         <v>44755</v>
       </c>
-      <c r="BD8" s="237"/>
-      <c r="BE8" s="237"/>
-      <c r="BF8" s="237"/>
-      <c r="BG8" s="237">
+      <c r="BD8" s="235"/>
+      <c r="BE8" s="235"/>
+      <c r="BF8" s="235"/>
+      <c r="BG8" s="235">
         <f>BC8+1</f>
         <v>44756</v>
       </c>
-      <c r="BH8" s="237"/>
-      <c r="BI8" s="237"/>
-      <c r="BJ8" s="237"/>
-      <c r="BK8" s="237">
+      <c r="BH8" s="235"/>
+      <c r="BI8" s="235"/>
+      <c r="BJ8" s="235"/>
+      <c r="BK8" s="235">
         <f>BG8+1</f>
         <v>44757</v>
       </c>
-      <c r="BL8" s="237"/>
-      <c r="BM8" s="237"/>
-      <c r="BN8" s="237"/>
-      <c r="BO8" s="237">
+      <c r="BL8" s="235"/>
+      <c r="BM8" s="235"/>
+      <c r="BN8" s="235"/>
+      <c r="BO8" s="235">
         <f>BK8+1</f>
         <v>44758</v>
       </c>
-      <c r="BP8" s="237"/>
-      <c r="BQ8" s="237"/>
-      <c r="BR8" s="237"/>
-      <c r="BS8" s="246" t="s">
+      <c r="BP8" s="235"/>
+      <c r="BQ8" s="235"/>
+      <c r="BR8" s="235"/>
+      <c r="BS8" s="243" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT8" s="243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="BT8" s="246" t="s">
+      <c r="H9" s="244"/>
+      <c r="I9" s="244" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="247"/>
-      <c r="K9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="247"/>
-      <c r="M9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="247"/>
-      <c r="O9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="247"/>
-      <c r="Q9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="247"/>
-      <c r="S9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="247"/>
-      <c r="U9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="247"/>
-      <c r="W9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9" s="247"/>
-      <c r="Y9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="247"/>
-      <c r="AA9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB9" s="247"/>
-      <c r="AC9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD9" s="247"/>
-      <c r="AE9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="247"/>
-      <c r="AG9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH9" s="247"/>
-      <c r="AI9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ9" s="247"/>
-      <c r="AK9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL9" s="247"/>
-      <c r="AM9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN9" s="247"/>
-      <c r="AO9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP9" s="247"/>
-      <c r="AQ9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR9" s="247"/>
-      <c r="AS9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT9" s="247"/>
-      <c r="AU9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV9" s="247"/>
-      <c r="AW9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX9" s="247"/>
-      <c r="AY9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ9" s="247"/>
-      <c r="BA9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB9" s="247"/>
-      <c r="BC9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD9" s="247"/>
-      <c r="BE9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="BF9" s="247"/>
-      <c r="BG9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH9" s="247"/>
-      <c r="BI9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="BJ9" s="247"/>
-      <c r="BK9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL9" s="247"/>
-      <c r="BM9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN9" s="247"/>
-      <c r="BO9" s="247" t="s">
-        <v>20</v>
-      </c>
-      <c r="BP9" s="247"/>
-      <c r="BQ9" s="247" t="s">
-        <v>21</v>
-      </c>
-      <c r="BR9" s="247"/>
-      <c r="BS9" s="246"/>
-      <c r="BT9" s="246"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="244"/>
+      <c r="M9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="244"/>
+      <c r="O9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="244"/>
+      <c r="S9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="244"/>
+      <c r="U9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="244"/>
+      <c r="W9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="244"/>
+      <c r="Y9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="244"/>
+      <c r="AA9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB9" s="244"/>
+      <c r="AC9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD9" s="244"/>
+      <c r="AE9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF9" s="244"/>
+      <c r="AG9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH9" s="244"/>
+      <c r="AI9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ9" s="244"/>
+      <c r="AK9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL9" s="244"/>
+      <c r="AM9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN9" s="244"/>
+      <c r="AO9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP9" s="244"/>
+      <c r="AQ9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR9" s="244"/>
+      <c r="AS9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT9" s="244"/>
+      <c r="AU9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV9" s="244"/>
+      <c r="AW9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX9" s="244"/>
+      <c r="AY9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ9" s="244"/>
+      <c r="BA9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB9" s="244"/>
+      <c r="BC9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD9" s="244"/>
+      <c r="BE9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF9" s="244"/>
+      <c r="BG9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH9" s="244"/>
+      <c r="BI9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ9" s="244"/>
+      <c r="BK9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL9" s="244"/>
+      <c r="BM9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN9" s="244"/>
+      <c r="BO9" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP9" s="244"/>
+      <c r="BQ9" s="244" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR9" s="244"/>
+      <c r="BS9" s="243"/>
+      <c r="BT9" s="243"/>
     </row>
     <row r="10" spans="3:72" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="236"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="234"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AN10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AS10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AV10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AX10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BB10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BC10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BD10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BE10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BF10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BG10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BH10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BI10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BJ10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BK10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BL10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BM10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BN10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BO10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BP10" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BQ10" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BR10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BS10" s="246"/>
-      <c r="BT10" s="246"/>
+        <v>20</v>
+      </c>
+      <c r="BS10" s="243"/>
+      <c r="BT10" s="243"/>
     </row>
     <row r="11" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
@@ -4346,15 +4375,15 @@
       <c r="BT11" s="13"/>
     </row>
     <row r="12" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="248" t="s">
+      <c r="C12" s="245" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="215"/>
+      <c r="E12" s="164" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="217"/>
-      <c r="E12" s="164" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="G12" s="15">
         <v>0</v>
@@ -4488,13 +4517,13 @@
       <c r="BT12" s="16"/>
     </row>
     <row r="13" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="249"/>
-      <c r="D13" s="251"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="248"/>
       <c r="E13" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" s="15">
         <v>0</v>
@@ -4628,10 +4657,10 @@
       <c r="BT13" s="16"/>
     </row>
     <row r="14" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="249"/>
-      <c r="D14" s="252"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="249"/>
       <c r="E14" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18">
@@ -4801,13 +4830,13 @@
       <c r="BT14" s="19"/>
     </row>
     <row r="15" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="249"/>
-      <c r="D15" s="253"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="250"/>
       <c r="E15" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15" s="15">
         <v>0</v>
@@ -4941,13 +4970,13 @@
       <c r="BT15" s="16"/>
     </row>
     <row r="16" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="249"/>
-      <c r="D16" s="251"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="248"/>
       <c r="E16" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
@@ -5081,10 +5110,10 @@
       <c r="BT16" s="16"/>
     </row>
     <row r="17" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="249"/>
-      <c r="D17" s="252"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="249"/>
       <c r="E17" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18">
@@ -5254,13 +5283,13 @@
       <c r="BT17" s="19"/>
     </row>
     <row r="18" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="249"/>
-      <c r="D18" s="253"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G18" s="15">
         <v>0</v>
@@ -5394,13 +5423,13 @@
       <c r="BT18" s="16"/>
     </row>
     <row r="19" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="249"/>
-      <c r="D19" s="251"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="248"/>
       <c r="E19" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G19" s="15">
         <v>0</v>
@@ -5534,10 +5563,10 @@
       <c r="BT19" s="16"/>
     </row>
     <row r="20" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="249"/>
-      <c r="D20" s="252"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="249"/>
       <c r="E20" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="18">
@@ -5707,13 +5736,13 @@
       <c r="BT20" s="19"/>
     </row>
     <row r="21" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="249"/>
-      <c r="D21" s="253"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
@@ -5847,13 +5876,13 @@
       <c r="BT21" s="16"/>
     </row>
     <row r="22" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="249"/>
-      <c r="D22" s="251"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="248"/>
       <c r="E22" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -5987,10 +6016,10 @@
       <c r="BT22" s="16"/>
     </row>
     <row r="23" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="249"/>
-      <c r="D23" s="252"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="18">
@@ -6160,13 +6189,13 @@
       <c r="BT23" s="19"/>
     </row>
     <row r="24" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="249"/>
-      <c r="D24" s="253"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="250"/>
       <c r="E24" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
@@ -6300,13 +6329,13 @@
       <c r="BT24" s="16"/>
     </row>
     <row r="25" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="249"/>
-      <c r="D25" s="251"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="248"/>
       <c r="E25" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -6440,10 +6469,10 @@
       <c r="BT25" s="16"/>
     </row>
     <row r="26" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="249"/>
-      <c r="D26" s="252"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="249"/>
       <c r="E26" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18">
@@ -6613,13 +6642,13 @@
       <c r="BT26" s="19"/>
     </row>
     <row r="27" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="249"/>
-      <c r="D27" s="253"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
@@ -6753,13 +6782,13 @@
       <c r="BT27" s="16"/>
     </row>
     <row r="28" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="249"/>
-      <c r="D28" s="251"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G28" s="15">
         <v>0</v>
@@ -6893,10 +6922,10 @@
       <c r="BT28" s="16"/>
     </row>
     <row r="29" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="249"/>
-      <c r="D29" s="252"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="249"/>
       <c r="E29" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="18">
@@ -7066,13 +7095,13 @@
       <c r="BT29" s="19"/>
     </row>
     <row r="30" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="249"/>
-      <c r="D30" s="253"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="250"/>
       <c r="E30" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G30" s="15">
         <v>0</v>
@@ -7206,13 +7235,13 @@
       <c r="BT30" s="16"/>
     </row>
     <row r="31" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="249"/>
-      <c r="D31" s="251"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="248"/>
       <c r="E31" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G31" s="15">
         <v>0</v>
@@ -7346,10 +7375,10 @@
       <c r="BT31" s="16"/>
     </row>
     <row r="32" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="249"/>
-      <c r="D32" s="252"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="249"/>
       <c r="E32" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18">
@@ -7519,13 +7548,13 @@
       <c r="BT32" s="19"/>
     </row>
     <row r="33" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="249"/>
-      <c r="D33" s="253"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="250"/>
       <c r="E33" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G33" s="15">
         <v>0</v>
@@ -7659,13 +7688,13 @@
       <c r="BT33" s="16"/>
     </row>
     <row r="34" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="249"/>
-      <c r="D34" s="251"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="248"/>
       <c r="E34" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G34" s="15">
         <v>0</v>
@@ -7799,10 +7828,10 @@
       <c r="BT34" s="16"/>
     </row>
     <row r="35" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="249"/>
-      <c r="D35" s="252"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="249"/>
       <c r="E35" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="18">
@@ -7972,13 +8001,13 @@
       <c r="BT35" s="19"/>
     </row>
     <row r="36" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="249"/>
-      <c r="D36" s="253"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G36" s="15">
         <v>0</v>
@@ -8112,13 +8141,13 @@
       <c r="BT36" s="16"/>
     </row>
     <row r="37" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="249"/>
-      <c r="D37" s="251"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="248"/>
       <c r="E37" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G37" s="15">
         <v>0</v>
@@ -8252,10 +8281,10 @@
       <c r="BT37" s="16"/>
     </row>
     <row r="38" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="249"/>
-      <c r="D38" s="252"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="249"/>
       <c r="E38" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18">
@@ -8425,13 +8454,13 @@
       <c r="BT38" s="19"/>
     </row>
     <row r="39" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="249"/>
-      <c r="D39" s="253"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="250"/>
       <c r="E39" s="164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
@@ -8565,13 +8594,13 @@
       <c r="BT39" s="16"/>
     </row>
     <row r="40" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="249"/>
-      <c r="D40" s="251"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="248"/>
       <c r="E40" s="164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G40" s="15">
         <v>0</v>
@@ -8705,10 +8734,10 @@
       <c r="BT40" s="16"/>
     </row>
     <row r="41" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="249"/>
-      <c r="D41" s="252"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="249"/>
       <c r="E41" s="165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="18">
@@ -8878,11 +8907,11 @@
       <c r="BT41" s="19"/>
     </row>
     <row r="42" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="250"/>
-      <c r="D42" s="254"/>
-      <c r="E42" s="254"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="251"/>
+      <c r="E42" s="251"/>
       <c r="F42" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G42" s="21">
         <f>G14+G17+G20+G23+G26+G29+G32+G35+G38+G41</f>
@@ -9126,12 +9155,12 @@
       <c r="BT43" s="26"/>
     </row>
     <row r="44" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="257" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="212"/>
-      <c r="E44" s="213"/>
-      <c r="F44" s="245"/>
+      <c r="C44" s="254" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="210"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="242"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -9205,17 +9234,17 @@
         <v>0</v>
       </c>
       <c r="BU44" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV44" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C45" s="257"/>
-      <c r="D45" s="215"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="215"/>
+      <c r="C45" s="254"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -9289,20 +9318,20 @@
         <v>0</v>
       </c>
       <c r="BU45" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV45" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="257"/>
-      <c r="D46" s="215"/>
-      <c r="E46" s="188"/>
-      <c r="F46" s="241"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="238"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -9376,17 +9405,17 @@
         <v>0</v>
       </c>
       <c r="BU46" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV46" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C47" s="257"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="241"/>
+      <c r="C47" s="254"/>
+      <c r="D47" s="213"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="238"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -9460,17 +9489,17 @@
         <v>0</v>
       </c>
       <c r="BU47" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV47" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C48" s="257"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="188"/>
-      <c r="F48" s="241"/>
+      <c r="C48" s="254"/>
+      <c r="D48" s="213"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="238"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -9544,17 +9573,17 @@
         <v>0</v>
       </c>
       <c r="BU48" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV48" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C49" s="257"/>
-      <c r="D49" s="215"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="241"/>
+      <c r="C49" s="254"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="238"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -9628,20 +9657,20 @@
         <v>0</v>
       </c>
       <c r="BU49" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV49" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C50" s="257"/>
-      <c r="D50" s="215"/>
-      <c r="E50" s="188"/>
-      <c r="F50" s="241"/>
+      <c r="C50" s="254"/>
+      <c r="D50" s="213"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="238"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -9715,10 +9744,10 @@
         <v>0</v>
       </c>
       <c r="BU50" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV50" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BW50" s="33"/>
       <c r="BX50" s="33"/>
@@ -9736,10 +9765,10 @@
       <c r="CJ50" s="33"/>
     </row>
     <row r="51" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C51" s="257"/>
-      <c r="D51" s="215"/>
-      <c r="E51" s="188"/>
-      <c r="F51" s="241"/>
+      <c r="C51" s="254"/>
+      <c r="D51" s="213"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="238"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -9813,17 +9842,17 @@
         <v>0</v>
       </c>
       <c r="BU51" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV51" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C52" s="257"/>
-      <c r="D52" s="215"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="241"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="213"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="238"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -9897,17 +9926,17 @@
         <v>0</v>
       </c>
       <c r="BU52" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV52" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C53" s="257"/>
-      <c r="D53" s="215"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="241"/>
+      <c r="C53" s="254"/>
+      <c r="D53" s="213"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="238"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -9981,17 +10010,17 @@
         <v>0</v>
       </c>
       <c r="BU53" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV53" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C54" s="257"/>
-      <c r="D54" s="215"/>
-      <c r="E54" s="188"/>
-      <c r="F54" s="241"/>
+      <c r="C54" s="254"/>
+      <c r="D54" s="213"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="238"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -10065,17 +10094,17 @@
         <v>0</v>
       </c>
       <c r="BU54" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV54" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C55" s="257"/>
-      <c r="D55" s="215"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="241"/>
+      <c r="C55" s="254"/>
+      <c r="D55" s="213"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="238"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -10149,17 +10178,17 @@
         <v>0</v>
       </c>
       <c r="BU55" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV55" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C56" s="257"/>
-      <c r="D56" s="215"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="241"/>
+      <c r="C56" s="254"/>
+      <c r="D56" s="213"/>
+      <c r="E56" s="186"/>
+      <c r="F56" s="238"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
@@ -10233,17 +10262,17 @@
         <v>0</v>
       </c>
       <c r="BU56" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV56" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C57" s="257"/>
-      <c r="D57" s="215"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="241"/>
+      <c r="C57" s="254"/>
+      <c r="D57" s="213"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="238"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -10317,17 +10346,17 @@
         <v>0</v>
       </c>
       <c r="BU57" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV57" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C58" s="257"/>
-      <c r="D58" s="215"/>
-      <c r="E58" s="188"/>
-      <c r="F58" s="241"/>
+      <c r="C58" s="254"/>
+      <c r="D58" s="213"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="238"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
       <c r="I58" s="34"/>
@@ -10401,17 +10430,17 @@
         <v>0</v>
       </c>
       <c r="BU58" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV58" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C59" s="257"/>
-      <c r="D59" s="215"/>
-      <c r="E59" s="188"/>
-      <c r="F59" s="241"/>
+      <c r="C59" s="254"/>
+      <c r="D59" s="213"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="238"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
@@ -10485,17 +10514,17 @@
         <v>0</v>
       </c>
       <c r="BU59" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV59" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C60" s="257"/>
-      <c r="D60" s="215"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="241"/>
+      <c r="C60" s="254"/>
+      <c r="D60" s="213"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="238"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
@@ -10569,17 +10598,17 @@
         <v>0</v>
       </c>
       <c r="BU60" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV60" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C61" s="257"/>
-      <c r="D61" s="215"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="241"/>
+      <c r="C61" s="254"/>
+      <c r="D61" s="213"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="238"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
@@ -10653,17 +10682,17 @@
         <v>0</v>
       </c>
       <c r="BU61" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV61" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C62" s="257"/>
-      <c r="D62" s="215"/>
-      <c r="E62" s="188"/>
-      <c r="F62" s="241"/>
+      <c r="C62" s="254"/>
+      <c r="D62" s="213"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="238"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
@@ -10737,17 +10766,17 @@
         <v>0</v>
       </c>
       <c r="BU62" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV62" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C63" s="257"/>
-      <c r="D63" s="215"/>
-      <c r="E63" s="188"/>
-      <c r="F63" s="241"/>
+      <c r="C63" s="254"/>
+      <c r="D63" s="213"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="238"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
@@ -10821,16 +10850,16 @@
         <v>0</v>
       </c>
       <c r="BU63" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BV63" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C64" s="257"/>
+      <c r="C64" s="254"/>
       <c r="D64" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E64" s="36"/>
       <c r="F64" s="37"/>
@@ -11104,31 +11133,31 @@
       <c r="C65" s="41"/>
       <c r="D65" s="42"/>
       <c r="G65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H65" s="42"/>
       <c r="I65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J65" s="42"/>
       <c r="K65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L65" s="42"/>
       <c r="M65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N65" s="42"/>
       <c r="O65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P65" s="42"/>
       <c r="Q65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R65" s="42"/>
       <c r="S65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T65" s="42"/>
       <c r="U65" s="40">
@@ -11224,11 +11253,11 @@
       </c>
       <c r="BN65" s="42"/>
       <c r="BO65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BP65" s="42"/>
       <c r="BQ65" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BR65" s="42"/>
       <c r="BS65" s="40">
@@ -12290,7 +12319,7 @@
     <row r="72" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
       <c r="C72" s="41"/>
       <c r="D72" s="42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G72" s="44">
         <f>IF((G54+H54)&gt;2,(G54+H54)-2,0)</f>
@@ -12533,14 +12562,14 @@
     </row>
     <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="258" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="259" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="259"/>
-      <c r="F74" s="259"/>
+      <c r="C74" s="255" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="256" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="256"/>
+      <c r="F74" s="256"/>
       <c r="G74" s="46"/>
       <c r="H74" s="46"/>
       <c r="I74" s="46"/>
@@ -12612,12 +12641,12 @@
       </c>
     </row>
     <row r="75" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C75" s="258"/>
-      <c r="D75" s="260" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="260"/>
-      <c r="F75" s="260"/>
+      <c r="C75" s="255"/>
+      <c r="D75" s="257" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="257"/>
+      <c r="F75" s="257"/>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
       <c r="I75" s="48"/>
@@ -12689,12 +12718,12 @@
       </c>
     </row>
     <row r="76" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C76" s="258"/>
-      <c r="D76" s="260" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="260"/>
-      <c r="F76" s="260"/>
+      <c r="C76" s="255"/>
+      <c r="D76" s="257" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="257"/>
+      <c r="F76" s="257"/>
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
       <c r="I76" s="48"/>
@@ -12766,12 +12795,12 @@
       </c>
     </row>
     <row r="77" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C77" s="258"/>
-      <c r="D77" s="260" t="s">
-        <v>39</v>
-      </c>
-      <c r="E77" s="260"/>
-      <c r="F77" s="260"/>
+      <c r="C77" s="255"/>
+      <c r="D77" s="257" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="257"/>
+      <c r="F77" s="257"/>
       <c r="G77" s="48"/>
       <c r="H77" s="48"/>
       <c r="I77" s="48"/>
@@ -12843,12 +12872,12 @@
       </c>
     </row>
     <row r="78" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C78" s="258"/>
-      <c r="D78" s="260" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="260"/>
-      <c r="F78" s="260"/>
+      <c r="C78" s="255"/>
+      <c r="D78" s="257" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="257"/>
+      <c r="F78" s="257"/>
       <c r="G78" s="48"/>
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
@@ -12923,12 +12952,12 @@
       <c r="A79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="258"/>
-      <c r="D79" s="260" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="260"/>
-      <c r="F79" s="260"/>
+      <c r="C79" s="255"/>
+      <c r="D79" s="257" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="257"/>
+      <c r="F79" s="257"/>
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
@@ -13000,12 +13029,12 @@
       </c>
     </row>
     <row r="80" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C80" s="258"/>
-      <c r="D80" s="260" t="s">
-        <v>42</v>
-      </c>
-      <c r="E80" s="260"/>
-      <c r="F80" s="260"/>
+      <c r="C80" s="255"/>
+      <c r="D80" s="257" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="257"/>
+      <c r="F80" s="257"/>
       <c r="G80" s="48"/>
       <c r="H80" s="48"/>
       <c r="I80" s="48"/>
@@ -13077,12 +13106,12 @@
       </c>
     </row>
     <row r="81" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C81" s="258"/>
-      <c r="D81" s="260" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81" s="260"/>
-      <c r="F81" s="260"/>
+      <c r="C81" s="255"/>
+      <c r="D81" s="257" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="257"/>
+      <c r="F81" s="257"/>
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
       <c r="I81" s="48"/>
@@ -13154,12 +13183,12 @@
       </c>
     </row>
     <row r="82" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C82" s="258"/>
-      <c r="D82" s="260" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="260"/>
-      <c r="F82" s="260"/>
+      <c r="C82" s="255"/>
+      <c r="D82" s="257" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="257"/>
+      <c r="F82" s="257"/>
       <c r="G82" s="48"/>
       <c r="H82" s="48"/>
       <c r="I82" s="48"/>
@@ -13231,12 +13260,12 @@
       </c>
     </row>
     <row r="83" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C83" s="258"/>
-      <c r="D83" s="260" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="260"/>
-      <c r="F83" s="260"/>
+      <c r="C83" s="255"/>
+      <c r="D83" s="257" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="257"/>
+      <c r="F83" s="257"/>
       <c r="G83" s="48"/>
       <c r="H83" s="48"/>
       <c r="I83" s="48"/>
@@ -13308,12 +13337,12 @@
       </c>
     </row>
     <row r="84" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C84" s="258"/>
-      <c r="D84" s="260" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="260"/>
-      <c r="F84" s="260"/>
+      <c r="C84" s="255"/>
+      <c r="D84" s="257" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="257"/>
+      <c r="F84" s="257"/>
       <c r="G84" s="48"/>
       <c r="H84" s="48"/>
       <c r="I84" s="48"/>
@@ -13385,12 +13414,12 @@
       </c>
     </row>
     <row r="85" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C85" s="258"/>
-      <c r="D85" s="261" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" s="261"/>
-      <c r="F85" s="261"/>
+      <c r="C85" s="255"/>
+      <c r="D85" s="258" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="258"/>
+      <c r="F85" s="258"/>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50"/>
@@ -13468,11 +13497,11 @@
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="255" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="256" t="s">
-        <v>25</v>
+      <c r="C87" s="252" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="253" t="s">
+        <v>22</v>
       </c>
       <c r="E87" s="53"/>
       <c r="F87" s="54">
@@ -13644,8 +13673,8 @@
       </c>
     </row>
     <row r="88" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="255"/>
-      <c r="D88" s="256"/>
+      <c r="C88" s="252"/>
+      <c r="D88" s="253"/>
       <c r="E88" s="57"/>
       <c r="F88" s="58">
         <v>100</v>
@@ -13816,8 +13845,8 @@
       </c>
     </row>
     <row r="89" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="255"/>
-      <c r="D89" s="256"/>
+      <c r="C89" s="252"/>
+      <c r="D89" s="253"/>
       <c r="E89" s="57"/>
       <c r="F89" s="58">
         <v>2000</v>
@@ -13988,11 +14017,11 @@
       </c>
     </row>
     <row r="90" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="255"/>
-      <c r="D90" s="256"/>
+      <c r="C90" s="252"/>
+      <c r="D90" s="253"/>
       <c r="E90" s="61"/>
       <c r="F90" s="62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G90" s="63">
         <f>SUM(G87:G89)</f>
@@ -14160,9 +14189,9 @@
       </c>
     </row>
     <row r="91" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="255"/>
-      <c r="D91" s="256" t="s">
-        <v>50</v>
+      <c r="C91" s="252"/>
+      <c r="D91" s="253" t="s">
+        <v>47</v>
       </c>
       <c r="E91" s="53"/>
       <c r="F91" s="54">
@@ -14334,8 +14363,8 @@
       </c>
     </row>
     <row r="92" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="255"/>
-      <c r="D92" s="256"/>
+      <c r="C92" s="252"/>
+      <c r="D92" s="253"/>
       <c r="E92" s="57"/>
       <c r="F92" s="58">
         <v>40</v>
@@ -14506,8 +14535,8 @@
       </c>
     </row>
     <row r="93" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="255"/>
-      <c r="D93" s="256"/>
+      <c r="C93" s="252"/>
+      <c r="D93" s="253"/>
       <c r="E93" s="57"/>
       <c r="F93" s="58">
         <v>2000</v>
@@ -14678,11 +14707,11 @@
       </c>
     </row>
     <row r="94" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="255"/>
-      <c r="D94" s="256"/>
+      <c r="C94" s="252"/>
+      <c r="D94" s="253"/>
       <c r="E94" s="61"/>
       <c r="F94" s="62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G94" s="63">
         <f>SUM(G91:G93)</f>
@@ -14850,9 +14879,9 @@
       </c>
     </row>
     <row r="95" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="255"/>
-      <c r="D95" s="256" t="s">
-        <v>51</v>
+      <c r="C95" s="252"/>
+      <c r="D95" s="253" t="s">
+        <v>48</v>
       </c>
       <c r="E95" s="53"/>
       <c r="F95" s="54">
@@ -15024,8 +15053,8 @@
       </c>
     </row>
     <row r="96" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="255"/>
-      <c r="D96" s="256"/>
+      <c r="C96" s="252"/>
+      <c r="D96" s="253"/>
       <c r="E96" s="57"/>
       <c r="F96" s="58">
         <v>200</v>
@@ -15196,8 +15225,8 @@
       </c>
     </row>
     <row r="97" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="255"/>
-      <c r="D97" s="256"/>
+      <c r="C97" s="252"/>
+      <c r="D97" s="253"/>
       <c r="E97" s="57"/>
       <c r="F97" s="58">
         <v>2000</v>
@@ -15368,11 +15397,11 @@
       </c>
     </row>
     <row r="98" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="255"/>
-      <c r="D98" s="256"/>
+      <c r="C98" s="252"/>
+      <c r="D98" s="253"/>
       <c r="E98" s="61"/>
       <c r="F98" s="62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G98" s="59">
         <f>SUM(G95:G97)</f>
@@ -15540,9 +15569,9 @@
       </c>
     </row>
     <row r="99" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="255"/>
-      <c r="D99" s="256" t="s">
-        <v>30</v>
+      <c r="C99" s="252"/>
+      <c r="D99" s="253" t="s">
+        <v>27</v>
       </c>
       <c r="E99" s="53"/>
       <c r="F99" s="54">
@@ -15714,8 +15743,8 @@
       </c>
     </row>
     <row r="100" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="255"/>
-      <c r="D100" s="256"/>
+      <c r="C100" s="252"/>
+      <c r="D100" s="253"/>
       <c r="E100" s="57"/>
       <c r="F100" s="58">
         <v>300</v>
@@ -15886,8 +15915,8 @@
       </c>
     </row>
     <row r="101" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="255"/>
-      <c r="D101" s="256"/>
+      <c r="C101" s="252"/>
+      <c r="D101" s="253"/>
       <c r="E101" s="57"/>
       <c r="F101" s="58">
         <v>2000</v>
@@ -16058,11 +16087,11 @@
       </c>
     </row>
     <row r="102" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="255"/>
-      <c r="D102" s="256"/>
+      <c r="C102" s="252"/>
+      <c r="D102" s="253"/>
       <c r="E102" s="61"/>
       <c r="F102" s="62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G102" s="59">
         <f>SUM(G99:G101)</f>
@@ -16230,9 +16259,9 @@
       </c>
     </row>
     <row r="103" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="255"/>
-      <c r="D103" s="256" t="s">
-        <v>31</v>
+      <c r="C103" s="252"/>
+      <c r="D103" s="253" t="s">
+        <v>28</v>
       </c>
       <c r="E103" s="53"/>
       <c r="F103" s="54">
@@ -16404,8 +16433,8 @@
       </c>
     </row>
     <row r="104" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="255"/>
-      <c r="D104" s="256"/>
+      <c r="C104" s="252"/>
+      <c r="D104" s="253"/>
       <c r="E104" s="57"/>
       <c r="F104" s="58">
         <v>300</v>
@@ -16576,8 +16605,8 @@
       </c>
     </row>
     <row r="105" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="255"/>
-      <c r="D105" s="256"/>
+      <c r="C105" s="252"/>
+      <c r="D105" s="253"/>
       <c r="E105" s="57"/>
       <c r="F105" s="58">
         <v>500</v>
@@ -16748,8 +16777,8 @@
       </c>
     </row>
     <row r="106" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="255"/>
-      <c r="D106" s="256"/>
+      <c r="C106" s="252"/>
+      <c r="D106" s="253"/>
       <c r="E106" s="57"/>
       <c r="F106" s="58">
         <v>800</v>
@@ -16920,8 +16949,8 @@
       </c>
     </row>
     <row r="107" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="255"/>
-      <c r="D107" s="256"/>
+      <c r="C107" s="252"/>
+      <c r="D107" s="253"/>
       <c r="E107" s="57"/>
       <c r="F107" s="58">
         <v>1000</v>
@@ -17092,8 +17121,8 @@
       </c>
     </row>
     <row r="108" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="255"/>
-      <c r="D108" s="256"/>
+      <c r="C108" s="252"/>
+      <c r="D108" s="253"/>
       <c r="E108" s="57"/>
       <c r="F108" s="58">
         <v>2000</v>
@@ -17264,11 +17293,11 @@
       </c>
     </row>
     <row r="109" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="255"/>
-      <c r="D109" s="256"/>
+      <c r="C109" s="252"/>
+      <c r="D109" s="253"/>
       <c r="E109" s="61"/>
       <c r="F109" s="62" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G109" s="67">
         <f>SUM(G103:G108)</f>
@@ -17509,27 +17538,27 @@
       <c r="BU110" s="59"/>
     </row>
     <row r="111" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C111" s="194"/>
-      <c r="D111" s="195"/>
-      <c r="E111" s="195"/>
-      <c r="F111" s="196"/>
+      <c r="C111" s="192"/>
+      <c r="D111" s="193"/>
+      <c r="E111" s="193"/>
+      <c r="F111" s="194"/>
       <c r="I111" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M111" s="42"/>
       <c r="N111" s="69" t="str">
         <f>N3</f>
-        <v>MIRANDA GOLD COLOMBIA II LTD</v>
+        <v>CLIENT</v>
       </c>
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="3:73" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="197"/>
-      <c r="D112" s="198"/>
-      <c r="E112" s="198"/>
-      <c r="F112" s="199"/>
+      <c r="C112" s="195"/>
+      <c r="D112" s="196"/>
+      <c r="E112" s="196"/>
+      <c r="F112" s="197"/>
       <c r="I112" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M112" s="69"/>
       <c r="N112" s="69">
@@ -17539,24 +17568,24 @@
       <c r="O112" s="69"/>
     </row>
     <row r="113" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="197"/>
-      <c r="D113" s="198"/>
-      <c r="E113" s="198"/>
-      <c r="F113" s="199"/>
+      <c r="C113" s="195"/>
+      <c r="D113" s="196"/>
+      <c r="E113" s="196"/>
+      <c r="F113" s="197"/>
       <c r="I113" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M113" s="74"/>
       <c r="N113" s="74"/>
       <c r="O113" s="69"/>
     </row>
     <row r="114" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="197"/>
-      <c r="D114" s="198"/>
-      <c r="E114" s="198"/>
-      <c r="F114" s="199"/>
+      <c r="C114" s="195"/>
+      <c r="D114" s="196"/>
+      <c r="E114" s="196"/>
+      <c r="F114" s="197"/>
       <c r="I114" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M114" s="69"/>
       <c r="N114" s="69">
@@ -17568,12 +17597,12 @@
       <c r="AD114" s="77"/>
     </row>
     <row r="115" spans="3:30" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="200"/>
-      <c r="D115" s="201"/>
-      <c r="E115" s="201"/>
-      <c r="F115" s="202"/>
+      <c r="C115" s="198"/>
+      <c r="D115" s="199"/>
+      <c r="E115" s="199"/>
+      <c r="F115" s="200"/>
       <c r="I115" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M115" s="69"/>
       <c r="N115" s="69" t="str">
@@ -17590,7 +17619,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="I116" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -17602,26 +17631,26 @@
     </row>
     <row r="117" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="82" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D117" s="83"/>
       <c r="E117" s="83"/>
       <c r="F117" s="83"/>
       <c r="I117" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M117" s="270">
+        <v>62</v>
+      </c>
+      <c r="M117" s="267">
         <f>G8</f>
         <v>44743</v>
       </c>
-      <c r="N117" s="270"/>
+      <c r="N117" s="267"/>
       <c r="O117" s="84"/>
       <c r="AC117" s="77"/>
       <c r="AD117" s="77"/>
     </row>
     <row r="118" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="82" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D118" s="86"/>
       <c r="E118" s="86"/>
@@ -17629,20 +17658,20 @@
       <c r="G118" s="87"/>
       <c r="H118" s="87"/>
       <c r="I118" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M118" s="270">
+        <v>64</v>
+      </c>
+      <c r="M118" s="267">
         <f>BK8</f>
         <v>44757</v>
       </c>
-      <c r="N118" s="270"/>
+      <c r="N118" s="267"/>
       <c r="O118" s="84"/>
       <c r="AC118" s="77"/>
       <c r="AD118" s="77"/>
     </row>
     <row r="119" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="82" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D119" s="86"/>
       <c r="E119" s="86"/>
@@ -17650,20 +17679,20 @@
       <c r="G119" s="87"/>
       <c r="H119" s="87"/>
       <c r="I119" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M119" s="272">
+        <v>66</v>
+      </c>
+      <c r="M119" s="269">
         <f>D127+D131+D134+D138+D141</f>
         <v>0</v>
       </c>
-      <c r="N119" s="272"/>
+      <c r="N119" s="269"/>
       <c r="O119" s="88"/>
       <c r="AC119" s="77"/>
       <c r="AD119" s="77"/>
     </row>
     <row r="120" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D120" s="86"/>
       <c r="E120" s="86"/>
@@ -17682,7 +17711,7 @@
     </row>
     <row r="121" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="82" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D121" s="86"/>
       <c r="E121" s="86"/>
@@ -17690,16 +17719,16 @@
       <c r="G121" s="87"/>
       <c r="H121" s="87"/>
       <c r="I121" s="91" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J121" s="91"/>
       <c r="K121" s="91"/>
       <c r="L121" s="91"/>
-      <c r="M121" s="271">
+      <c r="M121" s="268">
         <f>N261</f>
         <v>0</v>
       </c>
-      <c r="N121" s="271"/>
+      <c r="N121" s="268"/>
       <c r="O121" s="88"/>
       <c r="AC121" s="77"/>
       <c r="AD121" s="77"/>
@@ -17715,97 +17744,96 @@
       <c r="AD122" s="77"/>
     </row>
     <row r="123" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="221" t="s">
-        <v>73</v>
-      </c>
-      <c r="D123" s="222"/>
-      <c r="E123" s="222"/>
-      <c r="F123" s="222"/>
-      <c r="G123" s="222"/>
-      <c r="H123" s="223"/>
-      <c r="I123" s="224"/>
-      <c r="J123" s="225"/>
-      <c r="K123" s="225"/>
-      <c r="L123" s="225"/>
-      <c r="M123" s="225"/>
-      <c r="N123" s="226"/>
+      <c r="C123" s="219" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="220"/>
+      <c r="E123" s="220"/>
+      <c r="F123" s="220"/>
+      <c r="G123" s="220"/>
+      <c r="H123" s="221"/>
+      <c r="I123" s="222"/>
+      <c r="J123" s="223"/>
+      <c r="K123" s="223"/>
+      <c r="L123" s="223"/>
+      <c r="M123" s="223"/>
+      <c r="N123" s="224"/>
       <c r="O123" s="88"/>
       <c r="AC123" s="77"/>
       <c r="AD123" s="77"/>
     </row>
     <row r="124" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="262" t="s">
-        <v>74</v>
-      </c>
-      <c r="D124" s="217" t="s">
-        <v>102</v>
-      </c>
-      <c r="E124" s="217" t="s">
+      <c r="C124" s="259" t="s">
+        <v>71</v>
+      </c>
+      <c r="D124" s="215" t="s">
+        <v>99</v>
+      </c>
+      <c r="E124" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="F124" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="F124" s="189" t="s">
-        <v>75</v>
-      </c>
-      <c r="G124" s="190"/>
-      <c r="H124" s="191"/>
-      <c r="I124" s="219" t="s">
-        <v>76</v>
-      </c>
-      <c r="J124" s="176"/>
-      <c r="K124" s="176"/>
-      <c r="L124" s="218" t="s">
-        <v>103</v>
-      </c>
-      <c r="M124" s="227" t="s">
-        <v>72</v>
-      </c>
-      <c r="N124" s="228"/>
+      <c r="G124" s="188"/>
+      <c r="H124" s="189"/>
+      <c r="I124" s="217" t="s">
+        <v>73</v>
+      </c>
+      <c r="J124" s="174"/>
+      <c r="K124" s="174"/>
+      <c r="L124" s="216" t="s">
+        <v>100</v>
+      </c>
+      <c r="M124" s="225" t="s">
+        <v>69</v>
+      </c>
+      <c r="N124" s="226"/>
       <c r="O124" s="88"/>
       <c r="AC124" s="77"/>
       <c r="AD124" s="77"/>
     </row>
     <row r="125" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="219"/>
-      <c r="D125" s="218"/>
-      <c r="E125" s="218"/>
-      <c r="F125" s="187" t="s">
-        <v>78</v>
-      </c>
-      <c r="G125" s="189" t="s">
-        <v>79</v>
-      </c>
-      <c r="H125" s="191"/>
-      <c r="I125" s="220"/>
-      <c r="J125" s="176"/>
-      <c r="K125" s="176"/>
-      <c r="L125" s="218"/>
-      <c r="M125" s="229"/>
-      <c r="N125" s="230"/>
+      <c r="C125" s="217"/>
+      <c r="D125" s="216"/>
+      <c r="E125" s="216"/>
+      <c r="F125" s="183" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" s="189"/>
+      <c r="I125" s="218"/>
+      <c r="J125" s="174"/>
+      <c r="K125" s="174"/>
+      <c r="L125" s="216"/>
+      <c r="M125" s="227"/>
+      <c r="N125" s="228"/>
       <c r="O125" s="88"/>
       <c r="AC125" s="77"/>
       <c r="AD125" s="77"/>
     </row>
     <row r="126" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="177"/>
-      <c r="D126" s="178"/>
-      <c r="E126" s="178"/>
-      <c r="F126" s="179"/>
-      <c r="G126" s="188"/>
-      <c r="H126" s="188"/>
-      <c r="I126" s="180">
-        <f>BS87</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="180"/>
-      <c r="K126" s="180"/>
-      <c r="L126" s="180">
-        <v>0</v>
-      </c>
-      <c r="M126" s="274">
+      <c r="C126" s="175"/>
+      <c r="D126" s="176"/>
+      <c r="E126" s="176"/>
+      <c r="F126" s="177"/>
+      <c r="G126" s="186"/>
+      <c r="H126" s="186"/>
+      <c r="I126" s="178">
+        <v>0</v>
+      </c>
+      <c r="J126" s="178"/>
+      <c r="K126" s="178"/>
+      <c r="L126" s="178">
+        <v>0</v>
+      </c>
+      <c r="M126" s="270">
         <f t="shared" ref="M126:M142" si="10">I126*L126</f>
         <v>0</v>
       </c>
-      <c r="N126" s="275"/>
+      <c r="N126" s="271"/>
       <c r="O126" s="88"/>
       <c r="AC126" s="77"/>
       <c r="AD126" s="77"/>
@@ -17815,10 +17843,9 @@
       <c r="D127" s="30"/>
       <c r="E127" s="30"/>
       <c r="F127" s="68"/>
-      <c r="G127" s="188"/>
-      <c r="H127" s="188"/>
+      <c r="G127" s="186"/>
+      <c r="H127" s="186"/>
       <c r="I127" s="95">
-        <f>BS88</f>
         <v>0</v>
       </c>
       <c r="J127" s="95"/>
@@ -17826,11 +17853,11 @@
       <c r="L127" s="95">
         <v>0</v>
       </c>
-      <c r="M127" s="192">
+      <c r="M127" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N127" s="193"/>
+      <c r="N127" s="191"/>
       <c r="O127" s="88"/>
       <c r="AC127" s="77"/>
       <c r="AD127" s="77"/>
@@ -17838,10 +17865,9 @@
     <row r="128" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="163"/>
       <c r="F128" s="68"/>
-      <c r="G128" s="188"/>
-      <c r="H128" s="188"/>
+      <c r="G128" s="186"/>
+      <c r="H128" s="186"/>
       <c r="I128" s="95">
-        <f>BS89</f>
         <v>0</v>
       </c>
       <c r="J128" s="95"/>
@@ -17849,11 +17875,11 @@
       <c r="L128" s="95">
         <v>0</v>
       </c>
-      <c r="M128" s="192">
+      <c r="M128" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N128" s="193"/>
+      <c r="N128" s="191"/>
       <c r="O128" s="88"/>
       <c r="AC128" s="77"/>
       <c r="AD128" s="77"/>
@@ -17863,10 +17889,9 @@
       <c r="D129" s="30"/>
       <c r="E129" s="30"/>
       <c r="F129" s="68"/>
-      <c r="G129" s="188"/>
-      <c r="H129" s="188"/>
+      <c r="G129" s="186"/>
+      <c r="H129" s="186"/>
       <c r="I129" s="95">
-        <f>BS91</f>
         <v>0</v>
       </c>
       <c r="J129" s="95"/>
@@ -17874,11 +17899,11 @@
       <c r="L129" s="95">
         <v>0</v>
       </c>
-      <c r="M129" s="192">
+      <c r="M129" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N129" s="193"/>
+      <c r="N129" s="191"/>
       <c r="O129" s="97"/>
       <c r="AC129" s="77"/>
       <c r="AD129" s="77"/>
@@ -17886,10 +17911,9 @@
     <row r="130" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="166"/>
       <c r="F130" s="68"/>
-      <c r="G130" s="188"/>
-      <c r="H130" s="188"/>
+      <c r="G130" s="186"/>
+      <c r="H130" s="186"/>
       <c r="I130" s="95">
-        <f>BS92</f>
         <v>0</v>
       </c>
       <c r="J130" s="95"/>
@@ -17897,11 +17921,11 @@
       <c r="L130" s="95">
         <v>0</v>
       </c>
-      <c r="M130" s="192">
+      <c r="M130" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N130" s="193"/>
+      <c r="N130" s="191"/>
       <c r="AC130" s="77"/>
       <c r="AD130" s="30"/>
     </row>
@@ -17910,10 +17934,9 @@
       <c r="D131" s="95"/>
       <c r="E131" s="30"/>
       <c r="F131" s="68"/>
-      <c r="G131" s="188"/>
-      <c r="H131" s="188"/>
+      <c r="G131" s="186"/>
+      <c r="H131" s="186"/>
       <c r="I131" s="95">
-        <f>BS93</f>
         <v>0</v>
       </c>
       <c r="J131" s="95"/>
@@ -17921,11 +17944,11 @@
       <c r="L131" s="95">
         <v>0</v>
       </c>
-      <c r="M131" s="192">
+      <c r="M131" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N131" s="193"/>
+      <c r="N131" s="191"/>
       <c r="AC131" s="77"/>
       <c r="AD131" s="77"/>
     </row>
@@ -17934,10 +17957,9 @@
       <c r="D132" s="30"/>
       <c r="E132" s="30"/>
       <c r="F132" s="68"/>
-      <c r="G132" s="188"/>
-      <c r="H132" s="188"/>
+      <c r="G132" s="186"/>
+      <c r="H132" s="186"/>
       <c r="I132" s="95">
-        <f>BS95</f>
         <v>0</v>
       </c>
       <c r="J132" s="95"/>
@@ -17945,11 +17967,11 @@
       <c r="L132" s="95">
         <v>0</v>
       </c>
-      <c r="M132" s="192">
+      <c r="M132" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N132" s="193"/>
+      <c r="N132" s="191"/>
       <c r="AC132" s="77"/>
     </row>
     <row r="133" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17957,10 +17979,9 @@
       <c r="D133" s="95"/>
       <c r="E133" s="95"/>
       <c r="F133" s="68"/>
-      <c r="G133" s="188"/>
-      <c r="H133" s="188"/>
+      <c r="G133" s="186"/>
+      <c r="H133" s="186"/>
       <c r="I133" s="95">
-        <f>BS96</f>
         <v>0</v>
       </c>
       <c r="J133" s="95"/>
@@ -17968,11 +17989,11 @@
       <c r="L133" s="95">
         <v>0</v>
       </c>
-      <c r="M133" s="192">
+      <c r="M133" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N133" s="193"/>
+      <c r="N133" s="191"/>
       <c r="O133" s="68"/>
       <c r="AC133" s="77"/>
     </row>
@@ -17981,10 +18002,9 @@
       <c r="D134" s="95"/>
       <c r="E134" s="95"/>
       <c r="F134" s="68"/>
-      <c r="G134" s="188"/>
-      <c r="H134" s="188"/>
+      <c r="G134" s="186"/>
+      <c r="H134" s="186"/>
       <c r="I134" s="95">
-        <f>BS97</f>
         <v>0</v>
       </c>
       <c r="J134" s="95"/>
@@ -17992,11 +18012,11 @@
       <c r="L134" s="95">
         <v>0</v>
       </c>
-      <c r="M134" s="192">
+      <c r="M134" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N134" s="193"/>
+      <c r="N134" s="191"/>
       <c r="O134" s="68"/>
       <c r="AC134" s="77"/>
     </row>
@@ -18005,8 +18025,8 @@
       <c r="D135" s="95"/>
       <c r="E135" s="95"/>
       <c r="F135" s="68"/>
-      <c r="G135" s="188"/>
-      <c r="H135" s="188"/>
+      <c r="G135" s="186"/>
+      <c r="H135" s="186"/>
       <c r="I135" s="95">
         <v>0</v>
       </c>
@@ -18015,20 +18035,19 @@
       <c r="L135" s="95">
         <v>0</v>
       </c>
-      <c r="M135" s="192">
+      <c r="M135" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N135" s="193"/>
+      <c r="N135" s="191"/>
       <c r="AC135" s="77"/>
     </row>
     <row r="136" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="163"/>
       <c r="F136" s="68"/>
-      <c r="G136" s="188"/>
-      <c r="H136" s="188"/>
+      <c r="G136" s="186"/>
+      <c r="H136" s="186"/>
       <c r="I136" s="95">
-        <f>BS99</f>
         <v>0</v>
       </c>
       <c r="J136" s="95"/>
@@ -18036,20 +18055,19 @@
       <c r="L136" s="95">
         <v>0</v>
       </c>
-      <c r="M136" s="192">
+      <c r="M136" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N136" s="193"/>
+      <c r="N136" s="191"/>
       <c r="AC136" s="77"/>
     </row>
     <row r="137" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="166"/>
       <c r="F137" s="68"/>
-      <c r="G137" s="188"/>
-      <c r="H137" s="188"/>
+      <c r="G137" s="186"/>
+      <c r="H137" s="186"/>
       <c r="I137" s="95">
-        <f>BS100</f>
         <v>0</v>
       </c>
       <c r="J137" s="95"/>
@@ -18057,22 +18075,21 @@
       <c r="L137" s="95">
         <v>0</v>
       </c>
-      <c r="M137" s="192">
+      <c r="M137" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N137" s="193"/>
+      <c r="N137" s="191"/>
       <c r="AC137" s="77"/>
     </row>
     <row r="138" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="166"/>
       <c r="D138" s="95"/>
-      <c r="E138" s="181"/>
+      <c r="E138" s="179"/>
       <c r="F138" s="68"/>
-      <c r="G138" s="188"/>
-      <c r="H138" s="188"/>
+      <c r="G138" s="186"/>
+      <c r="H138" s="186"/>
       <c r="I138" s="95">
-        <f>BS101</f>
         <v>0</v>
       </c>
       <c r="J138" s="95"/>
@@ -18080,11 +18097,11 @@
       <c r="L138" s="95">
         <v>0</v>
       </c>
-      <c r="M138" s="192">
+      <c r="M138" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N138" s="193"/>
+      <c r="N138" s="191"/>
       <c r="AC138" s="77"/>
     </row>
     <row r="139" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18092,10 +18109,9 @@
       <c r="D139" s="95"/>
       <c r="E139" s="95"/>
       <c r="F139" s="68"/>
-      <c r="G139" s="188"/>
-      <c r="H139" s="188"/>
+      <c r="G139" s="186"/>
+      <c r="H139" s="186"/>
       <c r="I139" s="95">
-        <f t="shared" ref="I139:I176" si="11">BS103</f>
         <v>0</v>
       </c>
       <c r="J139" s="95"/>
@@ -18103,11 +18119,11 @@
       <c r="L139" s="95">
         <v>0</v>
       </c>
-      <c r="M139" s="192">
+      <c r="M139" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N139" s="193"/>
+      <c r="N139" s="191"/>
       <c r="AC139" s="30"/>
     </row>
     <row r="140" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18115,10 +18131,9 @@
       <c r="D140" s="95"/>
       <c r="E140" s="95"/>
       <c r="F140" s="68"/>
-      <c r="G140" s="188"/>
-      <c r="H140" s="188"/>
+      <c r="G140" s="186"/>
+      <c r="H140" s="186"/>
       <c r="I140" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J140" s="95"/>
@@ -18126,22 +18141,21 @@
       <c r="L140" s="95">
         <v>0</v>
       </c>
-      <c r="M140" s="192">
+      <c r="M140" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N140" s="193"/>
+      <c r="N140" s="191"/>
       <c r="AC140" s="77"/>
     </row>
     <row r="141" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="166"/>
       <c r="D141" s="95"/>
-      <c r="E141" s="181"/>
+      <c r="E141" s="179"/>
       <c r="F141" s="68"/>
-      <c r="G141" s="188"/>
-      <c r="H141" s="188"/>
+      <c r="G141" s="186"/>
+      <c r="H141" s="186"/>
       <c r="I141" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J141" s="95"/>
@@ -18149,21 +18163,20 @@
       <c r="L141" s="95">
         <v>0</v>
       </c>
-      <c r="M141" s="192">
+      <c r="M141" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N141" s="193"/>
+      <c r="N141" s="191"/>
     </row>
     <row r="142" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="166"/>
       <c r="D142" s="95"/>
-      <c r="E142" s="181"/>
+      <c r="E142" s="179"/>
       <c r="F142" s="68"/>
-      <c r="G142" s="188"/>
-      <c r="H142" s="188"/>
+      <c r="G142" s="186"/>
+      <c r="H142" s="186"/>
       <c r="I142" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J142" s="95"/>
@@ -18171,21 +18184,20 @@
       <c r="L142" s="95">
         <v>0</v>
       </c>
-      <c r="M142" s="192">
+      <c r="M142" s="190">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N142" s="193"/>
+      <c r="N142" s="191"/>
     </row>
     <row r="143" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="166"/>
       <c r="D143" s="95"/>
       <c r="E143" s="95"/>
       <c r="F143" s="68"/>
-      <c r="G143" s="188"/>
-      <c r="H143" s="188"/>
+      <c r="G143" s="186"/>
+      <c r="H143" s="186"/>
       <c r="I143" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J143" s="95"/>
@@ -18193,11 +18205,11 @@
       <c r="L143" s="95">
         <v>0</v>
       </c>
-      <c r="M143" s="192">
+      <c r="M143" s="190">
         <f>I143*L143</f>
         <v>0</v>
       </c>
-      <c r="N143" s="193"/>
+      <c r="N143" s="191"/>
       <c r="AC143" s="77"/>
     </row>
     <row r="144" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18205,10 +18217,9 @@
       <c r="D144" s="95"/>
       <c r="E144" s="95"/>
       <c r="F144" s="68"/>
-      <c r="G144" s="188"/>
-      <c r="H144" s="188"/>
+      <c r="G144" s="186"/>
+      <c r="H144" s="186"/>
       <c r="I144" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J144" s="95"/>
@@ -18216,11 +18227,11 @@
       <c r="L144" s="95">
         <v>0</v>
       </c>
-      <c r="M144" s="192">
-        <f t="shared" ref="M144:M165" si="12">I144*L144</f>
-        <v>0</v>
-      </c>
-      <c r="N144" s="193"/>
+      <c r="M144" s="190">
+        <f t="shared" ref="M144:M165" si="11">I144*L144</f>
+        <v>0</v>
+      </c>
+      <c r="N144" s="191"/>
       <c r="AC144" s="77"/>
     </row>
     <row r="145" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18228,10 +18239,9 @@
       <c r="D145" s="95"/>
       <c r="E145" s="95"/>
       <c r="F145" s="68"/>
-      <c r="G145" s="188"/>
-      <c r="H145" s="188"/>
+      <c r="G145" s="186"/>
+      <c r="H145" s="186"/>
       <c r="I145" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J145" s="95"/>
@@ -18239,11 +18249,11 @@
       <c r="L145" s="95">
         <v>0</v>
       </c>
-      <c r="M145" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N145" s="193"/>
+      <c r="M145" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N145" s="191"/>
       <c r="AC145" s="77"/>
     </row>
     <row r="146" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18251,10 +18261,9 @@
       <c r="D146" s="95"/>
       <c r="E146" s="95"/>
       <c r="F146" s="68"/>
-      <c r="G146" s="188"/>
-      <c r="H146" s="188"/>
+      <c r="G146" s="186"/>
+      <c r="H146" s="186"/>
       <c r="I146" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J146" s="95"/>
@@ -18262,11 +18271,11 @@
       <c r="L146" s="95">
         <v>0</v>
       </c>
-      <c r="M146" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N146" s="193"/>
+      <c r="M146" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N146" s="191"/>
       <c r="AC146" s="77"/>
     </row>
     <row r="147" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18274,10 +18283,9 @@
       <c r="D147" s="95"/>
       <c r="E147" s="95"/>
       <c r="F147" s="68"/>
-      <c r="G147" s="188"/>
-      <c r="H147" s="188"/>
+      <c r="G147" s="186"/>
+      <c r="H147" s="186"/>
       <c r="I147" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J147" s="95"/>
@@ -18285,11 +18293,11 @@
       <c r="L147" s="95">
         <v>0</v>
       </c>
-      <c r="M147" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N147" s="193"/>
+      <c r="M147" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N147" s="191"/>
       <c r="AC147" s="77"/>
     </row>
     <row r="148" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18297,10 +18305,9 @@
       <c r="D148" s="95"/>
       <c r="E148" s="95"/>
       <c r="F148" s="68"/>
-      <c r="G148" s="188"/>
-      <c r="H148" s="188"/>
+      <c r="G148" s="186"/>
+      <c r="H148" s="186"/>
       <c r="I148" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J148" s="95"/>
@@ -18308,11 +18315,11 @@
       <c r="L148" s="95">
         <v>0</v>
       </c>
-      <c r="M148" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N148" s="193"/>
+      <c r="M148" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N148" s="191"/>
       <c r="AC148" s="77"/>
     </row>
     <row r="149" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18320,10 +18327,9 @@
       <c r="D149" s="95"/>
       <c r="E149" s="95"/>
       <c r="F149" s="68"/>
-      <c r="G149" s="188"/>
-      <c r="H149" s="188"/>
+      <c r="G149" s="186"/>
+      <c r="H149" s="186"/>
       <c r="I149" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J149" s="95"/>
@@ -18331,11 +18337,11 @@
       <c r="L149" s="95">
         <v>0</v>
       </c>
-      <c r="M149" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N149" s="193"/>
+      <c r="M149" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N149" s="191"/>
       <c r="AC149" s="77"/>
     </row>
     <row r="150" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18343,10 +18349,9 @@
       <c r="D150" s="95"/>
       <c r="E150" s="95"/>
       <c r="F150" s="68"/>
-      <c r="G150" s="188"/>
-      <c r="H150" s="188"/>
+      <c r="G150" s="186"/>
+      <c r="H150" s="186"/>
       <c r="I150" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J150" s="95"/>
@@ -18354,11 +18359,11 @@
       <c r="L150" s="95">
         <v>0</v>
       </c>
-      <c r="M150" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N150" s="193"/>
+      <c r="M150" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N150" s="191"/>
       <c r="AC150" s="77"/>
     </row>
     <row r="151" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18366,10 +18371,9 @@
       <c r="D151" s="95"/>
       <c r="E151" s="95"/>
       <c r="F151" s="68"/>
-      <c r="G151" s="188"/>
-      <c r="H151" s="188"/>
+      <c r="G151" s="186"/>
+      <c r="H151" s="186"/>
       <c r="I151" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J151" s="95"/>
@@ -18377,11 +18381,11 @@
       <c r="L151" s="95">
         <v>0</v>
       </c>
-      <c r="M151" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N151" s="193"/>
+      <c r="M151" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N151" s="191"/>
       <c r="AC151" s="77"/>
     </row>
     <row r="152" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18389,10 +18393,9 @@
       <c r="D152" s="95"/>
       <c r="E152" s="95"/>
       <c r="F152" s="68"/>
-      <c r="G152" s="188"/>
-      <c r="H152" s="188"/>
+      <c r="G152" s="186"/>
+      <c r="H152" s="186"/>
       <c r="I152" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J152" s="95"/>
@@ -18400,11 +18403,11 @@
       <c r="L152" s="95">
         <v>0</v>
       </c>
-      <c r="M152" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N152" s="193"/>
+      <c r="M152" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N152" s="191"/>
       <c r="AC152" s="77"/>
     </row>
     <row r="153" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18412,10 +18415,9 @@
       <c r="D153" s="95"/>
       <c r="E153" s="95"/>
       <c r="F153" s="68"/>
-      <c r="G153" s="188"/>
-      <c r="H153" s="188"/>
+      <c r="G153" s="186"/>
+      <c r="H153" s="186"/>
       <c r="I153" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J153" s="95"/>
@@ -18423,11 +18425,11 @@
       <c r="L153" s="95">
         <v>0</v>
       </c>
-      <c r="M153" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N153" s="193"/>
+      <c r="M153" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N153" s="191"/>
       <c r="AC153" s="77"/>
     </row>
     <row r="154" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18435,10 +18437,9 @@
       <c r="D154" s="95"/>
       <c r="E154" s="95"/>
       <c r="F154" s="68"/>
-      <c r="G154" s="188"/>
-      <c r="H154" s="188"/>
+      <c r="G154" s="186"/>
+      <c r="H154" s="186"/>
       <c r="I154" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J154" s="95"/>
@@ -18446,11 +18447,11 @@
       <c r="L154" s="95">
         <v>0</v>
       </c>
-      <c r="M154" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N154" s="193"/>
+      <c r="M154" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N154" s="191"/>
       <c r="AC154" s="77"/>
     </row>
     <row r="155" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18458,10 +18459,9 @@
       <c r="D155" s="95"/>
       <c r="E155" s="95"/>
       <c r="F155" s="68"/>
-      <c r="G155" s="188"/>
-      <c r="H155" s="188"/>
+      <c r="G155" s="186"/>
+      <c r="H155" s="186"/>
       <c r="I155" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J155" s="95"/>
@@ -18469,11 +18469,11 @@
       <c r="L155" s="95">
         <v>0</v>
       </c>
-      <c r="M155" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N155" s="193"/>
+      <c r="M155" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N155" s="191"/>
       <c r="AC155" s="77"/>
     </row>
     <row r="156" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18481,10 +18481,9 @@
       <c r="D156" s="95"/>
       <c r="E156" s="95"/>
       <c r="F156" s="68"/>
-      <c r="G156" s="188"/>
-      <c r="H156" s="188"/>
+      <c r="G156" s="186"/>
+      <c r="H156" s="186"/>
       <c r="I156" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J156" s="95"/>
@@ -18492,11 +18491,11 @@
       <c r="L156" s="95">
         <v>0</v>
       </c>
-      <c r="M156" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N156" s="193"/>
+      <c r="M156" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N156" s="191"/>
       <c r="AC156" s="77"/>
     </row>
     <row r="157" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18504,10 +18503,9 @@
       <c r="D157" s="95"/>
       <c r="E157" s="95"/>
       <c r="F157" s="68"/>
-      <c r="G157" s="188"/>
-      <c r="H157" s="188"/>
+      <c r="G157" s="186"/>
+      <c r="H157" s="186"/>
       <c r="I157" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J157" s="95"/>
@@ -18515,11 +18513,11 @@
       <c r="L157" s="95">
         <v>0</v>
       </c>
-      <c r="M157" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N157" s="193"/>
+      <c r="M157" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N157" s="191"/>
       <c r="AC157" s="77"/>
     </row>
     <row r="158" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18527,10 +18525,9 @@
       <c r="D158" s="95"/>
       <c r="E158" s="95"/>
       <c r="F158" s="68"/>
-      <c r="G158" s="188"/>
-      <c r="H158" s="188"/>
+      <c r="G158" s="186"/>
+      <c r="H158" s="186"/>
       <c r="I158" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J158" s="95"/>
@@ -18538,11 +18535,11 @@
       <c r="L158" s="95">
         <v>0</v>
       </c>
-      <c r="M158" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N158" s="193"/>
+      <c r="M158" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N158" s="191"/>
       <c r="AC158" s="77"/>
     </row>
     <row r="159" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18550,10 +18547,9 @@
       <c r="D159" s="95"/>
       <c r="E159" s="95"/>
       <c r="F159" s="68"/>
-      <c r="G159" s="188"/>
-      <c r="H159" s="188"/>
+      <c r="G159" s="186"/>
+      <c r="H159" s="186"/>
       <c r="I159" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J159" s="95"/>
@@ -18561,11 +18557,11 @@
       <c r="L159" s="95">
         <v>0</v>
       </c>
-      <c r="M159" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N159" s="193"/>
+      <c r="M159" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N159" s="191"/>
       <c r="AC159" s="77"/>
     </row>
     <row r="160" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18573,10 +18569,9 @@
       <c r="D160" s="95"/>
       <c r="E160" s="95"/>
       <c r="F160" s="68"/>
-      <c r="G160" s="188"/>
-      <c r="H160" s="188"/>
+      <c r="G160" s="186"/>
+      <c r="H160" s="186"/>
       <c r="I160" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J160" s="95"/>
@@ -18584,11 +18579,11 @@
       <c r="L160" s="95">
         <v>0</v>
       </c>
-      <c r="M160" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N160" s="193"/>
+      <c r="M160" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N160" s="191"/>
       <c r="AC160" s="77"/>
     </row>
     <row r="161" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18596,10 +18591,9 @@
       <c r="D161" s="95"/>
       <c r="E161" s="95"/>
       <c r="F161" s="68"/>
-      <c r="G161" s="188"/>
-      <c r="H161" s="188"/>
+      <c r="G161" s="186"/>
+      <c r="H161" s="186"/>
       <c r="I161" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J161" s="95"/>
@@ -18607,11 +18601,11 @@
       <c r="L161" s="95">
         <v>0</v>
       </c>
-      <c r="M161" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N161" s="193"/>
+      <c r="M161" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N161" s="191"/>
       <c r="AC161" s="77"/>
     </row>
     <row r="162" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18619,10 +18613,9 @@
       <c r="D162" s="95"/>
       <c r="E162" s="95"/>
       <c r="F162" s="68"/>
-      <c r="G162" s="188"/>
-      <c r="H162" s="188"/>
+      <c r="G162" s="186"/>
+      <c r="H162" s="186"/>
       <c r="I162" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J162" s="95"/>
@@ -18630,11 +18623,11 @@
       <c r="L162" s="95">
         <v>0</v>
       </c>
-      <c r="M162" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N162" s="193"/>
+      <c r="M162" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N162" s="191"/>
       <c r="AC162" s="77"/>
     </row>
     <row r="163" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18642,10 +18635,9 @@
       <c r="D163" s="95"/>
       <c r="E163" s="95"/>
       <c r="F163" s="68"/>
-      <c r="G163" s="188"/>
-      <c r="H163" s="188"/>
+      <c r="G163" s="186"/>
+      <c r="H163" s="186"/>
       <c r="I163" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J163" s="95"/>
@@ -18653,11 +18645,11 @@
       <c r="L163" s="95">
         <v>0</v>
       </c>
-      <c r="M163" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N163" s="193"/>
+      <c r="M163" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N163" s="191"/>
       <c r="AC163" s="77"/>
     </row>
     <row r="164" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18665,10 +18657,9 @@
       <c r="D164" s="95"/>
       <c r="E164" s="95"/>
       <c r="F164" s="68"/>
-      <c r="G164" s="188"/>
-      <c r="H164" s="188"/>
+      <c r="G164" s="186"/>
+      <c r="H164" s="186"/>
       <c r="I164" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J164" s="95"/>
@@ -18676,11 +18667,11 @@
       <c r="L164" s="95">
         <v>0</v>
       </c>
-      <c r="M164" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N164" s="193"/>
+      <c r="M164" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N164" s="191"/>
       <c r="AC164" s="77"/>
     </row>
     <row r="165" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18688,10 +18679,9 @@
       <c r="D165" s="95"/>
       <c r="E165" s="95"/>
       <c r="F165" s="68"/>
-      <c r="G165" s="188"/>
-      <c r="H165" s="188"/>
+      <c r="G165" s="186"/>
+      <c r="H165" s="186"/>
       <c r="I165" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J165" s="95"/>
@@ -18699,11 +18689,11 @@
       <c r="L165" s="95">
         <v>0</v>
       </c>
-      <c r="M165" s="192">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N165" s="193"/>
+      <c r="M165" s="190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N165" s="191"/>
       <c r="AC165" s="77"/>
     </row>
     <row r="166" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18711,10 +18701,9 @@
       <c r="D166" s="95"/>
       <c r="E166" s="95"/>
       <c r="F166" s="68"/>
-      <c r="G166" s="188"/>
-      <c r="H166" s="188"/>
+      <c r="G166" s="186"/>
+      <c r="H166" s="186"/>
       <c r="I166" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J166" s="95"/>
@@ -18722,11 +18711,11 @@
       <c r="L166" s="95">
         <v>0</v>
       </c>
-      <c r="M166" s="192">
-        <f t="shared" ref="M166:M176" si="13">I166*L166</f>
-        <v>0</v>
-      </c>
-      <c r="N166" s="193"/>
+      <c r="M166" s="190">
+        <f t="shared" ref="M166:M176" si="12">I166*L166</f>
+        <v>0</v>
+      </c>
+      <c r="N166" s="191"/>
       <c r="AC166" s="77"/>
     </row>
     <row r="167" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18734,10 +18723,9 @@
       <c r="D167" s="95"/>
       <c r="E167" s="95"/>
       <c r="F167" s="68"/>
-      <c r="G167" s="188"/>
-      <c r="H167" s="188"/>
+      <c r="G167" s="186"/>
+      <c r="H167" s="186"/>
       <c r="I167" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J167" s="95"/>
@@ -18745,11 +18733,11 @@
       <c r="L167" s="95">
         <v>0</v>
       </c>
-      <c r="M167" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N167" s="193"/>
+      <c r="M167" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N167" s="191"/>
       <c r="AC167" s="77"/>
     </row>
     <row r="168" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18757,10 +18745,9 @@
       <c r="D168" s="95"/>
       <c r="E168" s="95"/>
       <c r="F168" s="68"/>
-      <c r="G168" s="188"/>
-      <c r="H168" s="188"/>
+      <c r="G168" s="186"/>
+      <c r="H168" s="186"/>
       <c r="I168" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J168" s="95"/>
@@ -18768,11 +18755,11 @@
       <c r="L168" s="95">
         <v>0</v>
       </c>
-      <c r="M168" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N168" s="193"/>
+      <c r="M168" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="191"/>
       <c r="AC168" s="77"/>
     </row>
     <row r="169" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18780,10 +18767,9 @@
       <c r="D169" s="95"/>
       <c r="E169" s="95"/>
       <c r="F169" s="68"/>
-      <c r="G169" s="188"/>
-      <c r="H169" s="188"/>
+      <c r="G169" s="186"/>
+      <c r="H169" s="186"/>
       <c r="I169" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J169" s="95"/>
@@ -18791,11 +18777,11 @@
       <c r="L169" s="95">
         <v>0</v>
       </c>
-      <c r="M169" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N169" s="193"/>
+      <c r="M169" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="191"/>
       <c r="AC169" s="77"/>
     </row>
     <row r="170" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18803,10 +18789,9 @@
       <c r="D170" s="95"/>
       <c r="E170" s="95"/>
       <c r="F170" s="68"/>
-      <c r="G170" s="188"/>
-      <c r="H170" s="188"/>
+      <c r="G170" s="186"/>
+      <c r="H170" s="186"/>
       <c r="I170" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J170" s="95"/>
@@ -18814,11 +18799,11 @@
       <c r="L170" s="95">
         <v>0</v>
       </c>
-      <c r="M170" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N170" s="193"/>
+      <c r="M170" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N170" s="191"/>
       <c r="AC170" s="77"/>
     </row>
     <row r="171" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18826,10 +18811,9 @@
       <c r="D171" s="95"/>
       <c r="E171" s="95"/>
       <c r="F171" s="68"/>
-      <c r="G171" s="188"/>
-      <c r="H171" s="188"/>
+      <c r="G171" s="186"/>
+      <c r="H171" s="186"/>
       <c r="I171" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J171" s="95"/>
@@ -18837,11 +18821,11 @@
       <c r="L171" s="95">
         <v>0</v>
       </c>
-      <c r="M171" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N171" s="193"/>
+      <c r="M171" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N171" s="191"/>
       <c r="AC171" s="77"/>
     </row>
     <row r="172" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18849,10 +18833,9 @@
       <c r="D172" s="95"/>
       <c r="E172" s="95"/>
       <c r="F172" s="68"/>
-      <c r="G172" s="188"/>
-      <c r="H172" s="188"/>
+      <c r="G172" s="186"/>
+      <c r="H172" s="186"/>
       <c r="I172" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J172" s="95"/>
@@ -18860,11 +18843,11 @@
       <c r="L172" s="95">
         <v>0</v>
       </c>
-      <c r="M172" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N172" s="193"/>
+      <c r="M172" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N172" s="191"/>
       <c r="AC172" s="77"/>
     </row>
     <row r="173" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18872,10 +18855,9 @@
       <c r="D173" s="95"/>
       <c r="E173" s="95"/>
       <c r="F173" s="68"/>
-      <c r="G173" s="188"/>
-      <c r="H173" s="188"/>
+      <c r="G173" s="186"/>
+      <c r="H173" s="186"/>
       <c r="I173" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J173" s="95"/>
@@ -18883,11 +18865,11 @@
       <c r="L173" s="95">
         <v>0</v>
       </c>
-      <c r="M173" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N173" s="193"/>
+      <c r="M173" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N173" s="191"/>
       <c r="AC173" s="77"/>
     </row>
     <row r="174" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18895,10 +18877,9 @@
       <c r="D174" s="95"/>
       <c r="E174" s="95"/>
       <c r="F174" s="68"/>
-      <c r="G174" s="188"/>
-      <c r="H174" s="188"/>
+      <c r="G174" s="186"/>
+      <c r="H174" s="186"/>
       <c r="I174" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J174" s="95"/>
@@ -18906,11 +18887,11 @@
       <c r="L174" s="95">
         <v>0</v>
       </c>
-      <c r="M174" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N174" s="193"/>
+      <c r="M174" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N174" s="191"/>
       <c r="AC174" s="77"/>
     </row>
     <row r="175" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18918,10 +18899,9 @@
       <c r="D175" s="95"/>
       <c r="E175" s="95"/>
       <c r="F175" s="68"/>
-      <c r="G175" s="188"/>
-      <c r="H175" s="188"/>
+      <c r="G175" s="186"/>
+      <c r="H175" s="186"/>
       <c r="I175" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J175" s="95"/>
@@ -18929,11 +18909,11 @@
       <c r="L175" s="95">
         <v>0</v>
       </c>
-      <c r="M175" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N175" s="193"/>
+      <c r="M175" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N175" s="191"/>
       <c r="AC175" s="77"/>
     </row>
     <row r="176" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18941,10 +18921,9 @@
       <c r="D176" s="95"/>
       <c r="E176" s="95"/>
       <c r="F176" s="68"/>
-      <c r="G176" s="188"/>
-      <c r="H176" s="188"/>
+      <c r="G176" s="186"/>
+      <c r="H176" s="186"/>
       <c r="I176" s="95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J176" s="95"/>
@@ -18952,31 +18931,31 @@
       <c r="L176" s="95">
         <v>0</v>
       </c>
-      <c r="M176" s="192">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N176" s="193"/>
+      <c r="M176" s="190">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N176" s="191"/>
       <c r="AC176" s="77"/>
     </row>
     <row r="177" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="182" t="s">
-        <v>85</v>
-      </c>
-      <c r="D177" s="183"/>
-      <c r="E177" s="183"/>
+      <c r="C177" s="180" t="s">
+        <v>82</v>
+      </c>
+      <c r="D177" s="181"/>
+      <c r="E177" s="181"/>
       <c r="F177" s="184"/>
-      <c r="G177" s="186"/>
-      <c r="H177" s="186"/>
+      <c r="G177" s="184"/>
+      <c r="H177" s="184"/>
       <c r="I177" s="185"/>
       <c r="J177" s="185"/>
-      <c r="K177" s="185"/>
-      <c r="L177" s="185"/>
-      <c r="M177" s="294">
+      <c r="K177" s="182"/>
+      <c r="L177" s="182"/>
+      <c r="M177" s="291">
         <f>SUM(M126:N176)</f>
         <v>0</v>
       </c>
-      <c r="N177" s="295"/>
+      <c r="N177" s="292"/>
       <c r="AC177" s="77"/>
     </row>
     <row r="178" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18999,7 +18978,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F179" s="68"/>
       <c r="G179" s="68"/>
@@ -19013,46 +18992,46 @@
       <c r="AC179" s="77"/>
     </row>
     <row r="180" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="276" t="s">
-        <v>55</v>
-      </c>
-      <c r="D180" s="276"/>
-      <c r="E180" s="276"/>
-      <c r="F180" s="276"/>
-      <c r="G180" s="276"/>
+      <c r="C180" s="272" t="s">
+        <v>52</v>
+      </c>
+      <c r="D180" s="272"/>
+      <c r="E180" s="272"/>
+      <c r="F180" s="272"/>
+      <c r="G180" s="272"/>
       <c r="H180" s="92"/>
       <c r="I180" s="92" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J180" s="92"/>
       <c r="K180" s="92"/>
       <c r="L180" s="92" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M180" s="122"/>
       <c r="N180" s="123" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC180" s="77"/>
     </row>
     <row r="181" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="276"/>
-      <c r="D181" s="276"/>
-      <c r="E181" s="276"/>
-      <c r="F181" s="276"/>
-      <c r="G181" s="276"/>
+      <c r="C181" s="273"/>
+      <c r="D181" s="273"/>
+      <c r="E181" s="273"/>
+      <c r="F181" s="273"/>
+      <c r="G181" s="273"/>
       <c r="H181" s="93"/>
       <c r="I181" s="93" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J181" s="93"/>
       <c r="K181" s="93"/>
       <c r="L181" s="93" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M181" s="124"/>
       <c r="N181" s="125" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC181" s="77"/>
     </row>
@@ -19061,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="C182" s="129">
-        <f t="shared" ref="C182:C200" si="14">D44</f>
+        <f t="shared" ref="C182:C200" si="13">D44</f>
         <v>0</v>
       </c>
       <c r="D182" s="129"/>
@@ -19070,19 +19049,19 @@
       <c r="G182" s="129"/>
       <c r="H182" s="129"/>
       <c r="I182" s="131">
-        <f t="shared" ref="I182:I200" si="15">BS44</f>
+        <f t="shared" ref="I182:I200" si="14">BS44</f>
         <v>0</v>
       </c>
       <c r="J182" s="131"/>
-      <c r="K182" s="278">
+      <c r="K182" s="276">
         <v>8</v>
       </c>
-      <c r="L182" s="278"/>
-      <c r="M182" s="279">
+      <c r="L182" s="276"/>
+      <c r="M182" s="277">
         <f>IF(I182&gt;24,(I182-24)*K182,0)</f>
         <v>0</v>
       </c>
-      <c r="N182" s="279"/>
+      <c r="N182" s="277"/>
       <c r="AM182" s="132"/>
       <c r="AN182" s="132"/>
     </row>
@@ -19091,7 +19070,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D183" s="133"/>
@@ -19100,19 +19079,19 @@
       <c r="G183" s="133"/>
       <c r="H183" s="133"/>
       <c r="I183" s="135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J183" s="135"/>
-      <c r="K183" s="285">
-        <v>0</v>
-      </c>
-      <c r="L183" s="285"/>
-      <c r="M183" s="279">
-        <f t="shared" ref="M183:M200" si="16">I183*K183</f>
-        <v>0</v>
-      </c>
-      <c r="N183" s="279"/>
+      <c r="K183" s="282">
+        <v>0</v>
+      </c>
+      <c r="L183" s="282"/>
+      <c r="M183" s="277">
+        <f t="shared" ref="M183:M200" si="15">I183*K183</f>
+        <v>0</v>
+      </c>
+      <c r="N183" s="277"/>
       <c r="AC183" s="77"/>
       <c r="AO183" s="132"/>
       <c r="AP183" s="132"/>
@@ -19122,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D184" s="133"/>
@@ -19131,25 +19110,25 @@
       <c r="G184" s="133"/>
       <c r="H184" s="133"/>
       <c r="I184" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="135"/>
+      <c r="K184" s="282">
+        <v>0</v>
+      </c>
+      <c r="L184" s="282"/>
+      <c r="M184" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J184" s="135"/>
-      <c r="K184" s="285">
-        <v>0</v>
-      </c>
-      <c r="L184" s="285"/>
-      <c r="M184" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N184" s="279"/>
+      <c r="N184" s="277"/>
       <c r="AC184" s="119"/>
       <c r="AD184" s="77"/>
     </row>
     <row r="185" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D185" s="133"/>
@@ -19158,26 +19137,26 @@
       <c r="G185" s="133"/>
       <c r="H185" s="133"/>
       <c r="I185" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="135"/>
+      <c r="K185" s="282">
+        <v>0</v>
+      </c>
+      <c r="L185" s="282"/>
+      <c r="M185" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J185" s="135"/>
-      <c r="K185" s="285">
-        <v>0</v>
-      </c>
-      <c r="L185" s="285"/>
-      <c r="M185" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N185" s="279"/>
+      <c r="N185" s="277"/>
       <c r="O185" s="30"/>
       <c r="AC185" s="119"/>
       <c r="AD185" s="77"/>
     </row>
     <row r="186" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D186" s="133"/>
@@ -19186,26 +19165,26 @@
       <c r="G186" s="133"/>
       <c r="H186" s="133"/>
       <c r="I186" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="135"/>
+      <c r="K186" s="282">
+        <v>8</v>
+      </c>
+      <c r="L186" s="282"/>
+      <c r="M186" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J186" s="135"/>
-      <c r="K186" s="285">
-        <v>8</v>
-      </c>
-      <c r="L186" s="285"/>
-      <c r="M186" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N186" s="279"/>
+      <c r="N186" s="277"/>
       <c r="O186" s="77"/>
       <c r="AC186" s="77"/>
       <c r="AD186" s="77"/>
     </row>
     <row r="187" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D187" s="133"/>
@@ -19214,26 +19193,26 @@
       <c r="G187" s="133"/>
       <c r="H187" s="133"/>
       <c r="I187" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J187" s="135"/>
+      <c r="K187" s="282">
+        <v>8</v>
+      </c>
+      <c r="L187" s="282"/>
+      <c r="M187" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J187" s="135"/>
-      <c r="K187" s="285">
-        <v>8</v>
-      </c>
-      <c r="L187" s="285"/>
-      <c r="M187" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N187" s="279"/>
+      <c r="N187" s="277"/>
       <c r="O187" s="30"/>
       <c r="AC187" s="77"/>
       <c r="AD187" s="30"/>
     </row>
     <row r="188" spans="1:42" s="139" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D188" s="140"/>
@@ -19242,19 +19221,19 @@
       <c r="G188" s="140"/>
       <c r="H188" s="140"/>
       <c r="I188" s="142">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J188" s="142"/>
+      <c r="K188" s="283">
+        <v>10</v>
+      </c>
+      <c r="L188" s="283"/>
+      <c r="M188" s="284">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J188" s="142"/>
-      <c r="K188" s="286">
-        <v>10</v>
-      </c>
-      <c r="L188" s="286"/>
-      <c r="M188" s="287">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N188" s="287"/>
+      <c r="N188" s="284"/>
       <c r="O188" s="143"/>
       <c r="AC188" s="149"/>
       <c r="AD188" s="149"/>
@@ -19264,7 +19243,7 @@
         <v>0</v>
       </c>
       <c r="C189" s="140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D189" s="140"/>
@@ -19273,25 +19252,25 @@
       <c r="G189" s="140"/>
       <c r="H189" s="140"/>
       <c r="I189" s="142">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J189" s="142"/>
+      <c r="K189" s="283">
+        <v>0</v>
+      </c>
+      <c r="L189" s="283"/>
+      <c r="M189" s="284">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J189" s="142"/>
-      <c r="K189" s="286">
-        <v>0</v>
-      </c>
-      <c r="L189" s="286"/>
-      <c r="M189" s="287">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N189" s="287"/>
+      <c r="N189" s="284"/>
       <c r="O189" s="150"/>
       <c r="AC189" s="143"/>
     </row>
     <row r="190" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D190" s="133"/>
@@ -19300,19 +19279,19 @@
       <c r="G190" s="133"/>
       <c r="H190" s="133"/>
       <c r="I190" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J190" s="135"/>
+      <c r="K190" s="282">
+        <v>0</v>
+      </c>
+      <c r="L190" s="282"/>
+      <c r="M190" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J190" s="135"/>
-      <c r="K190" s="285">
-        <v>0</v>
-      </c>
-      <c r="L190" s="285"/>
-      <c r="M190" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N190" s="279"/>
+      <c r="N190" s="277"/>
       <c r="O190" s="119"/>
       <c r="AC190" s="77"/>
     </row>
@@ -19321,7 +19300,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D191" s="96"/>
@@ -19330,19 +19309,19 @@
       <c r="G191" s="96"/>
       <c r="H191" s="96"/>
       <c r="I191" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J191" s="135"/>
+      <c r="K191" s="282">
+        <v>0</v>
+      </c>
+      <c r="L191" s="282"/>
+      <c r="M191" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J191" s="135"/>
-      <c r="K191" s="285">
-        <v>0</v>
-      </c>
-      <c r="L191" s="285"/>
-      <c r="M191" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N191" s="279"/>
+      <c r="N191" s="277"/>
       <c r="O191" s="77"/>
       <c r="AC191" s="77"/>
     </row>
@@ -19351,7 +19330,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D192" s="154"/>
@@ -19360,19 +19339,19 @@
       <c r="G192" s="154"/>
       <c r="H192" s="154"/>
       <c r="I192" s="142">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J192" s="142"/>
+      <c r="K192" s="283">
+        <v>0</v>
+      </c>
+      <c r="L192" s="283"/>
+      <c r="M192" s="284">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J192" s="142"/>
-      <c r="K192" s="286">
-        <v>0</v>
-      </c>
-      <c r="L192" s="286"/>
-      <c r="M192" s="287">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N192" s="287"/>
+      <c r="N192" s="284"/>
       <c r="O192" s="149"/>
       <c r="AC192" s="149"/>
     </row>
@@ -19381,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D193" s="154"/>
@@ -19390,19 +19369,19 @@
       <c r="G193" s="154"/>
       <c r="H193" s="154"/>
       <c r="I193" s="142">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J193" s="142"/>
+      <c r="K193" s="283">
+        <v>8</v>
+      </c>
+      <c r="L193" s="283"/>
+      <c r="M193" s="284">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J193" s="142"/>
-      <c r="K193" s="286">
-        <v>8</v>
-      </c>
-      <c r="L193" s="286"/>
-      <c r="M193" s="287">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N193" s="287"/>
+      <c r="N193" s="284"/>
       <c r="O193" s="149"/>
       <c r="AC193" s="149"/>
     </row>
@@ -19411,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="C194" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D194" s="96"/>
@@ -19420,19 +19399,19 @@
       <c r="G194" s="96"/>
       <c r="H194" s="96"/>
       <c r="I194" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J194" s="135"/>
+      <c r="K194" s="282">
+        <v>0</v>
+      </c>
+      <c r="L194" s="282"/>
+      <c r="M194" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J194" s="135"/>
-      <c r="K194" s="285">
-        <v>0</v>
-      </c>
-      <c r="L194" s="285"/>
-      <c r="M194" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N194" s="279"/>
+      <c r="N194" s="277"/>
       <c r="O194" s="77"/>
       <c r="AC194" s="30"/>
     </row>
@@ -19441,7 +19420,7 @@
         <v>0</v>
       </c>
       <c r="C195" s="140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D195" s="154"/>
@@ -19450,19 +19429,19 @@
       <c r="G195" s="154"/>
       <c r="H195" s="154"/>
       <c r="I195" s="142">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J195" s="142"/>
+      <c r="K195" s="283">
+        <v>8</v>
+      </c>
+      <c r="L195" s="283"/>
+      <c r="M195" s="284">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J195" s="142"/>
-      <c r="K195" s="286">
-        <v>8</v>
-      </c>
-      <c r="L195" s="286"/>
-      <c r="M195" s="287">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N195" s="287"/>
+      <c r="N195" s="284"/>
       <c r="O195" s="149"/>
       <c r="AC195" s="149"/>
     </row>
@@ -19471,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D196" s="96"/>
@@ -19480,25 +19459,25 @@
       <c r="G196" s="96"/>
       <c r="H196" s="96"/>
       <c r="I196" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J196" s="135"/>
+      <c r="K196" s="282">
+        <v>0</v>
+      </c>
+      <c r="L196" s="282"/>
+      <c r="M196" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J196" s="135"/>
-      <c r="K196" s="285">
-        <v>0</v>
-      </c>
-      <c r="L196" s="285"/>
-      <c r="M196" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N196" s="279"/>
+      <c r="N196" s="277"/>
       <c r="O196" s="77"/>
       <c r="AC196" s="77"/>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C197" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D197" s="96"/>
@@ -19507,25 +19486,25 @@
       <c r="G197" s="96"/>
       <c r="H197" s="96"/>
       <c r="I197" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J197" s="135"/>
+      <c r="K197" s="282">
+        <v>0</v>
+      </c>
+      <c r="L197" s="282"/>
+      <c r="M197" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J197" s="135"/>
-      <c r="K197" s="285">
-        <v>0</v>
-      </c>
-      <c r="L197" s="285"/>
-      <c r="M197" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N197" s="279"/>
+      <c r="N197" s="277"/>
       <c r="O197" s="77"/>
       <c r="AC197" s="77"/>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C198" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D198" s="96"/>
@@ -19534,25 +19513,25 @@
       <c r="G198" s="96"/>
       <c r="H198" s="96"/>
       <c r="I198" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J198" s="135"/>
+      <c r="K198" s="282">
+        <v>0</v>
+      </c>
+      <c r="L198" s="282"/>
+      <c r="M198" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J198" s="135"/>
-      <c r="K198" s="285">
-        <v>0</v>
-      </c>
-      <c r="L198" s="285"/>
-      <c r="M198" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N198" s="279"/>
+      <c r="N198" s="277"/>
       <c r="O198" s="77"/>
       <c r="AC198" s="77"/>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C199" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D199" s="96"/>
@@ -19561,25 +19540,25 @@
       <c r="G199" s="96"/>
       <c r="H199" s="96"/>
       <c r="I199" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J199" s="135"/>
+      <c r="K199" s="282">
+        <v>0</v>
+      </c>
+      <c r="L199" s="282"/>
+      <c r="M199" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J199" s="135"/>
-      <c r="K199" s="285">
-        <v>0</v>
-      </c>
-      <c r="L199" s="285"/>
-      <c r="M199" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N199" s="279"/>
+      <c r="N199" s="277"/>
       <c r="O199" s="77"/>
       <c r="AC199" s="77"/>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C200" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D200" s="96"/>
@@ -19588,25 +19567,25 @@
       <c r="G200" s="96"/>
       <c r="H200" s="96"/>
       <c r="I200" s="135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J200" s="135"/>
+      <c r="K200" s="282">
+        <v>0</v>
+      </c>
+      <c r="L200" s="282"/>
+      <c r="M200" s="277">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J200" s="135"/>
-      <c r="K200" s="285">
-        <v>0</v>
-      </c>
-      <c r="L200" s="285"/>
-      <c r="M200" s="279">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N200" s="279"/>
+      <c r="N200" s="277"/>
       <c r="O200" s="77"/>
       <c r="AC200" s="77"/>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C201" s="113" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D201" s="114"/>
       <c r="E201" s="114"/>
@@ -19617,12 +19596,13 @@
       <c r="J201" s="116"/>
       <c r="K201" s="116"/>
       <c r="L201" s="116"/>
-      <c r="M201" s="288">
+      <c r="M201" s="285">
         <f>SUM(M182:N200)</f>
         <v>0</v>
       </c>
-      <c r="N201" s="288"/>
+      <c r="N201" s="285"/>
       <c r="O201" s="77"/>
+      <c r="T201" s="294"/>
       <c r="AC201" s="77"/>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
@@ -19633,7 +19613,7 @@
     <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C203" s="70"/>
       <c r="D203" s="71" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E203" s="71"/>
       <c r="F203" s="72"/>
@@ -19651,46 +19631,46 @@
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C204" s="70"/>
-      <c r="D204" s="264" t="s">
-        <v>55</v>
-      </c>
-      <c r="E204" s="264"/>
-      <c r="F204" s="264"/>
-      <c r="G204" s="264"/>
-      <c r="H204" s="264"/>
-      <c r="I204" s="264"/>
-      <c r="J204" s="264" t="s">
-        <v>56</v>
-      </c>
-      <c r="K204" s="264"/>
-      <c r="L204" s="264" t="s">
-        <v>57</v>
-      </c>
-      <c r="M204" s="264"/>
-      <c r="N204" s="264"/>
+      <c r="D204" s="261" t="s">
+        <v>52</v>
+      </c>
+      <c r="E204" s="261"/>
+      <c r="F204" s="261"/>
+      <c r="G204" s="261"/>
+      <c r="H204" s="261"/>
+      <c r="I204" s="261"/>
+      <c r="J204" s="261" t="s">
+        <v>53</v>
+      </c>
+      <c r="K204" s="261"/>
+      <c r="L204" s="261" t="s">
+        <v>54</v>
+      </c>
+      <c r="M204" s="261"/>
+      <c r="N204" s="261"/>
       <c r="O204" s="73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA204" s="74"/>
       <c r="AB204" s="74"/>
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C205" s="70"/>
-      <c r="D205" s="264"/>
-      <c r="E205" s="264"/>
-      <c r="F205" s="264"/>
-      <c r="G205" s="264"/>
-      <c r="H205" s="264"/>
-      <c r="I205" s="264"/>
-      <c r="J205" s="264"/>
-      <c r="K205" s="264"/>
-      <c r="L205" s="265" t="s">
-        <v>59</v>
-      </c>
-      <c r="M205" s="265"/>
-      <c r="N205" s="265"/>
+      <c r="D205" s="262"/>
+      <c r="E205" s="262"/>
+      <c r="F205" s="262"/>
+      <c r="G205" s="262"/>
+      <c r="H205" s="262"/>
+      <c r="I205" s="262"/>
+      <c r="J205" s="262"/>
+      <c r="K205" s="262"/>
+      <c r="L205" s="262" t="s">
+        <v>56</v>
+      </c>
+      <c r="M205" s="262"/>
+      <c r="N205" s="262"/>
       <c r="O205" s="75" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA205" s="74"/>
       <c r="AB205" s="74"/>
@@ -19703,15 +19683,15 @@
       <c r="G206" s="76"/>
       <c r="H206" s="76"/>
       <c r="I206" s="76"/>
-      <c r="J206" s="266"/>
-      <c r="K206" s="266"/>
-      <c r="L206" s="266"/>
-      <c r="M206" s="266"/>
-      <c r="N206" s="267">
+      <c r="J206" s="263"/>
+      <c r="K206" s="263"/>
+      <c r="L206" s="263"/>
+      <c r="M206" s="263"/>
+      <c r="N206" s="264">
         <f>J206*L206</f>
         <v>0</v>
       </c>
-      <c r="O206" s="267"/>
+      <c r="O206" s="264"/>
       <c r="AA206" s="74"/>
       <c r="AB206" s="74"/>
     </row>
@@ -19723,15 +19703,15 @@
       <c r="G207" s="78"/>
       <c r="H207" s="78"/>
       <c r="I207" s="78"/>
-      <c r="J207" s="268"/>
-      <c r="K207" s="268"/>
+      <c r="J207" s="265"/>
+      <c r="K207" s="265"/>
       <c r="L207" s="79"/>
       <c r="M207" s="79"/>
-      <c r="N207" s="263">
+      <c r="N207" s="260">
         <f>J207*M207</f>
         <v>0</v>
       </c>
-      <c r="O207" s="263"/>
+      <c r="O207" s="260"/>
       <c r="AA207" s="74"/>
       <c r="AB207" s="74"/>
     </row>
@@ -19743,15 +19723,15 @@
       <c r="G208" s="78"/>
       <c r="H208" s="78"/>
       <c r="I208" s="78"/>
-      <c r="J208" s="269"/>
-      <c r="K208" s="269"/>
+      <c r="J208" s="266"/>
+      <c r="K208" s="266"/>
       <c r="L208" s="78"/>
       <c r="M208" s="79"/>
-      <c r="N208" s="263">
+      <c r="N208" s="260">
         <f>J208*M208</f>
         <v>0</v>
       </c>
-      <c r="O208" s="263"/>
+      <c r="O208" s="260"/>
       <c r="AA208" s="74"/>
       <c r="AB208" s="74"/>
     </row>
@@ -19767,11 +19747,11 @@
       <c r="K209" s="79"/>
       <c r="L209" s="79"/>
       <c r="M209" s="79"/>
-      <c r="N209" s="263">
-        <f t="shared" ref="N209:N228" si="17">M209*K209</f>
-        <v>0</v>
-      </c>
-      <c r="O209" s="263"/>
+      <c r="N209" s="260">
+        <f t="shared" ref="N209:N228" si="16">M209*K209</f>
+        <v>0</v>
+      </c>
+      <c r="O209" s="260"/>
       <c r="AA209" s="74"/>
       <c r="AB209" s="74"/>
     </row>
@@ -19787,11 +19767,11 @@
       <c r="K210" s="79"/>
       <c r="L210" s="79"/>
       <c r="M210" s="79"/>
-      <c r="N210" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O210" s="263"/>
+      <c r="N210" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O210" s="260"/>
       <c r="AA210" s="74"/>
       <c r="AB210" s="74"/>
     </row>
@@ -19807,11 +19787,11 @@
       <c r="K211" s="79"/>
       <c r="L211" s="79"/>
       <c r="M211" s="79"/>
-      <c r="N211" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O211" s="263"/>
+      <c r="N211" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O211" s="260"/>
       <c r="AA211" s="74"/>
       <c r="AB211" s="74"/>
     </row>
@@ -19827,11 +19807,11 @@
       <c r="K212" s="79"/>
       <c r="L212" s="79"/>
       <c r="M212" s="79"/>
-      <c r="N212" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O212" s="263"/>
+      <c r="N212" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O212" s="260"/>
       <c r="AA212" s="74"/>
       <c r="AB212" s="74"/>
     </row>
@@ -19847,11 +19827,11 @@
       <c r="K213" s="79"/>
       <c r="L213" s="79"/>
       <c r="M213" s="79"/>
-      <c r="N213" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O213" s="263"/>
+      <c r="N213" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O213" s="260"/>
       <c r="AA213" s="74"/>
       <c r="AB213" s="74"/>
     </row>
@@ -19867,11 +19847,11 @@
       <c r="K214" s="79"/>
       <c r="L214" s="79"/>
       <c r="M214" s="79"/>
-      <c r="N214" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O214" s="263"/>
+      <c r="N214" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O214" s="260"/>
       <c r="AA214" s="74"/>
       <c r="AB214" s="74"/>
     </row>
@@ -19887,11 +19867,11 @@
       <c r="K215" s="79"/>
       <c r="L215" s="79"/>
       <c r="M215" s="79"/>
-      <c r="N215" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O215" s="263"/>
+      <c r="N215" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O215" s="260"/>
       <c r="AA215" s="74"/>
       <c r="AB215" s="74"/>
     </row>
@@ -19907,11 +19887,11 @@
       <c r="K216" s="79"/>
       <c r="L216" s="79"/>
       <c r="M216" s="79"/>
-      <c r="N216" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O216" s="263"/>
+      <c r="N216" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O216" s="260"/>
     </row>
     <row r="217" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C217" s="70"/>
@@ -19925,11 +19905,11 @@
       <c r="K217" s="79"/>
       <c r="L217" s="79"/>
       <c r="M217" s="79"/>
-      <c r="N217" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O217" s="263"/>
+      <c r="N217" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O217" s="260"/>
     </row>
     <row r="218" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C218" s="70"/>
@@ -19943,11 +19923,11 @@
       <c r="K218" s="79"/>
       <c r="L218" s="79"/>
       <c r="M218" s="79"/>
-      <c r="N218" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O218" s="263"/>
+      <c r="N218" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O218" s="260"/>
     </row>
     <row r="219" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C219" s="70"/>
@@ -19961,11 +19941,11 @@
       <c r="K219" s="79"/>
       <c r="L219" s="79"/>
       <c r="M219" s="79"/>
-      <c r="N219" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O219" s="263"/>
+      <c r="N219" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O219" s="260"/>
     </row>
     <row r="220" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C220" s="70"/>
@@ -19979,11 +19959,11 @@
       <c r="K220" s="79"/>
       <c r="L220" s="79"/>
       <c r="M220" s="79"/>
-      <c r="N220" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O220" s="263"/>
+      <c r="N220" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O220" s="260"/>
     </row>
     <row r="221" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C221" s="70"/>
@@ -19997,11 +19977,11 @@
       <c r="K221" s="79"/>
       <c r="L221" s="79"/>
       <c r="M221" s="79"/>
-      <c r="N221" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O221" s="263"/>
+      <c r="N221" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O221" s="260"/>
     </row>
     <row r="222" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C222" s="70"/>
@@ -20015,11 +19995,11 @@
       <c r="K222" s="79"/>
       <c r="L222" s="79"/>
       <c r="M222" s="79"/>
-      <c r="N222" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O222" s="263"/>
+      <c r="N222" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O222" s="260"/>
     </row>
     <row r="223" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C223" s="70"/>
@@ -20033,11 +20013,11 @@
       <c r="K223" s="79"/>
       <c r="L223" s="79"/>
       <c r="M223" s="79"/>
-      <c r="N223" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O223" s="263"/>
+      <c r="N223" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O223" s="260"/>
     </row>
     <row r="224" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C224" s="70"/>
@@ -20051,11 +20031,11 @@
       <c r="K224" s="79"/>
       <c r="L224" s="79"/>
       <c r="M224" s="79"/>
-      <c r="N224" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O224" s="263"/>
+      <c r="N224" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O224" s="260"/>
     </row>
     <row r="225" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C225" s="70"/>
@@ -20069,11 +20049,11 @@
       <c r="K225" s="98"/>
       <c r="L225" s="98"/>
       <c r="M225" s="98"/>
-      <c r="N225" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O225" s="263"/>
+      <c r="N225" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O225" s="260"/>
     </row>
     <row r="226" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C226" s="70"/>
@@ -20087,11 +20067,11 @@
       <c r="K226" s="79"/>
       <c r="L226" s="79"/>
       <c r="M226" s="79"/>
-      <c r="N226" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O226" s="263"/>
+      <c r="N226" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O226" s="260"/>
     </row>
     <row r="227" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C227" s="70"/>
@@ -20105,11 +20085,11 @@
       <c r="K227" s="79"/>
       <c r="L227" s="79"/>
       <c r="M227" s="79"/>
-      <c r="N227" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O227" s="263"/>
+      <c r="N227" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O227" s="260"/>
     </row>
     <row r="228" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C228" s="70"/>
@@ -20123,16 +20103,16 @@
       <c r="K228" s="79"/>
       <c r="L228" s="79"/>
       <c r="M228" s="79"/>
-      <c r="N228" s="263">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O228" s="263"/>
+      <c r="N228" s="260">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O228" s="260"/>
     </row>
     <row r="229" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C229" s="70"/>
       <c r="D229" s="99" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E229" s="99"/>
       <c r="F229" s="99"/>
@@ -20143,16 +20123,16 @@
       <c r="K229" s="101"/>
       <c r="L229" s="102"/>
       <c r="M229" s="102"/>
-      <c r="N229" s="273">
+      <c r="N229" s="274">
         <f>(SUM(N206:O228)*K229)</f>
         <v>0</v>
       </c>
-      <c r="O229" s="273"/>
+      <c r="O229" s="274"/>
     </row>
     <row r="230" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C230" s="70"/>
       <c r="D230" s="103" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E230" s="103"/>
       <c r="F230" s="103"/>
@@ -20163,11 +20143,11 @@
       <c r="K230" s="106"/>
       <c r="L230" s="106"/>
       <c r="M230" s="107"/>
-      <c r="N230" s="277">
+      <c r="N230" s="275">
         <f>SUM(N206:O229)</f>
         <v>0</v>
       </c>
-      <c r="O230" s="277"/>
+      <c r="O230" s="275"/>
     </row>
     <row r="231" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C231" s="70"/>
@@ -20177,7 +20157,7 @@
     <row r="232" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C232" s="70"/>
       <c r="D232" s="71" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E232" s="71"/>
       <c r="F232" s="72"/>
@@ -20193,50 +20173,50 @@
     </row>
     <row r="233" spans="3:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="70"/>
-      <c r="D233" s="264" t="s">
-        <v>55</v>
-      </c>
-      <c r="E233" s="264"/>
-      <c r="F233" s="264"/>
-      <c r="G233" s="264"/>
+      <c r="D233" s="261" t="s">
+        <v>52</v>
+      </c>
+      <c r="E233" s="261"/>
+      <c r="F233" s="261"/>
+      <c r="G233" s="261"/>
       <c r="H233" s="109"/>
       <c r="I233" s="109"/>
-      <c r="J233" s="264" t="s">
-        <v>56</v>
-      </c>
-      <c r="K233" s="264"/>
-      <c r="L233" s="264" t="s">
-        <v>57</v>
-      </c>
-      <c r="M233" s="264"/>
-      <c r="N233" s="264"/>
+      <c r="J233" s="261" t="s">
+        <v>53</v>
+      </c>
+      <c r="K233" s="261"/>
+      <c r="L233" s="261" t="s">
+        <v>54</v>
+      </c>
+      <c r="M233" s="261"/>
+      <c r="N233" s="261"/>
       <c r="O233" s="73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="234" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C234" s="70"/>
-      <c r="D234" s="264"/>
-      <c r="E234" s="264"/>
-      <c r="F234" s="264"/>
-      <c r="G234" s="264"/>
+      <c r="D234" s="262"/>
+      <c r="E234" s="262"/>
+      <c r="F234" s="262"/>
+      <c r="G234" s="262"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
-      <c r="J234" s="264"/>
-      <c r="K234" s="264"/>
-      <c r="L234" s="265" t="s">
-        <v>59</v>
-      </c>
-      <c r="M234" s="265"/>
-      <c r="N234" s="265"/>
+      <c r="J234" s="262"/>
+      <c r="K234" s="262"/>
+      <c r="L234" s="262" t="s">
+        <v>56</v>
+      </c>
+      <c r="M234" s="262"/>
+      <c r="N234" s="262"/>
       <c r="O234" s="75" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="235" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C235" s="70"/>
       <c r="D235" s="76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E235" s="76"/>
       <c r="F235" s="76"/>
@@ -20249,16 +20229,16 @@
       <c r="M235" s="110">
         <v>2500</v>
       </c>
-      <c r="N235" s="267">
+      <c r="N235" s="264">
         <f>K235*M235</f>
         <v>0</v>
       </c>
-      <c r="O235" s="267"/>
+      <c r="O235" s="264"/>
     </row>
     <row r="236" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C236" s="70"/>
       <c r="D236" s="78" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E236" s="78"/>
       <c r="F236" s="78"/>
@@ -20271,23 +20251,23 @@
       <c r="M236" s="112">
         <v>2500</v>
       </c>
-      <c r="N236" s="263">
+      <c r="N236" s="260">
         <f>K236*M236</f>
         <v>0</v>
       </c>
-      <c r="O236" s="263"/>
+      <c r="O236" s="260"/>
     </row>
     <row r="237" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C237" s="70"/>
       <c r="D237" s="78" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E237" s="78"/>
       <c r="F237" s="78"/>
       <c r="G237" s="78"/>
       <c r="H237" s="78"/>
       <c r="I237" s="117" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J237" s="118"/>
       <c r="K237" s="81">
@@ -20298,11 +20278,11 @@
       <c r="M237" s="98">
         <v>5</v>
       </c>
-      <c r="N237" s="263">
+      <c r="N237" s="260">
         <f>K237*M237</f>
         <v>0</v>
       </c>
-      <c r="O237" s="263"/>
+      <c r="O237" s="260"/>
     </row>
     <row r="238" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C238" s="70"/>
@@ -20322,7 +20302,7 @@
     <row r="239" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C239" s="70"/>
       <c r="D239" s="78" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E239" s="78"/>
       <c r="F239" s="78"/>
@@ -20338,16 +20318,16 @@
       </c>
       <c r="L239" s="112"/>
       <c r="M239" s="112"/>
-      <c r="N239" s="263">
+      <c r="N239" s="260">
         <f>J239*K239</f>
         <v>0</v>
       </c>
-      <c r="O239" s="263"/>
+      <c r="O239" s="260"/>
     </row>
     <row r="240" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C240" s="70"/>
       <c r="D240" s="78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E240" s="78"/>
       <c r="F240" s="78"/>
@@ -20363,16 +20343,16 @@
       </c>
       <c r="L240" s="102"/>
       <c r="M240" s="102"/>
-      <c r="N240" s="273">
+      <c r="N240" s="274">
         <f>J240*K240</f>
         <v>0</v>
       </c>
-      <c r="O240" s="273"/>
+      <c r="O240" s="274"/>
     </row>
     <row r="241" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C241" s="70"/>
       <c r="D241" s="103" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E241" s="103"/>
       <c r="F241" s="13"/>
@@ -20383,11 +20363,11 @@
       <c r="K241" s="127"/>
       <c r="L241" s="127"/>
       <c r="M241" s="128"/>
-      <c r="N241" s="277">
+      <c r="N241" s="275">
         <f>SUM(N235:O240)</f>
         <v>0</v>
       </c>
-      <c r="O241" s="277"/>
+      <c r="O241" s="275"/>
     </row>
     <row r="242" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C242" s="70"/>
@@ -20398,15 +20378,15 @@
       <c r="H242" s="78"/>
       <c r="I242" s="78"/>
       <c r="J242" s="81"/>
-      <c r="K242" s="280"/>
-      <c r="L242" s="280"/>
-      <c r="M242" s="280"/>
+      <c r="K242" s="263"/>
+      <c r="L242" s="263"/>
+      <c r="M242" s="263"/>
       <c r="N242" s="77"/>
     </row>
     <row r="243" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C243" s="70"/>
       <c r="D243" s="71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E243" s="71"/>
       <c r="F243" s="72"/>
@@ -20422,49 +20402,49 @@
     </row>
     <row r="244" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C244" s="70"/>
-      <c r="D244" s="264" t="s">
-        <v>55</v>
-      </c>
-      <c r="E244" s="264"/>
-      <c r="F244" s="264"/>
-      <c r="G244" s="264"/>
-      <c r="H244" s="264"/>
+      <c r="D244" s="261" t="s">
+        <v>52</v>
+      </c>
+      <c r="E244" s="261"/>
+      <c r="F244" s="261"/>
+      <c r="G244" s="261"/>
+      <c r="H244" s="261"/>
       <c r="J244" s="136" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K244" s="136"/>
-      <c r="L244" s="264" t="s">
-        <v>57</v>
-      </c>
-      <c r="M244" s="264"/>
-      <c r="N244" s="264"/>
+      <c r="L244" s="261" t="s">
+        <v>54</v>
+      </c>
+      <c r="M244" s="261"/>
+      <c r="N244" s="261"/>
       <c r="O244" s="73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="245" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C245" s="70"/>
-      <c r="D245" s="264"/>
-      <c r="E245" s="264"/>
-      <c r="F245" s="264"/>
-      <c r="G245" s="264"/>
-      <c r="H245" s="264"/>
+      <c r="D245" s="293"/>
+      <c r="E245" s="293"/>
+      <c r="F245" s="293"/>
+      <c r="G245" s="293"/>
+      <c r="H245" s="293"/>
       <c r="I245" s="6"/>
       <c r="J245" s="137"/>
       <c r="K245" s="137"/>
-      <c r="L245" s="265" t="s">
-        <v>59</v>
-      </c>
-      <c r="M245" s="265"/>
-      <c r="N245" s="265"/>
+      <c r="L245" s="262" t="s">
+        <v>56</v>
+      </c>
+      <c r="M245" s="262"/>
+      <c r="N245" s="262"/>
       <c r="O245" s="75" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="246" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C246" s="70"/>
       <c r="D246" s="78" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E246" s="78"/>
       <c r="F246" s="78"/>
@@ -20477,16 +20457,16 @@
       </c>
       <c r="L246" s="138"/>
       <c r="M246" s="138"/>
-      <c r="N246" s="292">
+      <c r="N246" s="289">
         <f>K246*M246</f>
         <v>0</v>
       </c>
-      <c r="O246" s="292"/>
+      <c r="O246" s="289"/>
     </row>
     <row r="247" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C247" s="70"/>
       <c r="D247" s="99" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E247" s="99"/>
       <c r="F247" s="99"/>
@@ -20496,15 +20476,15 @@
       <c r="K247" s="99"/>
       <c r="L247" s="99"/>
       <c r="M247" s="99"/>
-      <c r="N247" s="293">
-        <v>0</v>
-      </c>
-      <c r="O247" s="293"/>
+      <c r="N247" s="290">
+        <v>0</v>
+      </c>
+      <c r="O247" s="290"/>
     </row>
     <row r="248" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C248" s="144"/>
       <c r="D248" s="145" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E248" s="145"/>
       <c r="F248" s="146"/>
@@ -20515,11 +20495,11 @@
       <c r="K248" s="148"/>
       <c r="L248" s="148"/>
       <c r="M248" s="146"/>
-      <c r="N248" s="291">
+      <c r="N248" s="288">
         <f>SUM(N246:O247)</f>
         <v>0</v>
       </c>
-      <c r="O248" s="291"/>
+      <c r="O248" s="288"/>
     </row>
     <row r="249" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C249" s="144"/>
@@ -20539,7 +20519,7 @@
     <row r="250" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C250" s="70"/>
       <c r="D250" s="71" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E250" s="71"/>
       <c r="F250" s="72"/>
@@ -20556,7 +20536,7 @@
     <row r="251" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C251" s="70"/>
       <c r="D251" s="153" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E251" s="153"/>
       <c r="F251" s="153"/>
@@ -20567,11 +20547,11 @@
       <c r="K251" s="153"/>
       <c r="L251" s="153"/>
       <c r="M251" s="153"/>
-      <c r="N251" s="289">
+      <c r="N251" s="286">
         <f>N241</f>
         <v>0</v>
       </c>
-      <c r="O251" s="289"/>
+      <c r="O251" s="286"/>
       <c r="P251" s="77"/>
       <c r="Q251" s="77"/>
       <c r="R251" s="77"/>
@@ -20579,7 +20559,7 @@
     <row r="252" spans="3:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="144"/>
       <c r="D252" s="139" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E252" s="139"/>
       <c r="F252" s="139"/>
@@ -20590,11 +20570,11 @@
       <c r="K252" s="139"/>
       <c r="L252" s="139"/>
       <c r="M252" s="139"/>
-      <c r="N252" s="290">
+      <c r="N252" s="287">
         <f>N248</f>
         <v>0</v>
       </c>
-      <c r="O252" s="290"/>
+      <c r="O252" s="287"/>
       <c r="P252" s="77"/>
       <c r="Q252" s="77"/>
       <c r="R252" s="77"/>
@@ -20602,7 +20582,7 @@
     <row r="253" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C253" s="144"/>
       <c r="D253" s="145" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E253" s="145"/>
       <c r="F253" s="146"/>
@@ -20613,11 +20593,11 @@
       <c r="K253" s="148"/>
       <c r="L253" s="148"/>
       <c r="M253" s="146"/>
-      <c r="N253" s="291">
+      <c r="N253" s="288">
         <f>SUM(N251:O252)</f>
         <v>0</v>
       </c>
-      <c r="O253" s="291"/>
+      <c r="O253" s="288"/>
       <c r="P253" s="77"/>
       <c r="Q253" s="77"/>
       <c r="R253" s="77"/>
@@ -20632,7 +20612,7 @@
     <row r="255" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C255" s="144"/>
       <c r="D255" s="156" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E255" s="156"/>
       <c r="F255" s="157"/>
@@ -20661,11 +20641,11 @@
       <c r="K256" s="153"/>
       <c r="L256" s="153"/>
       <c r="M256" s="159"/>
-      <c r="N256" s="289">
+      <c r="N256" s="286">
         <f>M177</f>
         <v>0</v>
       </c>
-      <c r="O256" s="289"/>
+      <c r="O256" s="286"/>
     </row>
     <row r="257" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C257" s="70"/>
@@ -20682,11 +20662,11 @@
       <c r="K257" s="78"/>
       <c r="L257" s="78"/>
       <c r="M257" s="160"/>
-      <c r="N257" s="263">
+      <c r="N257" s="260">
         <f>M201</f>
         <v>0</v>
       </c>
-      <c r="O257" s="263"/>
+      <c r="O257" s="260"/>
     </row>
     <row r="258" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C258" s="70"/>
@@ -20703,11 +20683,11 @@
       <c r="K258" s="78"/>
       <c r="L258" s="78"/>
       <c r="M258" s="160"/>
-      <c r="N258" s="263">
+      <c r="N258" s="260">
         <f>N241</f>
         <v>0</v>
       </c>
-      <c r="O258" s="263"/>
+      <c r="O258" s="260"/>
     </row>
     <row r="259" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C259" s="70"/>
@@ -20724,16 +20704,16 @@
       <c r="K259" s="78"/>
       <c r="L259" s="78"/>
       <c r="M259" s="160"/>
-      <c r="N259" s="263">
+      <c r="N259" s="260">
         <f>N230</f>
         <v>0</v>
       </c>
-      <c r="O259" s="263"/>
+      <c r="O259" s="260"/>
     </row>
     <row r="260" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C260" s="70"/>
       <c r="D260" s="99" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E260" s="99"/>
       <c r="F260" s="99"/>
@@ -20744,16 +20724,16 @@
       <c r="K260" s="99"/>
       <c r="L260" s="99"/>
       <c r="M260" s="161"/>
-      <c r="N260" s="273">
+      <c r="N260" s="274">
         <f>N248</f>
         <v>0</v>
       </c>
-      <c r="O260" s="273"/>
+      <c r="O260" s="274"/>
     </row>
     <row r="261" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C261" s="70"/>
       <c r="D261" s="103" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E261" s="103"/>
       <c r="F261" s="13"/>
@@ -20764,15 +20744,63 @@
       <c r="K261" s="126"/>
       <c r="L261" s="126"/>
       <c r="M261" s="162"/>
-      <c r="N261" s="277">
+      <c r="N261" s="275">
         <f>SUM(N256:O260)</f>
         <v>0</v>
       </c>
-      <c r="O261" s="277"/>
+      <c r="O261" s="275"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="337">
+  <mergeCells count="338">
+    <mergeCell ref="D244:H245"/>
+    <mergeCell ref="N247:O247"/>
+    <mergeCell ref="N246:O246"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="L245:N245"/>
+    <mergeCell ref="L244:N244"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="N237:O237"/>
+    <mergeCell ref="N236:O236"/>
+    <mergeCell ref="K242:M242"/>
+    <mergeCell ref="N241:O241"/>
+    <mergeCell ref="N240:O240"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="N225:O225"/>
+    <mergeCell ref="N224:O224"/>
+    <mergeCell ref="N239:O239"/>
+    <mergeCell ref="N235:O235"/>
+    <mergeCell ref="L204:N204"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="D204:I205"/>
+    <mergeCell ref="N217:O217"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="L234:N234"/>
+    <mergeCell ref="L233:N233"/>
+    <mergeCell ref="J233:K234"/>
+    <mergeCell ref="D233:G234"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="N209:O209"/>
+    <mergeCell ref="N208:O208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L205:N205"/>
     <mergeCell ref="D55:F55"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
@@ -20799,40 +20827,22 @@
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="K198:L198"/>
     <mergeCell ref="M198:N198"/>
-    <mergeCell ref="N258:O258"/>
     <mergeCell ref="K193:L193"/>
     <mergeCell ref="M193:N193"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="L244:N244"/>
-    <mergeCell ref="L245:N245"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="N246:O246"/>
-    <mergeCell ref="N247:O247"/>
-    <mergeCell ref="D244:H245"/>
     <mergeCell ref="M143:N143"/>
-    <mergeCell ref="N235:O235"/>
     <mergeCell ref="M176:N176"/>
-    <mergeCell ref="N236:O236"/>
     <mergeCell ref="M177:N177"/>
-    <mergeCell ref="N237:O237"/>
     <mergeCell ref="K200:L200"/>
     <mergeCell ref="M200:N200"/>
-    <mergeCell ref="N260:O260"/>
     <mergeCell ref="M201:N201"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="N251:O251"/>
     <mergeCell ref="K192:L192"/>
     <mergeCell ref="M192:N192"/>
-    <mergeCell ref="N252:O252"/>
     <mergeCell ref="K199:L199"/>
     <mergeCell ref="M199:N199"/>
-    <mergeCell ref="N259:O259"/>
     <mergeCell ref="K196:L196"/>
     <mergeCell ref="M196:N196"/>
-    <mergeCell ref="N256:O256"/>
     <mergeCell ref="K197:L197"/>
     <mergeCell ref="M197:N197"/>
-    <mergeCell ref="N257:O257"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="K194:L194"/>
@@ -20857,23 +20867,14 @@
     <mergeCell ref="M183:N183"/>
     <mergeCell ref="K184:L184"/>
     <mergeCell ref="M184:N184"/>
-    <mergeCell ref="N239:O239"/>
     <mergeCell ref="C180:G181"/>
-    <mergeCell ref="N240:O240"/>
-    <mergeCell ref="N241:O241"/>
     <mergeCell ref="K182:L182"/>
     <mergeCell ref="M182:N182"/>
-    <mergeCell ref="K242:M242"/>
     <mergeCell ref="M138:N138"/>
-    <mergeCell ref="N230:O230"/>
     <mergeCell ref="M139:N139"/>
     <mergeCell ref="M140:N140"/>
     <mergeCell ref="M141:N141"/>
-    <mergeCell ref="D233:G234"/>
-    <mergeCell ref="J233:K234"/>
-    <mergeCell ref="L233:N233"/>
     <mergeCell ref="M142:N142"/>
-    <mergeCell ref="L234:N234"/>
     <mergeCell ref="M160:N160"/>
     <mergeCell ref="M161:N161"/>
     <mergeCell ref="M162:N162"/>
@@ -20881,8 +20882,6 @@
     <mergeCell ref="M164:N164"/>
     <mergeCell ref="M165:N165"/>
     <mergeCell ref="M167:N167"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="M131:N131"/>
     <mergeCell ref="N223:O223"/>
     <mergeCell ref="M126:N126"/>
     <mergeCell ref="N218:O218"/>
@@ -20891,15 +20890,10 @@
     <mergeCell ref="M128:N128"/>
     <mergeCell ref="N220:O220"/>
     <mergeCell ref="M132:N132"/>
-    <mergeCell ref="N224:O224"/>
     <mergeCell ref="M133:N133"/>
-    <mergeCell ref="N225:O225"/>
     <mergeCell ref="M134:N134"/>
-    <mergeCell ref="N226:O226"/>
     <mergeCell ref="M135:N135"/>
-    <mergeCell ref="N227:O227"/>
     <mergeCell ref="M136:N136"/>
-    <mergeCell ref="N228:O228"/>
     <mergeCell ref="M156:N156"/>
     <mergeCell ref="M157:N157"/>
     <mergeCell ref="M158:N158"/>
@@ -20907,7 +20901,11 @@
     <mergeCell ref="N221:O221"/>
     <mergeCell ref="M130:N130"/>
     <mergeCell ref="N222:O222"/>
-    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="N213:O213"/>
     <mergeCell ref="N210:O210"/>
     <mergeCell ref="M119:N119"/>
     <mergeCell ref="N211:O211"/>
@@ -20927,6 +20925,11 @@
     <mergeCell ref="M154:N154"/>
     <mergeCell ref="M155:N155"/>
     <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M131:N131"/>
     <mergeCell ref="D83:F83"/>
     <mergeCell ref="D84:F84"/>
     <mergeCell ref="D85:F85"/>
@@ -20934,23 +20937,8 @@
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="C124:C125"/>
-    <mergeCell ref="N216:O216"/>
-    <mergeCell ref="N217:O217"/>
-    <mergeCell ref="D204:I205"/>
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="L204:N204"/>
-    <mergeCell ref="L205:N205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="N208:O208"/>
     <mergeCell ref="M117:N117"/>
-    <mergeCell ref="N209:O209"/>
     <mergeCell ref="M121:N121"/>
-    <mergeCell ref="N213:O213"/>
     <mergeCell ref="C12:C42"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
@@ -21046,14 +21034,6 @@
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
     <mergeCell ref="C111:F115"/>
     <mergeCell ref="M129:N129"/>
     <mergeCell ref="G125:H125"/>
@@ -21063,7 +21043,7 @@
     <mergeCell ref="G129:H129"/>
     <mergeCell ref="G130:H130"/>
     <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="M118:N118"/>
     <mergeCell ref="M169:N169"/>
     <mergeCell ref="G133:H133"/>
     <mergeCell ref="G134:H134"/>
@@ -21110,6 +21090,7 @@
     <mergeCell ref="G154:H154"/>
     <mergeCell ref="G155:H155"/>
     <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G132:H132"/>
   </mergeCells>
   <conditionalFormatting sqref="K242:L242">
     <cfRule type="expression" dxfId="45" priority="1">

--- a/public/excel_templates/INVOICE_V1.xlsx
+++ b/public/excel_templates/INVOICE_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Facturacion\public\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F216B9-E112-41A7-9089-D8A100443061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB6F2FD-E0A9-4CAD-9017-32CD85E869A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2054,451 +2054,451 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3260,7 +3260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:WYI261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B119" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E124" sqref="E124:E125"/>
     </sheetView>
   </sheetViews>
@@ -3271,7 +3271,7 @@
     <col min="3" max="5" width="6.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
     <col min="7" max="11" width="7.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="1" customWidth="1"/>
     <col min="13" max="72" width="7.42578125" style="1" customWidth="1"/>
     <col min="73" max="78" width="6.140625" style="1" customWidth="1"/>
     <col min="79" max="256" width="11.42578125" style="1" customWidth="1"/>
@@ -3657,10 +3657,10 @@
   <sheetData>
     <row r="1" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="203"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="255"/>
       <c r="I2" s="167" t="s">
         <v>0</v>
       </c>
@@ -3681,68 +3681,68 @@
       <c r="X2" s="169"/>
     </row>
     <row r="3" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="206"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
       <c r="I3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="229" t="s">
+      <c r="J3" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="210" t="s">
+      <c r="K3" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="211"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="296" t="s">
+      <c r="L3" s="233"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="282" t="s">
         <v>101</v>
       </c>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="229" t="s">
+      <c r="O3" s="283"/>
+      <c r="P3" s="283"/>
+      <c r="Q3" s="283"/>
+      <c r="R3" s="284"/>
+      <c r="S3" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="210" t="s">
+      <c r="T3" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="211"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="278"/>
-      <c r="X3" s="279"/>
+      <c r="U3" s="233"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="221"/>
     </row>
     <row r="4" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="204"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="206"/>
-      <c r="I4" s="231" t="s">
+      <c r="C4" s="256"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="258"/>
+      <c r="I4" s="278" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="229"/>
-      <c r="K4" s="213" t="s">
+      <c r="J4" s="276"/>
+      <c r="K4" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="186"/>
-      <c r="M4" s="238"/>
-      <c r="N4" s="295" t="s">
+      <c r="L4" s="206"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="186"/>
-      <c r="R4" s="238"/>
-      <c r="S4" s="229"/>
-      <c r="T4" s="213" t="s">
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="276"/>
+      <c r="T4" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="186"/>
-      <c r="V4" s="214"/>
-      <c r="W4" s="280"/>
-      <c r="X4" s="281"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="222"/>
+      <c r="X4" s="223"/>
       <c r="Z4" s="1">
         <v>0.3</v>
       </c>
@@ -3763,23 +3763,23 @@
       </c>
     </row>
     <row r="5" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="204"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="206"/>
-      <c r="I5" s="231"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="213" t="s">
+      <c r="C5" s="256"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="258"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="276"/>
+      <c r="K5" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="186"/>
-      <c r="M5" s="238"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="229"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="276"/>
       <c r="T5" s="3"/>
       <c r="W5" s="163"/>
       <c r="X5" s="171"/>
@@ -3806,306 +3806,306 @@
       </c>
     </row>
     <row r="6" spans="3:72" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="207"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="209"/>
-      <c r="I6" s="232"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="239" t="s">
+      <c r="C6" s="259"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="261"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="277"/>
+      <c r="K6" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="240"/>
-      <c r="M6" s="241"/>
-      <c r="N6" s="297" t="s">
+      <c r="L6" s="195"/>
+      <c r="M6" s="252"/>
+      <c r="N6" s="286" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="240"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="239" t="s">
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="252"/>
+      <c r="S6" s="277"/>
+      <c r="T6" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="240"/>
-      <c r="V6" s="298"/>
+      <c r="U6" s="195"/>
+      <c r="V6" s="196"/>
       <c r="W6" s="172"/>
       <c r="X6" s="173"/>
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="233" t="s">
+      <c r="C8" s="280" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="233"/>
-      <c r="E8" s="234" t="s">
+      <c r="D8" s="280"/>
+      <c r="E8" s="281" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="235">
+      <c r="G8" s="251">
         <v>44743</v>
       </c>
-      <c r="H8" s="235"/>
-      <c r="I8" s="235"/>
-      <c r="J8" s="235"/>
-      <c r="K8" s="235">
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="251"/>
+      <c r="K8" s="251">
         <f>G8+1</f>
         <v>44744</v>
       </c>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
-      <c r="N8" s="235"/>
-      <c r="O8" s="235">
+      <c r="L8" s="251"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="251"/>
+      <c r="O8" s="251">
         <f>K8+1</f>
         <v>44745</v>
       </c>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235">
+      <c r="P8" s="251"/>
+      <c r="Q8" s="251"/>
+      <c r="R8" s="251"/>
+      <c r="S8" s="251">
         <f>O8+1</f>
         <v>44746</v>
       </c>
-      <c r="T8" s="235"/>
-      <c r="U8" s="235"/>
-      <c r="V8" s="235"/>
-      <c r="W8" s="235">
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="251">
         <f>S8+1</f>
         <v>44747</v>
       </c>
-      <c r="X8" s="235"/>
-      <c r="Y8" s="235"/>
-      <c r="Z8" s="235"/>
-      <c r="AA8" s="235">
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251">
         <f>W8+1</f>
         <v>44748</v>
       </c>
-      <c r="AB8" s="235"/>
-      <c r="AC8" s="235"/>
-      <c r="AD8" s="235"/>
-      <c r="AE8" s="235">
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251">
         <f>AA8+1</f>
         <v>44749</v>
       </c>
-      <c r="AF8" s="235"/>
-      <c r="AG8" s="235"/>
-      <c r="AH8" s="235"/>
-      <c r="AI8" s="235">
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="251"/>
+      <c r="AH8" s="251"/>
+      <c r="AI8" s="251">
         <f>AE8+1</f>
         <v>44750</v>
       </c>
-      <c r="AJ8" s="235"/>
-      <c r="AK8" s="235"/>
-      <c r="AL8" s="235"/>
-      <c r="AM8" s="235">
+      <c r="AJ8" s="251"/>
+      <c r="AK8" s="251"/>
+      <c r="AL8" s="251"/>
+      <c r="AM8" s="251">
         <f>AI8+1</f>
         <v>44751</v>
       </c>
-      <c r="AN8" s="235"/>
-      <c r="AO8" s="235"/>
-      <c r="AP8" s="235"/>
-      <c r="AQ8" s="235">
+      <c r="AN8" s="251"/>
+      <c r="AO8" s="251"/>
+      <c r="AP8" s="251"/>
+      <c r="AQ8" s="251">
         <f>AM8+1</f>
         <v>44752</v>
       </c>
-      <c r="AR8" s="235"/>
-      <c r="AS8" s="235"/>
-      <c r="AT8" s="235"/>
-      <c r="AU8" s="235">
+      <c r="AR8" s="251"/>
+      <c r="AS8" s="251"/>
+      <c r="AT8" s="251"/>
+      <c r="AU8" s="251">
         <f>AQ8+1</f>
         <v>44753</v>
       </c>
-      <c r="AV8" s="235"/>
-      <c r="AW8" s="235"/>
-      <c r="AX8" s="235"/>
-      <c r="AY8" s="235">
+      <c r="AV8" s="251"/>
+      <c r="AW8" s="251"/>
+      <c r="AX8" s="251"/>
+      <c r="AY8" s="251">
         <f>AU8+1</f>
         <v>44754</v>
       </c>
-      <c r="AZ8" s="235"/>
-      <c r="BA8" s="235"/>
-      <c r="BB8" s="235"/>
-      <c r="BC8" s="235">
+      <c r="AZ8" s="251"/>
+      <c r="BA8" s="251"/>
+      <c r="BB8" s="251"/>
+      <c r="BC8" s="251">
         <f>AY8+1</f>
         <v>44755</v>
       </c>
-      <c r="BD8" s="235"/>
-      <c r="BE8" s="235"/>
-      <c r="BF8" s="235"/>
-      <c r="BG8" s="235">
+      <c r="BD8" s="251"/>
+      <c r="BE8" s="251"/>
+      <c r="BF8" s="251"/>
+      <c r="BG8" s="251">
         <f>BC8+1</f>
         <v>44756</v>
       </c>
-      <c r="BH8" s="235"/>
-      <c r="BI8" s="235"/>
-      <c r="BJ8" s="235"/>
-      <c r="BK8" s="235">
+      <c r="BH8" s="251"/>
+      <c r="BI8" s="251"/>
+      <c r="BJ8" s="251"/>
+      <c r="BK8" s="251">
         <f>BG8+1</f>
         <v>44757</v>
       </c>
-      <c r="BL8" s="235"/>
-      <c r="BM8" s="235"/>
-      <c r="BN8" s="235"/>
-      <c r="BO8" s="235">
+      <c r="BL8" s="251"/>
+      <c r="BM8" s="251"/>
+      <c r="BN8" s="251"/>
+      <c r="BO8" s="251">
         <f>BK8+1</f>
         <v>44758</v>
       </c>
-      <c r="BP8" s="235"/>
-      <c r="BQ8" s="235"/>
-      <c r="BR8" s="235"/>
-      <c r="BS8" s="243" t="s">
+      <c r="BP8" s="251"/>
+      <c r="BQ8" s="251"/>
+      <c r="BR8" s="251"/>
+      <c r="BS8" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="BT8" s="243" t="s">
+      <c r="BT8" s="250" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
+      <c r="C9" s="280"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="281"/>
       <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="244" t="s">
+      <c r="G9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244" t="s">
+      <c r="H9" s="235"/>
+      <c r="I9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244" t="s">
+      <c r="J9" s="235"/>
+      <c r="K9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244" t="s">
+      <c r="L9" s="235"/>
+      <c r="M9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244" t="s">
+      <c r="N9" s="235"/>
+      <c r="O9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244" t="s">
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244" t="s">
+      <c r="R9" s="235"/>
+      <c r="S9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="244"/>
-      <c r="U9" s="244" t="s">
+      <c r="T9" s="235"/>
+      <c r="U9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="244"/>
-      <c r="W9" s="244" t="s">
+      <c r="V9" s="235"/>
+      <c r="W9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="244"/>
-      <c r="Y9" s="244" t="s">
+      <c r="X9" s="235"/>
+      <c r="Y9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="244"/>
-      <c r="AA9" s="244" t="s">
+      <c r="Z9" s="235"/>
+      <c r="AA9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="AB9" s="244"/>
-      <c r="AC9" s="244" t="s">
+      <c r="AB9" s="235"/>
+      <c r="AC9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="244"/>
-      <c r="AE9" s="244" t="s">
+      <c r="AD9" s="235"/>
+      <c r="AE9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="244"/>
-      <c r="AG9" s="244" t="s">
+      <c r="AF9" s="235"/>
+      <c r="AG9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="AH9" s="244"/>
-      <c r="AI9" s="244" t="s">
+      <c r="AH9" s="235"/>
+      <c r="AI9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="AJ9" s="244"/>
-      <c r="AK9" s="244" t="s">
+      <c r="AJ9" s="235"/>
+      <c r="AK9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="AL9" s="244"/>
-      <c r="AM9" s="244" t="s">
+      <c r="AL9" s="235"/>
+      <c r="AM9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="AN9" s="244"/>
-      <c r="AO9" s="244" t="s">
+      <c r="AN9" s="235"/>
+      <c r="AO9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="AP9" s="244"/>
-      <c r="AQ9" s="244" t="s">
+      <c r="AP9" s="235"/>
+      <c r="AQ9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="AR9" s="244"/>
-      <c r="AS9" s="244" t="s">
+      <c r="AR9" s="235"/>
+      <c r="AS9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="AT9" s="244"/>
-      <c r="AU9" s="244" t="s">
+      <c r="AT9" s="235"/>
+      <c r="AU9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="AV9" s="244"/>
-      <c r="AW9" s="244" t="s">
+      <c r="AV9" s="235"/>
+      <c r="AW9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="AX9" s="244"/>
-      <c r="AY9" s="244" t="s">
+      <c r="AX9" s="235"/>
+      <c r="AY9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="AZ9" s="244"/>
-      <c r="BA9" s="244" t="s">
+      <c r="AZ9" s="235"/>
+      <c r="BA9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="BB9" s="244"/>
-      <c r="BC9" s="244" t="s">
+      <c r="BB9" s="235"/>
+      <c r="BC9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="BD9" s="244"/>
-      <c r="BE9" s="244" t="s">
+      <c r="BD9" s="235"/>
+      <c r="BE9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="BF9" s="244"/>
-      <c r="BG9" s="244" t="s">
+      <c r="BF9" s="235"/>
+      <c r="BG9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="BH9" s="244"/>
-      <c r="BI9" s="244" t="s">
+      <c r="BH9" s="235"/>
+      <c r="BI9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="BJ9" s="244"/>
-      <c r="BK9" s="244" t="s">
+      <c r="BJ9" s="235"/>
+      <c r="BK9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="BL9" s="244"/>
-      <c r="BM9" s="244" t="s">
+      <c r="BL9" s="235"/>
+      <c r="BM9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="BN9" s="244"/>
-      <c r="BO9" s="244" t="s">
+      <c r="BN9" s="235"/>
+      <c r="BO9" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="BP9" s="244"/>
-      <c r="BQ9" s="244" t="s">
+      <c r="BP9" s="235"/>
+      <c r="BQ9" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="BR9" s="244"/>
-      <c r="BS9" s="243"/>
-      <c r="BT9" s="243"/>
+      <c r="BR9" s="235"/>
+      <c r="BS9" s="250"/>
+      <c r="BT9" s="250"/>
     </row>
     <row r="10" spans="3:72" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="234"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="281"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
         <v>19</v>
@@ -4299,8 +4299,8 @@
       <c r="BR10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BS10" s="243"/>
-      <c r="BT10" s="243"/>
+      <c r="BS10" s="250"/>
+      <c r="BT10" s="250"/>
     </row>
     <row r="11" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
@@ -4375,10 +4375,10 @@
       <c r="BT11" s="13"/>
     </row>
     <row r="12" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="245" t="s">
+      <c r="C12" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="215"/>
+      <c r="D12" s="243"/>
       <c r="E12" s="164" t="s">
         <v>23</v>
       </c>
@@ -4517,8 +4517,8 @@
       <c r="BT12" s="16"/>
     </row>
     <row r="13" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="246"/>
-      <c r="D13" s="248"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="164" t="s">
         <v>25</v>
       </c>
@@ -4657,8 +4657,8 @@
       <c r="BT13" s="16"/>
     </row>
     <row r="14" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="246"/>
-      <c r="D14" s="249"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="210"/>
       <c r="E14" s="165" t="s">
         <v>26</v>
       </c>
@@ -4830,8 +4830,8 @@
       <c r="BT14" s="19"/>
     </row>
     <row r="15" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="246"/>
-      <c r="D15" s="250"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="208"/>
       <c r="E15" s="164" t="s">
         <v>23</v>
       </c>
@@ -4970,8 +4970,8 @@
       <c r="BT15" s="16"/>
     </row>
     <row r="16" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="246"/>
-      <c r="D16" s="248"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="164" t="s">
         <v>25</v>
       </c>
@@ -5110,8 +5110,8 @@
       <c r="BT16" s="16"/>
     </row>
     <row r="17" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="246"/>
-      <c r="D17" s="249"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="165" t="s">
         <v>26</v>
       </c>
@@ -5283,8 +5283,8 @@
       <c r="BT17" s="19"/>
     </row>
     <row r="18" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="246"/>
-      <c r="D18" s="250"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="208"/>
       <c r="E18" s="164" t="s">
         <v>23</v>
       </c>
@@ -5423,8 +5423,8 @@
       <c r="BT18" s="16"/>
     </row>
     <row r="19" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="246"/>
-      <c r="D19" s="248"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="164" t="s">
         <v>25</v>
       </c>
@@ -5563,8 +5563,8 @@
       <c r="BT19" s="16"/>
     </row>
     <row r="20" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="246"/>
-      <c r="D20" s="249"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="210"/>
       <c r="E20" s="165" t="s">
         <v>26</v>
       </c>
@@ -5736,8 +5736,8 @@
       <c r="BT20" s="19"/>
     </row>
     <row r="21" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="246"/>
-      <c r="D21" s="250"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="208"/>
       <c r="E21" s="164" t="s">
         <v>23</v>
       </c>
@@ -5876,8 +5876,8 @@
       <c r="BT21" s="16"/>
     </row>
     <row r="22" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="246"/>
-      <c r="D22" s="248"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="164" t="s">
         <v>25</v>
       </c>
@@ -6016,8 +6016,8 @@
       <c r="BT22" s="16"/>
     </row>
     <row r="23" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="246"/>
-      <c r="D23" s="249"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="210"/>
       <c r="E23" s="165" t="s">
         <v>26</v>
       </c>
@@ -6189,8 +6189,8 @@
       <c r="BT23" s="19"/>
     </row>
     <row r="24" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="246"/>
-      <c r="D24" s="250"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="164" t="s">
         <v>23</v>
       </c>
@@ -6329,8 +6329,8 @@
       <c r="BT24" s="16"/>
     </row>
     <row r="25" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="246"/>
-      <c r="D25" s="248"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="164" t="s">
         <v>25</v>
       </c>
@@ -6469,8 +6469,8 @@
       <c r="BT25" s="16"/>
     </row>
     <row r="26" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="246"/>
-      <c r="D26" s="249"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="210"/>
       <c r="E26" s="165" t="s">
         <v>26</v>
       </c>
@@ -6642,8 +6642,8 @@
       <c r="BT26" s="19"/>
     </row>
     <row r="27" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="246"/>
-      <c r="D27" s="250"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="208"/>
       <c r="E27" s="164" t="s">
         <v>23</v>
       </c>
@@ -6782,8 +6782,8 @@
       <c r="BT27" s="16"/>
     </row>
     <row r="28" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="246"/>
-      <c r="D28" s="248"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="209"/>
       <c r="E28" s="164" t="s">
         <v>25</v>
       </c>
@@ -6922,8 +6922,8 @@
       <c r="BT28" s="16"/>
     </row>
     <row r="29" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="246"/>
-      <c r="D29" s="249"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="210"/>
       <c r="E29" s="165" t="s">
         <v>26</v>
       </c>
@@ -7095,8 +7095,8 @@
       <c r="BT29" s="19"/>
     </row>
     <row r="30" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="246"/>
-      <c r="D30" s="250"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="164" t="s">
         <v>23</v>
       </c>
@@ -7235,8 +7235,8 @@
       <c r="BT30" s="16"/>
     </row>
     <row r="31" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="246"/>
-      <c r="D31" s="248"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="209"/>
       <c r="E31" s="164" t="s">
         <v>25</v>
       </c>
@@ -7375,8 +7375,8 @@
       <c r="BT31" s="16"/>
     </row>
     <row r="32" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="246"/>
-      <c r="D32" s="249"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="210"/>
       <c r="E32" s="165" t="s">
         <v>26</v>
       </c>
@@ -7548,8 +7548,8 @@
       <c r="BT32" s="19"/>
     </row>
     <row r="33" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="246"/>
-      <c r="D33" s="250"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="208"/>
       <c r="E33" s="164" t="s">
         <v>23</v>
       </c>
@@ -7688,8 +7688,8 @@
       <c r="BT33" s="16"/>
     </row>
     <row r="34" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="246"/>
-      <c r="D34" s="248"/>
+      <c r="C34" s="241"/>
+      <c r="D34" s="209"/>
       <c r="E34" s="164" t="s">
         <v>25</v>
       </c>
@@ -7828,8 +7828,8 @@
       <c r="BT34" s="16"/>
     </row>
     <row r="35" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="246"/>
-      <c r="D35" s="249"/>
+      <c r="C35" s="241"/>
+      <c r="D35" s="210"/>
       <c r="E35" s="165" t="s">
         <v>26</v>
       </c>
@@ -8001,8 +8001,8 @@
       <c r="BT35" s="19"/>
     </row>
     <row r="36" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="246"/>
-      <c r="D36" s="250"/>
+      <c r="C36" s="241"/>
+      <c r="D36" s="208"/>
       <c r="E36" s="164" t="s">
         <v>23</v>
       </c>
@@ -8141,8 +8141,8 @@
       <c r="BT36" s="16"/>
     </row>
     <row r="37" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="246"/>
-      <c r="D37" s="248"/>
+      <c r="C37" s="241"/>
+      <c r="D37" s="209"/>
       <c r="E37" s="164" t="s">
         <v>25</v>
       </c>
@@ -8281,8 +8281,8 @@
       <c r="BT37" s="16"/>
     </row>
     <row r="38" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="246"/>
-      <c r="D38" s="249"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="210"/>
       <c r="E38" s="165" t="s">
         <v>26</v>
       </c>
@@ -8454,8 +8454,8 @@
       <c r="BT38" s="19"/>
     </row>
     <row r="39" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="246"/>
-      <c r="D39" s="250"/>
+      <c r="C39" s="241"/>
+      <c r="D39" s="208"/>
       <c r="E39" s="164" t="s">
         <v>23</v>
       </c>
@@ -8594,8 +8594,8 @@
       <c r="BT39" s="16"/>
     </row>
     <row r="40" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="246"/>
-      <c r="D40" s="248"/>
+      <c r="C40" s="241"/>
+      <c r="D40" s="209"/>
       <c r="E40" s="164" t="s">
         <v>25</v>
       </c>
@@ -8734,8 +8734,8 @@
       <c r="BT40" s="16"/>
     </row>
     <row r="41" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="246"/>
-      <c r="D41" s="249"/>
+      <c r="C41" s="241"/>
+      <c r="D41" s="210"/>
       <c r="E41" s="165" t="s">
         <v>26</v>
       </c>
@@ -8907,9 +8907,9 @@
       <c r="BT41" s="19"/>
     </row>
     <row r="42" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="247"/>
-      <c r="D42" s="251"/>
-      <c r="E42" s="251"/>
+      <c r="C42" s="242"/>
+      <c r="D42" s="244"/>
+      <c r="E42" s="244"/>
       <c r="F42" s="20" t="s">
         <v>24</v>
       </c>
@@ -9155,12 +9155,12 @@
       <c r="BT43" s="26"/>
     </row>
     <row r="44" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="254" t="s">
+      <c r="C44" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="210"/>
-      <c r="E44" s="211"/>
-      <c r="F44" s="242"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="234"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -9241,10 +9241,10 @@
       </c>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C45" s="254"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="213"/>
+      <c r="C45" s="247"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="205"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -9328,10 +9328,10 @@
       <c r="A46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="254"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="238"/>
+      <c r="C46" s="247"/>
+      <c r="D46" s="205"/>
+      <c r="E46" s="206"/>
+      <c r="F46" s="207"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -9412,10 +9412,10 @@
       </c>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C47" s="254"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="238"/>
+      <c r="C47" s="247"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="207"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -9496,10 +9496,10 @@
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C48" s="254"/>
-      <c r="D48" s="213"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="238"/>
+      <c r="C48" s="247"/>
+      <c r="D48" s="205"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="207"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -9580,10 +9580,10 @@
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C49" s="254"/>
-      <c r="D49" s="213"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="238"/>
+      <c r="C49" s="247"/>
+      <c r="D49" s="205"/>
+      <c r="E49" s="206"/>
+      <c r="F49" s="207"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -9667,10 +9667,10 @@
       <c r="A50" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C50" s="254"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="186"/>
-      <c r="F50" s="238"/>
+      <c r="C50" s="247"/>
+      <c r="D50" s="205"/>
+      <c r="E50" s="206"/>
+      <c r="F50" s="207"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -9765,10 +9765,10 @@
       <c r="CJ50" s="33"/>
     </row>
     <row r="51" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C51" s="254"/>
-      <c r="D51" s="213"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="238"/>
+      <c r="C51" s="247"/>
+      <c r="D51" s="205"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="207"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -9849,10 +9849,10 @@
       </c>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C52" s="254"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="238"/>
+      <c r="C52" s="247"/>
+      <c r="D52" s="205"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="207"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -9933,10 +9933,10 @@
       </c>
     </row>
     <row r="53" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C53" s="254"/>
-      <c r="D53" s="213"/>
-      <c r="E53" s="186"/>
-      <c r="F53" s="238"/>
+      <c r="C53" s="247"/>
+      <c r="D53" s="205"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="207"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -10017,10 +10017,10 @@
       </c>
     </row>
     <row r="54" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C54" s="254"/>
-      <c r="D54" s="213"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="238"/>
+      <c r="C54" s="247"/>
+      <c r="D54" s="205"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="207"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -10101,10 +10101,10 @@
       </c>
     </row>
     <row r="55" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C55" s="254"/>
-      <c r="D55" s="213"/>
-      <c r="E55" s="186"/>
-      <c r="F55" s="238"/>
+      <c r="C55" s="247"/>
+      <c r="D55" s="205"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="207"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -10185,10 +10185,10 @@
       </c>
     </row>
     <row r="56" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C56" s="254"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="238"/>
+      <c r="C56" s="247"/>
+      <c r="D56" s="205"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="207"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
@@ -10269,10 +10269,10 @@
       </c>
     </row>
     <row r="57" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C57" s="254"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="238"/>
+      <c r="C57" s="247"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="206"/>
+      <c r="F57" s="207"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -10353,10 +10353,10 @@
       </c>
     </row>
     <row r="58" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C58" s="254"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="186"/>
-      <c r="F58" s="238"/>
+      <c r="C58" s="247"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="206"/>
+      <c r="F58" s="207"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
       <c r="I58" s="34"/>
@@ -10437,10 +10437,10 @@
       </c>
     </row>
     <row r="59" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C59" s="254"/>
-      <c r="D59" s="213"/>
-      <c r="E59" s="186"/>
-      <c r="F59" s="238"/>
+      <c r="C59" s="247"/>
+      <c r="D59" s="205"/>
+      <c r="E59" s="206"/>
+      <c r="F59" s="207"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
@@ -10521,10 +10521,10 @@
       </c>
     </row>
     <row r="60" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C60" s="254"/>
-      <c r="D60" s="213"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="238"/>
+      <c r="C60" s="247"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="206"/>
+      <c r="F60" s="207"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
@@ -10605,10 +10605,10 @@
       </c>
     </row>
     <row r="61" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C61" s="254"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="238"/>
+      <c r="C61" s="247"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="206"/>
+      <c r="F61" s="207"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
@@ -10689,10 +10689,10 @@
       </c>
     </row>
     <row r="62" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C62" s="254"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="238"/>
+      <c r="C62" s="247"/>
+      <c r="D62" s="205"/>
+      <c r="E62" s="206"/>
+      <c r="F62" s="207"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
@@ -10773,10 +10773,10 @@
       </c>
     </row>
     <row r="63" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C63" s="254"/>
-      <c r="D63" s="213"/>
-      <c r="E63" s="186"/>
-      <c r="F63" s="238"/>
+      <c r="C63" s="247"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="206"/>
+      <c r="F63" s="207"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
@@ -10857,7 +10857,7 @@
       </c>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C64" s="254"/>
+      <c r="C64" s="247"/>
       <c r="D64" s="35" t="s">
         <v>31</v>
       </c>
@@ -12562,14 +12562,14 @@
     </row>
     <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="255" t="s">
+      <c r="C74" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="256" t="s">
+      <c r="D74" s="249" t="s">
         <v>33</v>
       </c>
-      <c r="E74" s="256"/>
-      <c r="F74" s="256"/>
+      <c r="E74" s="249"/>
+      <c r="F74" s="249"/>
       <c r="G74" s="46"/>
       <c r="H74" s="46"/>
       <c r="I74" s="46"/>
@@ -12641,12 +12641,12 @@
       </c>
     </row>
     <row r="75" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C75" s="255"/>
-      <c r="D75" s="257" t="s">
+      <c r="C75" s="248"/>
+      <c r="D75" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="257"/>
-      <c r="F75" s="257"/>
+      <c r="E75" s="230"/>
+      <c r="F75" s="230"/>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
       <c r="I75" s="48"/>
@@ -12718,12 +12718,12 @@
       </c>
     </row>
     <row r="76" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C76" s="255"/>
-      <c r="D76" s="257" t="s">
+      <c r="C76" s="248"/>
+      <c r="D76" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="257"/>
-      <c r="F76" s="257"/>
+      <c r="E76" s="230"/>
+      <c r="F76" s="230"/>
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
       <c r="I76" s="48"/>
@@ -12795,12 +12795,12 @@
       </c>
     </row>
     <row r="77" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C77" s="255"/>
-      <c r="D77" s="257" t="s">
+      <c r="C77" s="248"/>
+      <c r="D77" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="257"/>
-      <c r="F77" s="257"/>
+      <c r="E77" s="230"/>
+      <c r="F77" s="230"/>
       <c r="G77" s="48"/>
       <c r="H77" s="48"/>
       <c r="I77" s="48"/>
@@ -12872,12 +12872,12 @@
       </c>
     </row>
     <row r="78" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C78" s="255"/>
-      <c r="D78" s="257" t="s">
+      <c r="C78" s="248"/>
+      <c r="D78" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="257"/>
-      <c r="F78" s="257"/>
+      <c r="E78" s="230"/>
+      <c r="F78" s="230"/>
       <c r="G78" s="48"/>
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
@@ -12952,12 +12952,12 @@
       <c r="A79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="255"/>
-      <c r="D79" s="257" t="s">
+      <c r="C79" s="248"/>
+      <c r="D79" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="257"/>
-      <c r="F79" s="257"/>
+      <c r="E79" s="230"/>
+      <c r="F79" s="230"/>
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
@@ -13029,12 +13029,12 @@
       </c>
     </row>
     <row r="80" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C80" s="255"/>
-      <c r="D80" s="257" t="s">
+      <c r="C80" s="248"/>
+      <c r="D80" s="230" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="257"/>
-      <c r="F80" s="257"/>
+      <c r="E80" s="230"/>
+      <c r="F80" s="230"/>
       <c r="G80" s="48"/>
       <c r="H80" s="48"/>
       <c r="I80" s="48"/>
@@ -13106,12 +13106,12 @@
       </c>
     </row>
     <row r="81" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C81" s="255"/>
-      <c r="D81" s="257" t="s">
+      <c r="C81" s="248"/>
+      <c r="D81" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="257"/>
-      <c r="F81" s="257"/>
+      <c r="E81" s="230"/>
+      <c r="F81" s="230"/>
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
       <c r="I81" s="48"/>
@@ -13183,12 +13183,12 @@
       </c>
     </row>
     <row r="82" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C82" s="255"/>
-      <c r="D82" s="257" t="s">
+      <c r="C82" s="248"/>
+      <c r="D82" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="257"/>
-      <c r="F82" s="257"/>
+      <c r="E82" s="230"/>
+      <c r="F82" s="230"/>
       <c r="G82" s="48"/>
       <c r="H82" s="48"/>
       <c r="I82" s="48"/>
@@ -13260,12 +13260,12 @@
       </c>
     </row>
     <row r="83" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C83" s="255"/>
-      <c r="D83" s="257" t="s">
+      <c r="C83" s="248"/>
+      <c r="D83" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="257"/>
-      <c r="F83" s="257"/>
+      <c r="E83" s="230"/>
+      <c r="F83" s="230"/>
       <c r="G83" s="48"/>
       <c r="H83" s="48"/>
       <c r="I83" s="48"/>
@@ -13337,12 +13337,12 @@
       </c>
     </row>
     <row r="84" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C84" s="255"/>
-      <c r="D84" s="257" t="s">
+      <c r="C84" s="248"/>
+      <c r="D84" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="257"/>
-      <c r="F84" s="257"/>
+      <c r="E84" s="230"/>
+      <c r="F84" s="230"/>
       <c r="G84" s="48"/>
       <c r="H84" s="48"/>
       <c r="I84" s="48"/>
@@ -13414,12 +13414,12 @@
       </c>
     </row>
     <row r="85" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C85" s="255"/>
-      <c r="D85" s="258" t="s">
+      <c r="C85" s="248"/>
+      <c r="D85" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="258"/>
-      <c r="F85" s="258"/>
+      <c r="E85" s="231"/>
+      <c r="F85" s="231"/>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50"/>
@@ -13497,10 +13497,10 @@
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="252" t="s">
+      <c r="C87" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="253" t="s">
+      <c r="D87" s="246" t="s">
         <v>22</v>
       </c>
       <c r="E87" s="53"/>
@@ -13673,8 +13673,8 @@
       </c>
     </row>
     <row r="88" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="252"/>
-      <c r="D88" s="253"/>
+      <c r="C88" s="245"/>
+      <c r="D88" s="246"/>
       <c r="E88" s="57"/>
       <c r="F88" s="58">
         <v>100</v>
@@ -13845,8 +13845,8 @@
       </c>
     </row>
     <row r="89" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="252"/>
-      <c r="D89" s="253"/>
+      <c r="C89" s="245"/>
+      <c r="D89" s="246"/>
       <c r="E89" s="57"/>
       <c r="F89" s="58">
         <v>2000</v>
@@ -14017,8 +14017,8 @@
       </c>
     </row>
     <row r="90" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="252"/>
-      <c r="D90" s="253"/>
+      <c r="C90" s="245"/>
+      <c r="D90" s="246"/>
       <c r="E90" s="61"/>
       <c r="F90" s="62" t="s">
         <v>46</v>
@@ -14189,8 +14189,8 @@
       </c>
     </row>
     <row r="91" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="252"/>
-      <c r="D91" s="253" t="s">
+      <c r="C91" s="245"/>
+      <c r="D91" s="246" t="s">
         <v>47</v>
       </c>
       <c r="E91" s="53"/>
@@ -14363,8 +14363,8 @@
       </c>
     </row>
     <row r="92" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="252"/>
-      <c r="D92" s="253"/>
+      <c r="C92" s="245"/>
+      <c r="D92" s="246"/>
       <c r="E92" s="57"/>
       <c r="F92" s="58">
         <v>40</v>
@@ -14535,8 +14535,8 @@
       </c>
     </row>
     <row r="93" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="252"/>
-      <c r="D93" s="253"/>
+      <c r="C93" s="245"/>
+      <c r="D93" s="246"/>
       <c r="E93" s="57"/>
       <c r="F93" s="58">
         <v>2000</v>
@@ -14707,8 +14707,8 @@
       </c>
     </row>
     <row r="94" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="252"/>
-      <c r="D94" s="253"/>
+      <c r="C94" s="245"/>
+      <c r="D94" s="246"/>
       <c r="E94" s="61"/>
       <c r="F94" s="62" t="s">
         <v>46</v>
@@ -14879,8 +14879,8 @@
       </c>
     </row>
     <row r="95" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="252"/>
-      <c r="D95" s="253" t="s">
+      <c r="C95" s="245"/>
+      <c r="D95" s="246" t="s">
         <v>48</v>
       </c>
       <c r="E95" s="53"/>
@@ -15053,8 +15053,8 @@
       </c>
     </row>
     <row r="96" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="252"/>
-      <c r="D96" s="253"/>
+      <c r="C96" s="245"/>
+      <c r="D96" s="246"/>
       <c r="E96" s="57"/>
       <c r="F96" s="58">
         <v>200</v>
@@ -15225,8 +15225,8 @@
       </c>
     </row>
     <row r="97" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="252"/>
-      <c r="D97" s="253"/>
+      <c r="C97" s="245"/>
+      <c r="D97" s="246"/>
       <c r="E97" s="57"/>
       <c r="F97" s="58">
         <v>2000</v>
@@ -15397,8 +15397,8 @@
       </c>
     </row>
     <row r="98" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="252"/>
-      <c r="D98" s="253"/>
+      <c r="C98" s="245"/>
+      <c r="D98" s="246"/>
       <c r="E98" s="61"/>
       <c r="F98" s="62" t="s">
         <v>46</v>
@@ -15569,8 +15569,8 @@
       </c>
     </row>
     <row r="99" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="252"/>
-      <c r="D99" s="253" t="s">
+      <c r="C99" s="245"/>
+      <c r="D99" s="246" t="s">
         <v>27</v>
       </c>
       <c r="E99" s="53"/>
@@ -15743,8 +15743,8 @@
       </c>
     </row>
     <row r="100" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="252"/>
-      <c r="D100" s="253"/>
+      <c r="C100" s="245"/>
+      <c r="D100" s="246"/>
       <c r="E100" s="57"/>
       <c r="F100" s="58">
         <v>300</v>
@@ -15915,8 +15915,8 @@
       </c>
     </row>
     <row r="101" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="252"/>
-      <c r="D101" s="253"/>
+      <c r="C101" s="245"/>
+      <c r="D101" s="246"/>
       <c r="E101" s="57"/>
       <c r="F101" s="58">
         <v>2000</v>
@@ -16087,8 +16087,8 @@
       </c>
     </row>
     <row r="102" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="252"/>
-      <c r="D102" s="253"/>
+      <c r="C102" s="245"/>
+      <c r="D102" s="246"/>
       <c r="E102" s="61"/>
       <c r="F102" s="62" t="s">
         <v>46</v>
@@ -16259,8 +16259,8 @@
       </c>
     </row>
     <row r="103" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="252"/>
-      <c r="D103" s="253" t="s">
+      <c r="C103" s="245"/>
+      <c r="D103" s="246" t="s">
         <v>28</v>
       </c>
       <c r="E103" s="53"/>
@@ -16433,8 +16433,8 @@
       </c>
     </row>
     <row r="104" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="252"/>
-      <c r="D104" s="253"/>
+      <c r="C104" s="245"/>
+      <c r="D104" s="246"/>
       <c r="E104" s="57"/>
       <c r="F104" s="58">
         <v>300</v>
@@ -16605,8 +16605,8 @@
       </c>
     </row>
     <row r="105" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="252"/>
-      <c r="D105" s="253"/>
+      <c r="C105" s="245"/>
+      <c r="D105" s="246"/>
       <c r="E105" s="57"/>
       <c r="F105" s="58">
         <v>500</v>
@@ -16777,8 +16777,8 @@
       </c>
     </row>
     <row r="106" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="252"/>
-      <c r="D106" s="253"/>
+      <c r="C106" s="245"/>
+      <c r="D106" s="246"/>
       <c r="E106" s="57"/>
       <c r="F106" s="58">
         <v>800</v>
@@ -16949,8 +16949,8 @@
       </c>
     </row>
     <row r="107" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="252"/>
-      <c r="D107" s="253"/>
+      <c r="C107" s="245"/>
+      <c r="D107" s="246"/>
       <c r="E107" s="57"/>
       <c r="F107" s="58">
         <v>1000</v>
@@ -17121,8 +17121,8 @@
       </c>
     </row>
     <row r="108" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="252"/>
-      <c r="D108" s="253"/>
+      <c r="C108" s="245"/>
+      <c r="D108" s="246"/>
       <c r="E108" s="57"/>
       <c r="F108" s="58">
         <v>2000</v>
@@ -17293,8 +17293,8 @@
       </c>
     </row>
     <row r="109" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="252"/>
-      <c r="D109" s="253"/>
+      <c r="C109" s="245"/>
+      <c r="D109" s="246"/>
       <c r="E109" s="61"/>
       <c r="F109" s="62" t="s">
         <v>46</v>
@@ -17538,10 +17538,10 @@
       <c r="BU110" s="59"/>
     </row>
     <row r="111" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C111" s="192"/>
-      <c r="D111" s="193"/>
-      <c r="E111" s="193"/>
-      <c r="F111" s="194"/>
+      <c r="C111" s="287"/>
+      <c r="D111" s="288"/>
+      <c r="E111" s="288"/>
+      <c r="F111" s="289"/>
       <c r="I111" s="1" t="s">
         <v>49</v>
       </c>
@@ -17553,10 +17553,10 @@
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="3:73" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="195"/>
-      <c r="D112" s="196"/>
-      <c r="E112" s="196"/>
-      <c r="F112" s="197"/>
+      <c r="C112" s="290"/>
+      <c r="D112" s="291"/>
+      <c r="E112" s="291"/>
+      <c r="F112" s="292"/>
       <c r="I112" s="1" t="s">
         <v>51</v>
       </c>
@@ -17568,10 +17568,10 @@
       <c r="O112" s="69"/>
     </row>
     <row r="113" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="195"/>
-      <c r="D113" s="196"/>
-      <c r="E113" s="196"/>
-      <c r="F113" s="197"/>
+      <c r="C113" s="290"/>
+      <c r="D113" s="291"/>
+      <c r="E113" s="291"/>
+      <c r="F113" s="292"/>
       <c r="I113" s="1" t="s">
         <v>55</v>
       </c>
@@ -17580,10 +17580,10 @@
       <c r="O113" s="69"/>
     </row>
     <row r="114" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="195"/>
-      <c r="D114" s="196"/>
-      <c r="E114" s="196"/>
-      <c r="F114" s="197"/>
+      <c r="C114" s="290"/>
+      <c r="D114" s="291"/>
+      <c r="E114" s="291"/>
+      <c r="F114" s="292"/>
       <c r="I114" s="1" t="s">
         <v>58</v>
       </c>
@@ -17597,10 +17597,10 @@
       <c r="AD114" s="77"/>
     </row>
     <row r="115" spans="3:30" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="198"/>
-      <c r="D115" s="199"/>
-      <c r="E115" s="199"/>
-      <c r="F115" s="200"/>
+      <c r="C115" s="293"/>
+      <c r="D115" s="294"/>
+      <c r="E115" s="294"/>
+      <c r="F115" s="295"/>
       <c r="I115" s="1" t="s">
         <v>59</v>
       </c>
@@ -17639,11 +17639,11 @@
       <c r="I117" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M117" s="267">
+      <c r="M117" s="238">
         <f>G8</f>
         <v>44743</v>
       </c>
-      <c r="N117" s="267"/>
+      <c r="N117" s="238"/>
       <c r="O117" s="84"/>
       <c r="AC117" s="77"/>
       <c r="AD117" s="77"/>
@@ -17660,11 +17660,11 @@
       <c r="I118" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M118" s="267">
+      <c r="M118" s="238">
         <f>BK8</f>
         <v>44757</v>
       </c>
-      <c r="N118" s="267"/>
+      <c r="N118" s="238"/>
       <c r="O118" s="84"/>
       <c r="AC118" s="77"/>
       <c r="AD118" s="77"/>
@@ -17681,11 +17681,11 @@
       <c r="I119" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M119" s="269">
+      <c r="M119" s="229">
         <f>D127+D131+D134+D138+D141</f>
         <v>0</v>
       </c>
-      <c r="N119" s="269"/>
+      <c r="N119" s="229"/>
       <c r="O119" s="88"/>
       <c r="AC119" s="77"/>
       <c r="AD119" s="77"/>
@@ -17724,11 +17724,11 @@
       <c r="J121" s="91"/>
       <c r="K121" s="91"/>
       <c r="L121" s="91"/>
-      <c r="M121" s="268">
+      <c r="M121" s="239">
         <f>N261</f>
         <v>0</v>
       </c>
-      <c r="N121" s="268"/>
+      <c r="N121" s="239"/>
       <c r="O121" s="88"/>
       <c r="AC121" s="77"/>
       <c r="AD121" s="77"/>
@@ -17744,72 +17744,72 @@
       <c r="AD122" s="77"/>
     </row>
     <row r="123" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="219" t="s">
+      <c r="C123" s="266" t="s">
         <v>70</v>
       </c>
-      <c r="D123" s="220"/>
-      <c r="E123" s="220"/>
-      <c r="F123" s="220"/>
-      <c r="G123" s="220"/>
-      <c r="H123" s="221"/>
-      <c r="I123" s="222"/>
-      <c r="J123" s="223"/>
-      <c r="K123" s="223"/>
-      <c r="L123" s="223"/>
-      <c r="M123" s="223"/>
-      <c r="N123" s="224"/>
+      <c r="D123" s="267"/>
+      <c r="E123" s="267"/>
+      <c r="F123" s="267"/>
+      <c r="G123" s="267"/>
+      <c r="H123" s="268"/>
+      <c r="I123" s="269"/>
+      <c r="J123" s="270"/>
+      <c r="K123" s="270"/>
+      <c r="L123" s="270"/>
+      <c r="M123" s="270"/>
+      <c r="N123" s="271"/>
       <c r="O123" s="88"/>
       <c r="AC123" s="77"/>
       <c r="AD123" s="77"/>
     </row>
     <row r="124" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="259" t="s">
+      <c r="C124" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="D124" s="215" t="s">
+      <c r="D124" s="243" t="s">
         <v>99</v>
       </c>
-      <c r="E124" s="215" t="s">
+      <c r="E124" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="F124" s="187" t="s">
+      <c r="F124" s="296" t="s">
         <v>72</v>
       </c>
-      <c r="G124" s="188"/>
-      <c r="H124" s="189"/>
-      <c r="I124" s="217" t="s">
+      <c r="G124" s="298"/>
+      <c r="H124" s="297"/>
+      <c r="I124" s="237" t="s">
         <v>73</v>
       </c>
       <c r="J124" s="174"/>
       <c r="K124" s="174"/>
-      <c r="L124" s="216" t="s">
+      <c r="L124" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="M124" s="225" t="s">
+      <c r="M124" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="N124" s="226"/>
+      <c r="N124" s="273"/>
       <c r="O124" s="88"/>
       <c r="AC124" s="77"/>
       <c r="AD124" s="77"/>
     </row>
     <row r="125" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="217"/>
-      <c r="D125" s="216"/>
-      <c r="E125" s="216"/>
+      <c r="C125" s="237"/>
+      <c r="D125" s="264"/>
+      <c r="E125" s="264"/>
       <c r="F125" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="G125" s="187" t="s">
+      <c r="G125" s="296" t="s">
         <v>76</v>
       </c>
-      <c r="H125" s="189"/>
-      <c r="I125" s="218"/>
+      <c r="H125" s="297"/>
+      <c r="I125" s="265"/>
       <c r="J125" s="174"/>
       <c r="K125" s="174"/>
-      <c r="L125" s="216"/>
-      <c r="M125" s="227"/>
-      <c r="N125" s="228"/>
+      <c r="L125" s="264"/>
+      <c r="M125" s="274"/>
+      <c r="N125" s="275"/>
       <c r="O125" s="88"/>
       <c r="AC125" s="77"/>
       <c r="AD125" s="77"/>
@@ -17819,8 +17819,8 @@
       <c r="D126" s="176"/>
       <c r="E126" s="176"/>
       <c r="F126" s="177"/>
-      <c r="G126" s="186"/>
-      <c r="H126" s="186"/>
+      <c r="G126" s="206"/>
+      <c r="H126" s="206"/>
       <c r="I126" s="178">
         <v>0</v>
       </c>
@@ -17829,11 +17829,11 @@
       <c r="L126" s="178">
         <v>0</v>
       </c>
-      <c r="M126" s="270">
+      <c r="M126" s="227">
         <f t="shared" ref="M126:M142" si="10">I126*L126</f>
         <v>0</v>
       </c>
-      <c r="N126" s="271"/>
+      <c r="N126" s="228"/>
       <c r="O126" s="88"/>
       <c r="AC126" s="77"/>
       <c r="AD126" s="77"/>
@@ -17843,8 +17843,8 @@
       <c r="D127" s="30"/>
       <c r="E127" s="30"/>
       <c r="F127" s="68"/>
-      <c r="G127" s="186"/>
-      <c r="H127" s="186"/>
+      <c r="G127" s="206"/>
+      <c r="H127" s="206"/>
       <c r="I127" s="95">
         <v>0</v>
       </c>
@@ -17853,11 +17853,11 @@
       <c r="L127" s="95">
         <v>0</v>
       </c>
-      <c r="M127" s="190">
+      <c r="M127" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N127" s="191"/>
+      <c r="N127" s="216"/>
       <c r="O127" s="88"/>
       <c r="AC127" s="77"/>
       <c r="AD127" s="77"/>
@@ -17865,8 +17865,8 @@
     <row r="128" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="163"/>
       <c r="F128" s="68"/>
-      <c r="G128" s="186"/>
-      <c r="H128" s="186"/>
+      <c r="G128" s="206"/>
+      <c r="H128" s="206"/>
       <c r="I128" s="95">
         <v>0</v>
       </c>
@@ -17875,11 +17875,11 @@
       <c r="L128" s="95">
         <v>0</v>
       </c>
-      <c r="M128" s="190">
+      <c r="M128" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N128" s="191"/>
+      <c r="N128" s="216"/>
       <c r="O128" s="88"/>
       <c r="AC128" s="77"/>
       <c r="AD128" s="77"/>
@@ -17889,8 +17889,8 @@
       <c r="D129" s="30"/>
       <c r="E129" s="30"/>
       <c r="F129" s="68"/>
-      <c r="G129" s="186"/>
-      <c r="H129" s="186"/>
+      <c r="G129" s="206"/>
+      <c r="H129" s="206"/>
       <c r="I129" s="95">
         <v>0</v>
       </c>
@@ -17899,11 +17899,11 @@
       <c r="L129" s="95">
         <v>0</v>
       </c>
-      <c r="M129" s="190">
+      <c r="M129" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N129" s="191"/>
+      <c r="N129" s="216"/>
       <c r="O129" s="97"/>
       <c r="AC129" s="77"/>
       <c r="AD129" s="77"/>
@@ -17911,8 +17911,8 @@
     <row r="130" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="166"/>
       <c r="F130" s="68"/>
-      <c r="G130" s="186"/>
-      <c r="H130" s="186"/>
+      <c r="G130" s="206"/>
+      <c r="H130" s="206"/>
       <c r="I130" s="95">
         <v>0</v>
       </c>
@@ -17921,11 +17921,11 @@
       <c r="L130" s="95">
         <v>0</v>
       </c>
-      <c r="M130" s="190">
+      <c r="M130" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N130" s="191"/>
+      <c r="N130" s="216"/>
       <c r="AC130" s="77"/>
       <c r="AD130" s="30"/>
     </row>
@@ -17934,8 +17934,8 @@
       <c r="D131" s="95"/>
       <c r="E131" s="30"/>
       <c r="F131" s="68"/>
-      <c r="G131" s="186"/>
-      <c r="H131" s="186"/>
+      <c r="G131" s="206"/>
+      <c r="H131" s="206"/>
       <c r="I131" s="95">
         <v>0</v>
       </c>
@@ -17944,11 +17944,11 @@
       <c r="L131" s="95">
         <v>0</v>
       </c>
-      <c r="M131" s="190">
+      <c r="M131" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N131" s="191"/>
+      <c r="N131" s="216"/>
       <c r="AC131" s="77"/>
       <c r="AD131" s="77"/>
     </row>
@@ -17957,8 +17957,8 @@
       <c r="D132" s="30"/>
       <c r="E132" s="30"/>
       <c r="F132" s="68"/>
-      <c r="G132" s="186"/>
-      <c r="H132" s="186"/>
+      <c r="G132" s="206"/>
+      <c r="H132" s="206"/>
       <c r="I132" s="95">
         <v>0</v>
       </c>
@@ -17967,11 +17967,11 @@
       <c r="L132" s="95">
         <v>0</v>
       </c>
-      <c r="M132" s="190">
+      <c r="M132" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N132" s="191"/>
+      <c r="N132" s="216"/>
       <c r="AC132" s="77"/>
     </row>
     <row r="133" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17979,8 +17979,8 @@
       <c r="D133" s="95"/>
       <c r="E133" s="95"/>
       <c r="F133" s="68"/>
-      <c r="G133" s="186"/>
-      <c r="H133" s="186"/>
+      <c r="G133" s="206"/>
+      <c r="H133" s="206"/>
       <c r="I133" s="95">
         <v>0</v>
       </c>
@@ -17989,11 +17989,11 @@
       <c r="L133" s="95">
         <v>0</v>
       </c>
-      <c r="M133" s="190">
+      <c r="M133" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N133" s="191"/>
+      <c r="N133" s="216"/>
       <c r="O133" s="68"/>
       <c r="AC133" s="77"/>
     </row>
@@ -18002,8 +18002,8 @@
       <c r="D134" s="95"/>
       <c r="E134" s="95"/>
       <c r="F134" s="68"/>
-      <c r="G134" s="186"/>
-      <c r="H134" s="186"/>
+      <c r="G134" s="206"/>
+      <c r="H134" s="206"/>
       <c r="I134" s="95">
         <v>0</v>
       </c>
@@ -18012,11 +18012,11 @@
       <c r="L134" s="95">
         <v>0</v>
       </c>
-      <c r="M134" s="190">
+      <c r="M134" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N134" s="191"/>
+      <c r="N134" s="216"/>
       <c r="O134" s="68"/>
       <c r="AC134" s="77"/>
     </row>
@@ -18025,8 +18025,8 @@
       <c r="D135" s="95"/>
       <c r="E135" s="95"/>
       <c r="F135" s="68"/>
-      <c r="G135" s="186"/>
-      <c r="H135" s="186"/>
+      <c r="G135" s="206"/>
+      <c r="H135" s="206"/>
       <c r="I135" s="95">
         <v>0</v>
       </c>
@@ -18035,18 +18035,18 @@
       <c r="L135" s="95">
         <v>0</v>
       </c>
-      <c r="M135" s="190">
+      <c r="M135" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N135" s="191"/>
+      <c r="N135" s="216"/>
       <c r="AC135" s="77"/>
     </row>
     <row r="136" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="163"/>
       <c r="F136" s="68"/>
-      <c r="G136" s="186"/>
-      <c r="H136" s="186"/>
+      <c r="G136" s="206"/>
+      <c r="H136" s="206"/>
       <c r="I136" s="95">
         <v>0</v>
       </c>
@@ -18055,18 +18055,18 @@
       <c r="L136" s="95">
         <v>0</v>
       </c>
-      <c r="M136" s="190">
+      <c r="M136" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N136" s="191"/>
+      <c r="N136" s="216"/>
       <c r="AC136" s="77"/>
     </row>
     <row r="137" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="166"/>
       <c r="F137" s="68"/>
-      <c r="G137" s="186"/>
-      <c r="H137" s="186"/>
+      <c r="G137" s="206"/>
+      <c r="H137" s="206"/>
       <c r="I137" s="95">
         <v>0</v>
       </c>
@@ -18075,11 +18075,11 @@
       <c r="L137" s="95">
         <v>0</v>
       </c>
-      <c r="M137" s="190">
+      <c r="M137" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N137" s="191"/>
+      <c r="N137" s="216"/>
       <c r="AC137" s="77"/>
     </row>
     <row r="138" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18087,8 +18087,8 @@
       <c r="D138" s="95"/>
       <c r="E138" s="179"/>
       <c r="F138" s="68"/>
-      <c r="G138" s="186"/>
-      <c r="H138" s="186"/>
+      <c r="G138" s="206"/>
+      <c r="H138" s="206"/>
       <c r="I138" s="95">
         <v>0</v>
       </c>
@@ -18097,11 +18097,11 @@
       <c r="L138" s="95">
         <v>0</v>
       </c>
-      <c r="M138" s="190">
+      <c r="M138" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N138" s="191"/>
+      <c r="N138" s="216"/>
       <c r="AC138" s="77"/>
     </row>
     <row r="139" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18109,8 +18109,8 @@
       <c r="D139" s="95"/>
       <c r="E139" s="95"/>
       <c r="F139" s="68"/>
-      <c r="G139" s="186"/>
-      <c r="H139" s="186"/>
+      <c r="G139" s="206"/>
+      <c r="H139" s="206"/>
       <c r="I139" s="95">
         <v>0</v>
       </c>
@@ -18119,11 +18119,11 @@
       <c r="L139" s="95">
         <v>0</v>
       </c>
-      <c r="M139" s="190">
+      <c r="M139" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N139" s="191"/>
+      <c r="N139" s="216"/>
       <c r="AC139" s="30"/>
     </row>
     <row r="140" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18131,8 +18131,8 @@
       <c r="D140" s="95"/>
       <c r="E140" s="95"/>
       <c r="F140" s="68"/>
-      <c r="G140" s="186"/>
-      <c r="H140" s="186"/>
+      <c r="G140" s="206"/>
+      <c r="H140" s="206"/>
       <c r="I140" s="95">
         <v>0</v>
       </c>
@@ -18141,11 +18141,11 @@
       <c r="L140" s="95">
         <v>0</v>
       </c>
-      <c r="M140" s="190">
+      <c r="M140" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N140" s="191"/>
+      <c r="N140" s="216"/>
       <c r="AC140" s="77"/>
     </row>
     <row r="141" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18153,8 +18153,8 @@
       <c r="D141" s="95"/>
       <c r="E141" s="179"/>
       <c r="F141" s="68"/>
-      <c r="G141" s="186"/>
-      <c r="H141" s="186"/>
+      <c r="G141" s="206"/>
+      <c r="H141" s="206"/>
       <c r="I141" s="95">
         <v>0</v>
       </c>
@@ -18163,19 +18163,19 @@
       <c r="L141" s="95">
         <v>0</v>
       </c>
-      <c r="M141" s="190">
+      <c r="M141" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N141" s="191"/>
+      <c r="N141" s="216"/>
     </row>
     <row r="142" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="166"/>
       <c r="D142" s="95"/>
       <c r="E142" s="179"/>
       <c r="F142" s="68"/>
-      <c r="G142" s="186"/>
-      <c r="H142" s="186"/>
+      <c r="G142" s="206"/>
+      <c r="H142" s="206"/>
       <c r="I142" s="95">
         <v>0</v>
       </c>
@@ -18184,19 +18184,19 @@
       <c r="L142" s="95">
         <v>0</v>
       </c>
-      <c r="M142" s="190">
+      <c r="M142" s="215">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N142" s="191"/>
+      <c r="N142" s="216"/>
     </row>
     <row r="143" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="166"/>
       <c r="D143" s="95"/>
       <c r="E143" s="95"/>
       <c r="F143" s="68"/>
-      <c r="G143" s="186"/>
-      <c r="H143" s="186"/>
+      <c r="G143" s="206"/>
+      <c r="H143" s="206"/>
       <c r="I143" s="95">
         <v>0</v>
       </c>
@@ -18205,11 +18205,11 @@
       <c r="L143" s="95">
         <v>0</v>
       </c>
-      <c r="M143" s="190">
+      <c r="M143" s="215">
         <f>I143*L143</f>
         <v>0</v>
       </c>
-      <c r="N143" s="191"/>
+      <c r="N143" s="216"/>
       <c r="AC143" s="77"/>
     </row>
     <row r="144" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18217,8 +18217,8 @@
       <c r="D144" s="95"/>
       <c r="E144" s="95"/>
       <c r="F144" s="68"/>
-      <c r="G144" s="186"/>
-      <c r="H144" s="186"/>
+      <c r="G144" s="206"/>
+      <c r="H144" s="206"/>
       <c r="I144" s="95">
         <v>0</v>
       </c>
@@ -18227,11 +18227,11 @@
       <c r="L144" s="95">
         <v>0</v>
       </c>
-      <c r="M144" s="190">
+      <c r="M144" s="215">
         <f t="shared" ref="M144:M165" si="11">I144*L144</f>
         <v>0</v>
       </c>
-      <c r="N144" s="191"/>
+      <c r="N144" s="216"/>
       <c r="AC144" s="77"/>
     </row>
     <row r="145" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18239,8 +18239,8 @@
       <c r="D145" s="95"/>
       <c r="E145" s="95"/>
       <c r="F145" s="68"/>
-      <c r="G145" s="186"/>
-      <c r="H145" s="186"/>
+      <c r="G145" s="206"/>
+      <c r="H145" s="206"/>
       <c r="I145" s="95">
         <v>0</v>
       </c>
@@ -18249,11 +18249,11 @@
       <c r="L145" s="95">
         <v>0</v>
       </c>
-      <c r="M145" s="190">
+      <c r="M145" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N145" s="191"/>
+      <c r="N145" s="216"/>
       <c r="AC145" s="77"/>
     </row>
     <row r="146" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18261,8 +18261,8 @@
       <c r="D146" s="95"/>
       <c r="E146" s="95"/>
       <c r="F146" s="68"/>
-      <c r="G146" s="186"/>
-      <c r="H146" s="186"/>
+      <c r="G146" s="206"/>
+      <c r="H146" s="206"/>
       <c r="I146" s="95">
         <v>0</v>
       </c>
@@ -18271,11 +18271,11 @@
       <c r="L146" s="95">
         <v>0</v>
       </c>
-      <c r="M146" s="190">
+      <c r="M146" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N146" s="191"/>
+      <c r="N146" s="216"/>
       <c r="AC146" s="77"/>
     </row>
     <row r="147" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18283,8 +18283,8 @@
       <c r="D147" s="95"/>
       <c r="E147" s="95"/>
       <c r="F147" s="68"/>
-      <c r="G147" s="186"/>
-      <c r="H147" s="186"/>
+      <c r="G147" s="206"/>
+      <c r="H147" s="206"/>
       <c r="I147" s="95">
         <v>0</v>
       </c>
@@ -18293,11 +18293,11 @@
       <c r="L147" s="95">
         <v>0</v>
       </c>
-      <c r="M147" s="190">
+      <c r="M147" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N147" s="191"/>
+      <c r="N147" s="216"/>
       <c r="AC147" s="77"/>
     </row>
     <row r="148" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18305,8 +18305,8 @@
       <c r="D148" s="95"/>
       <c r="E148" s="95"/>
       <c r="F148" s="68"/>
-      <c r="G148" s="186"/>
-      <c r="H148" s="186"/>
+      <c r="G148" s="206"/>
+      <c r="H148" s="206"/>
       <c r="I148" s="95">
         <v>0</v>
       </c>
@@ -18315,11 +18315,11 @@
       <c r="L148" s="95">
         <v>0</v>
       </c>
-      <c r="M148" s="190">
+      <c r="M148" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N148" s="191"/>
+      <c r="N148" s="216"/>
       <c r="AC148" s="77"/>
     </row>
     <row r="149" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18327,8 +18327,8 @@
       <c r="D149" s="95"/>
       <c r="E149" s="95"/>
       <c r="F149" s="68"/>
-      <c r="G149" s="186"/>
-      <c r="H149" s="186"/>
+      <c r="G149" s="206"/>
+      <c r="H149" s="206"/>
       <c r="I149" s="95">
         <v>0</v>
       </c>
@@ -18337,11 +18337,11 @@
       <c r="L149" s="95">
         <v>0</v>
       </c>
-      <c r="M149" s="190">
+      <c r="M149" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N149" s="191"/>
+      <c r="N149" s="216"/>
       <c r="AC149" s="77"/>
     </row>
     <row r="150" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18349,8 +18349,8 @@
       <c r="D150" s="95"/>
       <c r="E150" s="95"/>
       <c r="F150" s="68"/>
-      <c r="G150" s="186"/>
-      <c r="H150" s="186"/>
+      <c r="G150" s="206"/>
+      <c r="H150" s="206"/>
       <c r="I150" s="95">
         <v>0</v>
       </c>
@@ -18359,11 +18359,11 @@
       <c r="L150" s="95">
         <v>0</v>
       </c>
-      <c r="M150" s="190">
+      <c r="M150" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N150" s="191"/>
+      <c r="N150" s="216"/>
       <c r="AC150" s="77"/>
     </row>
     <row r="151" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18371,8 +18371,8 @@
       <c r="D151" s="95"/>
       <c r="E151" s="95"/>
       <c r="F151" s="68"/>
-      <c r="G151" s="186"/>
-      <c r="H151" s="186"/>
+      <c r="G151" s="206"/>
+      <c r="H151" s="206"/>
       <c r="I151" s="95">
         <v>0</v>
       </c>
@@ -18381,11 +18381,11 @@
       <c r="L151" s="95">
         <v>0</v>
       </c>
-      <c r="M151" s="190">
+      <c r="M151" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N151" s="191"/>
+      <c r="N151" s="216"/>
       <c r="AC151" s="77"/>
     </row>
     <row r="152" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18393,8 +18393,8 @@
       <c r="D152" s="95"/>
       <c r="E152" s="95"/>
       <c r="F152" s="68"/>
-      <c r="G152" s="186"/>
-      <c r="H152" s="186"/>
+      <c r="G152" s="206"/>
+      <c r="H152" s="206"/>
       <c r="I152" s="95">
         <v>0</v>
       </c>
@@ -18403,11 +18403,11 @@
       <c r="L152" s="95">
         <v>0</v>
       </c>
-      <c r="M152" s="190">
+      <c r="M152" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N152" s="191"/>
+      <c r="N152" s="216"/>
       <c r="AC152" s="77"/>
     </row>
     <row r="153" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18415,8 +18415,8 @@
       <c r="D153" s="95"/>
       <c r="E153" s="95"/>
       <c r="F153" s="68"/>
-      <c r="G153" s="186"/>
-      <c r="H153" s="186"/>
+      <c r="G153" s="206"/>
+      <c r="H153" s="206"/>
       <c r="I153" s="95">
         <v>0</v>
       </c>
@@ -18425,11 +18425,11 @@
       <c r="L153" s="95">
         <v>0</v>
       </c>
-      <c r="M153" s="190">
+      <c r="M153" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N153" s="191"/>
+      <c r="N153" s="216"/>
       <c r="AC153" s="77"/>
     </row>
     <row r="154" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18437,8 +18437,8 @@
       <c r="D154" s="95"/>
       <c r="E154" s="95"/>
       <c r="F154" s="68"/>
-      <c r="G154" s="186"/>
-      <c r="H154" s="186"/>
+      <c r="G154" s="206"/>
+      <c r="H154" s="206"/>
       <c r="I154" s="95">
         <v>0</v>
       </c>
@@ -18447,11 +18447,11 @@
       <c r="L154" s="95">
         <v>0</v>
       </c>
-      <c r="M154" s="190">
+      <c r="M154" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N154" s="191"/>
+      <c r="N154" s="216"/>
       <c r="AC154" s="77"/>
     </row>
     <row r="155" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18459,8 +18459,8 @@
       <c r="D155" s="95"/>
       <c r="E155" s="95"/>
       <c r="F155" s="68"/>
-      <c r="G155" s="186"/>
-      <c r="H155" s="186"/>
+      <c r="G155" s="206"/>
+      <c r="H155" s="206"/>
       <c r="I155" s="95">
         <v>0</v>
       </c>
@@ -18469,11 +18469,11 @@
       <c r="L155" s="95">
         <v>0</v>
       </c>
-      <c r="M155" s="190">
+      <c r="M155" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N155" s="191"/>
+      <c r="N155" s="216"/>
       <c r="AC155" s="77"/>
     </row>
     <row r="156" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18481,8 +18481,8 @@
       <c r="D156" s="95"/>
       <c r="E156" s="95"/>
       <c r="F156" s="68"/>
-      <c r="G156" s="186"/>
-      <c r="H156" s="186"/>
+      <c r="G156" s="206"/>
+      <c r="H156" s="206"/>
       <c r="I156" s="95">
         <v>0</v>
       </c>
@@ -18491,11 +18491,11 @@
       <c r="L156" s="95">
         <v>0</v>
       </c>
-      <c r="M156" s="190">
+      <c r="M156" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N156" s="191"/>
+      <c r="N156" s="216"/>
       <c r="AC156" s="77"/>
     </row>
     <row r="157" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18503,8 +18503,8 @@
       <c r="D157" s="95"/>
       <c r="E157" s="95"/>
       <c r="F157" s="68"/>
-      <c r="G157" s="186"/>
-      <c r="H157" s="186"/>
+      <c r="G157" s="206"/>
+      <c r="H157" s="206"/>
       <c r="I157" s="95">
         <v>0</v>
       </c>
@@ -18513,11 +18513,11 @@
       <c r="L157" s="95">
         <v>0</v>
       </c>
-      <c r="M157" s="190">
+      <c r="M157" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N157" s="191"/>
+      <c r="N157" s="216"/>
       <c r="AC157" s="77"/>
     </row>
     <row r="158" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18525,8 +18525,8 @@
       <c r="D158" s="95"/>
       <c r="E158" s="95"/>
       <c r="F158" s="68"/>
-      <c r="G158" s="186"/>
-      <c r="H158" s="186"/>
+      <c r="G158" s="206"/>
+      <c r="H158" s="206"/>
       <c r="I158" s="95">
         <v>0</v>
       </c>
@@ -18535,11 +18535,11 @@
       <c r="L158" s="95">
         <v>0</v>
       </c>
-      <c r="M158" s="190">
+      <c r="M158" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N158" s="191"/>
+      <c r="N158" s="216"/>
       <c r="AC158" s="77"/>
     </row>
     <row r="159" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18547,8 +18547,8 @@
       <c r="D159" s="95"/>
       <c r="E159" s="95"/>
       <c r="F159" s="68"/>
-      <c r="G159" s="186"/>
-      <c r="H159" s="186"/>
+      <c r="G159" s="206"/>
+      <c r="H159" s="206"/>
       <c r="I159" s="95">
         <v>0</v>
       </c>
@@ -18557,11 +18557,11 @@
       <c r="L159" s="95">
         <v>0</v>
       </c>
-      <c r="M159" s="190">
+      <c r="M159" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N159" s="191"/>
+      <c r="N159" s="216"/>
       <c r="AC159" s="77"/>
     </row>
     <row r="160" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18569,8 +18569,8 @@
       <c r="D160" s="95"/>
       <c r="E160" s="95"/>
       <c r="F160" s="68"/>
-      <c r="G160" s="186"/>
-      <c r="H160" s="186"/>
+      <c r="G160" s="206"/>
+      <c r="H160" s="206"/>
       <c r="I160" s="95">
         <v>0</v>
       </c>
@@ -18579,11 +18579,11 @@
       <c r="L160" s="95">
         <v>0</v>
       </c>
-      <c r="M160" s="190">
+      <c r="M160" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N160" s="191"/>
+      <c r="N160" s="216"/>
       <c r="AC160" s="77"/>
     </row>
     <row r="161" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18591,8 +18591,8 @@
       <c r="D161" s="95"/>
       <c r="E161" s="95"/>
       <c r="F161" s="68"/>
-      <c r="G161" s="186"/>
-      <c r="H161" s="186"/>
+      <c r="G161" s="206"/>
+      <c r="H161" s="206"/>
       <c r="I161" s="95">
         <v>0</v>
       </c>
@@ -18601,11 +18601,11 @@
       <c r="L161" s="95">
         <v>0</v>
       </c>
-      <c r="M161" s="190">
+      <c r="M161" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N161" s="191"/>
+      <c r="N161" s="216"/>
       <c r="AC161" s="77"/>
     </row>
     <row r="162" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18613,8 +18613,8 @@
       <c r="D162" s="95"/>
       <c r="E162" s="95"/>
       <c r="F162" s="68"/>
-      <c r="G162" s="186"/>
-      <c r="H162" s="186"/>
+      <c r="G162" s="206"/>
+      <c r="H162" s="206"/>
       <c r="I162" s="95">
         <v>0</v>
       </c>
@@ -18623,11 +18623,11 @@
       <c r="L162" s="95">
         <v>0</v>
       </c>
-      <c r="M162" s="190">
+      <c r="M162" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N162" s="191"/>
+      <c r="N162" s="216"/>
       <c r="AC162" s="77"/>
     </row>
     <row r="163" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18635,8 +18635,8 @@
       <c r="D163" s="95"/>
       <c r="E163" s="95"/>
       <c r="F163" s="68"/>
-      <c r="G163" s="186"/>
-      <c r="H163" s="186"/>
+      <c r="G163" s="206"/>
+      <c r="H163" s="206"/>
       <c r="I163" s="95">
         <v>0</v>
       </c>
@@ -18645,11 +18645,11 @@
       <c r="L163" s="95">
         <v>0</v>
       </c>
-      <c r="M163" s="190">
+      <c r="M163" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N163" s="191"/>
+      <c r="N163" s="216"/>
       <c r="AC163" s="77"/>
     </row>
     <row r="164" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18657,8 +18657,8 @@
       <c r="D164" s="95"/>
       <c r="E164" s="95"/>
       <c r="F164" s="68"/>
-      <c r="G164" s="186"/>
-      <c r="H164" s="186"/>
+      <c r="G164" s="206"/>
+      <c r="H164" s="206"/>
       <c r="I164" s="95">
         <v>0</v>
       </c>
@@ -18667,11 +18667,11 @@
       <c r="L164" s="95">
         <v>0</v>
       </c>
-      <c r="M164" s="190">
+      <c r="M164" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N164" s="191"/>
+      <c r="N164" s="216"/>
       <c r="AC164" s="77"/>
     </row>
     <row r="165" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18679,8 +18679,8 @@
       <c r="D165" s="95"/>
       <c r="E165" s="95"/>
       <c r="F165" s="68"/>
-      <c r="G165" s="186"/>
-      <c r="H165" s="186"/>
+      <c r="G165" s="206"/>
+      <c r="H165" s="206"/>
       <c r="I165" s="95">
         <v>0</v>
       </c>
@@ -18689,11 +18689,11 @@
       <c r="L165" s="95">
         <v>0</v>
       </c>
-      <c r="M165" s="190">
+      <c r="M165" s="215">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N165" s="191"/>
+      <c r="N165" s="216"/>
       <c r="AC165" s="77"/>
     </row>
     <row r="166" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18701,8 +18701,8 @@
       <c r="D166" s="95"/>
       <c r="E166" s="95"/>
       <c r="F166" s="68"/>
-      <c r="G166" s="186"/>
-      <c r="H166" s="186"/>
+      <c r="G166" s="206"/>
+      <c r="H166" s="206"/>
       <c r="I166" s="95">
         <v>0</v>
       </c>
@@ -18711,11 +18711,11 @@
       <c r="L166" s="95">
         <v>0</v>
       </c>
-      <c r="M166" s="190">
+      <c r="M166" s="215">
         <f t="shared" ref="M166:M176" si="12">I166*L166</f>
         <v>0</v>
       </c>
-      <c r="N166" s="191"/>
+      <c r="N166" s="216"/>
       <c r="AC166" s="77"/>
     </row>
     <row r="167" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18723,8 +18723,8 @@
       <c r="D167" s="95"/>
       <c r="E167" s="95"/>
       <c r="F167" s="68"/>
-      <c r="G167" s="186"/>
-      <c r="H167" s="186"/>
+      <c r="G167" s="206"/>
+      <c r="H167" s="206"/>
       <c r="I167" s="95">
         <v>0</v>
       </c>
@@ -18733,11 +18733,11 @@
       <c r="L167" s="95">
         <v>0</v>
       </c>
-      <c r="M167" s="190">
+      <c r="M167" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N167" s="191"/>
+      <c r="N167" s="216"/>
       <c r="AC167" s="77"/>
     </row>
     <row r="168" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18745,8 +18745,8 @@
       <c r="D168" s="95"/>
       <c r="E168" s="95"/>
       <c r="F168" s="68"/>
-      <c r="G168" s="186"/>
-      <c r="H168" s="186"/>
+      <c r="G168" s="206"/>
+      <c r="H168" s="206"/>
       <c r="I168" s="95">
         <v>0</v>
       </c>
@@ -18755,11 +18755,11 @@
       <c r="L168" s="95">
         <v>0</v>
       </c>
-      <c r="M168" s="190">
+      <c r="M168" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N168" s="191"/>
+      <c r="N168" s="216"/>
       <c r="AC168" s="77"/>
     </row>
     <row r="169" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18767,8 +18767,8 @@
       <c r="D169" s="95"/>
       <c r="E169" s="95"/>
       <c r="F169" s="68"/>
-      <c r="G169" s="186"/>
-      <c r="H169" s="186"/>
+      <c r="G169" s="206"/>
+      <c r="H169" s="206"/>
       <c r="I169" s="95">
         <v>0</v>
       </c>
@@ -18777,11 +18777,11 @@
       <c r="L169" s="95">
         <v>0</v>
       </c>
-      <c r="M169" s="190">
+      <c r="M169" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N169" s="191"/>
+      <c r="N169" s="216"/>
       <c r="AC169" s="77"/>
     </row>
     <row r="170" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18789,8 +18789,8 @@
       <c r="D170" s="95"/>
       <c r="E170" s="95"/>
       <c r="F170" s="68"/>
-      <c r="G170" s="186"/>
-      <c r="H170" s="186"/>
+      <c r="G170" s="206"/>
+      <c r="H170" s="206"/>
       <c r="I170" s="95">
         <v>0</v>
       </c>
@@ -18799,11 +18799,11 @@
       <c r="L170" s="95">
         <v>0</v>
       </c>
-      <c r="M170" s="190">
+      <c r="M170" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N170" s="191"/>
+      <c r="N170" s="216"/>
       <c r="AC170" s="77"/>
     </row>
     <row r="171" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18811,8 +18811,8 @@
       <c r="D171" s="95"/>
       <c r="E171" s="95"/>
       <c r="F171" s="68"/>
-      <c r="G171" s="186"/>
-      <c r="H171" s="186"/>
+      <c r="G171" s="206"/>
+      <c r="H171" s="206"/>
       <c r="I171" s="95">
         <v>0</v>
       </c>
@@ -18821,11 +18821,11 @@
       <c r="L171" s="95">
         <v>0</v>
       </c>
-      <c r="M171" s="190">
+      <c r="M171" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N171" s="191"/>
+      <c r="N171" s="216"/>
       <c r="AC171" s="77"/>
     </row>
     <row r="172" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18833,8 +18833,8 @@
       <c r="D172" s="95"/>
       <c r="E172" s="95"/>
       <c r="F172" s="68"/>
-      <c r="G172" s="186"/>
-      <c r="H172" s="186"/>
+      <c r="G172" s="206"/>
+      <c r="H172" s="206"/>
       <c r="I172" s="95">
         <v>0</v>
       </c>
@@ -18843,11 +18843,11 @@
       <c r="L172" s="95">
         <v>0</v>
       </c>
-      <c r="M172" s="190">
+      <c r="M172" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N172" s="191"/>
+      <c r="N172" s="216"/>
       <c r="AC172" s="77"/>
     </row>
     <row r="173" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18855,8 +18855,8 @@
       <c r="D173" s="95"/>
       <c r="E173" s="95"/>
       <c r="F173" s="68"/>
-      <c r="G173" s="186"/>
-      <c r="H173" s="186"/>
+      <c r="G173" s="206"/>
+      <c r="H173" s="206"/>
       <c r="I173" s="95">
         <v>0</v>
       </c>
@@ -18865,11 +18865,11 @@
       <c r="L173" s="95">
         <v>0</v>
       </c>
-      <c r="M173" s="190">
+      <c r="M173" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N173" s="191"/>
+      <c r="N173" s="216"/>
       <c r="AC173" s="77"/>
     </row>
     <row r="174" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18877,8 +18877,8 @@
       <c r="D174" s="95"/>
       <c r="E174" s="95"/>
       <c r="F174" s="68"/>
-      <c r="G174" s="186"/>
-      <c r="H174" s="186"/>
+      <c r="G174" s="206"/>
+      <c r="H174" s="206"/>
       <c r="I174" s="95">
         <v>0</v>
       </c>
@@ -18887,11 +18887,11 @@
       <c r="L174" s="95">
         <v>0</v>
       </c>
-      <c r="M174" s="190">
+      <c r="M174" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N174" s="191"/>
+      <c r="N174" s="216"/>
       <c r="AC174" s="77"/>
     </row>
     <row r="175" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18899,8 +18899,8 @@
       <c r="D175" s="95"/>
       <c r="E175" s="95"/>
       <c r="F175" s="68"/>
-      <c r="G175" s="186"/>
-      <c r="H175" s="186"/>
+      <c r="G175" s="206"/>
+      <c r="H175" s="206"/>
       <c r="I175" s="95">
         <v>0</v>
       </c>
@@ -18909,11 +18909,11 @@
       <c r="L175" s="95">
         <v>0</v>
       </c>
-      <c r="M175" s="190">
+      <c r="M175" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N175" s="191"/>
+      <c r="N175" s="216"/>
       <c r="AC175" s="77"/>
     </row>
     <row r="176" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18921,8 +18921,8 @@
       <c r="D176" s="95"/>
       <c r="E176" s="95"/>
       <c r="F176" s="68"/>
-      <c r="G176" s="186"/>
-      <c r="H176" s="186"/>
+      <c r="G176" s="206"/>
+      <c r="H176" s="206"/>
       <c r="I176" s="95">
         <v>0</v>
       </c>
@@ -18931,11 +18931,11 @@
       <c r="L176" s="95">
         <v>0</v>
       </c>
-      <c r="M176" s="190">
+      <c r="M176" s="215">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N176" s="191"/>
+      <c r="N176" s="216"/>
       <c r="AC176" s="77"/>
     </row>
     <row r="177" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18951,11 +18951,11 @@
       <c r="J177" s="185"/>
       <c r="K177" s="182"/>
       <c r="L177" s="182"/>
-      <c r="M177" s="291">
+      <c r="M177" s="217">
         <f>SUM(M126:N176)</f>
         <v>0</v>
       </c>
-      <c r="N177" s="292"/>
+      <c r="N177" s="218"/>
       <c r="AC177" s="77"/>
     </row>
     <row r="178" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18992,13 +18992,13 @@
       <c r="AC179" s="77"/>
     </row>
     <row r="180" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="272" t="s">
+      <c r="C180" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="D180" s="272"/>
-      <c r="E180" s="272"/>
-      <c r="F180" s="272"/>
-      <c r="G180" s="272"/>
+      <c r="D180" s="224"/>
+      <c r="E180" s="224"/>
+      <c r="F180" s="224"/>
+      <c r="G180" s="224"/>
       <c r="H180" s="92"/>
       <c r="I180" s="92" t="s">
         <v>46</v>
@@ -19015,11 +19015,11 @@
       <c r="AC180" s="77"/>
     </row>
     <row r="181" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="273"/>
-      <c r="D181" s="273"/>
-      <c r="E181" s="273"/>
-      <c r="F181" s="273"/>
-      <c r="G181" s="273"/>
+      <c r="C181" s="225"/>
+      <c r="D181" s="225"/>
+      <c r="E181" s="225"/>
+      <c r="F181" s="225"/>
+      <c r="G181" s="225"/>
       <c r="H181" s="93"/>
       <c r="I181" s="93" t="s">
         <v>87</v>
@@ -19053,15 +19053,15 @@
         <v>0</v>
       </c>
       <c r="J182" s="131"/>
-      <c r="K182" s="276">
+      <c r="K182" s="226">
         <v>8</v>
       </c>
-      <c r="L182" s="276"/>
-      <c r="M182" s="277">
+      <c r="L182" s="226"/>
+      <c r="M182" s="212">
         <f>IF(I182&gt;24,(I182-24)*K182,0)</f>
         <v>0</v>
       </c>
-      <c r="N182" s="277"/>
+      <c r="N182" s="212"/>
       <c r="AM182" s="132"/>
       <c r="AN182" s="132"/>
     </row>
@@ -19083,15 +19083,15 @@
         <v>0</v>
       </c>
       <c r="J183" s="135"/>
-      <c r="K183" s="282">
-        <v>0</v>
-      </c>
-      <c r="L183" s="282"/>
-      <c r="M183" s="277">
+      <c r="K183" s="211">
+        <v>0</v>
+      </c>
+      <c r="L183" s="211"/>
+      <c r="M183" s="212">
         <f t="shared" ref="M183:M200" si="15">I183*K183</f>
         <v>0</v>
       </c>
-      <c r="N183" s="277"/>
+      <c r="N183" s="212"/>
       <c r="AC183" s="77"/>
       <c r="AO183" s="132"/>
       <c r="AP183" s="132"/>
@@ -19114,15 +19114,15 @@
         <v>0</v>
       </c>
       <c r="J184" s="135"/>
-      <c r="K184" s="282">
-        <v>0</v>
-      </c>
-      <c r="L184" s="282"/>
-      <c r="M184" s="277">
+      <c r="K184" s="211">
+        <v>0</v>
+      </c>
+      <c r="L184" s="211"/>
+      <c r="M184" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N184" s="277"/>
+      <c r="N184" s="212"/>
       <c r="AC184" s="119"/>
       <c r="AD184" s="77"/>
     </row>
@@ -19141,15 +19141,15 @@
         <v>0</v>
       </c>
       <c r="J185" s="135"/>
-      <c r="K185" s="282">
-        <v>0</v>
-      </c>
-      <c r="L185" s="282"/>
-      <c r="M185" s="277">
+      <c r="K185" s="211">
+        <v>0</v>
+      </c>
+      <c r="L185" s="211"/>
+      <c r="M185" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N185" s="277"/>
+      <c r="N185" s="212"/>
       <c r="O185" s="30"/>
       <c r="AC185" s="119"/>
       <c r="AD185" s="77"/>
@@ -19169,15 +19169,15 @@
         <v>0</v>
       </c>
       <c r="J186" s="135"/>
-      <c r="K186" s="282">
+      <c r="K186" s="211">
         <v>8</v>
       </c>
-      <c r="L186" s="282"/>
-      <c r="M186" s="277">
+      <c r="L186" s="211"/>
+      <c r="M186" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N186" s="277"/>
+      <c r="N186" s="212"/>
       <c r="O186" s="77"/>
       <c r="AC186" s="77"/>
       <c r="AD186" s="77"/>
@@ -19197,15 +19197,15 @@
         <v>0</v>
       </c>
       <c r="J187" s="135"/>
-      <c r="K187" s="282">
+      <c r="K187" s="211">
         <v>8</v>
       </c>
-      <c r="L187" s="282"/>
-      <c r="M187" s="277">
+      <c r="L187" s="211"/>
+      <c r="M187" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N187" s="277"/>
+      <c r="N187" s="212"/>
       <c r="O187" s="30"/>
       <c r="AC187" s="77"/>
       <c r="AD187" s="30"/>
@@ -19225,15 +19225,15 @@
         <v>0</v>
       </c>
       <c r="J188" s="142"/>
-      <c r="K188" s="283">
+      <c r="K188" s="213">
         <v>10</v>
       </c>
-      <c r="L188" s="283"/>
-      <c r="M188" s="284">
+      <c r="L188" s="213"/>
+      <c r="M188" s="214">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N188" s="284"/>
+      <c r="N188" s="214"/>
       <c r="O188" s="143"/>
       <c r="AC188" s="149"/>
       <c r="AD188" s="149"/>
@@ -19256,15 +19256,15 @@
         <v>0</v>
       </c>
       <c r="J189" s="142"/>
-      <c r="K189" s="283">
-        <v>0</v>
-      </c>
-      <c r="L189" s="283"/>
-      <c r="M189" s="284">
+      <c r="K189" s="213">
+        <v>0</v>
+      </c>
+      <c r="L189" s="213"/>
+      <c r="M189" s="214">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N189" s="284"/>
+      <c r="N189" s="214"/>
       <c r="O189" s="150"/>
       <c r="AC189" s="143"/>
     </row>
@@ -19283,15 +19283,15 @@
         <v>0</v>
       </c>
       <c r="J190" s="135"/>
-      <c r="K190" s="282">
-        <v>0</v>
-      </c>
-      <c r="L190" s="282"/>
-      <c r="M190" s="277">
+      <c r="K190" s="211">
+        <v>0</v>
+      </c>
+      <c r="L190" s="211"/>
+      <c r="M190" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N190" s="277"/>
+      <c r="N190" s="212"/>
       <c r="O190" s="119"/>
       <c r="AC190" s="77"/>
     </row>
@@ -19313,15 +19313,15 @@
         <v>0</v>
       </c>
       <c r="J191" s="135"/>
-      <c r="K191" s="282">
-        <v>0</v>
-      </c>
-      <c r="L191" s="282"/>
-      <c r="M191" s="277">
+      <c r="K191" s="211">
+        <v>0</v>
+      </c>
+      <c r="L191" s="211"/>
+      <c r="M191" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N191" s="277"/>
+      <c r="N191" s="212"/>
       <c r="O191" s="77"/>
       <c r="AC191" s="77"/>
     </row>
@@ -19343,15 +19343,15 @@
         <v>0</v>
       </c>
       <c r="J192" s="142"/>
-      <c r="K192" s="283">
-        <v>0</v>
-      </c>
-      <c r="L192" s="283"/>
-      <c r="M192" s="284">
+      <c r="K192" s="213">
+        <v>0</v>
+      </c>
+      <c r="L192" s="213"/>
+      <c r="M192" s="214">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N192" s="284"/>
+      <c r="N192" s="214"/>
       <c r="O192" s="149"/>
       <c r="AC192" s="149"/>
     </row>
@@ -19373,15 +19373,15 @@
         <v>0</v>
       </c>
       <c r="J193" s="142"/>
-      <c r="K193" s="283">
+      <c r="K193" s="213">
         <v>8</v>
       </c>
-      <c r="L193" s="283"/>
-      <c r="M193" s="284">
+      <c r="L193" s="213"/>
+      <c r="M193" s="214">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N193" s="284"/>
+      <c r="N193" s="214"/>
       <c r="O193" s="149"/>
       <c r="AC193" s="149"/>
     </row>
@@ -19403,15 +19403,15 @@
         <v>0</v>
       </c>
       <c r="J194" s="135"/>
-      <c r="K194" s="282">
-        <v>0</v>
-      </c>
-      <c r="L194" s="282"/>
-      <c r="M194" s="277">
+      <c r="K194" s="211">
+        <v>0</v>
+      </c>
+      <c r="L194" s="211"/>
+      <c r="M194" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N194" s="277"/>
+      <c r="N194" s="212"/>
       <c r="O194" s="77"/>
       <c r="AC194" s="30"/>
     </row>
@@ -19433,15 +19433,15 @@
         <v>0</v>
       </c>
       <c r="J195" s="142"/>
-      <c r="K195" s="283">
+      <c r="K195" s="213">
         <v>8</v>
       </c>
-      <c r="L195" s="283"/>
-      <c r="M195" s="284">
+      <c r="L195" s="213"/>
+      <c r="M195" s="214">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N195" s="284"/>
+      <c r="N195" s="214"/>
       <c r="O195" s="149"/>
       <c r="AC195" s="149"/>
     </row>
@@ -19463,15 +19463,15 @@
         <v>0</v>
       </c>
       <c r="J196" s="135"/>
-      <c r="K196" s="282">
-        <v>0</v>
-      </c>
-      <c r="L196" s="282"/>
-      <c r="M196" s="277">
+      <c r="K196" s="211">
+        <v>0</v>
+      </c>
+      <c r="L196" s="211"/>
+      <c r="M196" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N196" s="277"/>
+      <c r="N196" s="212"/>
       <c r="O196" s="77"/>
       <c r="AC196" s="77"/>
     </row>
@@ -19490,15 +19490,15 @@
         <v>0</v>
       </c>
       <c r="J197" s="135"/>
-      <c r="K197" s="282">
-        <v>0</v>
-      </c>
-      <c r="L197" s="282"/>
-      <c r="M197" s="277">
+      <c r="K197" s="211">
+        <v>0</v>
+      </c>
+      <c r="L197" s="211"/>
+      <c r="M197" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N197" s="277"/>
+      <c r="N197" s="212"/>
       <c r="O197" s="77"/>
       <c r="AC197" s="77"/>
     </row>
@@ -19517,15 +19517,15 @@
         <v>0</v>
       </c>
       <c r="J198" s="135"/>
-      <c r="K198" s="282">
-        <v>0</v>
-      </c>
-      <c r="L198" s="282"/>
-      <c r="M198" s="277">
+      <c r="K198" s="211">
+        <v>0</v>
+      </c>
+      <c r="L198" s="211"/>
+      <c r="M198" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N198" s="277"/>
+      <c r="N198" s="212"/>
       <c r="O198" s="77"/>
       <c r="AC198" s="77"/>
     </row>
@@ -19544,15 +19544,15 @@
         <v>0</v>
       </c>
       <c r="J199" s="135"/>
-      <c r="K199" s="282">
-        <v>0</v>
-      </c>
-      <c r="L199" s="282"/>
-      <c r="M199" s="277">
+      <c r="K199" s="211">
+        <v>0</v>
+      </c>
+      <c r="L199" s="211"/>
+      <c r="M199" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N199" s="277"/>
+      <c r="N199" s="212"/>
       <c r="O199" s="77"/>
       <c r="AC199" s="77"/>
     </row>
@@ -19571,15 +19571,15 @@
         <v>0</v>
       </c>
       <c r="J200" s="135"/>
-      <c r="K200" s="282">
-        <v>0</v>
-      </c>
-      <c r="L200" s="282"/>
-      <c r="M200" s="277">
+      <c r="K200" s="211">
+        <v>0</v>
+      </c>
+      <c r="L200" s="211"/>
+      <c r="M200" s="212">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N200" s="277"/>
+      <c r="N200" s="212"/>
       <c r="O200" s="77"/>
       <c r="AC200" s="77"/>
     </row>
@@ -19596,13 +19596,13 @@
       <c r="J201" s="116"/>
       <c r="K201" s="116"/>
       <c r="L201" s="116"/>
-      <c r="M201" s="285">
+      <c r="M201" s="219">
         <f>SUM(M182:N200)</f>
         <v>0</v>
       </c>
-      <c r="N201" s="285"/>
+      <c r="N201" s="219"/>
       <c r="O201" s="77"/>
-      <c r="T201" s="294"/>
+      <c r="T201" s="186"/>
       <c r="AC201" s="77"/>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
@@ -19631,23 +19631,23 @@
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C204" s="70"/>
-      <c r="D204" s="261" t="s">
+      <c r="D204" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="E204" s="261"/>
-      <c r="F204" s="261"/>
-      <c r="G204" s="261"/>
-      <c r="H204" s="261"/>
-      <c r="I204" s="261"/>
-      <c r="J204" s="261" t="s">
+      <c r="E204" s="187"/>
+      <c r="F204" s="187"/>
+      <c r="G204" s="187"/>
+      <c r="H204" s="187"/>
+      <c r="I204" s="187"/>
+      <c r="J204" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="K204" s="261"/>
-      <c r="L204" s="261" t="s">
+      <c r="K204" s="187"/>
+      <c r="L204" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="M204" s="261"/>
-      <c r="N204" s="261"/>
+      <c r="M204" s="187"/>
+      <c r="N204" s="187"/>
       <c r="O204" s="73" t="s">
         <v>46</v>
       </c>
@@ -19656,19 +19656,19 @@
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C205" s="70"/>
-      <c r="D205" s="262"/>
-      <c r="E205" s="262"/>
-      <c r="F205" s="262"/>
-      <c r="G205" s="262"/>
-      <c r="H205" s="262"/>
-      <c r="I205" s="262"/>
-      <c r="J205" s="262"/>
-      <c r="K205" s="262"/>
-      <c r="L205" s="262" t="s">
+      <c r="D205" s="192"/>
+      <c r="E205" s="192"/>
+      <c r="F205" s="192"/>
+      <c r="G205" s="192"/>
+      <c r="H205" s="192"/>
+      <c r="I205" s="192"/>
+      <c r="J205" s="192"/>
+      <c r="K205" s="192"/>
+      <c r="L205" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="M205" s="262"/>
-      <c r="N205" s="262"/>
+      <c r="M205" s="192"/>
+      <c r="N205" s="192"/>
       <c r="O205" s="75" t="s">
         <v>57</v>
       </c>
@@ -19683,15 +19683,15 @@
       <c r="G206" s="76"/>
       <c r="H206" s="76"/>
       <c r="I206" s="76"/>
-      <c r="J206" s="263"/>
-      <c r="K206" s="263"/>
-      <c r="L206" s="263"/>
-      <c r="M206" s="263"/>
-      <c r="N206" s="264">
+      <c r="J206" s="201"/>
+      <c r="K206" s="201"/>
+      <c r="L206" s="201"/>
+      <c r="M206" s="201"/>
+      <c r="N206" s="202">
         <f>J206*L206</f>
         <v>0</v>
       </c>
-      <c r="O206" s="264"/>
+      <c r="O206" s="202"/>
       <c r="AA206" s="74"/>
       <c r="AB206" s="74"/>
     </row>
@@ -19703,15 +19703,15 @@
       <c r="G207" s="78"/>
       <c r="H207" s="78"/>
       <c r="I207" s="78"/>
-      <c r="J207" s="265"/>
-      <c r="K207" s="265"/>
+      <c r="J207" s="204"/>
+      <c r="K207" s="204"/>
       <c r="L207" s="79"/>
       <c r="M207" s="79"/>
-      <c r="N207" s="260">
+      <c r="N207" s="193">
         <f>J207*M207</f>
         <v>0</v>
       </c>
-      <c r="O207" s="260"/>
+      <c r="O207" s="193"/>
       <c r="AA207" s="74"/>
       <c r="AB207" s="74"/>
     </row>
@@ -19723,15 +19723,15 @@
       <c r="G208" s="78"/>
       <c r="H208" s="78"/>
       <c r="I208" s="78"/>
-      <c r="J208" s="266"/>
-      <c r="K208" s="266"/>
+      <c r="J208" s="203"/>
+      <c r="K208" s="203"/>
       <c r="L208" s="78"/>
       <c r="M208" s="79"/>
-      <c r="N208" s="260">
+      <c r="N208" s="193">
         <f>J208*M208</f>
         <v>0</v>
       </c>
-      <c r="O208" s="260"/>
+      <c r="O208" s="193"/>
       <c r="AA208" s="74"/>
       <c r="AB208" s="74"/>
     </row>
@@ -19747,11 +19747,11 @@
       <c r="K209" s="79"/>
       <c r="L209" s="79"/>
       <c r="M209" s="79"/>
-      <c r="N209" s="260">
+      <c r="N209" s="193">
         <f t="shared" ref="N209:N228" si="16">M209*K209</f>
         <v>0</v>
       </c>
-      <c r="O209" s="260"/>
+      <c r="O209" s="193"/>
       <c r="AA209" s="74"/>
       <c r="AB209" s="74"/>
     </row>
@@ -19767,11 +19767,11 @@
       <c r="K210" s="79"/>
       <c r="L210" s="79"/>
       <c r="M210" s="79"/>
-      <c r="N210" s="260">
+      <c r="N210" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O210" s="260"/>
+      <c r="O210" s="193"/>
       <c r="AA210" s="74"/>
       <c r="AB210" s="74"/>
     </row>
@@ -19787,11 +19787,11 @@
       <c r="K211" s="79"/>
       <c r="L211" s="79"/>
       <c r="M211" s="79"/>
-      <c r="N211" s="260">
+      <c r="N211" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O211" s="260"/>
+      <c r="O211" s="193"/>
       <c r="AA211" s="74"/>
       <c r="AB211" s="74"/>
     </row>
@@ -19807,11 +19807,11 @@
       <c r="K212" s="79"/>
       <c r="L212" s="79"/>
       <c r="M212" s="79"/>
-      <c r="N212" s="260">
+      <c r="N212" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O212" s="260"/>
+      <c r="O212" s="193"/>
       <c r="AA212" s="74"/>
       <c r="AB212" s="74"/>
     </row>
@@ -19827,11 +19827,11 @@
       <c r="K213" s="79"/>
       <c r="L213" s="79"/>
       <c r="M213" s="79"/>
-      <c r="N213" s="260">
+      <c r="N213" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O213" s="260"/>
+      <c r="O213" s="193"/>
       <c r="AA213" s="74"/>
       <c r="AB213" s="74"/>
     </row>
@@ -19847,11 +19847,11 @@
       <c r="K214" s="79"/>
       <c r="L214" s="79"/>
       <c r="M214" s="79"/>
-      <c r="N214" s="260">
+      <c r="N214" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O214" s="260"/>
+      <c r="O214" s="193"/>
       <c r="AA214" s="74"/>
       <c r="AB214" s="74"/>
     </row>
@@ -19867,11 +19867,11 @@
       <c r="K215" s="79"/>
       <c r="L215" s="79"/>
       <c r="M215" s="79"/>
-      <c r="N215" s="260">
+      <c r="N215" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O215" s="260"/>
+      <c r="O215" s="193"/>
       <c r="AA215" s="74"/>
       <c r="AB215" s="74"/>
     </row>
@@ -19887,11 +19887,11 @@
       <c r="K216" s="79"/>
       <c r="L216" s="79"/>
       <c r="M216" s="79"/>
-      <c r="N216" s="260">
+      <c r="N216" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O216" s="260"/>
+      <c r="O216" s="193"/>
     </row>
     <row r="217" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C217" s="70"/>
@@ -19905,11 +19905,11 @@
       <c r="K217" s="79"/>
       <c r="L217" s="79"/>
       <c r="M217" s="79"/>
-      <c r="N217" s="260">
+      <c r="N217" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O217" s="260"/>
+      <c r="O217" s="193"/>
     </row>
     <row r="218" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C218" s="70"/>
@@ -19923,11 +19923,11 @@
       <c r="K218" s="79"/>
       <c r="L218" s="79"/>
       <c r="M218" s="79"/>
-      <c r="N218" s="260">
+      <c r="N218" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O218" s="260"/>
+      <c r="O218" s="193"/>
     </row>
     <row r="219" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C219" s="70"/>
@@ -19941,11 +19941,11 @@
       <c r="K219" s="79"/>
       <c r="L219" s="79"/>
       <c r="M219" s="79"/>
-      <c r="N219" s="260">
+      <c r="N219" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O219" s="260"/>
+      <c r="O219" s="193"/>
     </row>
     <row r="220" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C220" s="70"/>
@@ -19959,11 +19959,11 @@
       <c r="K220" s="79"/>
       <c r="L220" s="79"/>
       <c r="M220" s="79"/>
-      <c r="N220" s="260">
+      <c r="N220" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O220" s="260"/>
+      <c r="O220" s="193"/>
     </row>
     <row r="221" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C221" s="70"/>
@@ -19977,11 +19977,11 @@
       <c r="K221" s="79"/>
       <c r="L221" s="79"/>
       <c r="M221" s="79"/>
-      <c r="N221" s="260">
+      <c r="N221" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O221" s="260"/>
+      <c r="O221" s="193"/>
     </row>
     <row r="222" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C222" s="70"/>
@@ -19995,11 +19995,11 @@
       <c r="K222" s="79"/>
       <c r="L222" s="79"/>
       <c r="M222" s="79"/>
-      <c r="N222" s="260">
+      <c r="N222" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O222" s="260"/>
+      <c r="O222" s="193"/>
     </row>
     <row r="223" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C223" s="70"/>
@@ -20013,11 +20013,11 @@
       <c r="K223" s="79"/>
       <c r="L223" s="79"/>
       <c r="M223" s="79"/>
-      <c r="N223" s="260">
+      <c r="N223" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O223" s="260"/>
+      <c r="O223" s="193"/>
     </row>
     <row r="224" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C224" s="70"/>
@@ -20031,11 +20031,11 @@
       <c r="K224" s="79"/>
       <c r="L224" s="79"/>
       <c r="M224" s="79"/>
-      <c r="N224" s="260">
+      <c r="N224" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O224" s="260"/>
+      <c r="O224" s="193"/>
     </row>
     <row r="225" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C225" s="70"/>
@@ -20049,11 +20049,11 @@
       <c r="K225" s="98"/>
       <c r="L225" s="98"/>
       <c r="M225" s="98"/>
-      <c r="N225" s="260">
+      <c r="N225" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O225" s="260"/>
+      <c r="O225" s="193"/>
     </row>
     <row r="226" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C226" s="70"/>
@@ -20067,11 +20067,11 @@
       <c r="K226" s="79"/>
       <c r="L226" s="79"/>
       <c r="M226" s="79"/>
-      <c r="N226" s="260">
+      <c r="N226" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O226" s="260"/>
+      <c r="O226" s="193"/>
     </row>
     <row r="227" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C227" s="70"/>
@@ -20085,11 +20085,11 @@
       <c r="K227" s="79"/>
       <c r="L227" s="79"/>
       <c r="M227" s="79"/>
-      <c r="N227" s="260">
+      <c r="N227" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O227" s="260"/>
+      <c r="O227" s="193"/>
     </row>
     <row r="228" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C228" s="70"/>
@@ -20103,11 +20103,11 @@
       <c r="K228" s="79"/>
       <c r="L228" s="79"/>
       <c r="M228" s="79"/>
-      <c r="N228" s="260">
+      <c r="N228" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O228" s="260"/>
+      <c r="O228" s="193"/>
     </row>
     <row r="229" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C229" s="70"/>
@@ -20123,11 +20123,11 @@
       <c r="K229" s="101"/>
       <c r="L229" s="102"/>
       <c r="M229" s="102"/>
-      <c r="N229" s="274">
+      <c r="N229" s="200">
         <f>(SUM(N206:O228)*K229)</f>
         <v>0</v>
       </c>
-      <c r="O229" s="274"/>
+      <c r="O229" s="200"/>
     </row>
     <row r="230" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C230" s="70"/>
@@ -20143,11 +20143,11 @@
       <c r="K230" s="106"/>
       <c r="L230" s="106"/>
       <c r="M230" s="107"/>
-      <c r="N230" s="275">
+      <c r="N230" s="199">
         <f>SUM(N206:O229)</f>
         <v>0</v>
       </c>
-      <c r="O230" s="275"/>
+      <c r="O230" s="199"/>
     </row>
     <row r="231" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C231" s="70"/>
@@ -20173,42 +20173,42 @@
     </row>
     <row r="233" spans="3:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="70"/>
-      <c r="D233" s="261" t="s">
+      <c r="D233" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="E233" s="261"/>
-      <c r="F233" s="261"/>
-      <c r="G233" s="261"/>
+      <c r="E233" s="187"/>
+      <c r="F233" s="187"/>
+      <c r="G233" s="187"/>
       <c r="H233" s="109"/>
       <c r="I233" s="109"/>
-      <c r="J233" s="261" t="s">
+      <c r="J233" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="K233" s="261"/>
-      <c r="L233" s="261" t="s">
+      <c r="K233" s="187"/>
+      <c r="L233" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="M233" s="261"/>
-      <c r="N233" s="261"/>
+      <c r="M233" s="187"/>
+      <c r="N233" s="187"/>
       <c r="O233" s="73" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="234" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C234" s="70"/>
-      <c r="D234" s="262"/>
-      <c r="E234" s="262"/>
-      <c r="F234" s="262"/>
-      <c r="G234" s="262"/>
+      <c r="D234" s="192"/>
+      <c r="E234" s="192"/>
+      <c r="F234" s="192"/>
+      <c r="G234" s="192"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
-      <c r="J234" s="262"/>
-      <c r="K234" s="262"/>
-      <c r="L234" s="262" t="s">
+      <c r="J234" s="192"/>
+      <c r="K234" s="192"/>
+      <c r="L234" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="M234" s="262"/>
-      <c r="N234" s="262"/>
+      <c r="M234" s="192"/>
+      <c r="N234" s="192"/>
       <c r="O234" s="75" t="s">
         <v>57</v>
       </c>
@@ -20229,11 +20229,11 @@
       <c r="M235" s="110">
         <v>2500</v>
       </c>
-      <c r="N235" s="264">
+      <c r="N235" s="202">
         <f>K235*M235</f>
         <v>0</v>
       </c>
-      <c r="O235" s="264"/>
+      <c r="O235" s="202"/>
     </row>
     <row r="236" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C236" s="70"/>
@@ -20251,11 +20251,11 @@
       <c r="M236" s="112">
         <v>2500</v>
       </c>
-      <c r="N236" s="260">
+      <c r="N236" s="193">
         <f>K236*M236</f>
         <v>0</v>
       </c>
-      <c r="O236" s="260"/>
+      <c r="O236" s="193"/>
     </row>
     <row r="237" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C237" s="70"/>
@@ -20278,11 +20278,11 @@
       <c r="M237" s="98">
         <v>5</v>
       </c>
-      <c r="N237" s="260">
+      <c r="N237" s="193">
         <f>K237*M237</f>
         <v>0</v>
       </c>
-      <c r="O237" s="260"/>
+      <c r="O237" s="193"/>
     </row>
     <row r="238" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C238" s="70"/>
@@ -20318,11 +20318,11 @@
       </c>
       <c r="L239" s="112"/>
       <c r="M239" s="112"/>
-      <c r="N239" s="260">
+      <c r="N239" s="193">
         <f>J239*K239</f>
         <v>0</v>
       </c>
-      <c r="O239" s="260"/>
+      <c r="O239" s="193"/>
     </row>
     <row r="240" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C240" s="70"/>
@@ -20343,11 +20343,11 @@
       </c>
       <c r="L240" s="102"/>
       <c r="M240" s="102"/>
-      <c r="N240" s="274">
+      <c r="N240" s="200">
         <f>J240*K240</f>
         <v>0</v>
       </c>
-      <c r="O240" s="274"/>
+      <c r="O240" s="200"/>
     </row>
     <row r="241" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C241" s="70"/>
@@ -20363,11 +20363,11 @@
       <c r="K241" s="127"/>
       <c r="L241" s="127"/>
       <c r="M241" s="128"/>
-      <c r="N241" s="275">
+      <c r="N241" s="199">
         <f>SUM(N235:O240)</f>
         <v>0</v>
       </c>
-      <c r="O241" s="275"/>
+      <c r="O241" s="199"/>
     </row>
     <row r="242" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C242" s="70"/>
@@ -20378,9 +20378,9 @@
       <c r="H242" s="78"/>
       <c r="I242" s="78"/>
       <c r="J242" s="81"/>
-      <c r="K242" s="263"/>
-      <c r="L242" s="263"/>
-      <c r="M242" s="263"/>
+      <c r="K242" s="201"/>
+      <c r="L242" s="201"/>
+      <c r="M242" s="201"/>
       <c r="N242" s="77"/>
     </row>
     <row r="243" spans="3:18" x14ac:dyDescent="0.25">
@@ -20402,41 +20402,41 @@
     </row>
     <row r="244" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C244" s="70"/>
-      <c r="D244" s="261" t="s">
+      <c r="D244" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="E244" s="261"/>
-      <c r="F244" s="261"/>
-      <c r="G244" s="261"/>
-      <c r="H244" s="261"/>
+      <c r="E244" s="187"/>
+      <c r="F244" s="187"/>
+      <c r="G244" s="187"/>
+      <c r="H244" s="187"/>
       <c r="J244" s="136" t="s">
         <v>53</v>
       </c>
       <c r="K244" s="136"/>
-      <c r="L244" s="261" t="s">
+      <c r="L244" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="M244" s="261"/>
-      <c r="N244" s="261"/>
+      <c r="M244" s="187"/>
+      <c r="N244" s="187"/>
       <c r="O244" s="73" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="245" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C245" s="70"/>
-      <c r="D245" s="293"/>
-      <c r="E245" s="293"/>
-      <c r="F245" s="293"/>
-      <c r="G245" s="293"/>
-      <c r="H245" s="293"/>
+      <c r="D245" s="188"/>
+      <c r="E245" s="188"/>
+      <c r="F245" s="188"/>
+      <c r="G245" s="188"/>
+      <c r="H245" s="188"/>
       <c r="I245" s="6"/>
       <c r="J245" s="137"/>
       <c r="K245" s="137"/>
-      <c r="L245" s="262" t="s">
+      <c r="L245" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="M245" s="262"/>
-      <c r="N245" s="262"/>
+      <c r="M245" s="192"/>
+      <c r="N245" s="192"/>
       <c r="O245" s="75" t="s">
         <v>57</v>
       </c>
@@ -20457,11 +20457,11 @@
       </c>
       <c r="L246" s="138"/>
       <c r="M246" s="138"/>
-      <c r="N246" s="289">
+      <c r="N246" s="190">
         <f>K246*M246</f>
         <v>0</v>
       </c>
-      <c r="O246" s="289"/>
+      <c r="O246" s="190"/>
     </row>
     <row r="247" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C247" s="70"/>
@@ -20476,10 +20476,10 @@
       <c r="K247" s="99"/>
       <c r="L247" s="99"/>
       <c r="M247" s="99"/>
-      <c r="N247" s="290">
-        <v>0</v>
-      </c>
-      <c r="O247" s="290"/>
+      <c r="N247" s="189">
+        <v>0</v>
+      </c>
+      <c r="O247" s="189"/>
     </row>
     <row r="248" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C248" s="144"/>
@@ -20495,11 +20495,11 @@
       <c r="K248" s="148"/>
       <c r="L248" s="148"/>
       <c r="M248" s="146"/>
-      <c r="N248" s="288">
+      <c r="N248" s="191">
         <f>SUM(N246:O247)</f>
         <v>0</v>
       </c>
-      <c r="O248" s="288"/>
+      <c r="O248" s="191"/>
     </row>
     <row r="249" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C249" s="144"/>
@@ -20547,11 +20547,11 @@
       <c r="K251" s="153"/>
       <c r="L251" s="153"/>
       <c r="M251" s="153"/>
-      <c r="N251" s="286">
+      <c r="N251" s="197">
         <f>N241</f>
         <v>0</v>
       </c>
-      <c r="O251" s="286"/>
+      <c r="O251" s="197"/>
       <c r="P251" s="77"/>
       <c r="Q251" s="77"/>
       <c r="R251" s="77"/>
@@ -20570,11 +20570,11 @@
       <c r="K252" s="139"/>
       <c r="L252" s="139"/>
       <c r="M252" s="139"/>
-      <c r="N252" s="287">
+      <c r="N252" s="198">
         <f>N248</f>
         <v>0</v>
       </c>
-      <c r="O252" s="287"/>
+      <c r="O252" s="198"/>
       <c r="P252" s="77"/>
       <c r="Q252" s="77"/>
       <c r="R252" s="77"/>
@@ -20593,11 +20593,11 @@
       <c r="K253" s="148"/>
       <c r="L253" s="148"/>
       <c r="M253" s="146"/>
-      <c r="N253" s="288">
+      <c r="N253" s="191">
         <f>SUM(N251:O252)</f>
         <v>0</v>
       </c>
-      <c r="O253" s="288"/>
+      <c r="O253" s="191"/>
       <c r="P253" s="77"/>
       <c r="Q253" s="77"/>
       <c r="R253" s="77"/>
@@ -20641,11 +20641,11 @@
       <c r="K256" s="153"/>
       <c r="L256" s="153"/>
       <c r="M256" s="159"/>
-      <c r="N256" s="286">
+      <c r="N256" s="197">
         <f>M177</f>
         <v>0</v>
       </c>
-      <c r="O256" s="286"/>
+      <c r="O256" s="197"/>
     </row>
     <row r="257" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C257" s="70"/>
@@ -20662,11 +20662,11 @@
       <c r="K257" s="78"/>
       <c r="L257" s="78"/>
       <c r="M257" s="160"/>
-      <c r="N257" s="260">
+      <c r="N257" s="193">
         <f>M201</f>
         <v>0</v>
       </c>
-      <c r="O257" s="260"/>
+      <c r="O257" s="193"/>
     </row>
     <row r="258" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C258" s="70"/>
@@ -20683,11 +20683,11 @@
       <c r="K258" s="78"/>
       <c r="L258" s="78"/>
       <c r="M258" s="160"/>
-      <c r="N258" s="260">
+      <c r="N258" s="193">
         <f>N241</f>
         <v>0</v>
       </c>
-      <c r="O258" s="260"/>
+      <c r="O258" s="193"/>
     </row>
     <row r="259" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C259" s="70"/>
@@ -20704,11 +20704,11 @@
       <c r="K259" s="78"/>
       <c r="L259" s="78"/>
       <c r="M259" s="160"/>
-      <c r="N259" s="260">
+      <c r="N259" s="193">
         <f>N230</f>
         <v>0</v>
       </c>
-      <c r="O259" s="260"/>
+      <c r="O259" s="193"/>
     </row>
     <row r="260" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C260" s="70"/>
@@ -20724,11 +20724,11 @@
       <c r="K260" s="99"/>
       <c r="L260" s="99"/>
       <c r="M260" s="161"/>
-      <c r="N260" s="274">
+      <c r="N260" s="200">
         <f>N248</f>
         <v>0</v>
       </c>
-      <c r="O260" s="274"/>
+      <c r="O260" s="200"/>
     </row>
     <row r="261" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C261" s="70"/>
@@ -20744,105 +20744,227 @@
       <c r="K261" s="126"/>
       <c r="L261" s="126"/>
       <c r="M261" s="162"/>
-      <c r="N261" s="275">
+      <c r="N261" s="199">
         <f>SUM(N256:O260)</f>
         <v>0</v>
       </c>
-      <c r="O261" s="275"/>
+      <c r="O261" s="199"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="338">
-    <mergeCell ref="D244:H245"/>
-    <mergeCell ref="N247:O247"/>
-    <mergeCell ref="N246:O246"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="L245:N245"/>
-    <mergeCell ref="L244:N244"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="N251:O251"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="N260:O260"/>
-    <mergeCell ref="N237:O237"/>
-    <mergeCell ref="N236:O236"/>
-    <mergeCell ref="K242:M242"/>
-    <mergeCell ref="N241:O241"/>
-    <mergeCell ref="N240:O240"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="N225:O225"/>
-    <mergeCell ref="N224:O224"/>
-    <mergeCell ref="N239:O239"/>
-    <mergeCell ref="N235:O235"/>
-    <mergeCell ref="L204:N204"/>
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="D204:I205"/>
-    <mergeCell ref="N217:O217"/>
-    <mergeCell ref="N216:O216"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="L234:N234"/>
-    <mergeCell ref="L233:N233"/>
-    <mergeCell ref="J233:K234"/>
-    <mergeCell ref="D233:G234"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="N209:O209"/>
-    <mergeCell ref="N208:O208"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L205:N205"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="C2:F6"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="I123:N123"/>
+    <mergeCell ref="M124:N125"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="BS8:BS10"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AU8:AX8"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="BC8:BF8"/>
+    <mergeCell ref="BG8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BR8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="C12:C42"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C87:C109"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="D103:D109"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C74:C85"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C111:F115"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="N213:O213"/>
+    <mergeCell ref="N210:O210"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="N211:O211"/>
+    <mergeCell ref="N212:O212"/>
+    <mergeCell ref="N214:O214"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="N223:O223"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="N218:O218"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="N219:O219"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="N220:O220"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="N221:O221"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="N222:O222"/>
+    <mergeCell ref="M168:N168"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="K194:L194"/>
@@ -20867,230 +20989,108 @@
     <mergeCell ref="M183:N183"/>
     <mergeCell ref="K184:L184"/>
     <mergeCell ref="M184:N184"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
     <mergeCell ref="C180:G181"/>
     <mergeCell ref="K182:L182"/>
     <mergeCell ref="M182:N182"/>
     <mergeCell ref="M138:N138"/>
     <mergeCell ref="M139:N139"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L205:N205"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
     <mergeCell ref="M140:N140"/>
     <mergeCell ref="M141:N141"/>
     <mergeCell ref="M142:N142"/>
     <mergeCell ref="M160:N160"/>
     <mergeCell ref="M161:N161"/>
     <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="N223:O223"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="N218:O218"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="N219:O219"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="N221:O221"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="N222:O222"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="N213:O213"/>
-    <mergeCell ref="N210:O210"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="N211:O211"/>
-    <mergeCell ref="N212:O212"/>
-    <mergeCell ref="N214:O214"/>
+    <mergeCell ref="L233:N233"/>
+    <mergeCell ref="J233:K234"/>
+    <mergeCell ref="D233:G234"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="N209:O209"/>
+    <mergeCell ref="N208:O208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="J207:K207"/>
     <mergeCell ref="N215:O215"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="C12:C42"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C87:C109"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="D103:D109"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C74:C85"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AU8:AX8"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="BC8:BF8"/>
-    <mergeCell ref="BG8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BR8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="BS8:BS10"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C2:F6"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="L124:L125"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="I123:N123"/>
-    <mergeCell ref="M124:N125"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="C111:F115"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="N237:O237"/>
+    <mergeCell ref="N236:O236"/>
+    <mergeCell ref="K242:M242"/>
+    <mergeCell ref="N241:O241"/>
+    <mergeCell ref="N240:O240"/>
+    <mergeCell ref="N239:O239"/>
+    <mergeCell ref="D244:H245"/>
+    <mergeCell ref="N247:O247"/>
+    <mergeCell ref="N246:O246"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="L245:N245"/>
+    <mergeCell ref="L244:N244"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="N225:O225"/>
+    <mergeCell ref="N224:O224"/>
+    <mergeCell ref="N235:O235"/>
+    <mergeCell ref="L204:N204"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="D204:I205"/>
+    <mergeCell ref="N217:O217"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="L234:N234"/>
   </mergeCells>
   <conditionalFormatting sqref="K242:L242">
     <cfRule type="expression" dxfId="45" priority="1">

--- a/public/excel_templates/INVOICE_V1.xlsx
+++ b/public/excel_templates/INVOICE_V1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Facturacion\public\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB6F2FD-E0A9-4CAD-9017-32CD85E869A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E4F76B-9A72-41AC-88D7-AB8E86AE05F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="101">
   <si>
     <t>INVOICING CALC SHEET</t>
   </si>
@@ -275,25 +275,10 @@
     <t>OTROS CARGOS</t>
   </si>
   <si>
-    <t>MOBILIZACION</t>
-  </si>
-  <si>
-    <t>DESMOBILIZACION</t>
-  </si>
-  <si>
     <t>TOTAL ENCAMISADO Y PERFORACION</t>
   </si>
   <si>
-    <t>ANGULO DE INCLINACION</t>
-  </si>
-  <si>
     <t>HORAS CARGABLES</t>
-  </si>
-  <si>
-    <t>BOMBA DE AGUA EXTRA</t>
-  </si>
-  <si>
-    <t>CABLE EXTRA (MANGUERA)</t>
   </si>
   <si>
     <t>HORAS</t>
@@ -346,13 +331,18 @@
   <si>
     <t>LOCATION</t>
   </si>
+  <si>
+    <t>VALOR UNITARIO</t>
+  </si>
+  <si>
+    <t>UNIDAD DE MEDIDA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0\ &quot;m.&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
@@ -360,7 +350,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -397,11 +387,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF666699"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
     </font>
     <font>
@@ -1316,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1631,435 +1616,811 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2078,428 +2439,36 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -3260,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:WYI261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124:E125"/>
+    <sheetView tabSelected="1" topLeftCell="B223" workbookViewId="0">
+      <selection activeCell="J235" sqref="J235:K235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3657,92 +3626,92 @@
   <sheetData>
     <row r="1" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="253"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="255"/>
-      <c r="I2" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="169"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="182"/>
+      <c r="I2" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="158"/>
     </row>
     <row r="3" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="256"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="258"/>
-      <c r="I3" s="170" t="s">
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="185"/>
+      <c r="I3" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="276" t="s">
+      <c r="J3" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="232" t="s">
+      <c r="K3" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="233"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="282" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="283"/>
-      <c r="P3" s="283"/>
-      <c r="Q3" s="283"/>
-      <c r="R3" s="284"/>
-      <c r="S3" s="276" t="s">
+      <c r="L3" s="190"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="215" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="232" t="s">
+      <c r="T3" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="233"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="220"/>
-      <c r="X3" s="221"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="260"/>
     </row>
     <row r="4" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="256"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="258"/>
-      <c r="I4" s="278" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="276"/>
-      <c r="K4" s="205" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
+      <c r="I4" s="210" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="208"/>
+      <c r="K4" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="206"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="285" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="276"/>
-      <c r="T4" s="205" t="s">
+      <c r="L4" s="176"/>
+      <c r="M4" s="219"/>
+      <c r="N4" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="219"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="206"/>
-      <c r="V4" s="263"/>
-      <c r="W4" s="222"/>
-      <c r="X4" s="223"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="262"/>
       <c r="Z4" s="1">
         <v>0.3</v>
       </c>
@@ -3763,26 +3732,26 @@
       </c>
     </row>
     <row r="5" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="256"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="276"/>
-      <c r="K5" s="205" t="s">
+      <c r="C5" s="183"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="206"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="276"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="219"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="219"/>
+      <c r="S5" s="208"/>
       <c r="T5" s="3"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="171"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="160"/>
       <c r="Z5" s="1">
         <v>45</v>
       </c>
@@ -3806,306 +3775,306 @@
       </c>
     </row>
     <row r="6" spans="3:72" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="259"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="261"/>
-      <c r="I6" s="279"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="194" t="s">
+      <c r="C6" s="186"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="188"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="195"/>
-      <c r="M6" s="252"/>
-      <c r="N6" s="286" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="252"/>
-      <c r="S6" s="277"/>
-      <c r="T6" s="194" t="s">
+      <c r="L6" s="221"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="220" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="222"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="195"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="172"/>
-      <c r="X6" s="173"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="287"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="162"/>
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="280" t="s">
+      <c r="C8" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="280"/>
-      <c r="E8" s="281" t="s">
+      <c r="D8" s="212"/>
+      <c r="E8" s="213" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="251">
+      <c r="G8" s="214">
         <v>44743</v>
       </c>
-      <c r="H8" s="251"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="251"/>
-      <c r="K8" s="251">
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="214">
         <f>G8+1</f>
         <v>44744</v>
       </c>
-      <c r="L8" s="251"/>
-      <c r="M8" s="251"/>
-      <c r="N8" s="251"/>
-      <c r="O8" s="251">
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="214">
         <f>K8+1</f>
         <v>44745</v>
       </c>
-      <c r="P8" s="251"/>
-      <c r="Q8" s="251"/>
-      <c r="R8" s="251"/>
-      <c r="S8" s="251">
+      <c r="P8" s="214"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="214">
         <f>O8+1</f>
         <v>44746</v>
       </c>
-      <c r="T8" s="251"/>
-      <c r="U8" s="251"/>
-      <c r="V8" s="251"/>
-      <c r="W8" s="251">
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="214"/>
+      <c r="W8" s="214">
         <f>S8+1</f>
         <v>44747</v>
       </c>
-      <c r="X8" s="251"/>
-      <c r="Y8" s="251"/>
-      <c r="Z8" s="251"/>
-      <c r="AA8" s="251">
+      <c r="X8" s="214"/>
+      <c r="Y8" s="214"/>
+      <c r="Z8" s="214"/>
+      <c r="AA8" s="214">
         <f>W8+1</f>
         <v>44748</v>
       </c>
-      <c r="AB8" s="251"/>
-      <c r="AC8" s="251"/>
-      <c r="AD8" s="251"/>
-      <c r="AE8" s="251">
+      <c r="AB8" s="214"/>
+      <c r="AC8" s="214"/>
+      <c r="AD8" s="214"/>
+      <c r="AE8" s="214">
         <f>AA8+1</f>
         <v>44749</v>
       </c>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="251"/>
-      <c r="AH8" s="251"/>
-      <c r="AI8" s="251">
+      <c r="AF8" s="214"/>
+      <c r="AG8" s="214"/>
+      <c r="AH8" s="214"/>
+      <c r="AI8" s="214">
         <f>AE8+1</f>
         <v>44750</v>
       </c>
-      <c r="AJ8" s="251"/>
-      <c r="AK8" s="251"/>
-      <c r="AL8" s="251"/>
-      <c r="AM8" s="251">
+      <c r="AJ8" s="214"/>
+      <c r="AK8" s="214"/>
+      <c r="AL8" s="214"/>
+      <c r="AM8" s="214">
         <f>AI8+1</f>
         <v>44751</v>
       </c>
-      <c r="AN8" s="251"/>
-      <c r="AO8" s="251"/>
-      <c r="AP8" s="251"/>
-      <c r="AQ8" s="251">
+      <c r="AN8" s="214"/>
+      <c r="AO8" s="214"/>
+      <c r="AP8" s="214"/>
+      <c r="AQ8" s="214">
         <f>AM8+1</f>
         <v>44752</v>
       </c>
-      <c r="AR8" s="251"/>
-      <c r="AS8" s="251"/>
-      <c r="AT8" s="251"/>
-      <c r="AU8" s="251">
+      <c r="AR8" s="214"/>
+      <c r="AS8" s="214"/>
+      <c r="AT8" s="214"/>
+      <c r="AU8" s="214">
         <f>AQ8+1</f>
         <v>44753</v>
       </c>
-      <c r="AV8" s="251"/>
-      <c r="AW8" s="251"/>
-      <c r="AX8" s="251"/>
-      <c r="AY8" s="251">
+      <c r="AV8" s="214"/>
+      <c r="AW8" s="214"/>
+      <c r="AX8" s="214"/>
+      <c r="AY8" s="214">
         <f>AU8+1</f>
         <v>44754</v>
       </c>
-      <c r="AZ8" s="251"/>
-      <c r="BA8" s="251"/>
-      <c r="BB8" s="251"/>
-      <c r="BC8" s="251">
+      <c r="AZ8" s="214"/>
+      <c r="BA8" s="214"/>
+      <c r="BB8" s="214"/>
+      <c r="BC8" s="214">
         <f>AY8+1</f>
         <v>44755</v>
       </c>
-      <c r="BD8" s="251"/>
-      <c r="BE8" s="251"/>
-      <c r="BF8" s="251"/>
-      <c r="BG8" s="251">
+      <c r="BD8" s="214"/>
+      <c r="BE8" s="214"/>
+      <c r="BF8" s="214"/>
+      <c r="BG8" s="214">
         <f>BC8+1</f>
         <v>44756</v>
       </c>
-      <c r="BH8" s="251"/>
-      <c r="BI8" s="251"/>
-      <c r="BJ8" s="251"/>
-      <c r="BK8" s="251">
+      <c r="BH8" s="214"/>
+      <c r="BI8" s="214"/>
+      <c r="BJ8" s="214"/>
+      <c r="BK8" s="214">
         <f>BG8+1</f>
         <v>44757</v>
       </c>
-      <c r="BL8" s="251"/>
-      <c r="BM8" s="251"/>
-      <c r="BN8" s="251"/>
-      <c r="BO8" s="251">
+      <c r="BL8" s="214"/>
+      <c r="BM8" s="214"/>
+      <c r="BN8" s="214"/>
+      <c r="BO8" s="214">
         <f>BK8+1</f>
         <v>44758</v>
       </c>
-      <c r="BP8" s="251"/>
-      <c r="BQ8" s="251"/>
-      <c r="BR8" s="251"/>
-      <c r="BS8" s="250" t="s">
+      <c r="BP8" s="214"/>
+      <c r="BQ8" s="214"/>
+      <c r="BR8" s="214"/>
+      <c r="BS8" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="BT8" s="250" t="s">
+      <c r="BT8" s="225" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="280"/>
-      <c r="D9" s="280"/>
-      <c r="E9" s="281"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="213"/>
       <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="235" t="s">
+      <c r="G9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235" t="s">
+      <c r="H9" s="226"/>
+      <c r="I9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235" t="s">
+      <c r="J9" s="226"/>
+      <c r="K9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="235"/>
-      <c r="M9" s="235" t="s">
+      <c r="L9" s="226"/>
+      <c r="M9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="235"/>
-      <c r="O9" s="235" t="s">
+      <c r="N9" s="226"/>
+      <c r="O9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235" t="s">
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235" t="s">
+      <c r="R9" s="226"/>
+      <c r="S9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="235"/>
-      <c r="U9" s="235" t="s">
+      <c r="T9" s="226"/>
+      <c r="U9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="235"/>
-      <c r="W9" s="235" t="s">
+      <c r="V9" s="226"/>
+      <c r="W9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="235"/>
-      <c r="Y9" s="235" t="s">
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="235"/>
-      <c r="AA9" s="235" t="s">
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="AB9" s="235"/>
-      <c r="AC9" s="235" t="s">
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="235"/>
-      <c r="AE9" s="235" t="s">
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="235"/>
-      <c r="AG9" s="235" t="s">
+      <c r="AF9" s="226"/>
+      <c r="AG9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="AH9" s="235"/>
-      <c r="AI9" s="235" t="s">
+      <c r="AH9" s="226"/>
+      <c r="AI9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="AJ9" s="235"/>
-      <c r="AK9" s="235" t="s">
+      <c r="AJ9" s="226"/>
+      <c r="AK9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="AL9" s="235"/>
-      <c r="AM9" s="235" t="s">
+      <c r="AL9" s="226"/>
+      <c r="AM9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="AN9" s="235"/>
-      <c r="AO9" s="235" t="s">
+      <c r="AN9" s="226"/>
+      <c r="AO9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="AP9" s="235"/>
-      <c r="AQ9" s="235" t="s">
+      <c r="AP9" s="226"/>
+      <c r="AQ9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="AR9" s="235"/>
-      <c r="AS9" s="235" t="s">
+      <c r="AR9" s="226"/>
+      <c r="AS9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="AT9" s="235"/>
-      <c r="AU9" s="235" t="s">
+      <c r="AT9" s="226"/>
+      <c r="AU9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="AV9" s="235"/>
-      <c r="AW9" s="235" t="s">
+      <c r="AV9" s="226"/>
+      <c r="AW9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="AX9" s="235"/>
-      <c r="AY9" s="235" t="s">
+      <c r="AX9" s="226"/>
+      <c r="AY9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="AZ9" s="235"/>
-      <c r="BA9" s="235" t="s">
+      <c r="AZ9" s="226"/>
+      <c r="BA9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="BB9" s="235"/>
-      <c r="BC9" s="235" t="s">
+      <c r="BB9" s="226"/>
+      <c r="BC9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="BD9" s="235"/>
-      <c r="BE9" s="235" t="s">
+      <c r="BD9" s="226"/>
+      <c r="BE9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="BF9" s="235"/>
-      <c r="BG9" s="235" t="s">
+      <c r="BF9" s="226"/>
+      <c r="BG9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="BH9" s="235"/>
-      <c r="BI9" s="235" t="s">
+      <c r="BH9" s="226"/>
+      <c r="BI9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="BJ9" s="235"/>
-      <c r="BK9" s="235" t="s">
+      <c r="BJ9" s="226"/>
+      <c r="BK9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="BL9" s="235"/>
-      <c r="BM9" s="235" t="s">
+      <c r="BL9" s="226"/>
+      <c r="BM9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="BN9" s="235"/>
-      <c r="BO9" s="235" t="s">
+      <c r="BN9" s="226"/>
+      <c r="BO9" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="BP9" s="235"/>
-      <c r="BQ9" s="235" t="s">
+      <c r="BP9" s="226"/>
+      <c r="BQ9" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="BR9" s="235"/>
-      <c r="BS9" s="250"/>
-      <c r="BT9" s="250"/>
+      <c r="BR9" s="226"/>
+      <c r="BS9" s="225"/>
+      <c r="BT9" s="225"/>
     </row>
     <row r="10" spans="3:72" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="281"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="213"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
         <v>19</v>
@@ -4299,8 +4268,8 @@
       <c r="BR10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BS10" s="250"/>
-      <c r="BT10" s="250"/>
+      <c r="BS10" s="225"/>
+      <c r="BT10" s="225"/>
     </row>
     <row r="11" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
@@ -4375,11 +4344,11 @@
       <c r="BT11" s="13"/>
     </row>
     <row r="12" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="240" t="s">
+      <c r="C12" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="243"/>
-      <c r="E12" s="164" t="s">
+      <c r="D12" s="194"/>
+      <c r="E12" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -4517,9 +4486,9 @@
       <c r="BT12" s="16"/>
     </row>
     <row r="13" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="241"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="164" t="s">
+      <c r="C13" s="231"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -4657,9 +4626,9 @@
       <c r="BT13" s="16"/>
     </row>
     <row r="14" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="241"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="165" t="s">
+      <c r="C14" s="231"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="17"/>
@@ -4830,9 +4799,9 @@
       <c r="BT14" s="19"/>
     </row>
     <row r="15" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="241"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="164" t="s">
+      <c r="C15" s="231"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -4970,9 +4939,9 @@
       <c r="BT15" s="16"/>
     </row>
     <row r="16" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="241"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="164" t="s">
+      <c r="C16" s="231"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -5110,9 +5079,9 @@
       <c r="BT16" s="16"/>
     </row>
     <row r="17" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="241"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="165" t="s">
+      <c r="C17" s="231"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="17"/>
@@ -5283,9 +5252,9 @@
       <c r="BT17" s="19"/>
     </row>
     <row r="18" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="241"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="164" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="14" t="s">
@@ -5423,9 +5392,9 @@
       <c r="BT18" s="16"/>
     </row>
     <row r="19" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="241"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="164" t="s">
+      <c r="C19" s="231"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -5563,9 +5532,9 @@
       <c r="BT19" s="16"/>
     </row>
     <row r="20" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="241"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="165" t="s">
+      <c r="C20" s="231"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="17"/>
@@ -5736,9 +5705,9 @@
       <c r="BT20" s="19"/>
     </row>
     <row r="21" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="241"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="164" t="s">
+      <c r="C21" s="231"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="14" t="s">
@@ -5876,9 +5845,9 @@
       <c r="BT21" s="16"/>
     </row>
     <row r="22" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="241"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="164" t="s">
+      <c r="C22" s="231"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -6016,9 +5985,9 @@
       <c r="BT22" s="16"/>
     </row>
     <row r="23" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="241"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="165" t="s">
+      <c r="C23" s="231"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="17"/>
@@ -6189,9 +6158,9 @@
       <c r="BT23" s="19"/>
     </row>
     <row r="24" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="241"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="164" t="s">
+      <c r="C24" s="231"/>
+      <c r="D24" s="235"/>
+      <c r="E24" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="14" t="s">
@@ -6329,9 +6298,9 @@
       <c r="BT24" s="16"/>
     </row>
     <row r="25" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="241"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="164" t="s">
+      <c r="C25" s="231"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -6469,9 +6438,9 @@
       <c r="BT25" s="16"/>
     </row>
     <row r="26" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="241"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="165" t="s">
+      <c r="C26" s="231"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="17"/>
@@ -6642,9 +6611,9 @@
       <c r="BT26" s="19"/>
     </row>
     <row r="27" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="241"/>
-      <c r="D27" s="208"/>
-      <c r="E27" s="164" t="s">
+      <c r="C27" s="231"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -6782,9 +6751,9 @@
       <c r="BT27" s="16"/>
     </row>
     <row r="28" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="241"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="164" t="s">
+      <c r="C28" s="231"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -6922,9 +6891,9 @@
       <c r="BT28" s="16"/>
     </row>
     <row r="29" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="241"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="165" t="s">
+      <c r="C29" s="231"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="17"/>
@@ -7095,9 +7064,9 @@
       <c r="BT29" s="19"/>
     </row>
     <row r="30" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="241"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="164" t="s">
+      <c r="C30" s="231"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -7235,9 +7204,9 @@
       <c r="BT30" s="16"/>
     </row>
     <row r="31" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="241"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="164" t="s">
+      <c r="C31" s="231"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -7375,9 +7344,9 @@
       <c r="BT31" s="16"/>
     </row>
     <row r="32" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="241"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="165" t="s">
+      <c r="C32" s="231"/>
+      <c r="D32" s="234"/>
+      <c r="E32" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="17"/>
@@ -7548,9 +7517,9 @@
       <c r="BT32" s="19"/>
     </row>
     <row r="33" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="241"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="164" t="s">
+      <c r="C33" s="231"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="14" t="s">
@@ -7688,9 +7657,9 @@
       <c r="BT33" s="16"/>
     </row>
     <row r="34" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="241"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="164" t="s">
+      <c r="C34" s="231"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -7828,9 +7797,9 @@
       <c r="BT34" s="16"/>
     </row>
     <row r="35" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="241"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="165" t="s">
+      <c r="C35" s="231"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="17"/>
@@ -8001,9 +7970,9 @@
       <c r="BT35" s="19"/>
     </row>
     <row r="36" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="241"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="164" t="s">
+      <c r="C36" s="231"/>
+      <c r="D36" s="235"/>
+      <c r="E36" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="14" t="s">
@@ -8141,9 +8110,9 @@
       <c r="BT36" s="16"/>
     </row>
     <row r="37" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="241"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="164" t="s">
+      <c r="C37" s="231"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -8281,9 +8250,9 @@
       <c r="BT37" s="16"/>
     </row>
     <row r="38" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="241"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="165" t="s">
+      <c r="C38" s="231"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="17"/>
@@ -8454,9 +8423,9 @@
       <c r="BT38" s="19"/>
     </row>
     <row r="39" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="241"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="164" t="s">
+      <c r="C39" s="231"/>
+      <c r="D39" s="235"/>
+      <c r="E39" s="153" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="14" t="s">
@@ -8594,9 +8563,9 @@
       <c r="BT39" s="16"/>
     </row>
     <row r="40" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="241"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="164" t="s">
+      <c r="C40" s="231"/>
+      <c r="D40" s="233"/>
+      <c r="E40" s="153" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -8734,9 +8703,9 @@
       <c r="BT40" s="16"/>
     </row>
     <row r="41" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="241"/>
-      <c r="D41" s="210"/>
-      <c r="E41" s="165" t="s">
+      <c r="C41" s="231"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="154" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="17"/>
@@ -8907,9 +8876,9 @@
       <c r="BT41" s="19"/>
     </row>
     <row r="42" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="242"/>
-      <c r="D42" s="244"/>
-      <c r="E42" s="244"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="236"/>
+      <c r="E42" s="236"/>
       <c r="F42" s="20" t="s">
         <v>24</v>
       </c>
@@ -9155,12 +9124,12 @@
       <c r="BT43" s="26"/>
     </row>
     <row r="44" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="247" t="s">
+      <c r="C44" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="232"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="234"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="223"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -9234,17 +9203,17 @@
         <v>0</v>
       </c>
       <c r="BU44" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV44" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C45" s="247"/>
-      <c r="D45" s="205"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="205"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="192"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -9318,20 +9287,20 @@
         <v>0</v>
       </c>
       <c r="BU45" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV45" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="247"/>
-      <c r="D46" s="205"/>
-      <c r="E46" s="206"/>
-      <c r="F46" s="207"/>
+      <c r="C46" s="239"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="219"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -9405,17 +9374,17 @@
         <v>0</v>
       </c>
       <c r="BU46" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV46" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C47" s="247"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="207"/>
+      <c r="C47" s="239"/>
+      <c r="D47" s="192"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="219"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -9489,17 +9458,17 @@
         <v>0</v>
       </c>
       <c r="BU47" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV47" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C48" s="247"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="207"/>
+      <c r="C48" s="239"/>
+      <c r="D48" s="192"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="219"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -9573,17 +9542,17 @@
         <v>0</v>
       </c>
       <c r="BU48" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV48" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C49" s="247"/>
-      <c r="D49" s="205"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="207"/>
+      <c r="C49" s="239"/>
+      <c r="D49" s="192"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="219"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -9657,20 +9626,20 @@
         <v>0</v>
       </c>
       <c r="BU49" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV49" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C50" s="247"/>
-      <c r="D50" s="205"/>
-      <c r="E50" s="206"/>
-      <c r="F50" s="207"/>
+      <c r="C50" s="239"/>
+      <c r="D50" s="192"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="219"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -9744,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="BU50" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV50" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BW50" s="33"/>
       <c r="BX50" s="33"/>
@@ -9765,10 +9734,10 @@
       <c r="CJ50" s="33"/>
     </row>
     <row r="51" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C51" s="247"/>
-      <c r="D51" s="205"/>
-      <c r="E51" s="206"/>
-      <c r="F51" s="207"/>
+      <c r="C51" s="239"/>
+      <c r="D51" s="192"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="219"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -9842,17 +9811,17 @@
         <v>0</v>
       </c>
       <c r="BU51" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV51" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C52" s="247"/>
-      <c r="D52" s="205"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="207"/>
+      <c r="C52" s="239"/>
+      <c r="D52" s="192"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="219"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -9926,17 +9895,17 @@
         <v>0</v>
       </c>
       <c r="BU52" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV52" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C53" s="247"/>
-      <c r="D53" s="205"/>
-      <c r="E53" s="206"/>
-      <c r="F53" s="207"/>
+      <c r="C53" s="239"/>
+      <c r="D53" s="192"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="219"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -10010,17 +9979,17 @@
         <v>0</v>
       </c>
       <c r="BU53" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV53" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C54" s="247"/>
-      <c r="D54" s="205"/>
-      <c r="E54" s="206"/>
-      <c r="F54" s="207"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="192"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="219"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -10094,17 +10063,17 @@
         <v>0</v>
       </c>
       <c r="BU54" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV54" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C55" s="247"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="206"/>
-      <c r="F55" s="207"/>
+      <c r="C55" s="239"/>
+      <c r="D55" s="192"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="219"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -10178,17 +10147,17 @@
         <v>0</v>
       </c>
       <c r="BU55" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV55" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C56" s="247"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="207"/>
+      <c r="C56" s="239"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="219"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
@@ -10262,17 +10231,17 @@
         <v>0</v>
       </c>
       <c r="BU56" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV56" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C57" s="247"/>
-      <c r="D57" s="205"/>
-      <c r="E57" s="206"/>
-      <c r="F57" s="207"/>
+      <c r="C57" s="239"/>
+      <c r="D57" s="192"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="219"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -10346,17 +10315,17 @@
         <v>0</v>
       </c>
       <c r="BU57" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV57" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C58" s="247"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="207"/>
+      <c r="C58" s="239"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="219"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
       <c r="I58" s="34"/>
@@ -10430,17 +10399,17 @@
         <v>0</v>
       </c>
       <c r="BU58" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV58" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C59" s="247"/>
-      <c r="D59" s="205"/>
-      <c r="E59" s="206"/>
-      <c r="F59" s="207"/>
+      <c r="C59" s="239"/>
+      <c r="D59" s="192"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="219"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
@@ -10514,17 +10483,17 @@
         <v>0</v>
       </c>
       <c r="BU59" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV59" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C60" s="247"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="206"/>
-      <c r="F60" s="207"/>
+      <c r="C60" s="239"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="219"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
@@ -10598,17 +10567,17 @@
         <v>0</v>
       </c>
       <c r="BU60" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV60" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C61" s="247"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="206"/>
-      <c r="F61" s="207"/>
+      <c r="C61" s="239"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="219"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
@@ -10682,17 +10651,17 @@
         <v>0</v>
       </c>
       <c r="BU61" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV61" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C62" s="247"/>
-      <c r="D62" s="205"/>
-      <c r="E62" s="206"/>
-      <c r="F62" s="207"/>
+      <c r="C62" s="239"/>
+      <c r="D62" s="192"/>
+      <c r="E62" s="176"/>
+      <c r="F62" s="219"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
@@ -10766,17 +10735,17 @@
         <v>0</v>
       </c>
       <c r="BU62" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV62" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C63" s="247"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="206"/>
-      <c r="F63" s="207"/>
+      <c r="C63" s="239"/>
+      <c r="D63" s="192"/>
+      <c r="E63" s="176"/>
+      <c r="F63" s="219"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
@@ -10850,14 +10819,14 @@
         <v>0</v>
       </c>
       <c r="BU63" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BV63" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C64" s="247"/>
+      <c r="C64" s="239"/>
       <c r="D64" s="35" t="s">
         <v>31</v>
       </c>
@@ -11133,31 +11102,31 @@
       <c r="C65" s="41"/>
       <c r="D65" s="42"/>
       <c r="G65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H65" s="42"/>
       <c r="I65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J65" s="42"/>
       <c r="K65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L65" s="42"/>
       <c r="M65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N65" s="42"/>
       <c r="O65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P65" s="42"/>
       <c r="Q65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R65" s="42"/>
       <c r="S65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="T65" s="42"/>
       <c r="U65" s="40">
@@ -11253,11 +11222,11 @@
       </c>
       <c r="BN65" s="42"/>
       <c r="BO65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BP65" s="42"/>
       <c r="BQ65" s="40" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BR65" s="42"/>
       <c r="BS65" s="40">
@@ -12562,14 +12531,14 @@
     </row>
     <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="248" t="s">
+      <c r="C74" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="249" t="s">
+      <c r="D74" s="241" t="s">
         <v>33</v>
       </c>
-      <c r="E74" s="249"/>
-      <c r="F74" s="249"/>
+      <c r="E74" s="241"/>
+      <c r="F74" s="241"/>
       <c r="G74" s="46"/>
       <c r="H74" s="46"/>
       <c r="I74" s="46"/>
@@ -12641,12 +12610,12 @@
       </c>
     </row>
     <row r="75" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C75" s="248"/>
-      <c r="D75" s="230" t="s">
+      <c r="C75" s="240"/>
+      <c r="D75" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="230"/>
-      <c r="F75" s="230"/>
+      <c r="E75" s="242"/>
+      <c r="F75" s="242"/>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
       <c r="I75" s="48"/>
@@ -12718,12 +12687,12 @@
       </c>
     </row>
     <row r="76" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C76" s="248"/>
-      <c r="D76" s="230" t="s">
+      <c r="C76" s="240"/>
+      <c r="D76" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="230"/>
-      <c r="F76" s="230"/>
+      <c r="E76" s="242"/>
+      <c r="F76" s="242"/>
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
       <c r="I76" s="48"/>
@@ -12795,12 +12764,12 @@
       </c>
     </row>
     <row r="77" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C77" s="248"/>
-      <c r="D77" s="230" t="s">
+      <c r="C77" s="240"/>
+      <c r="D77" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="230"/>
-      <c r="F77" s="230"/>
+      <c r="E77" s="242"/>
+      <c r="F77" s="242"/>
       <c r="G77" s="48"/>
       <c r="H77" s="48"/>
       <c r="I77" s="48"/>
@@ -12872,12 +12841,12 @@
       </c>
     </row>
     <row r="78" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C78" s="248"/>
-      <c r="D78" s="230" t="s">
+      <c r="C78" s="240"/>
+      <c r="D78" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="230"/>
-      <c r="F78" s="230"/>
+      <c r="E78" s="242"/>
+      <c r="F78" s="242"/>
       <c r="G78" s="48"/>
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
@@ -12952,12 +12921,12 @@
       <c r="A79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="248"/>
-      <c r="D79" s="230" t="s">
+      <c r="C79" s="240"/>
+      <c r="D79" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="230"/>
-      <c r="F79" s="230"/>
+      <c r="E79" s="242"/>
+      <c r="F79" s="242"/>
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
@@ -13029,12 +12998,12 @@
       </c>
     </row>
     <row r="80" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C80" s="248"/>
-      <c r="D80" s="230" t="s">
+      <c r="C80" s="240"/>
+      <c r="D80" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="230"/>
-      <c r="F80" s="230"/>
+      <c r="E80" s="242"/>
+      <c r="F80" s="242"/>
       <c r="G80" s="48"/>
       <c r="H80" s="48"/>
       <c r="I80" s="48"/>
@@ -13106,12 +13075,12 @@
       </c>
     </row>
     <row r="81" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C81" s="248"/>
-      <c r="D81" s="230" t="s">
+      <c r="C81" s="240"/>
+      <c r="D81" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="230"/>
-      <c r="F81" s="230"/>
+      <c r="E81" s="242"/>
+      <c r="F81" s="242"/>
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
       <c r="I81" s="48"/>
@@ -13183,12 +13152,12 @@
       </c>
     </row>
     <row r="82" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C82" s="248"/>
-      <c r="D82" s="230" t="s">
+      <c r="C82" s="240"/>
+      <c r="D82" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="230"/>
-      <c r="F82" s="230"/>
+      <c r="E82" s="242"/>
+      <c r="F82" s="242"/>
       <c r="G82" s="48"/>
       <c r="H82" s="48"/>
       <c r="I82" s="48"/>
@@ -13260,12 +13229,12 @@
       </c>
     </row>
     <row r="83" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C83" s="248"/>
-      <c r="D83" s="230" t="s">
+      <c r="C83" s="240"/>
+      <c r="D83" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="230"/>
-      <c r="F83" s="230"/>
+      <c r="E83" s="242"/>
+      <c r="F83" s="242"/>
       <c r="G83" s="48"/>
       <c r="H83" s="48"/>
       <c r="I83" s="48"/>
@@ -13337,12 +13306,12 @@
       </c>
     </row>
     <row r="84" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C84" s="248"/>
-      <c r="D84" s="230" t="s">
+      <c r="C84" s="240"/>
+      <c r="D84" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="230"/>
-      <c r="F84" s="230"/>
+      <c r="E84" s="242"/>
+      <c r="F84" s="242"/>
       <c r="G84" s="48"/>
       <c r="H84" s="48"/>
       <c r="I84" s="48"/>
@@ -13414,12 +13383,12 @@
       </c>
     </row>
     <row r="85" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C85" s="248"/>
-      <c r="D85" s="231" t="s">
+      <c r="C85" s="240"/>
+      <c r="D85" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="231"/>
-      <c r="F85" s="231"/>
+      <c r="E85" s="245"/>
+      <c r="F85" s="245"/>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50"/>
@@ -13497,10 +13466,10 @@
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="245" t="s">
+      <c r="C87" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="246" t="s">
+      <c r="D87" s="238" t="s">
         <v>22</v>
       </c>
       <c r="E87" s="53"/>
@@ -13673,8 +13642,8 @@
       </c>
     </row>
     <row r="88" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="245"/>
-      <c r="D88" s="246"/>
+      <c r="C88" s="237"/>
+      <c r="D88" s="238"/>
       <c r="E88" s="57"/>
       <c r="F88" s="58">
         <v>100</v>
@@ -13845,8 +13814,8 @@
       </c>
     </row>
     <row r="89" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="245"/>
-      <c r="D89" s="246"/>
+      <c r="C89" s="237"/>
+      <c r="D89" s="238"/>
       <c r="E89" s="57"/>
       <c r="F89" s="58">
         <v>2000</v>
@@ -14017,8 +13986,8 @@
       </c>
     </row>
     <row r="90" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="245"/>
-      <c r="D90" s="246"/>
+      <c r="C90" s="237"/>
+      <c r="D90" s="238"/>
       <c r="E90" s="61"/>
       <c r="F90" s="62" t="s">
         <v>46</v>
@@ -14189,8 +14158,8 @@
       </c>
     </row>
     <row r="91" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="245"/>
-      <c r="D91" s="246" t="s">
+      <c r="C91" s="237"/>
+      <c r="D91" s="238" t="s">
         <v>47</v>
       </c>
       <c r="E91" s="53"/>
@@ -14363,8 +14332,8 @@
       </c>
     </row>
     <row r="92" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="245"/>
-      <c r="D92" s="246"/>
+      <c r="C92" s="237"/>
+      <c r="D92" s="238"/>
       <c r="E92" s="57"/>
       <c r="F92" s="58">
         <v>40</v>
@@ -14535,8 +14504,8 @@
       </c>
     </row>
     <row r="93" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="245"/>
-      <c r="D93" s="246"/>
+      <c r="C93" s="237"/>
+      <c r="D93" s="238"/>
       <c r="E93" s="57"/>
       <c r="F93" s="58">
         <v>2000</v>
@@ -14707,8 +14676,8 @@
       </c>
     </row>
     <row r="94" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="245"/>
-      <c r="D94" s="246"/>
+      <c r="C94" s="237"/>
+      <c r="D94" s="238"/>
       <c r="E94" s="61"/>
       <c r="F94" s="62" t="s">
         <v>46</v>
@@ -14879,8 +14848,8 @@
       </c>
     </row>
     <row r="95" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="245"/>
-      <c r="D95" s="246" t="s">
+      <c r="C95" s="237"/>
+      <c r="D95" s="238" t="s">
         <v>48</v>
       </c>
       <c r="E95" s="53"/>
@@ -15053,8 +15022,8 @@
       </c>
     </row>
     <row r="96" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="245"/>
-      <c r="D96" s="246"/>
+      <c r="C96" s="237"/>
+      <c r="D96" s="238"/>
       <c r="E96" s="57"/>
       <c r="F96" s="58">
         <v>200</v>
@@ -15225,8 +15194,8 @@
       </c>
     </row>
     <row r="97" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="245"/>
-      <c r="D97" s="246"/>
+      <c r="C97" s="237"/>
+      <c r="D97" s="238"/>
       <c r="E97" s="57"/>
       <c r="F97" s="58">
         <v>2000</v>
@@ -15397,8 +15366,8 @@
       </c>
     </row>
     <row r="98" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="245"/>
-      <c r="D98" s="246"/>
+      <c r="C98" s="237"/>
+      <c r="D98" s="238"/>
       <c r="E98" s="61"/>
       <c r="F98" s="62" t="s">
         <v>46</v>
@@ -15569,8 +15538,8 @@
       </c>
     </row>
     <row r="99" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="245"/>
-      <c r="D99" s="246" t="s">
+      <c r="C99" s="237"/>
+      <c r="D99" s="238" t="s">
         <v>27</v>
       </c>
       <c r="E99" s="53"/>
@@ -15743,8 +15712,8 @@
       </c>
     </row>
     <row r="100" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="245"/>
-      <c r="D100" s="246"/>
+      <c r="C100" s="237"/>
+      <c r="D100" s="238"/>
       <c r="E100" s="57"/>
       <c r="F100" s="58">
         <v>300</v>
@@ -15915,8 +15884,8 @@
       </c>
     </row>
     <row r="101" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="245"/>
-      <c r="D101" s="246"/>
+      <c r="C101" s="237"/>
+      <c r="D101" s="238"/>
       <c r="E101" s="57"/>
       <c r="F101" s="58">
         <v>2000</v>
@@ -16087,8 +16056,8 @@
       </c>
     </row>
     <row r="102" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="245"/>
-      <c r="D102" s="246"/>
+      <c r="C102" s="237"/>
+      <c r="D102" s="238"/>
       <c r="E102" s="61"/>
       <c r="F102" s="62" t="s">
         <v>46</v>
@@ -16259,8 +16228,8 @@
       </c>
     </row>
     <row r="103" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="245"/>
-      <c r="D103" s="246" t="s">
+      <c r="C103" s="237"/>
+      <c r="D103" s="238" t="s">
         <v>28</v>
       </c>
       <c r="E103" s="53"/>
@@ -16433,8 +16402,8 @@
       </c>
     </row>
     <row r="104" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="245"/>
-      <c r="D104" s="246"/>
+      <c r="C104" s="237"/>
+      <c r="D104" s="238"/>
       <c r="E104" s="57"/>
       <c r="F104" s="58">
         <v>300</v>
@@ -16605,8 +16574,8 @@
       </c>
     </row>
     <row r="105" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="245"/>
-      <c r="D105" s="246"/>
+      <c r="C105" s="237"/>
+      <c r="D105" s="238"/>
       <c r="E105" s="57"/>
       <c r="F105" s="58">
         <v>500</v>
@@ -16777,8 +16746,8 @@
       </c>
     </row>
     <row r="106" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="245"/>
-      <c r="D106" s="246"/>
+      <c r="C106" s="237"/>
+      <c r="D106" s="238"/>
       <c r="E106" s="57"/>
       <c r="F106" s="58">
         <v>800</v>
@@ -16949,8 +16918,8 @@
       </c>
     </row>
     <row r="107" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="245"/>
-      <c r="D107" s="246"/>
+      <c r="C107" s="237"/>
+      <c r="D107" s="238"/>
       <c r="E107" s="57"/>
       <c r="F107" s="58">
         <v>1000</v>
@@ -17121,8 +17090,8 @@
       </c>
     </row>
     <row r="108" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="245"/>
-      <c r="D108" s="246"/>
+      <c r="C108" s="237"/>
+      <c r="D108" s="238"/>
       <c r="E108" s="57"/>
       <c r="F108" s="58">
         <v>2000</v>
@@ -17293,8 +17262,8 @@
       </c>
     </row>
     <row r="109" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="245"/>
-      <c r="D109" s="246"/>
+      <c r="C109" s="237"/>
+      <c r="D109" s="238"/>
       <c r="E109" s="61"/>
       <c r="F109" s="62" t="s">
         <v>46</v>
@@ -17538,10 +17507,10 @@
       <c r="BU110" s="59"/>
     </row>
     <row r="111" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C111" s="287"/>
-      <c r="D111" s="288"/>
-      <c r="E111" s="288"/>
-      <c r="F111" s="289"/>
+      <c r="C111" s="246"/>
+      <c r="D111" s="247"/>
+      <c r="E111" s="247"/>
+      <c r="F111" s="248"/>
       <c r="I111" s="1" t="s">
         <v>49</v>
       </c>
@@ -17553,10 +17522,10 @@
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="3:73" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="290"/>
-      <c r="D112" s="291"/>
-      <c r="E112" s="291"/>
-      <c r="F112" s="292"/>
+      <c r="C112" s="249"/>
+      <c r="D112" s="250"/>
+      <c r="E112" s="250"/>
+      <c r="F112" s="251"/>
       <c r="I112" s="1" t="s">
         <v>51</v>
       </c>
@@ -17568,10 +17537,10 @@
       <c r="O112" s="69"/>
     </row>
     <row r="113" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="290"/>
-      <c r="D113" s="291"/>
-      <c r="E113" s="291"/>
-      <c r="F113" s="292"/>
+      <c r="C113" s="249"/>
+      <c r="D113" s="250"/>
+      <c r="E113" s="250"/>
+      <c r="F113" s="251"/>
       <c r="I113" s="1" t="s">
         <v>55</v>
       </c>
@@ -17580,10 +17549,10 @@
       <c r="O113" s="69"/>
     </row>
     <row r="114" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="290"/>
-      <c r="D114" s="291"/>
-      <c r="E114" s="291"/>
-      <c r="F114" s="292"/>
+      <c r="C114" s="249"/>
+      <c r="D114" s="250"/>
+      <c r="E114" s="250"/>
+      <c r="F114" s="251"/>
       <c r="I114" s="1" t="s">
         <v>58</v>
       </c>
@@ -17597,10 +17566,10 @@
       <c r="AD114" s="77"/>
     </row>
     <row r="115" spans="3:30" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="293"/>
-      <c r="D115" s="294"/>
-      <c r="E115" s="294"/>
-      <c r="F115" s="295"/>
+      <c r="C115" s="252"/>
+      <c r="D115" s="253"/>
+      <c r="E115" s="253"/>
+      <c r="F115" s="254"/>
       <c r="I115" s="1" t="s">
         <v>59</v>
       </c>
@@ -17630,106 +17599,106 @@
       <c r="AD116" s="77"/>
     </row>
     <row r="117" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="82" t="s">
+      <c r="C117" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
+      <c r="D117" s="82"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="82"/>
       <c r="I117" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M117" s="238">
+      <c r="M117" s="228">
         <f>G8</f>
         <v>44743</v>
       </c>
-      <c r="N117" s="238"/>
-      <c r="O117" s="84"/>
+      <c r="N117" s="228"/>
+      <c r="O117" s="83"/>
       <c r="AC117" s="77"/>
       <c r="AD117" s="77"/>
     </row>
     <row r="118" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="82" t="s">
+      <c r="C118" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="D118" s="86"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="87"/>
-      <c r="H118" s="87"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="86"/>
+      <c r="H118" s="86"/>
       <c r="I118" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M118" s="238">
+      <c r="M118" s="228">
         <f>BK8</f>
         <v>44757</v>
       </c>
-      <c r="N118" s="238"/>
-      <c r="O118" s="84"/>
+      <c r="N118" s="228"/>
+      <c r="O118" s="83"/>
       <c r="AC118" s="77"/>
       <c r="AD118" s="77"/>
     </row>
     <row r="119" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="82" t="s">
+      <c r="C119" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D119" s="86"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="86"/>
-      <c r="G119" s="87"/>
-      <c r="H119" s="87"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="86"/>
+      <c r="H119" s="86"/>
       <c r="I119" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M119" s="229">
+      <c r="M119" s="256">
         <f>D127+D131+D134+D138+D141</f>
         <v>0</v>
       </c>
-      <c r="N119" s="229"/>
-      <c r="O119" s="88"/>
+      <c r="N119" s="256"/>
+      <c r="O119" s="87"/>
       <c r="AC119" s="77"/>
       <c r="AD119" s="77"/>
     </row>
     <row r="120" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="82" t="s">
+      <c r="C120" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="87"/>
-      <c r="H120" s="87"/>
-      <c r="I120" s="89"/>
-      <c r="J120" s="89"/>
-      <c r="K120" s="89"/>
-      <c r="L120" s="89"/>
-      <c r="M120" s="90"/>
-      <c r="N120" s="90"/>
-      <c r="O120" s="88"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="86"/>
+      <c r="H120" s="86"/>
+      <c r="I120" s="88"/>
+      <c r="J120" s="88"/>
+      <c r="K120" s="88"/>
+      <c r="L120" s="88"/>
+      <c r="M120" s="89"/>
+      <c r="N120" s="89"/>
+      <c r="O120" s="87"/>
       <c r="AC120" s="77"/>
       <c r="AD120" s="77"/>
     </row>
     <row r="121" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="82" t="s">
+      <c r="C121" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="87"/>
-      <c r="H121" s="87"/>
-      <c r="I121" s="91" t="s">
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="86"/>
+      <c r="H121" s="86"/>
+      <c r="I121" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="J121" s="91"/>
-      <c r="K121" s="91"/>
-      <c r="L121" s="91"/>
-      <c r="M121" s="239">
+      <c r="J121" s="90"/>
+      <c r="K121" s="90"/>
+      <c r="L121" s="90"/>
+      <c r="M121" s="229">
         <f>N261</f>
         <v>0</v>
       </c>
-      <c r="N121" s="239"/>
-      <c r="O121" s="88"/>
+      <c r="N121" s="229"/>
+      <c r="O121" s="87"/>
       <c r="AC121" s="77"/>
       <c r="AD121" s="77"/>
     </row>
@@ -17739,1223 +17708,1223 @@
       <c r="F122" s="5"/>
       <c r="M122" s="74"/>
       <c r="N122" s="74"/>
-      <c r="O122" s="88"/>
+      <c r="O122" s="87"/>
       <c r="AC122" s="77"/>
       <c r="AD122" s="77"/>
     </row>
     <row r="123" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="266" t="s">
+      <c r="C123" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="D123" s="267"/>
-      <c r="E123" s="267"/>
-      <c r="F123" s="267"/>
-      <c r="G123" s="267"/>
-      <c r="H123" s="268"/>
-      <c r="I123" s="269"/>
-      <c r="J123" s="270"/>
-      <c r="K123" s="270"/>
-      <c r="L123" s="270"/>
-      <c r="M123" s="270"/>
-      <c r="N123" s="271"/>
-      <c r="O123" s="88"/>
+      <c r="D123" s="199"/>
+      <c r="E123" s="199"/>
+      <c r="F123" s="199"/>
+      <c r="G123" s="199"/>
+      <c r="H123" s="200"/>
+      <c r="I123" s="201"/>
+      <c r="J123" s="202"/>
+      <c r="K123" s="202"/>
+      <c r="L123" s="202"/>
+      <c r="M123" s="202"/>
+      <c r="N123" s="203"/>
+      <c r="O123" s="87"/>
       <c r="AC123" s="77"/>
       <c r="AD123" s="77"/>
     </row>
     <row r="124" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="236" t="s">
+      <c r="C124" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="D124" s="243" t="s">
-        <v>99</v>
-      </c>
-      <c r="E124" s="243" t="s">
+      <c r="D124" s="194" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="F124" s="296" t="s">
+      <c r="F124" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="G124" s="298"/>
-      <c r="H124" s="297"/>
-      <c r="I124" s="237" t="s">
+      <c r="G124" s="178"/>
+      <c r="H124" s="179"/>
+      <c r="I124" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="J124" s="174"/>
-      <c r="K124" s="174"/>
-      <c r="L124" s="264" t="s">
-        <v>100</v>
-      </c>
-      <c r="M124" s="272" t="s">
+      <c r="J124" s="163"/>
+      <c r="K124" s="163"/>
+      <c r="L124" s="195" t="s">
+        <v>95</v>
+      </c>
+      <c r="M124" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="N124" s="273"/>
-      <c r="O124" s="88"/>
+      <c r="N124" s="205"/>
+      <c r="O124" s="87"/>
       <c r="AC124" s="77"/>
       <c r="AD124" s="77"/>
     </row>
     <row r="125" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="237"/>
-      <c r="D125" s="264"/>
-      <c r="E125" s="264"/>
-      <c r="F125" s="183" t="s">
+      <c r="C125" s="196"/>
+      <c r="D125" s="195"/>
+      <c r="E125" s="195"/>
+      <c r="F125" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="G125" s="296" t="s">
+      <c r="G125" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="H125" s="297"/>
-      <c r="I125" s="265"/>
-      <c r="J125" s="174"/>
-      <c r="K125" s="174"/>
-      <c r="L125" s="264"/>
-      <c r="M125" s="274"/>
-      <c r="N125" s="275"/>
-      <c r="O125" s="88"/>
+      <c r="H125" s="179"/>
+      <c r="I125" s="197"/>
+      <c r="J125" s="163"/>
+      <c r="K125" s="163"/>
+      <c r="L125" s="195"/>
+      <c r="M125" s="206"/>
+      <c r="N125" s="207"/>
+      <c r="O125" s="87"/>
       <c r="AC125" s="77"/>
       <c r="AD125" s="77"/>
     </row>
     <row r="126" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="175"/>
-      <c r="D126" s="176"/>
-      <c r="E126" s="176"/>
-      <c r="F126" s="177"/>
-      <c r="G126" s="206"/>
-      <c r="H126" s="206"/>
-      <c r="I126" s="178">
-        <v>0</v>
-      </c>
-      <c r="J126" s="178"/>
-      <c r="K126" s="178"/>
-      <c r="L126" s="178">
-        <v>0</v>
-      </c>
-      <c r="M126" s="227">
+      <c r="C126" s="164"/>
+      <c r="D126" s="165"/>
+      <c r="E126" s="165"/>
+      <c r="F126" s="166"/>
+      <c r="G126" s="176"/>
+      <c r="H126" s="176"/>
+      <c r="I126" s="167">
+        <v>0</v>
+      </c>
+      <c r="J126" s="167"/>
+      <c r="K126" s="167"/>
+      <c r="L126" s="167">
+        <v>0</v>
+      </c>
+      <c r="M126" s="257">
         <f t="shared" ref="M126:M142" si="10">I126*L126</f>
         <v>0</v>
       </c>
-      <c r="N126" s="228"/>
-      <c r="O126" s="88"/>
+      <c r="N126" s="258"/>
+      <c r="O126" s="87"/>
       <c r="AC126" s="77"/>
       <c r="AD126" s="77"/>
     </row>
     <row r="127" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="166"/>
+      <c r="C127" s="155"/>
       <c r="D127" s="30"/>
       <c r="E127" s="30"/>
       <c r="F127" s="68"/>
-      <c r="G127" s="206"/>
-      <c r="H127" s="206"/>
-      <c r="I127" s="95">
-        <v>0</v>
-      </c>
-      <c r="J127" s="95"/>
-      <c r="K127" s="95"/>
-      <c r="L127" s="95">
-        <v>0</v>
-      </c>
-      <c r="M127" s="215">
+      <c r="G127" s="176"/>
+      <c r="H127" s="176"/>
+      <c r="I127" s="94">
+        <v>0</v>
+      </c>
+      <c r="J127" s="94"/>
+      <c r="K127" s="94"/>
+      <c r="L127" s="94">
+        <v>0</v>
+      </c>
+      <c r="M127" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N127" s="216"/>
-      <c r="O127" s="88"/>
+      <c r="N127" s="244"/>
+      <c r="O127" s="87"/>
       <c r="AC127" s="77"/>
       <c r="AD127" s="77"/>
     </row>
     <row r="128" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="163"/>
+      <c r="C128" s="152"/>
       <c r="F128" s="68"/>
-      <c r="G128" s="206"/>
-      <c r="H128" s="206"/>
-      <c r="I128" s="95">
-        <v>0</v>
-      </c>
-      <c r="J128" s="95"/>
-      <c r="K128" s="95"/>
-      <c r="L128" s="95">
-        <v>0</v>
-      </c>
-      <c r="M128" s="215">
+      <c r="G128" s="176"/>
+      <c r="H128" s="176"/>
+      <c r="I128" s="94">
+        <v>0</v>
+      </c>
+      <c r="J128" s="94"/>
+      <c r="K128" s="94"/>
+      <c r="L128" s="94">
+        <v>0</v>
+      </c>
+      <c r="M128" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N128" s="216"/>
-      <c r="O128" s="88"/>
+      <c r="N128" s="244"/>
+      <c r="O128" s="87"/>
       <c r="AC128" s="77"/>
       <c r="AD128" s="77"/>
     </row>
     <row r="129" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="163"/>
+      <c r="C129" s="152"/>
       <c r="D129" s="30"/>
       <c r="E129" s="30"/>
       <c r="F129" s="68"/>
-      <c r="G129" s="206"/>
-      <c r="H129" s="206"/>
-      <c r="I129" s="95">
-        <v>0</v>
-      </c>
-      <c r="J129" s="95"/>
-      <c r="K129" s="95"/>
-      <c r="L129" s="95">
-        <v>0</v>
-      </c>
-      <c r="M129" s="215">
+      <c r="G129" s="176"/>
+      <c r="H129" s="176"/>
+      <c r="I129" s="94">
+        <v>0</v>
+      </c>
+      <c r="J129" s="94"/>
+      <c r="K129" s="94"/>
+      <c r="L129" s="94">
+        <v>0</v>
+      </c>
+      <c r="M129" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N129" s="216"/>
-      <c r="O129" s="97"/>
+      <c r="N129" s="244"/>
+      <c r="O129" s="96"/>
       <c r="AC129" s="77"/>
       <c r="AD129" s="77"/>
     </row>
     <row r="130" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="166"/>
+      <c r="C130" s="155"/>
       <c r="F130" s="68"/>
-      <c r="G130" s="206"/>
-      <c r="H130" s="206"/>
-      <c r="I130" s="95">
-        <v>0</v>
-      </c>
-      <c r="J130" s="95"/>
-      <c r="K130" s="95"/>
-      <c r="L130" s="95">
-        <v>0</v>
-      </c>
-      <c r="M130" s="215">
+      <c r="G130" s="176"/>
+      <c r="H130" s="176"/>
+      <c r="I130" s="94">
+        <v>0</v>
+      </c>
+      <c r="J130" s="94"/>
+      <c r="K130" s="94"/>
+      <c r="L130" s="94">
+        <v>0</v>
+      </c>
+      <c r="M130" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N130" s="216"/>
+      <c r="N130" s="244"/>
       <c r="AC130" s="77"/>
       <c r="AD130" s="30"/>
     </row>
     <row r="131" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="163"/>
-      <c r="D131" s="95"/>
+      <c r="C131" s="152"/>
+      <c r="D131" s="94"/>
       <c r="E131" s="30"/>
       <c r="F131" s="68"/>
-      <c r="G131" s="206"/>
-      <c r="H131" s="206"/>
-      <c r="I131" s="95">
-        <v>0</v>
-      </c>
-      <c r="J131" s="95"/>
-      <c r="K131" s="95"/>
-      <c r="L131" s="95">
-        <v>0</v>
-      </c>
-      <c r="M131" s="215">
+      <c r="G131" s="176"/>
+      <c r="H131" s="176"/>
+      <c r="I131" s="94">
+        <v>0</v>
+      </c>
+      <c r="J131" s="94"/>
+      <c r="K131" s="94"/>
+      <c r="L131" s="94">
+        <v>0</v>
+      </c>
+      <c r="M131" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N131" s="216"/>
+      <c r="N131" s="244"/>
       <c r="AC131" s="77"/>
       <c r="AD131" s="77"/>
     </row>
     <row r="132" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="166"/>
+      <c r="C132" s="155"/>
       <c r="D132" s="30"/>
       <c r="E132" s="30"/>
       <c r="F132" s="68"/>
-      <c r="G132" s="206"/>
-      <c r="H132" s="206"/>
-      <c r="I132" s="95">
-        <v>0</v>
-      </c>
-      <c r="J132" s="95"/>
-      <c r="K132" s="95"/>
-      <c r="L132" s="95">
-        <v>0</v>
-      </c>
-      <c r="M132" s="215">
+      <c r="G132" s="176"/>
+      <c r="H132" s="176"/>
+      <c r="I132" s="94">
+        <v>0</v>
+      </c>
+      <c r="J132" s="94"/>
+      <c r="K132" s="94"/>
+      <c r="L132" s="94">
+        <v>0</v>
+      </c>
+      <c r="M132" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N132" s="216"/>
+      <c r="N132" s="244"/>
       <c r="AC132" s="77"/>
     </row>
     <row r="133" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="166"/>
-      <c r="D133" s="95"/>
-      <c r="E133" s="95"/>
+      <c r="C133" s="155"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="94"/>
       <c r="F133" s="68"/>
-      <c r="G133" s="206"/>
-      <c r="H133" s="206"/>
-      <c r="I133" s="95">
-        <v>0</v>
-      </c>
-      <c r="J133" s="95"/>
-      <c r="K133" s="95"/>
-      <c r="L133" s="95">
-        <v>0</v>
-      </c>
-      <c r="M133" s="215">
+      <c r="G133" s="176"/>
+      <c r="H133" s="176"/>
+      <c r="I133" s="94">
+        <v>0</v>
+      </c>
+      <c r="J133" s="94"/>
+      <c r="K133" s="94"/>
+      <c r="L133" s="94">
+        <v>0</v>
+      </c>
+      <c r="M133" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N133" s="216"/>
+      <c r="N133" s="244"/>
       <c r="O133" s="68"/>
       <c r="AC133" s="77"/>
     </row>
     <row r="134" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="166"/>
-      <c r="D134" s="95"/>
-      <c r="E134" s="95"/>
+      <c r="C134" s="155"/>
+      <c r="D134" s="94"/>
+      <c r="E134" s="94"/>
       <c r="F134" s="68"/>
-      <c r="G134" s="206"/>
-      <c r="H134" s="206"/>
-      <c r="I134" s="95">
-        <v>0</v>
-      </c>
-      <c r="J134" s="95"/>
-      <c r="K134" s="95"/>
-      <c r="L134" s="95">
-        <v>0</v>
-      </c>
-      <c r="M134" s="215">
+      <c r="G134" s="176"/>
+      <c r="H134" s="176"/>
+      <c r="I134" s="94">
+        <v>0</v>
+      </c>
+      <c r="J134" s="94"/>
+      <c r="K134" s="94"/>
+      <c r="L134" s="94">
+        <v>0</v>
+      </c>
+      <c r="M134" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N134" s="216"/>
+      <c r="N134" s="244"/>
       <c r="O134" s="68"/>
       <c r="AC134" s="77"/>
     </row>
     <row r="135" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="163"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="95"/>
+      <c r="C135" s="152"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="94"/>
       <c r="F135" s="68"/>
-      <c r="G135" s="206"/>
-      <c r="H135" s="206"/>
-      <c r="I135" s="95">
-        <v>0</v>
-      </c>
-      <c r="J135" s="95"/>
-      <c r="K135" s="95"/>
-      <c r="L135" s="95">
-        <v>0</v>
-      </c>
-      <c r="M135" s="215">
+      <c r="G135" s="176"/>
+      <c r="H135" s="176"/>
+      <c r="I135" s="94">
+        <v>0</v>
+      </c>
+      <c r="J135" s="94"/>
+      <c r="K135" s="94"/>
+      <c r="L135" s="94">
+        <v>0</v>
+      </c>
+      <c r="M135" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N135" s="216"/>
+      <c r="N135" s="244"/>
       <c r="AC135" s="77"/>
     </row>
     <row r="136" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="163"/>
+      <c r="C136" s="152"/>
       <c r="F136" s="68"/>
-      <c r="G136" s="206"/>
-      <c r="H136" s="206"/>
-      <c r="I136" s="95">
-        <v>0</v>
-      </c>
-      <c r="J136" s="95"/>
-      <c r="K136" s="95"/>
-      <c r="L136" s="95">
-        <v>0</v>
-      </c>
-      <c r="M136" s="215">
+      <c r="G136" s="176"/>
+      <c r="H136" s="176"/>
+      <c r="I136" s="94">
+        <v>0</v>
+      </c>
+      <c r="J136" s="94"/>
+      <c r="K136" s="94"/>
+      <c r="L136" s="94">
+        <v>0</v>
+      </c>
+      <c r="M136" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N136" s="216"/>
+      <c r="N136" s="244"/>
       <c r="AC136" s="77"/>
     </row>
     <row r="137" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="166"/>
+      <c r="C137" s="155"/>
       <c r="F137" s="68"/>
-      <c r="G137" s="206"/>
-      <c r="H137" s="206"/>
-      <c r="I137" s="95">
-        <v>0</v>
-      </c>
-      <c r="J137" s="95"/>
-      <c r="K137" s="95"/>
-      <c r="L137" s="95">
-        <v>0</v>
-      </c>
-      <c r="M137" s="215">
+      <c r="G137" s="176"/>
+      <c r="H137" s="176"/>
+      <c r="I137" s="94">
+        <v>0</v>
+      </c>
+      <c r="J137" s="94"/>
+      <c r="K137" s="94"/>
+      <c r="L137" s="94">
+        <v>0</v>
+      </c>
+      <c r="M137" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N137" s="216"/>
+      <c r="N137" s="244"/>
       <c r="AC137" s="77"/>
     </row>
     <row r="138" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="166"/>
-      <c r="D138" s="95"/>
-      <c r="E138" s="179"/>
+      <c r="C138" s="155"/>
+      <c r="D138" s="94"/>
+      <c r="E138" s="168"/>
       <c r="F138" s="68"/>
-      <c r="G138" s="206"/>
-      <c r="H138" s="206"/>
-      <c r="I138" s="95">
-        <v>0</v>
-      </c>
-      <c r="J138" s="95"/>
-      <c r="K138" s="95"/>
-      <c r="L138" s="95">
-        <v>0</v>
-      </c>
-      <c r="M138" s="215">
+      <c r="G138" s="176"/>
+      <c r="H138" s="176"/>
+      <c r="I138" s="94">
+        <v>0</v>
+      </c>
+      <c r="J138" s="94"/>
+      <c r="K138" s="94"/>
+      <c r="L138" s="94">
+        <v>0</v>
+      </c>
+      <c r="M138" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N138" s="216"/>
+      <c r="N138" s="244"/>
       <c r="AC138" s="77"/>
     </row>
     <row r="139" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="166"/>
-      <c r="D139" s="95"/>
-      <c r="E139" s="95"/>
+      <c r="C139" s="155"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="94"/>
       <c r="F139" s="68"/>
-      <c r="G139" s="206"/>
-      <c r="H139" s="206"/>
-      <c r="I139" s="95">
-        <v>0</v>
-      </c>
-      <c r="J139" s="95"/>
-      <c r="K139" s="95"/>
-      <c r="L139" s="95">
-        <v>0</v>
-      </c>
-      <c r="M139" s="215">
+      <c r="G139" s="176"/>
+      <c r="H139" s="176"/>
+      <c r="I139" s="94">
+        <v>0</v>
+      </c>
+      <c r="J139" s="94"/>
+      <c r="K139" s="94"/>
+      <c r="L139" s="94">
+        <v>0</v>
+      </c>
+      <c r="M139" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N139" s="216"/>
+      <c r="N139" s="244"/>
       <c r="AC139" s="30"/>
     </row>
     <row r="140" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="166"/>
-      <c r="D140" s="95"/>
-      <c r="E140" s="95"/>
+      <c r="C140" s="155"/>
+      <c r="D140" s="94"/>
+      <c r="E140" s="94"/>
       <c r="F140" s="68"/>
-      <c r="G140" s="206"/>
-      <c r="H140" s="206"/>
-      <c r="I140" s="95">
-        <v>0</v>
-      </c>
-      <c r="J140" s="95"/>
-      <c r="K140" s="95"/>
-      <c r="L140" s="95">
-        <v>0</v>
-      </c>
-      <c r="M140" s="215">
+      <c r="G140" s="176"/>
+      <c r="H140" s="176"/>
+      <c r="I140" s="94">
+        <v>0</v>
+      </c>
+      <c r="J140" s="94"/>
+      <c r="K140" s="94"/>
+      <c r="L140" s="94">
+        <v>0</v>
+      </c>
+      <c r="M140" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N140" s="216"/>
+      <c r="N140" s="244"/>
       <c r="AC140" s="77"/>
     </row>
     <row r="141" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="166"/>
-      <c r="D141" s="95"/>
-      <c r="E141" s="179"/>
+      <c r="C141" s="155"/>
+      <c r="D141" s="94"/>
+      <c r="E141" s="168"/>
       <c r="F141" s="68"/>
-      <c r="G141" s="206"/>
-      <c r="H141" s="206"/>
-      <c r="I141" s="95">
-        <v>0</v>
-      </c>
-      <c r="J141" s="95"/>
-      <c r="K141" s="95"/>
-      <c r="L141" s="95">
-        <v>0</v>
-      </c>
-      <c r="M141" s="215">
+      <c r="G141" s="176"/>
+      <c r="H141" s="176"/>
+      <c r="I141" s="94">
+        <v>0</v>
+      </c>
+      <c r="J141" s="94"/>
+      <c r="K141" s="94"/>
+      <c r="L141" s="94">
+        <v>0</v>
+      </c>
+      <c r="M141" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N141" s="216"/>
+      <c r="N141" s="244"/>
     </row>
     <row r="142" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="166"/>
-      <c r="D142" s="95"/>
-      <c r="E142" s="179"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="94"/>
+      <c r="E142" s="168"/>
       <c r="F142" s="68"/>
-      <c r="G142" s="206"/>
-      <c r="H142" s="206"/>
-      <c r="I142" s="95">
-        <v>0</v>
-      </c>
-      <c r="J142" s="95"/>
-      <c r="K142" s="95"/>
-      <c r="L142" s="95">
-        <v>0</v>
-      </c>
-      <c r="M142" s="215">
+      <c r="G142" s="176"/>
+      <c r="H142" s="176"/>
+      <c r="I142" s="94">
+        <v>0</v>
+      </c>
+      <c r="J142" s="94"/>
+      <c r="K142" s="94"/>
+      <c r="L142" s="94">
+        <v>0</v>
+      </c>
+      <c r="M142" s="243">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N142" s="216"/>
+      <c r="N142" s="244"/>
     </row>
     <row r="143" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="166"/>
-      <c r="D143" s="95"/>
-      <c r="E143" s="95"/>
+      <c r="C143" s="155"/>
+      <c r="D143" s="94"/>
+      <c r="E143" s="94"/>
       <c r="F143" s="68"/>
-      <c r="G143" s="206"/>
-      <c r="H143" s="206"/>
-      <c r="I143" s="95">
-        <v>0</v>
-      </c>
-      <c r="J143" s="95"/>
-      <c r="K143" s="95"/>
-      <c r="L143" s="95">
-        <v>0</v>
-      </c>
-      <c r="M143" s="215">
+      <c r="G143" s="176"/>
+      <c r="H143" s="176"/>
+      <c r="I143" s="94">
+        <v>0</v>
+      </c>
+      <c r="J143" s="94"/>
+      <c r="K143" s="94"/>
+      <c r="L143" s="94">
+        <v>0</v>
+      </c>
+      <c r="M143" s="243">
         <f>I143*L143</f>
         <v>0</v>
       </c>
-      <c r="N143" s="216"/>
+      <c r="N143" s="244"/>
       <c r="AC143" s="77"/>
     </row>
     <row r="144" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="166"/>
-      <c r="D144" s="95"/>
-      <c r="E144" s="95"/>
+      <c r="C144" s="155"/>
+      <c r="D144" s="94"/>
+      <c r="E144" s="94"/>
       <c r="F144" s="68"/>
-      <c r="G144" s="206"/>
-      <c r="H144" s="206"/>
-      <c r="I144" s="95">
-        <v>0</v>
-      </c>
-      <c r="J144" s="95"/>
-      <c r="K144" s="95"/>
-      <c r="L144" s="95">
-        <v>0</v>
-      </c>
-      <c r="M144" s="215">
+      <c r="G144" s="176"/>
+      <c r="H144" s="176"/>
+      <c r="I144" s="94">
+        <v>0</v>
+      </c>
+      <c r="J144" s="94"/>
+      <c r="K144" s="94"/>
+      <c r="L144" s="94">
+        <v>0</v>
+      </c>
+      <c r="M144" s="243">
         <f t="shared" ref="M144:M165" si="11">I144*L144</f>
         <v>0</v>
       </c>
-      <c r="N144" s="216"/>
+      <c r="N144" s="244"/>
       <c r="AC144" s="77"/>
     </row>
     <row r="145" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="166"/>
-      <c r="D145" s="95"/>
-      <c r="E145" s="95"/>
+      <c r="C145" s="155"/>
+      <c r="D145" s="94"/>
+      <c r="E145" s="94"/>
       <c r="F145" s="68"/>
-      <c r="G145" s="206"/>
-      <c r="H145" s="206"/>
-      <c r="I145" s="95">
-        <v>0</v>
-      </c>
-      <c r="J145" s="95"/>
-      <c r="K145" s="95"/>
-      <c r="L145" s="95">
-        <v>0</v>
-      </c>
-      <c r="M145" s="215">
+      <c r="G145" s="176"/>
+      <c r="H145" s="176"/>
+      <c r="I145" s="94">
+        <v>0</v>
+      </c>
+      <c r="J145" s="94"/>
+      <c r="K145" s="94"/>
+      <c r="L145" s="94">
+        <v>0</v>
+      </c>
+      <c r="M145" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N145" s="216"/>
+      <c r="N145" s="244"/>
       <c r="AC145" s="77"/>
     </row>
     <row r="146" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="166"/>
-      <c r="D146" s="95"/>
-      <c r="E146" s="95"/>
+      <c r="C146" s="155"/>
+      <c r="D146" s="94"/>
+      <c r="E146" s="94"/>
       <c r="F146" s="68"/>
-      <c r="G146" s="206"/>
-      <c r="H146" s="206"/>
-      <c r="I146" s="95">
-        <v>0</v>
-      </c>
-      <c r="J146" s="95"/>
-      <c r="K146" s="95"/>
-      <c r="L146" s="95">
-        <v>0</v>
-      </c>
-      <c r="M146" s="215">
+      <c r="G146" s="176"/>
+      <c r="H146" s="176"/>
+      <c r="I146" s="94">
+        <v>0</v>
+      </c>
+      <c r="J146" s="94"/>
+      <c r="K146" s="94"/>
+      <c r="L146" s="94">
+        <v>0</v>
+      </c>
+      <c r="M146" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N146" s="216"/>
+      <c r="N146" s="244"/>
       <c r="AC146" s="77"/>
     </row>
     <row r="147" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="166"/>
-      <c r="D147" s="95"/>
-      <c r="E147" s="95"/>
+      <c r="C147" s="155"/>
+      <c r="D147" s="94"/>
+      <c r="E147" s="94"/>
       <c r="F147" s="68"/>
-      <c r="G147" s="206"/>
-      <c r="H147" s="206"/>
-      <c r="I147" s="95">
-        <v>0</v>
-      </c>
-      <c r="J147" s="95"/>
-      <c r="K147" s="95"/>
-      <c r="L147" s="95">
-        <v>0</v>
-      </c>
-      <c r="M147" s="215">
+      <c r="G147" s="176"/>
+      <c r="H147" s="176"/>
+      <c r="I147" s="94">
+        <v>0</v>
+      </c>
+      <c r="J147" s="94"/>
+      <c r="K147" s="94"/>
+      <c r="L147" s="94">
+        <v>0</v>
+      </c>
+      <c r="M147" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N147" s="216"/>
+      <c r="N147" s="244"/>
       <c r="AC147" s="77"/>
     </row>
     <row r="148" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="166"/>
-      <c r="D148" s="95"/>
-      <c r="E148" s="95"/>
+      <c r="C148" s="155"/>
+      <c r="D148" s="94"/>
+      <c r="E148" s="94"/>
       <c r="F148" s="68"/>
-      <c r="G148" s="206"/>
-      <c r="H148" s="206"/>
-      <c r="I148" s="95">
-        <v>0</v>
-      </c>
-      <c r="J148" s="95"/>
-      <c r="K148" s="95"/>
-      <c r="L148" s="95">
-        <v>0</v>
-      </c>
-      <c r="M148" s="215">
+      <c r="G148" s="176"/>
+      <c r="H148" s="176"/>
+      <c r="I148" s="94">
+        <v>0</v>
+      </c>
+      <c r="J148" s="94"/>
+      <c r="K148" s="94"/>
+      <c r="L148" s="94">
+        <v>0</v>
+      </c>
+      <c r="M148" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N148" s="216"/>
+      <c r="N148" s="244"/>
       <c r="AC148" s="77"/>
     </row>
     <row r="149" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="166"/>
-      <c r="D149" s="95"/>
-      <c r="E149" s="95"/>
+      <c r="C149" s="155"/>
+      <c r="D149" s="94"/>
+      <c r="E149" s="94"/>
       <c r="F149" s="68"/>
-      <c r="G149" s="206"/>
-      <c r="H149" s="206"/>
-      <c r="I149" s="95">
-        <v>0</v>
-      </c>
-      <c r="J149" s="95"/>
-      <c r="K149" s="95"/>
-      <c r="L149" s="95">
-        <v>0</v>
-      </c>
-      <c r="M149" s="215">
+      <c r="G149" s="176"/>
+      <c r="H149" s="176"/>
+      <c r="I149" s="94">
+        <v>0</v>
+      </c>
+      <c r="J149" s="94"/>
+      <c r="K149" s="94"/>
+      <c r="L149" s="94">
+        <v>0</v>
+      </c>
+      <c r="M149" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N149" s="216"/>
+      <c r="N149" s="244"/>
       <c r="AC149" s="77"/>
     </row>
     <row r="150" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="166"/>
-      <c r="D150" s="95"/>
-      <c r="E150" s="95"/>
+      <c r="C150" s="155"/>
+      <c r="D150" s="94"/>
+      <c r="E150" s="94"/>
       <c r="F150" s="68"/>
-      <c r="G150" s="206"/>
-      <c r="H150" s="206"/>
-      <c r="I150" s="95">
-        <v>0</v>
-      </c>
-      <c r="J150" s="95"/>
-      <c r="K150" s="95"/>
-      <c r="L150" s="95">
-        <v>0</v>
-      </c>
-      <c r="M150" s="215">
+      <c r="G150" s="176"/>
+      <c r="H150" s="176"/>
+      <c r="I150" s="94">
+        <v>0</v>
+      </c>
+      <c r="J150" s="94"/>
+      <c r="K150" s="94"/>
+      <c r="L150" s="94">
+        <v>0</v>
+      </c>
+      <c r="M150" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N150" s="216"/>
+      <c r="N150" s="244"/>
       <c r="AC150" s="77"/>
     </row>
     <row r="151" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="166"/>
-      <c r="D151" s="95"/>
-      <c r="E151" s="95"/>
+      <c r="C151" s="155"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="94"/>
       <c r="F151" s="68"/>
-      <c r="G151" s="206"/>
-      <c r="H151" s="206"/>
-      <c r="I151" s="95">
-        <v>0</v>
-      </c>
-      <c r="J151" s="95"/>
-      <c r="K151" s="95"/>
-      <c r="L151" s="95">
-        <v>0</v>
-      </c>
-      <c r="M151" s="215">
+      <c r="G151" s="176"/>
+      <c r="H151" s="176"/>
+      <c r="I151" s="94">
+        <v>0</v>
+      </c>
+      <c r="J151" s="94"/>
+      <c r="K151" s="94"/>
+      <c r="L151" s="94">
+        <v>0</v>
+      </c>
+      <c r="M151" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N151" s="216"/>
+      <c r="N151" s="244"/>
       <c r="AC151" s="77"/>
     </row>
     <row r="152" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="166"/>
-      <c r="D152" s="95"/>
-      <c r="E152" s="95"/>
+      <c r="C152" s="155"/>
+      <c r="D152" s="94"/>
+      <c r="E152" s="94"/>
       <c r="F152" s="68"/>
-      <c r="G152" s="206"/>
-      <c r="H152" s="206"/>
-      <c r="I152" s="95">
-        <v>0</v>
-      </c>
-      <c r="J152" s="95"/>
-      <c r="K152" s="95"/>
-      <c r="L152" s="95">
-        <v>0</v>
-      </c>
-      <c r="M152" s="215">
+      <c r="G152" s="176"/>
+      <c r="H152" s="176"/>
+      <c r="I152" s="94">
+        <v>0</v>
+      </c>
+      <c r="J152" s="94"/>
+      <c r="K152" s="94"/>
+      <c r="L152" s="94">
+        <v>0</v>
+      </c>
+      <c r="M152" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N152" s="216"/>
+      <c r="N152" s="244"/>
       <c r="AC152" s="77"/>
     </row>
     <row r="153" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="166"/>
-      <c r="D153" s="95"/>
-      <c r="E153" s="95"/>
+      <c r="C153" s="155"/>
+      <c r="D153" s="94"/>
+      <c r="E153" s="94"/>
       <c r="F153" s="68"/>
-      <c r="G153" s="206"/>
-      <c r="H153" s="206"/>
-      <c r="I153" s="95">
-        <v>0</v>
-      </c>
-      <c r="J153" s="95"/>
-      <c r="K153" s="95"/>
-      <c r="L153" s="95">
-        <v>0</v>
-      </c>
-      <c r="M153" s="215">
+      <c r="G153" s="176"/>
+      <c r="H153" s="176"/>
+      <c r="I153" s="94">
+        <v>0</v>
+      </c>
+      <c r="J153" s="94"/>
+      <c r="K153" s="94"/>
+      <c r="L153" s="94">
+        <v>0</v>
+      </c>
+      <c r="M153" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N153" s="216"/>
+      <c r="N153" s="244"/>
       <c r="AC153" s="77"/>
     </row>
     <row r="154" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="166"/>
-      <c r="D154" s="95"/>
-      <c r="E154" s="95"/>
+      <c r="C154" s="155"/>
+      <c r="D154" s="94"/>
+      <c r="E154" s="94"/>
       <c r="F154" s="68"/>
-      <c r="G154" s="206"/>
-      <c r="H154" s="206"/>
-      <c r="I154" s="95">
-        <v>0</v>
-      </c>
-      <c r="J154" s="95"/>
-      <c r="K154" s="95"/>
-      <c r="L154" s="95">
-        <v>0</v>
-      </c>
-      <c r="M154" s="215">
+      <c r="G154" s="176"/>
+      <c r="H154" s="176"/>
+      <c r="I154" s="94">
+        <v>0</v>
+      </c>
+      <c r="J154" s="94"/>
+      <c r="K154" s="94"/>
+      <c r="L154" s="94">
+        <v>0</v>
+      </c>
+      <c r="M154" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N154" s="216"/>
+      <c r="N154" s="244"/>
       <c r="AC154" s="77"/>
     </row>
     <row r="155" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="166"/>
-      <c r="D155" s="95"/>
-      <c r="E155" s="95"/>
+      <c r="C155" s="155"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="94"/>
       <c r="F155" s="68"/>
-      <c r="G155" s="206"/>
-      <c r="H155" s="206"/>
-      <c r="I155" s="95">
-        <v>0</v>
-      </c>
-      <c r="J155" s="95"/>
-      <c r="K155" s="95"/>
-      <c r="L155" s="95">
-        <v>0</v>
-      </c>
-      <c r="M155" s="215">
+      <c r="G155" s="176"/>
+      <c r="H155" s="176"/>
+      <c r="I155" s="94">
+        <v>0</v>
+      </c>
+      <c r="J155" s="94"/>
+      <c r="K155" s="94"/>
+      <c r="L155" s="94">
+        <v>0</v>
+      </c>
+      <c r="M155" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N155" s="216"/>
+      <c r="N155" s="244"/>
       <c r="AC155" s="77"/>
     </row>
     <row r="156" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="166"/>
-      <c r="D156" s="95"/>
-      <c r="E156" s="95"/>
+      <c r="C156" s="155"/>
+      <c r="D156" s="94"/>
+      <c r="E156" s="94"/>
       <c r="F156" s="68"/>
-      <c r="G156" s="206"/>
-      <c r="H156" s="206"/>
-      <c r="I156" s="95">
-        <v>0</v>
-      </c>
-      <c r="J156" s="95"/>
-      <c r="K156" s="95"/>
-      <c r="L156" s="95">
-        <v>0</v>
-      </c>
-      <c r="M156" s="215">
+      <c r="G156" s="176"/>
+      <c r="H156" s="176"/>
+      <c r="I156" s="94">
+        <v>0</v>
+      </c>
+      <c r="J156" s="94"/>
+      <c r="K156" s="94"/>
+      <c r="L156" s="94">
+        <v>0</v>
+      </c>
+      <c r="M156" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N156" s="216"/>
+      <c r="N156" s="244"/>
       <c r="AC156" s="77"/>
     </row>
     <row r="157" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C157" s="166"/>
-      <c r="D157" s="95"/>
-      <c r="E157" s="95"/>
+      <c r="C157" s="155"/>
+      <c r="D157" s="94"/>
+      <c r="E157" s="94"/>
       <c r="F157" s="68"/>
-      <c r="G157" s="206"/>
-      <c r="H157" s="206"/>
-      <c r="I157" s="95">
-        <v>0</v>
-      </c>
-      <c r="J157" s="95"/>
-      <c r="K157" s="95"/>
-      <c r="L157" s="95">
-        <v>0</v>
-      </c>
-      <c r="M157" s="215">
+      <c r="G157" s="176"/>
+      <c r="H157" s="176"/>
+      <c r="I157" s="94">
+        <v>0</v>
+      </c>
+      <c r="J157" s="94"/>
+      <c r="K157" s="94"/>
+      <c r="L157" s="94">
+        <v>0</v>
+      </c>
+      <c r="M157" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N157" s="216"/>
+      <c r="N157" s="244"/>
       <c r="AC157" s="77"/>
     </row>
     <row r="158" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C158" s="166"/>
-      <c r="D158" s="95"/>
-      <c r="E158" s="95"/>
+      <c r="C158" s="155"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="94"/>
       <c r="F158" s="68"/>
-      <c r="G158" s="206"/>
-      <c r="H158" s="206"/>
-      <c r="I158" s="95">
-        <v>0</v>
-      </c>
-      <c r="J158" s="95"/>
-      <c r="K158" s="95"/>
-      <c r="L158" s="95">
-        <v>0</v>
-      </c>
-      <c r="M158" s="215">
+      <c r="G158" s="176"/>
+      <c r="H158" s="176"/>
+      <c r="I158" s="94">
+        <v>0</v>
+      </c>
+      <c r="J158" s="94"/>
+      <c r="K158" s="94"/>
+      <c r="L158" s="94">
+        <v>0</v>
+      </c>
+      <c r="M158" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N158" s="216"/>
+      <c r="N158" s="244"/>
       <c r="AC158" s="77"/>
     </row>
     <row r="159" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="166"/>
-      <c r="D159" s="95"/>
-      <c r="E159" s="95"/>
+      <c r="C159" s="155"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="94"/>
       <c r="F159" s="68"/>
-      <c r="G159" s="206"/>
-      <c r="H159" s="206"/>
-      <c r="I159" s="95">
-        <v>0</v>
-      </c>
-      <c r="J159" s="95"/>
-      <c r="K159" s="95"/>
-      <c r="L159" s="95">
-        <v>0</v>
-      </c>
-      <c r="M159" s="215">
+      <c r="G159" s="176"/>
+      <c r="H159" s="176"/>
+      <c r="I159" s="94">
+        <v>0</v>
+      </c>
+      <c r="J159" s="94"/>
+      <c r="K159" s="94"/>
+      <c r="L159" s="94">
+        <v>0</v>
+      </c>
+      <c r="M159" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N159" s="216"/>
+      <c r="N159" s="244"/>
       <c r="AC159" s="77"/>
     </row>
     <row r="160" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C160" s="166"/>
-      <c r="D160" s="95"/>
-      <c r="E160" s="95"/>
+      <c r="C160" s="155"/>
+      <c r="D160" s="94"/>
+      <c r="E160" s="94"/>
       <c r="F160" s="68"/>
-      <c r="G160" s="206"/>
-      <c r="H160" s="206"/>
-      <c r="I160" s="95">
-        <v>0</v>
-      </c>
-      <c r="J160" s="95"/>
-      <c r="K160" s="95"/>
-      <c r="L160" s="95">
-        <v>0</v>
-      </c>
-      <c r="M160" s="215">
+      <c r="G160" s="176"/>
+      <c r="H160" s="176"/>
+      <c r="I160" s="94">
+        <v>0</v>
+      </c>
+      <c r="J160" s="94"/>
+      <c r="K160" s="94"/>
+      <c r="L160" s="94">
+        <v>0</v>
+      </c>
+      <c r="M160" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N160" s="216"/>
+      <c r="N160" s="244"/>
       <c r="AC160" s="77"/>
     </row>
     <row r="161" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C161" s="166"/>
-      <c r="D161" s="95"/>
-      <c r="E161" s="95"/>
+      <c r="C161" s="155"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="94"/>
       <c r="F161" s="68"/>
-      <c r="G161" s="206"/>
-      <c r="H161" s="206"/>
-      <c r="I161" s="95">
-        <v>0</v>
-      </c>
-      <c r="J161" s="95"/>
-      <c r="K161" s="95"/>
-      <c r="L161" s="95">
-        <v>0</v>
-      </c>
-      <c r="M161" s="215">
+      <c r="G161" s="176"/>
+      <c r="H161" s="176"/>
+      <c r="I161" s="94">
+        <v>0</v>
+      </c>
+      <c r="J161" s="94"/>
+      <c r="K161" s="94"/>
+      <c r="L161" s="94">
+        <v>0</v>
+      </c>
+      <c r="M161" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N161" s="216"/>
+      <c r="N161" s="244"/>
       <c r="AC161" s="77"/>
     </row>
     <row r="162" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="166"/>
-      <c r="D162" s="95"/>
-      <c r="E162" s="95"/>
+      <c r="C162" s="155"/>
+      <c r="D162" s="94"/>
+      <c r="E162" s="94"/>
       <c r="F162" s="68"/>
-      <c r="G162" s="206"/>
-      <c r="H162" s="206"/>
-      <c r="I162" s="95">
-        <v>0</v>
-      </c>
-      <c r="J162" s="95"/>
-      <c r="K162" s="95"/>
-      <c r="L162" s="95">
-        <v>0</v>
-      </c>
-      <c r="M162" s="215">
+      <c r="G162" s="176"/>
+      <c r="H162" s="176"/>
+      <c r="I162" s="94">
+        <v>0</v>
+      </c>
+      <c r="J162" s="94"/>
+      <c r="K162" s="94"/>
+      <c r="L162" s="94">
+        <v>0</v>
+      </c>
+      <c r="M162" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N162" s="216"/>
+      <c r="N162" s="244"/>
       <c r="AC162" s="77"/>
     </row>
     <row r="163" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C163" s="166"/>
-      <c r="D163" s="95"/>
-      <c r="E163" s="95"/>
+      <c r="C163" s="155"/>
+      <c r="D163" s="94"/>
+      <c r="E163" s="94"/>
       <c r="F163" s="68"/>
-      <c r="G163" s="206"/>
-      <c r="H163" s="206"/>
-      <c r="I163" s="95">
-        <v>0</v>
-      </c>
-      <c r="J163" s="95"/>
-      <c r="K163" s="95"/>
-      <c r="L163" s="95">
-        <v>0</v>
-      </c>
-      <c r="M163" s="215">
+      <c r="G163" s="176"/>
+      <c r="H163" s="176"/>
+      <c r="I163" s="94">
+        <v>0</v>
+      </c>
+      <c r="J163" s="94"/>
+      <c r="K163" s="94"/>
+      <c r="L163" s="94">
+        <v>0</v>
+      </c>
+      <c r="M163" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N163" s="216"/>
+      <c r="N163" s="244"/>
       <c r="AC163" s="77"/>
     </row>
     <row r="164" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="166"/>
-      <c r="D164" s="95"/>
-      <c r="E164" s="95"/>
+      <c r="C164" s="155"/>
+      <c r="D164" s="94"/>
+      <c r="E164" s="94"/>
       <c r="F164" s="68"/>
-      <c r="G164" s="206"/>
-      <c r="H164" s="206"/>
-      <c r="I164" s="95">
-        <v>0</v>
-      </c>
-      <c r="J164" s="95"/>
-      <c r="K164" s="95"/>
-      <c r="L164" s="95">
-        <v>0</v>
-      </c>
-      <c r="M164" s="215">
+      <c r="G164" s="176"/>
+      <c r="H164" s="176"/>
+      <c r="I164" s="94">
+        <v>0</v>
+      </c>
+      <c r="J164" s="94"/>
+      <c r="K164" s="94"/>
+      <c r="L164" s="94">
+        <v>0</v>
+      </c>
+      <c r="M164" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N164" s="216"/>
+      <c r="N164" s="244"/>
       <c r="AC164" s="77"/>
     </row>
     <row r="165" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="166"/>
-      <c r="D165" s="95"/>
-      <c r="E165" s="95"/>
+      <c r="C165" s="155"/>
+      <c r="D165" s="94"/>
+      <c r="E165" s="94"/>
       <c r="F165" s="68"/>
-      <c r="G165" s="206"/>
-      <c r="H165" s="206"/>
-      <c r="I165" s="95">
-        <v>0</v>
-      </c>
-      <c r="J165" s="95"/>
-      <c r="K165" s="95"/>
-      <c r="L165" s="95">
-        <v>0</v>
-      </c>
-      <c r="M165" s="215">
+      <c r="G165" s="176"/>
+      <c r="H165" s="176"/>
+      <c r="I165" s="94">
+        <v>0</v>
+      </c>
+      <c r="J165" s="94"/>
+      <c r="K165" s="94"/>
+      <c r="L165" s="94">
+        <v>0</v>
+      </c>
+      <c r="M165" s="243">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N165" s="216"/>
+      <c r="N165" s="244"/>
       <c r="AC165" s="77"/>
     </row>
     <row r="166" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C166" s="166"/>
-      <c r="D166" s="95"/>
-      <c r="E166" s="95"/>
+      <c r="C166" s="155"/>
+      <c r="D166" s="94"/>
+      <c r="E166" s="94"/>
       <c r="F166" s="68"/>
-      <c r="G166" s="206"/>
-      <c r="H166" s="206"/>
-      <c r="I166" s="95">
-        <v>0</v>
-      </c>
-      <c r="J166" s="95"/>
-      <c r="K166" s="95"/>
-      <c r="L166" s="95">
-        <v>0</v>
-      </c>
-      <c r="M166" s="215">
+      <c r="G166" s="176"/>
+      <c r="H166" s="176"/>
+      <c r="I166" s="94">
+        <v>0</v>
+      </c>
+      <c r="J166" s="94"/>
+      <c r="K166" s="94"/>
+      <c r="L166" s="94">
+        <v>0</v>
+      </c>
+      <c r="M166" s="243">
         <f t="shared" ref="M166:M176" si="12">I166*L166</f>
         <v>0</v>
       </c>
-      <c r="N166" s="216"/>
+      <c r="N166" s="244"/>
       <c r="AC166" s="77"/>
     </row>
     <row r="167" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="166"/>
-      <c r="D167" s="95"/>
-      <c r="E167" s="95"/>
+      <c r="C167" s="155"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="94"/>
       <c r="F167" s="68"/>
-      <c r="G167" s="206"/>
-      <c r="H167" s="206"/>
-      <c r="I167" s="95">
-        <v>0</v>
-      </c>
-      <c r="J167" s="95"/>
-      <c r="K167" s="95"/>
-      <c r="L167" s="95">
-        <v>0</v>
-      </c>
-      <c r="M167" s="215">
+      <c r="G167" s="176"/>
+      <c r="H167" s="176"/>
+      <c r="I167" s="94">
+        <v>0</v>
+      </c>
+      <c r="J167" s="94"/>
+      <c r="K167" s="94"/>
+      <c r="L167" s="94">
+        <v>0</v>
+      </c>
+      <c r="M167" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N167" s="216"/>
+      <c r="N167" s="244"/>
       <c r="AC167" s="77"/>
     </row>
     <row r="168" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C168" s="166"/>
-      <c r="D168" s="95"/>
-      <c r="E168" s="95"/>
+      <c r="C168" s="155"/>
+      <c r="D168" s="94"/>
+      <c r="E168" s="94"/>
       <c r="F168" s="68"/>
-      <c r="G168" s="206"/>
-      <c r="H168" s="206"/>
-      <c r="I168" s="95">
-        <v>0</v>
-      </c>
-      <c r="J168" s="95"/>
-      <c r="K168" s="95"/>
-      <c r="L168" s="95">
-        <v>0</v>
-      </c>
-      <c r="M168" s="215">
+      <c r="G168" s="176"/>
+      <c r="H168" s="176"/>
+      <c r="I168" s="94">
+        <v>0</v>
+      </c>
+      <c r="J168" s="94"/>
+      <c r="K168" s="94"/>
+      <c r="L168" s="94">
+        <v>0</v>
+      </c>
+      <c r="M168" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N168" s="216"/>
+      <c r="N168" s="244"/>
       <c r="AC168" s="77"/>
     </row>
     <row r="169" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="166"/>
-      <c r="D169" s="95"/>
-      <c r="E169" s="95"/>
+      <c r="C169" s="155"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="94"/>
       <c r="F169" s="68"/>
-      <c r="G169" s="206"/>
-      <c r="H169" s="206"/>
-      <c r="I169" s="95">
-        <v>0</v>
-      </c>
-      <c r="J169" s="95"/>
-      <c r="K169" s="95"/>
-      <c r="L169" s="95">
-        <v>0</v>
-      </c>
-      <c r="M169" s="215">
+      <c r="G169" s="176"/>
+      <c r="H169" s="176"/>
+      <c r="I169" s="94">
+        <v>0</v>
+      </c>
+      <c r="J169" s="94"/>
+      <c r="K169" s="94"/>
+      <c r="L169" s="94">
+        <v>0</v>
+      </c>
+      <c r="M169" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N169" s="216"/>
+      <c r="N169" s="244"/>
       <c r="AC169" s="77"/>
     </row>
     <row r="170" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="166"/>
-      <c r="D170" s="95"/>
-      <c r="E170" s="95"/>
+      <c r="C170" s="155"/>
+      <c r="D170" s="94"/>
+      <c r="E170" s="94"/>
       <c r="F170" s="68"/>
-      <c r="G170" s="206"/>
-      <c r="H170" s="206"/>
-      <c r="I170" s="95">
-        <v>0</v>
-      </c>
-      <c r="J170" s="95"/>
-      <c r="K170" s="95"/>
-      <c r="L170" s="95">
-        <v>0</v>
-      </c>
-      <c r="M170" s="215">
+      <c r="G170" s="176"/>
+      <c r="H170" s="176"/>
+      <c r="I170" s="94">
+        <v>0</v>
+      </c>
+      <c r="J170" s="94"/>
+      <c r="K170" s="94"/>
+      <c r="L170" s="94">
+        <v>0</v>
+      </c>
+      <c r="M170" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N170" s="216"/>
+      <c r="N170" s="244"/>
       <c r="AC170" s="77"/>
     </row>
     <row r="171" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C171" s="166"/>
-      <c r="D171" s="95"/>
-      <c r="E171" s="95"/>
+      <c r="C171" s="155"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="94"/>
       <c r="F171" s="68"/>
-      <c r="G171" s="206"/>
-      <c r="H171" s="206"/>
-      <c r="I171" s="95">
-        <v>0</v>
-      </c>
-      <c r="J171" s="95"/>
-      <c r="K171" s="95"/>
-      <c r="L171" s="95">
-        <v>0</v>
-      </c>
-      <c r="M171" s="215">
+      <c r="G171" s="176"/>
+      <c r="H171" s="176"/>
+      <c r="I171" s="94">
+        <v>0</v>
+      </c>
+      <c r="J171" s="94"/>
+      <c r="K171" s="94"/>
+      <c r="L171" s="94">
+        <v>0</v>
+      </c>
+      <c r="M171" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N171" s="216"/>
+      <c r="N171" s="244"/>
       <c r="AC171" s="77"/>
     </row>
     <row r="172" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="166"/>
-      <c r="D172" s="95"/>
-      <c r="E172" s="95"/>
+      <c r="C172" s="155"/>
+      <c r="D172" s="94"/>
+      <c r="E172" s="94"/>
       <c r="F172" s="68"/>
-      <c r="G172" s="206"/>
-      <c r="H172" s="206"/>
-      <c r="I172" s="95">
-        <v>0</v>
-      </c>
-      <c r="J172" s="95"/>
-      <c r="K172" s="95"/>
-      <c r="L172" s="95">
-        <v>0</v>
-      </c>
-      <c r="M172" s="215">
+      <c r="G172" s="176"/>
+      <c r="H172" s="176"/>
+      <c r="I172" s="94">
+        <v>0</v>
+      </c>
+      <c r="J172" s="94"/>
+      <c r="K172" s="94"/>
+      <c r="L172" s="94">
+        <v>0</v>
+      </c>
+      <c r="M172" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N172" s="216"/>
+      <c r="N172" s="244"/>
       <c r="AC172" s="77"/>
     </row>
     <row r="173" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="166"/>
-      <c r="D173" s="95"/>
-      <c r="E173" s="95"/>
+      <c r="C173" s="155"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="94"/>
       <c r="F173" s="68"/>
-      <c r="G173" s="206"/>
-      <c r="H173" s="206"/>
-      <c r="I173" s="95">
-        <v>0</v>
-      </c>
-      <c r="J173" s="95"/>
-      <c r="K173" s="95"/>
-      <c r="L173" s="95">
-        <v>0</v>
-      </c>
-      <c r="M173" s="215">
+      <c r="G173" s="176"/>
+      <c r="H173" s="176"/>
+      <c r="I173" s="94">
+        <v>0</v>
+      </c>
+      <c r="J173" s="94"/>
+      <c r="K173" s="94"/>
+      <c r="L173" s="94">
+        <v>0</v>
+      </c>
+      <c r="M173" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N173" s="216"/>
+      <c r="N173" s="244"/>
       <c r="AC173" s="77"/>
     </row>
     <row r="174" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="166"/>
-      <c r="D174" s="95"/>
-      <c r="E174" s="95"/>
+      <c r="C174" s="155"/>
+      <c r="D174" s="94"/>
+      <c r="E174" s="94"/>
       <c r="F174" s="68"/>
-      <c r="G174" s="206"/>
-      <c r="H174" s="206"/>
-      <c r="I174" s="95">
-        <v>0</v>
-      </c>
-      <c r="J174" s="95"/>
-      <c r="K174" s="95"/>
-      <c r="L174" s="95">
-        <v>0</v>
-      </c>
-      <c r="M174" s="215">
+      <c r="G174" s="176"/>
+      <c r="H174" s="176"/>
+      <c r="I174" s="94">
+        <v>0</v>
+      </c>
+      <c r="J174" s="94"/>
+      <c r="K174" s="94"/>
+      <c r="L174" s="94">
+        <v>0</v>
+      </c>
+      <c r="M174" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N174" s="216"/>
+      <c r="N174" s="244"/>
       <c r="AC174" s="77"/>
     </row>
     <row r="175" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C175" s="166"/>
-      <c r="D175" s="95"/>
-      <c r="E175" s="95"/>
+      <c r="C175" s="155"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="94"/>
       <c r="F175" s="68"/>
-      <c r="G175" s="206"/>
-      <c r="H175" s="206"/>
-      <c r="I175" s="95">
-        <v>0</v>
-      </c>
-      <c r="J175" s="95"/>
-      <c r="K175" s="95"/>
-      <c r="L175" s="95">
-        <v>0</v>
-      </c>
-      <c r="M175" s="215">
+      <c r="G175" s="176"/>
+      <c r="H175" s="176"/>
+      <c r="I175" s="94">
+        <v>0</v>
+      </c>
+      <c r="J175" s="94"/>
+      <c r="K175" s="94"/>
+      <c r="L175" s="94">
+        <v>0</v>
+      </c>
+      <c r="M175" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N175" s="216"/>
+      <c r="N175" s="244"/>
       <c r="AC175" s="77"/>
     </row>
     <row r="176" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="166"/>
-      <c r="D176" s="95"/>
-      <c r="E176" s="95"/>
+      <c r="C176" s="155"/>
+      <c r="D176" s="94"/>
+      <c r="E176" s="94"/>
       <c r="F176" s="68"/>
-      <c r="G176" s="206"/>
-      <c r="H176" s="206"/>
-      <c r="I176" s="95">
-        <v>0</v>
-      </c>
-      <c r="J176" s="95"/>
-      <c r="K176" s="95"/>
-      <c r="L176" s="95">
-        <v>0</v>
-      </c>
-      <c r="M176" s="215">
+      <c r="G176" s="176"/>
+      <c r="H176" s="176"/>
+      <c r="I176" s="94">
+        <v>0</v>
+      </c>
+      <c r="J176" s="94"/>
+      <c r="K176" s="94"/>
+      <c r="L176" s="94">
+        <v>0</v>
+      </c>
+      <c r="M176" s="243">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N176" s="216"/>
+      <c r="N176" s="244"/>
       <c r="AC176" s="77"/>
     </row>
     <row r="177" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="D177" s="181"/>
-      <c r="E177" s="181"/>
-      <c r="F177" s="184"/>
-      <c r="G177" s="184"/>
-      <c r="H177" s="184"/>
-      <c r="I177" s="185"/>
-      <c r="J177" s="185"/>
-      <c r="K177" s="182"/>
-      <c r="L177" s="182"/>
-      <c r="M177" s="217">
+      <c r="C177" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="D177" s="170"/>
+      <c r="E177" s="170"/>
+      <c r="F177" s="173"/>
+      <c r="G177" s="173"/>
+      <c r="H177" s="173"/>
+      <c r="I177" s="174"/>
+      <c r="J177" s="174"/>
+      <c r="K177" s="171"/>
+      <c r="L177" s="171"/>
+      <c r="M177" s="267">
         <f>SUM(M126:N176)</f>
         <v>0</v>
       </c>
-      <c r="N177" s="218"/>
+      <c r="N177" s="268"/>
       <c r="AC177" s="77"/>
     </row>
     <row r="178" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18965,11 +18934,11 @@
       <c r="F178" s="68"/>
       <c r="G178" s="68"/>
       <c r="H178" s="68"/>
-      <c r="I178" s="119"/>
-      <c r="J178" s="119"/>
-      <c r="K178" s="119"/>
-      <c r="L178" s="119"/>
-      <c r="M178" s="119"/>
+      <c r="I178" s="112"/>
+      <c r="J178" s="112"/>
+      <c r="K178" s="112"/>
+      <c r="L178" s="112"/>
+      <c r="M178" s="112"/>
       <c r="N178" s="30"/>
       <c r="AC178" s="77"/>
     </row>
@@ -18978,59 +18947,59 @@
         <v>0</v>
       </c>
       <c r="C179" s="42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F179" s="68"/>
       <c r="G179" s="68"/>
       <c r="H179" s="68"/>
-      <c r="I179" s="119"/>
-      <c r="J179" s="119"/>
-      <c r="K179" s="119"/>
-      <c r="L179" s="119"/>
-      <c r="M179" s="119"/>
+      <c r="I179" s="112"/>
+      <c r="J179" s="112"/>
+      <c r="K179" s="112"/>
+      <c r="L179" s="112"/>
+      <c r="M179" s="112"/>
       <c r="N179" s="30"/>
       <c r="AC179" s="77"/>
     </row>
     <row r="180" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="224" t="s">
+      <c r="C180" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="D180" s="224"/>
-      <c r="E180" s="224"/>
-      <c r="F180" s="224"/>
-      <c r="G180" s="224"/>
-      <c r="H180" s="92"/>
-      <c r="I180" s="92" t="s">
+      <c r="D180" s="269"/>
+      <c r="E180" s="269"/>
+      <c r="F180" s="269"/>
+      <c r="G180" s="269"/>
+      <c r="H180" s="91"/>
+      <c r="I180" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="J180" s="92"/>
-      <c r="K180" s="92"/>
-      <c r="L180" s="92" t="s">
+      <c r="J180" s="91"/>
+      <c r="K180" s="91"/>
+      <c r="L180" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="M180" s="122"/>
-      <c r="N180" s="123" t="s">
+      <c r="M180" s="113"/>
+      <c r="N180" s="114" t="s">
         <v>46</v>
       </c>
       <c r="AC180" s="77"/>
     </row>
     <row r="181" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="225"/>
-      <c r="D181" s="225"/>
-      <c r="E181" s="225"/>
-      <c r="F181" s="225"/>
-      <c r="G181" s="225"/>
-      <c r="H181" s="93"/>
-      <c r="I181" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="J181" s="93"/>
-      <c r="K181" s="93"/>
-      <c r="L181" s="93" t="s">
+      <c r="C181" s="270"/>
+      <c r="D181" s="270"/>
+      <c r="E181" s="270"/>
+      <c r="F181" s="270"/>
+      <c r="G181" s="270"/>
+      <c r="H181" s="92"/>
+      <c r="I181" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="J181" s="92"/>
+      <c r="K181" s="92"/>
+      <c r="L181" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="M181" s="124"/>
-      <c r="N181" s="125" t="s">
+      <c r="M181" s="115"/>
+      <c r="N181" s="116" t="s">
         <v>57</v>
       </c>
       <c r="AC181" s="77"/>
@@ -19039,570 +19008,570 @@
       <c r="A182" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C182" s="129">
+      <c r="C182" s="118">
         <f t="shared" ref="C182:C200" si="13">D44</f>
         <v>0</v>
       </c>
-      <c r="D182" s="129"/>
-      <c r="E182" s="129"/>
-      <c r="F182" s="130"/>
-      <c r="G182" s="129"/>
-      <c r="H182" s="129"/>
-      <c r="I182" s="131">
+      <c r="D182" s="118"/>
+      <c r="E182" s="118"/>
+      <c r="F182" s="119"/>
+      <c r="G182" s="118"/>
+      <c r="H182" s="118"/>
+      <c r="I182" s="120">
         <f t="shared" ref="I182:I200" si="14">BS44</f>
         <v>0</v>
       </c>
-      <c r="J182" s="131"/>
-      <c r="K182" s="226">
+      <c r="J182" s="120"/>
+      <c r="K182" s="271">
         <v>8</v>
       </c>
-      <c r="L182" s="226"/>
-      <c r="M182" s="212">
+      <c r="L182" s="271"/>
+      <c r="M182" s="264">
         <f>IF(I182&gt;24,(I182-24)*K182,0)</f>
         <v>0</v>
       </c>
-      <c r="N182" s="212"/>
-      <c r="AM182" s="132"/>
-      <c r="AN182" s="132"/>
+      <c r="N182" s="264"/>
+      <c r="AM182" s="121"/>
+      <c r="AN182" s="121"/>
     </row>
     <row r="183" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C183" s="133">
+      <c r="C183" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D183" s="133"/>
-      <c r="E183" s="133"/>
-      <c r="F183" s="134"/>
-      <c r="G183" s="133"/>
-      <c r="H183" s="133"/>
-      <c r="I183" s="135">
+      <c r="D183" s="122"/>
+      <c r="E183" s="122"/>
+      <c r="F183" s="123"/>
+      <c r="G183" s="122"/>
+      <c r="H183" s="122"/>
+      <c r="I183" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J183" s="135"/>
-      <c r="K183" s="211">
-        <v>0</v>
-      </c>
-      <c r="L183" s="211"/>
-      <c r="M183" s="212">
+      <c r="J183" s="124"/>
+      <c r="K183" s="263">
+        <v>0</v>
+      </c>
+      <c r="L183" s="263"/>
+      <c r="M183" s="264">
         <f t="shared" ref="M183:M200" si="15">I183*K183</f>
         <v>0</v>
       </c>
-      <c r="N183" s="212"/>
+      <c r="N183" s="264"/>
       <c r="AC183" s="77"/>
-      <c r="AO183" s="132"/>
-      <c r="AP183" s="132"/>
+      <c r="AO183" s="121"/>
+      <c r="AP183" s="121"/>
     </row>
     <row r="184" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C184" s="133">
+      <c r="C184" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D184" s="133"/>
-      <c r="E184" s="133"/>
-      <c r="F184" s="134"/>
-      <c r="G184" s="133"/>
-      <c r="H184" s="133"/>
-      <c r="I184" s="135">
+      <c r="D184" s="122"/>
+      <c r="E184" s="122"/>
+      <c r="F184" s="123"/>
+      <c r="G184" s="122"/>
+      <c r="H184" s="122"/>
+      <c r="I184" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J184" s="135"/>
-      <c r="K184" s="211">
-        <v>0</v>
-      </c>
-      <c r="L184" s="211"/>
-      <c r="M184" s="212">
+      <c r="J184" s="124"/>
+      <c r="K184" s="263">
+        <v>0</v>
+      </c>
+      <c r="L184" s="263"/>
+      <c r="M184" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N184" s="212"/>
-      <c r="AC184" s="119"/>
+      <c r="N184" s="264"/>
+      <c r="AC184" s="112"/>
       <c r="AD184" s="77"/>
     </row>
     <row r="185" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="133">
+      <c r="C185" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D185" s="133"/>
-      <c r="E185" s="133"/>
-      <c r="F185" s="134"/>
-      <c r="G185" s="133"/>
-      <c r="H185" s="133"/>
-      <c r="I185" s="135">
+      <c r="D185" s="122"/>
+      <c r="E185" s="122"/>
+      <c r="F185" s="123"/>
+      <c r="G185" s="122"/>
+      <c r="H185" s="122"/>
+      <c r="I185" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J185" s="135"/>
-      <c r="K185" s="211">
-        <v>0</v>
-      </c>
-      <c r="L185" s="211"/>
-      <c r="M185" s="212">
+      <c r="J185" s="124"/>
+      <c r="K185" s="263">
+        <v>0</v>
+      </c>
+      <c r="L185" s="263"/>
+      <c r="M185" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N185" s="212"/>
+      <c r="N185" s="264"/>
       <c r="O185" s="30"/>
-      <c r="AC185" s="119"/>
+      <c r="AC185" s="112"/>
       <c r="AD185" s="77"/>
     </row>
     <row r="186" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="133">
+      <c r="C186" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D186" s="133"/>
-      <c r="E186" s="133"/>
-      <c r="F186" s="134"/>
-      <c r="G186" s="133"/>
-      <c r="H186" s="133"/>
-      <c r="I186" s="135">
+      <c r="D186" s="122"/>
+      <c r="E186" s="122"/>
+      <c r="F186" s="123"/>
+      <c r="G186" s="122"/>
+      <c r="H186" s="122"/>
+      <c r="I186" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J186" s="135"/>
-      <c r="K186" s="211">
+      <c r="J186" s="124"/>
+      <c r="K186" s="263">
         <v>8</v>
       </c>
-      <c r="L186" s="211"/>
-      <c r="M186" s="212">
+      <c r="L186" s="263"/>
+      <c r="M186" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N186" s="212"/>
+      <c r="N186" s="264"/>
       <c r="O186" s="77"/>
       <c r="AC186" s="77"/>
       <c r="AD186" s="77"/>
     </row>
     <row r="187" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C187" s="133">
+      <c r="C187" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D187" s="133"/>
-      <c r="E187" s="133"/>
-      <c r="F187" s="134"/>
-      <c r="G187" s="133"/>
-      <c r="H187" s="133"/>
-      <c r="I187" s="135">
+      <c r="D187" s="122"/>
+      <c r="E187" s="122"/>
+      <c r="F187" s="123"/>
+      <c r="G187" s="122"/>
+      <c r="H187" s="122"/>
+      <c r="I187" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J187" s="135"/>
-      <c r="K187" s="211">
+      <c r="J187" s="124"/>
+      <c r="K187" s="263">
         <v>8</v>
       </c>
-      <c r="L187" s="211"/>
-      <c r="M187" s="212">
+      <c r="L187" s="263"/>
+      <c r="M187" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N187" s="212"/>
+      <c r="N187" s="264"/>
       <c r="O187" s="30"/>
       <c r="AC187" s="77"/>
       <c r="AD187" s="30"/>
     </row>
-    <row r="188" spans="1:42" s="139" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C188" s="140">
+    <row r="188" spans="1:42" s="128" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="129">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D188" s="140"/>
-      <c r="E188" s="140"/>
-      <c r="F188" s="141"/>
-      <c r="G188" s="140"/>
-      <c r="H188" s="140"/>
-      <c r="I188" s="142">
+      <c r="D188" s="129"/>
+      <c r="E188" s="129"/>
+      <c r="F188" s="130"/>
+      <c r="G188" s="129"/>
+      <c r="H188" s="129"/>
+      <c r="I188" s="131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J188" s="142"/>
-      <c r="K188" s="213">
+      <c r="J188" s="131"/>
+      <c r="K188" s="265">
         <v>10</v>
       </c>
-      <c r="L188" s="213"/>
-      <c r="M188" s="214">
+      <c r="L188" s="265"/>
+      <c r="M188" s="266">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N188" s="214"/>
-      <c r="O188" s="143"/>
-      <c r="AC188" s="149"/>
-      <c r="AD188" s="149"/>
-    </row>
-    <row r="189" spans="1:42" s="139" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="C189" s="140">
+      <c r="N188" s="266"/>
+      <c r="O188" s="132"/>
+      <c r="AC188" s="138"/>
+      <c r="AD188" s="138"/>
+    </row>
+    <row r="189" spans="1:42" s="128" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C189" s="129">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D189" s="140"/>
-      <c r="E189" s="140"/>
-      <c r="F189" s="141"/>
-      <c r="G189" s="140"/>
-      <c r="H189" s="140"/>
-      <c r="I189" s="142">
+      <c r="D189" s="129"/>
+      <c r="E189" s="129"/>
+      <c r="F189" s="130"/>
+      <c r="G189" s="129"/>
+      <c r="H189" s="129"/>
+      <c r="I189" s="131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J189" s="142"/>
-      <c r="K189" s="213">
-        <v>0</v>
-      </c>
-      <c r="L189" s="213"/>
-      <c r="M189" s="214">
+      <c r="J189" s="131"/>
+      <c r="K189" s="265">
+        <v>0</v>
+      </c>
+      <c r="L189" s="265"/>
+      <c r="M189" s="266">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N189" s="214"/>
-      <c r="O189" s="150"/>
-      <c r="AC189" s="143"/>
+      <c r="N189" s="266"/>
+      <c r="O189" s="139"/>
+      <c r="AC189" s="132"/>
     </row>
     <row r="190" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C190" s="133">
+      <c r="C190" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D190" s="133"/>
-      <c r="E190" s="133"/>
-      <c r="F190" s="134"/>
-      <c r="G190" s="133"/>
-      <c r="H190" s="133"/>
-      <c r="I190" s="135">
+      <c r="D190" s="122"/>
+      <c r="E190" s="122"/>
+      <c r="F190" s="123"/>
+      <c r="G190" s="122"/>
+      <c r="H190" s="122"/>
+      <c r="I190" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J190" s="135"/>
-      <c r="K190" s="211">
-        <v>0</v>
-      </c>
-      <c r="L190" s="211"/>
-      <c r="M190" s="212">
+      <c r="J190" s="124"/>
+      <c r="K190" s="263">
+        <v>0</v>
+      </c>
+      <c r="L190" s="263"/>
+      <c r="M190" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N190" s="212"/>
-      <c r="O190" s="119"/>
+      <c r="N190" s="264"/>
+      <c r="O190" s="112"/>
       <c r="AC190" s="77"/>
     </row>
     <row r="191" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C191" s="133">
+      <c r="C191" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D191" s="96"/>
-      <c r="E191" s="96"/>
-      <c r="F191" s="152"/>
-      <c r="G191" s="96"/>
-      <c r="H191" s="96"/>
-      <c r="I191" s="135">
+      <c r="D191" s="95"/>
+      <c r="E191" s="95"/>
+      <c r="F191" s="141"/>
+      <c r="G191" s="95"/>
+      <c r="H191" s="95"/>
+      <c r="I191" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J191" s="135"/>
-      <c r="K191" s="211">
-        <v>0</v>
-      </c>
-      <c r="L191" s="211"/>
-      <c r="M191" s="212">
+      <c r="J191" s="124"/>
+      <c r="K191" s="263">
+        <v>0</v>
+      </c>
+      <c r="L191" s="263"/>
+      <c r="M191" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N191" s="212"/>
+      <c r="N191" s="264"/>
       <c r="O191" s="77"/>
       <c r="AC191" s="77"/>
     </row>
-    <row r="192" spans="1:42" s="139" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="C192" s="140">
+    <row r="192" spans="1:42" s="128" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C192" s="129">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D192" s="154"/>
-      <c r="E192" s="154"/>
-      <c r="F192" s="155"/>
-      <c r="G192" s="154"/>
-      <c r="H192" s="154"/>
-      <c r="I192" s="142">
+      <c r="D192" s="143"/>
+      <c r="E192" s="143"/>
+      <c r="F192" s="144"/>
+      <c r="G192" s="143"/>
+      <c r="H192" s="143"/>
+      <c r="I192" s="131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J192" s="142"/>
-      <c r="K192" s="213">
-        <v>0</v>
-      </c>
-      <c r="L192" s="213"/>
-      <c r="M192" s="214">
+      <c r="J192" s="131"/>
+      <c r="K192" s="265">
+        <v>0</v>
+      </c>
+      <c r="L192" s="265"/>
+      <c r="M192" s="266">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N192" s="214"/>
-      <c r="O192" s="149"/>
-      <c r="AC192" s="149"/>
-    </row>
-    <row r="193" spans="1:29" s="139" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="C193" s="140">
+      <c r="N192" s="266"/>
+      <c r="O192" s="138"/>
+      <c r="AC192" s="138"/>
+    </row>
+    <row r="193" spans="1:29" s="128" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C193" s="129">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D193" s="154"/>
-      <c r="E193" s="154"/>
-      <c r="F193" s="155"/>
-      <c r="G193" s="154"/>
-      <c r="H193" s="154"/>
-      <c r="I193" s="142">
+      <c r="D193" s="143"/>
+      <c r="E193" s="143"/>
+      <c r="F193" s="144"/>
+      <c r="G193" s="143"/>
+      <c r="H193" s="143"/>
+      <c r="I193" s="131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J193" s="142"/>
-      <c r="K193" s="213">
+      <c r="J193" s="131"/>
+      <c r="K193" s="265">
         <v>8</v>
       </c>
-      <c r="L193" s="213"/>
-      <c r="M193" s="214">
+      <c r="L193" s="265"/>
+      <c r="M193" s="266">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N193" s="214"/>
-      <c r="O193" s="149"/>
-      <c r="AC193" s="149"/>
+      <c r="N193" s="266"/>
+      <c r="O193" s="138"/>
+      <c r="AC193" s="138"/>
     </row>
     <row r="194" spans="1:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C194" s="133">
+      <c r="C194" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D194" s="96"/>
-      <c r="E194" s="96"/>
-      <c r="F194" s="152"/>
-      <c r="G194" s="96"/>
-      <c r="H194" s="96"/>
-      <c r="I194" s="135">
+      <c r="D194" s="95"/>
+      <c r="E194" s="95"/>
+      <c r="F194" s="141"/>
+      <c r="G194" s="95"/>
+      <c r="H194" s="95"/>
+      <c r="I194" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J194" s="135"/>
-      <c r="K194" s="211">
-        <v>0</v>
-      </c>
-      <c r="L194" s="211"/>
-      <c r="M194" s="212">
+      <c r="J194" s="124"/>
+      <c r="K194" s="263">
+        <v>0</v>
+      </c>
+      <c r="L194" s="263"/>
+      <c r="M194" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N194" s="212"/>
+      <c r="N194" s="264"/>
       <c r="O194" s="77"/>
       <c r="AC194" s="30"/>
     </row>
-    <row r="195" spans="1:29" s="139" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="C195" s="140">
+    <row r="195" spans="1:29" s="128" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C195" s="129">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D195" s="154"/>
-      <c r="E195" s="154"/>
-      <c r="F195" s="155"/>
-      <c r="G195" s="154"/>
-      <c r="H195" s="154"/>
-      <c r="I195" s="142">
+      <c r="D195" s="143"/>
+      <c r="E195" s="143"/>
+      <c r="F195" s="144"/>
+      <c r="G195" s="143"/>
+      <c r="H195" s="143"/>
+      <c r="I195" s="131">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J195" s="142"/>
-      <c r="K195" s="213">
+      <c r="J195" s="131"/>
+      <c r="K195" s="265">
         <v>8</v>
       </c>
-      <c r="L195" s="213"/>
-      <c r="M195" s="214">
+      <c r="L195" s="265"/>
+      <c r="M195" s="266">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N195" s="214"/>
-      <c r="O195" s="149"/>
-      <c r="AC195" s="149"/>
+      <c r="N195" s="266"/>
+      <c r="O195" s="138"/>
+      <c r="AC195" s="138"/>
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="C196" s="133">
+      <c r="C196" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D196" s="96"/>
-      <c r="E196" s="96"/>
-      <c r="F196" s="152"/>
-      <c r="G196" s="96"/>
-      <c r="H196" s="96"/>
-      <c r="I196" s="135">
+      <c r="D196" s="95"/>
+      <c r="E196" s="95"/>
+      <c r="F196" s="141"/>
+      <c r="G196" s="95"/>
+      <c r="H196" s="95"/>
+      <c r="I196" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J196" s="135"/>
-      <c r="K196" s="211">
-        <v>0</v>
-      </c>
-      <c r="L196" s="211"/>
-      <c r="M196" s="212">
+      <c r="J196" s="124"/>
+      <c r="K196" s="263">
+        <v>0</v>
+      </c>
+      <c r="L196" s="263"/>
+      <c r="M196" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N196" s="212"/>
+      <c r="N196" s="264"/>
       <c r="O196" s="77"/>
       <c r="AC196" s="77"/>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C197" s="133">
+      <c r="C197" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D197" s="96"/>
-      <c r="E197" s="96"/>
-      <c r="F197" s="152"/>
-      <c r="G197" s="96"/>
-      <c r="H197" s="96"/>
-      <c r="I197" s="135">
+      <c r="D197" s="95"/>
+      <c r="E197" s="95"/>
+      <c r="F197" s="141"/>
+      <c r="G197" s="95"/>
+      <c r="H197" s="95"/>
+      <c r="I197" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J197" s="135"/>
-      <c r="K197" s="211">
-        <v>0</v>
-      </c>
-      <c r="L197" s="211"/>
-      <c r="M197" s="212">
+      <c r="J197" s="124"/>
+      <c r="K197" s="263">
+        <v>0</v>
+      </c>
+      <c r="L197" s="263"/>
+      <c r="M197" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N197" s="212"/>
+      <c r="N197" s="264"/>
       <c r="O197" s="77"/>
       <c r="AC197" s="77"/>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C198" s="133">
+      <c r="C198" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D198" s="96"/>
-      <c r="E198" s="96"/>
-      <c r="F198" s="152"/>
-      <c r="G198" s="96"/>
-      <c r="H198" s="96"/>
-      <c r="I198" s="135">
+      <c r="D198" s="95"/>
+      <c r="E198" s="95"/>
+      <c r="F198" s="141"/>
+      <c r="G198" s="95"/>
+      <c r="H198" s="95"/>
+      <c r="I198" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J198" s="135"/>
-      <c r="K198" s="211">
-        <v>0</v>
-      </c>
-      <c r="L198" s="211"/>
-      <c r="M198" s="212">
+      <c r="J198" s="124"/>
+      <c r="K198" s="263">
+        <v>0</v>
+      </c>
+      <c r="L198" s="263"/>
+      <c r="M198" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N198" s="212"/>
+      <c r="N198" s="264"/>
       <c r="O198" s="77"/>
       <c r="AC198" s="77"/>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C199" s="133">
+      <c r="C199" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D199" s="96"/>
-      <c r="E199" s="96"/>
-      <c r="F199" s="152"/>
-      <c r="G199" s="96"/>
-      <c r="H199" s="96"/>
-      <c r="I199" s="135">
+      <c r="D199" s="95"/>
+      <c r="E199" s="95"/>
+      <c r="F199" s="141"/>
+      <c r="G199" s="95"/>
+      <c r="H199" s="95"/>
+      <c r="I199" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J199" s="135"/>
-      <c r="K199" s="211">
-        <v>0</v>
-      </c>
-      <c r="L199" s="211"/>
-      <c r="M199" s="212">
+      <c r="J199" s="124"/>
+      <c r="K199" s="263">
+        <v>0</v>
+      </c>
+      <c r="L199" s="263"/>
+      <c r="M199" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N199" s="212"/>
+      <c r="N199" s="264"/>
       <c r="O199" s="77"/>
       <c r="AC199" s="77"/>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C200" s="133">
+      <c r="C200" s="122">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D200" s="96"/>
-      <c r="E200" s="96"/>
-      <c r="F200" s="152"/>
-      <c r="G200" s="96"/>
-      <c r="H200" s="96"/>
-      <c r="I200" s="135">
+      <c r="D200" s="95"/>
+      <c r="E200" s="95"/>
+      <c r="F200" s="141"/>
+      <c r="G200" s="95"/>
+      <c r="H200" s="95"/>
+      <c r="I200" s="124">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J200" s="135"/>
-      <c r="K200" s="211">
-        <v>0</v>
-      </c>
-      <c r="L200" s="211"/>
-      <c r="M200" s="212">
+      <c r="J200" s="124"/>
+      <c r="K200" s="263">
+        <v>0</v>
+      </c>
+      <c r="L200" s="263"/>
+      <c r="M200" s="264">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N200" s="212"/>
+      <c r="N200" s="264"/>
       <c r="O200" s="77"/>
       <c r="AC200" s="77"/>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C201" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="D201" s="114"/>
-      <c r="E201" s="114"/>
-      <c r="F201" s="115"/>
-      <c r="G201" s="115"/>
-      <c r="H201" s="115"/>
-      <c r="I201" s="116"/>
-      <c r="J201" s="116"/>
-      <c r="K201" s="116"/>
-      <c r="L201" s="116"/>
-      <c r="M201" s="219">
+      <c r="C201" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="D201" s="109"/>
+      <c r="E201" s="109"/>
+      <c r="F201" s="110"/>
+      <c r="G201" s="110"/>
+      <c r="H201" s="110"/>
+      <c r="I201" s="111"/>
+      <c r="J201" s="111"/>
+      <c r="K201" s="111"/>
+      <c r="L201" s="111"/>
+      <c r="M201" s="275">
         <f>SUM(M182:N200)</f>
         <v>0</v>
       </c>
-      <c r="N201" s="219"/>
+      <c r="N201" s="275"/>
       <c r="O201" s="77"/>
-      <c r="T201" s="186"/>
+      <c r="T201" s="175"/>
       <c r="AC201" s="77"/>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
@@ -19631,23 +19600,23 @@
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C204" s="70"/>
-      <c r="D204" s="187" t="s">
+      <c r="D204" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="E204" s="187"/>
-      <c r="F204" s="187"/>
-      <c r="G204" s="187"/>
-      <c r="H204" s="187"/>
-      <c r="I204" s="187"/>
-      <c r="J204" s="187" t="s">
+      <c r="E204" s="276"/>
+      <c r="F204" s="276"/>
+      <c r="G204" s="276"/>
+      <c r="H204" s="276"/>
+      <c r="I204" s="276"/>
+      <c r="J204" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="K204" s="187"/>
-      <c r="L204" s="187" t="s">
+      <c r="K204" s="276"/>
+      <c r="L204" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="M204" s="187"/>
-      <c r="N204" s="187"/>
+      <c r="M204" s="276"/>
+      <c r="N204" s="276"/>
       <c r="O204" s="73" t="s">
         <v>46</v>
       </c>
@@ -19656,19 +19625,19 @@
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C205" s="70"/>
-      <c r="D205" s="192"/>
-      <c r="E205" s="192"/>
-      <c r="F205" s="192"/>
-      <c r="G205" s="192"/>
-      <c r="H205" s="192"/>
-      <c r="I205" s="192"/>
-      <c r="J205" s="192"/>
-      <c r="K205" s="192"/>
-      <c r="L205" s="192" t="s">
+      <c r="D205" s="274"/>
+      <c r="E205" s="274"/>
+      <c r="F205" s="274"/>
+      <c r="G205" s="274"/>
+      <c r="H205" s="274"/>
+      <c r="I205" s="274"/>
+      <c r="J205" s="274"/>
+      <c r="K205" s="274"/>
+      <c r="L205" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="M205" s="192"/>
-      <c r="N205" s="192"/>
+      <c r="M205" s="274"/>
+      <c r="N205" s="274"/>
       <c r="O205" s="75" t="s">
         <v>57</v>
       </c>
@@ -19683,15 +19652,15 @@
       <c r="G206" s="76"/>
       <c r="H206" s="76"/>
       <c r="I206" s="76"/>
-      <c r="J206" s="201"/>
-      <c r="K206" s="201"/>
-      <c r="L206" s="201"/>
-      <c r="M206" s="201"/>
-      <c r="N206" s="202">
+      <c r="J206" s="273"/>
+      <c r="K206" s="273"/>
+      <c r="L206" s="273"/>
+      <c r="M206" s="273"/>
+      <c r="N206" s="272">
         <f>J206*L206</f>
         <v>0</v>
       </c>
-      <c r="O206" s="202"/>
+      <c r="O206" s="272"/>
       <c r="AA206" s="74"/>
       <c r="AB206" s="74"/>
     </row>
@@ -19703,15 +19672,15 @@
       <c r="G207" s="78"/>
       <c r="H207" s="78"/>
       <c r="I207" s="78"/>
-      <c r="J207" s="204"/>
-      <c r="K207" s="204"/>
+      <c r="J207" s="279"/>
+      <c r="K207" s="279"/>
       <c r="L207" s="79"/>
       <c r="M207" s="79"/>
-      <c r="N207" s="193">
+      <c r="N207" s="255">
         <f>J207*M207</f>
         <v>0</v>
       </c>
-      <c r="O207" s="193"/>
+      <c r="O207" s="255"/>
       <c r="AA207" s="74"/>
       <c r="AB207" s="74"/>
     </row>
@@ -19723,15 +19692,15 @@
       <c r="G208" s="78"/>
       <c r="H208" s="78"/>
       <c r="I208" s="78"/>
-      <c r="J208" s="203"/>
-      <c r="K208" s="203"/>
+      <c r="J208" s="278"/>
+      <c r="K208" s="278"/>
       <c r="L208" s="78"/>
       <c r="M208" s="79"/>
-      <c r="N208" s="193">
+      <c r="N208" s="255">
         <f>J208*M208</f>
         <v>0</v>
       </c>
-      <c r="O208" s="193"/>
+      <c r="O208" s="255"/>
       <c r="AA208" s="74"/>
       <c r="AB208" s="74"/>
     </row>
@@ -19743,15 +19712,15 @@
       <c r="G209" s="78"/>
       <c r="H209" s="78"/>
       <c r="I209" s="78"/>
-      <c r="J209" s="85"/>
+      <c r="J209" s="84"/>
       <c r="K209" s="79"/>
       <c r="L209" s="79"/>
       <c r="M209" s="79"/>
-      <c r="N209" s="193">
+      <c r="N209" s="255">
         <f t="shared" ref="N209:N228" si="16">M209*K209</f>
         <v>0</v>
       </c>
-      <c r="O209" s="193"/>
+      <c r="O209" s="255"/>
       <c r="AA209" s="74"/>
       <c r="AB209" s="74"/>
     </row>
@@ -19763,15 +19732,15 @@
       <c r="G210" s="78"/>
       <c r="H210" s="78"/>
       <c r="I210" s="78"/>
-      <c r="J210" s="85"/>
+      <c r="J210" s="84"/>
       <c r="K210" s="79"/>
       <c r="L210" s="79"/>
       <c r="M210" s="79"/>
-      <c r="N210" s="193">
+      <c r="N210" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O210" s="193"/>
+      <c r="O210" s="255"/>
       <c r="AA210" s="74"/>
       <c r="AB210" s="74"/>
     </row>
@@ -19783,15 +19752,15 @@
       <c r="G211" s="78"/>
       <c r="H211" s="78"/>
       <c r="I211" s="78"/>
-      <c r="J211" s="85"/>
+      <c r="J211" s="84"/>
       <c r="K211" s="79"/>
       <c r="L211" s="79"/>
       <c r="M211" s="79"/>
-      <c r="N211" s="193">
+      <c r="N211" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O211" s="193"/>
+      <c r="O211" s="255"/>
       <c r="AA211" s="74"/>
       <c r="AB211" s="74"/>
     </row>
@@ -19803,15 +19772,15 @@
       <c r="G212" s="78"/>
       <c r="H212" s="78"/>
       <c r="I212" s="78"/>
-      <c r="J212" s="85"/>
+      <c r="J212" s="84"/>
       <c r="K212" s="79"/>
       <c r="L212" s="79"/>
       <c r="M212" s="79"/>
-      <c r="N212" s="193">
+      <c r="N212" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O212" s="193"/>
+      <c r="O212" s="255"/>
       <c r="AA212" s="74"/>
       <c r="AB212" s="74"/>
     </row>
@@ -19823,15 +19792,15 @@
       <c r="G213" s="78"/>
       <c r="H213" s="78"/>
       <c r="I213" s="78"/>
-      <c r="J213" s="85"/>
+      <c r="J213" s="84"/>
       <c r="K213" s="79"/>
       <c r="L213" s="79"/>
       <c r="M213" s="79"/>
-      <c r="N213" s="193">
+      <c r="N213" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O213" s="193"/>
+      <c r="O213" s="255"/>
       <c r="AA213" s="74"/>
       <c r="AB213" s="74"/>
     </row>
@@ -19843,15 +19812,15 @@
       <c r="G214" s="78"/>
       <c r="H214" s="78"/>
       <c r="I214" s="78"/>
-      <c r="J214" s="85"/>
+      <c r="J214" s="84"/>
       <c r="K214" s="79"/>
       <c r="L214" s="79"/>
       <c r="M214" s="79"/>
-      <c r="N214" s="193">
+      <c r="N214" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O214" s="193"/>
+      <c r="O214" s="255"/>
       <c r="AA214" s="74"/>
       <c r="AB214" s="74"/>
     </row>
@@ -19863,15 +19832,15 @@
       <c r="G215" s="78"/>
       <c r="H215" s="78"/>
       <c r="I215" s="78"/>
-      <c r="J215" s="85"/>
+      <c r="J215" s="84"/>
       <c r="K215" s="79"/>
       <c r="L215" s="79"/>
       <c r="M215" s="79"/>
-      <c r="N215" s="193">
+      <c r="N215" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O215" s="193"/>
+      <c r="O215" s="255"/>
       <c r="AA215" s="74"/>
       <c r="AB215" s="74"/>
     </row>
@@ -19883,15 +19852,15 @@
       <c r="G216" s="78"/>
       <c r="H216" s="78"/>
       <c r="I216" s="78"/>
-      <c r="J216" s="85"/>
+      <c r="J216" s="84"/>
       <c r="K216" s="79"/>
       <c r="L216" s="79"/>
       <c r="M216" s="79"/>
-      <c r="N216" s="193">
+      <c r="N216" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O216" s="193"/>
+      <c r="O216" s="255"/>
     </row>
     <row r="217" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C217" s="70"/>
@@ -19901,15 +19870,15 @@
       <c r="G217" s="78"/>
       <c r="H217" s="78"/>
       <c r="I217" s="78"/>
-      <c r="J217" s="85"/>
+      <c r="J217" s="84"/>
       <c r="K217" s="79"/>
       <c r="L217" s="79"/>
       <c r="M217" s="79"/>
-      <c r="N217" s="193">
+      <c r="N217" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O217" s="193"/>
+      <c r="O217" s="255"/>
     </row>
     <row r="218" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C218" s="70"/>
@@ -19919,15 +19888,15 @@
       <c r="G218" s="78"/>
       <c r="H218" s="78"/>
       <c r="I218" s="78"/>
-      <c r="J218" s="85"/>
+      <c r="J218" s="84"/>
       <c r="K218" s="79"/>
       <c r="L218" s="79"/>
       <c r="M218" s="79"/>
-      <c r="N218" s="193">
+      <c r="N218" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O218" s="193"/>
+      <c r="O218" s="255"/>
     </row>
     <row r="219" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C219" s="70"/>
@@ -19937,15 +19906,15 @@
       <c r="G219" s="78"/>
       <c r="H219" s="78"/>
       <c r="I219" s="78"/>
-      <c r="J219" s="85"/>
+      <c r="J219" s="84"/>
       <c r="K219" s="79"/>
       <c r="L219" s="79"/>
       <c r="M219" s="79"/>
-      <c r="N219" s="193">
+      <c r="N219" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O219" s="193"/>
+      <c r="O219" s="255"/>
     </row>
     <row r="220" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C220" s="70"/>
@@ -19955,15 +19924,15 @@
       <c r="G220" s="78"/>
       <c r="H220" s="78"/>
       <c r="I220" s="78"/>
-      <c r="J220" s="85"/>
+      <c r="J220" s="84"/>
       <c r="K220" s="79"/>
       <c r="L220" s="79"/>
       <c r="M220" s="79"/>
-      <c r="N220" s="193">
+      <c r="N220" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O220" s="193"/>
+      <c r="O220" s="255"/>
     </row>
     <row r="221" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C221" s="70"/>
@@ -19973,15 +19942,15 @@
       <c r="G221" s="78"/>
       <c r="H221" s="78"/>
       <c r="I221" s="78"/>
-      <c r="J221" s="85"/>
+      <c r="J221" s="84"/>
       <c r="K221" s="79"/>
       <c r="L221" s="79"/>
       <c r="M221" s="79"/>
-      <c r="N221" s="193">
+      <c r="N221" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O221" s="193"/>
+      <c r="O221" s="255"/>
     </row>
     <row r="222" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C222" s="70"/>
@@ -19991,15 +19960,15 @@
       <c r="G222" s="78"/>
       <c r="H222" s="78"/>
       <c r="I222" s="78"/>
-      <c r="J222" s="85"/>
+      <c r="J222" s="84"/>
       <c r="K222" s="79"/>
       <c r="L222" s="79"/>
       <c r="M222" s="79"/>
-      <c r="N222" s="193">
+      <c r="N222" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O222" s="193"/>
+      <c r="O222" s="255"/>
     </row>
     <row r="223" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C223" s="70"/>
@@ -20009,15 +19978,15 @@
       <c r="G223" s="78"/>
       <c r="H223" s="78"/>
       <c r="I223" s="78"/>
-      <c r="J223" s="85"/>
+      <c r="J223" s="84"/>
       <c r="K223" s="79"/>
       <c r="L223" s="79"/>
       <c r="M223" s="79"/>
-      <c r="N223" s="193">
+      <c r="N223" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O223" s="193"/>
+      <c r="O223" s="255"/>
     </row>
     <row r="224" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C224" s="70"/>
@@ -20027,15 +19996,15 @@
       <c r="G224" s="78"/>
       <c r="H224" s="78"/>
       <c r="I224" s="78"/>
-      <c r="J224" s="85"/>
+      <c r="J224" s="84"/>
       <c r="K224" s="79"/>
       <c r="L224" s="79"/>
       <c r="M224" s="79"/>
-      <c r="N224" s="193">
+      <c r="N224" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O224" s="193"/>
+      <c r="O224" s="255"/>
     </row>
     <row r="225" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C225" s="70"/>
@@ -20045,15 +20014,15 @@
       <c r="G225" s="78"/>
       <c r="H225" s="78"/>
       <c r="I225" s="78"/>
-      <c r="J225" s="85"/>
-      <c r="K225" s="98"/>
-      <c r="L225" s="98"/>
-      <c r="M225" s="98"/>
-      <c r="N225" s="193">
+      <c r="J225" s="84"/>
+      <c r="K225" s="97"/>
+      <c r="L225" s="97"/>
+      <c r="M225" s="97"/>
+      <c r="N225" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O225" s="193"/>
+      <c r="O225" s="255"/>
     </row>
     <row r="226" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C226" s="70"/>
@@ -20063,15 +20032,15 @@
       <c r="G226" s="78"/>
       <c r="H226" s="78"/>
       <c r="I226" s="78"/>
-      <c r="J226" s="85"/>
+      <c r="J226" s="84"/>
       <c r="K226" s="79"/>
       <c r="L226" s="79"/>
       <c r="M226" s="79"/>
-      <c r="N226" s="193">
+      <c r="N226" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O226" s="193"/>
+      <c r="O226" s="255"/>
     </row>
     <row r="227" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C227" s="70"/>
@@ -20081,15 +20050,15 @@
       <c r="G227" s="78"/>
       <c r="H227" s="78"/>
       <c r="I227" s="78"/>
-      <c r="J227" s="85"/>
+      <c r="J227" s="84"/>
       <c r="K227" s="79"/>
       <c r="L227" s="79"/>
       <c r="M227" s="79"/>
-      <c r="N227" s="193">
+      <c r="N227" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O227" s="193"/>
+      <c r="O227" s="255"/>
     </row>
     <row r="228" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C228" s="70"/>
@@ -20099,55 +20068,55 @@
       <c r="G228" s="78"/>
       <c r="H228" s="78"/>
       <c r="I228" s="78"/>
-      <c r="J228" s="85"/>
+      <c r="J228" s="84"/>
       <c r="K228" s="79"/>
       <c r="L228" s="79"/>
       <c r="M228" s="79"/>
-      <c r="N228" s="193">
+      <c r="N228" s="255">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O228" s="193"/>
+      <c r="O228" s="255"/>
     </row>
     <row r="229" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C229" s="70"/>
-      <c r="D229" s="99" t="s">
+      <c r="D229" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E229" s="99"/>
-      <c r="F229" s="99"/>
-      <c r="G229" s="99"/>
-      <c r="H229" s="99"/>
-      <c r="I229" s="100"/>
-      <c r="J229" s="99"/>
-      <c r="K229" s="101"/>
-      <c r="L229" s="102"/>
-      <c r="M229" s="102"/>
-      <c r="N229" s="200">
+      <c r="E229" s="98"/>
+      <c r="F229" s="98"/>
+      <c r="G229" s="98"/>
+      <c r="H229" s="98"/>
+      <c r="I229" s="99"/>
+      <c r="J229" s="98"/>
+      <c r="K229" s="100"/>
+      <c r="L229" s="101"/>
+      <c r="M229" s="101"/>
+      <c r="N229" s="282">
         <f>(SUM(N206:O228)*K229)</f>
         <v>0</v>
       </c>
-      <c r="O229" s="200"/>
+      <c r="O229" s="282"/>
     </row>
     <row r="230" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C230" s="70"/>
-      <c r="D230" s="103" t="s">
+      <c r="D230" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="E230" s="103"/>
-      <c r="F230" s="103"/>
-      <c r="G230" s="104"/>
-      <c r="H230" s="104"/>
-      <c r="I230" s="104"/>
-      <c r="J230" s="105"/>
-      <c r="K230" s="106"/>
-      <c r="L230" s="106"/>
-      <c r="M230" s="107"/>
-      <c r="N230" s="199">
+      <c r="E230" s="102"/>
+      <c r="F230" s="102"/>
+      <c r="G230" s="103"/>
+      <c r="H230" s="103"/>
+      <c r="I230" s="103"/>
+      <c r="J230" s="104"/>
+      <c r="K230" s="105"/>
+      <c r="L230" s="105"/>
+      <c r="M230" s="106"/>
+      <c r="N230" s="277">
         <f>SUM(N206:O229)</f>
         <v>0</v>
       </c>
-      <c r="O230" s="199"/>
+      <c r="O230" s="277"/>
     </row>
     <row r="231" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C231" s="70"/>
@@ -20168,206 +20137,176 @@
       <c r="K232" s="72"/>
       <c r="L232" s="72"/>
       <c r="M232" s="72"/>
-      <c r="N232" s="108"/>
-      <c r="O232" s="108"/>
+      <c r="N232" s="107"/>
+      <c r="O232" s="107"/>
     </row>
     <row r="233" spans="3:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="70"/>
-      <c r="D233" s="187" t="s">
+      <c r="D233" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="E233" s="187"/>
-      <c r="F233" s="187"/>
-      <c r="G233" s="187"/>
-      <c r="H233" s="109"/>
-      <c r="I233" s="109"/>
-      <c r="J233" s="187" t="s">
+      <c r="E233" s="276"/>
+      <c r="F233" s="276"/>
+      <c r="G233" s="276"/>
+      <c r="H233" s="293" t="s">
+        <v>100</v>
+      </c>
+      <c r="I233" s="293"/>
+      <c r="J233" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="K233" s="187"/>
-      <c r="L233" s="187" t="s">
-        <v>54</v>
-      </c>
-      <c r="M233" s="187"/>
-      <c r="N233" s="187"/>
-      <c r="O233" s="73" t="s">
+      <c r="K233" s="276"/>
+      <c r="L233" s="276" t="s">
+        <v>99</v>
+      </c>
+      <c r="M233" s="276"/>
+      <c r="N233" s="125"/>
+      <c r="O233" s="288" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="234" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C234" s="70"/>
-      <c r="D234" s="192"/>
-      <c r="E234" s="192"/>
-      <c r="F234" s="192"/>
-      <c r="G234" s="192"/>
-      <c r="H234" s="6"/>
-      <c r="I234" s="6"/>
-      <c r="J234" s="192"/>
-      <c r="K234" s="192"/>
-      <c r="L234" s="192" t="s">
-        <v>56</v>
-      </c>
-      <c r="M234" s="192"/>
-      <c r="N234" s="192"/>
-      <c r="O234" s="75" t="s">
-        <v>57</v>
-      </c>
+      <c r="D234" s="274"/>
+      <c r="E234" s="274"/>
+      <c r="F234" s="274"/>
+      <c r="G234" s="274"/>
+      <c r="H234" s="294"/>
+      <c r="I234" s="294"/>
+      <c r="J234" s="274"/>
+      <c r="K234" s="274"/>
+      <c r="L234" s="274"/>
+      <c r="M234" s="274"/>
+      <c r="N234" s="126"/>
+      <c r="O234" s="289"/>
     </row>
     <row r="235" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C235" s="70"/>
-      <c r="D235" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="E235" s="76"/>
-      <c r="F235" s="76"/>
-      <c r="G235" s="76"/>
-      <c r="H235" s="76"/>
-      <c r="I235" s="76"/>
-      <c r="J235" s="110"/>
-      <c r="K235" s="111"/>
-      <c r="L235" s="110"/>
-      <c r="M235" s="110">
-        <v>2500</v>
-      </c>
-      <c r="N235" s="202">
-        <f>K235*M235</f>
-        <v>0</v>
-      </c>
-      <c r="O235" s="202"/>
+      <c r="D235" s="290"/>
+      <c r="E235" s="290"/>
+      <c r="F235" s="290"/>
+      <c r="G235" s="290"/>
+      <c r="H235" s="290"/>
+      <c r="I235" s="290"/>
+      <c r="J235" s="291"/>
+      <c r="K235" s="291"/>
+      <c r="L235" s="291"/>
+      <c r="M235" s="291"/>
+      <c r="N235" s="272">
+        <f>J235*L235</f>
+        <v>0</v>
+      </c>
+      <c r="O235" s="272"/>
     </row>
     <row r="236" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C236" s="70"/>
-      <c r="D236" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E236" s="78"/>
-      <c r="F236" s="78"/>
-      <c r="G236" s="78"/>
-      <c r="H236" s="78"/>
-      <c r="I236" s="78"/>
-      <c r="J236" s="112"/>
-      <c r="K236" s="81"/>
-      <c r="L236" s="112"/>
-      <c r="M236" s="112">
-        <v>2500</v>
-      </c>
-      <c r="N236" s="193">
-        <f>K236*M236</f>
-        <v>0</v>
-      </c>
-      <c r="O236" s="193"/>
+      <c r="D236" s="290"/>
+      <c r="E236" s="290"/>
+      <c r="F236" s="290"/>
+      <c r="G236" s="290"/>
+      <c r="H236" s="290"/>
+      <c r="I236" s="290"/>
+      <c r="J236" s="291"/>
+      <c r="K236" s="291"/>
+      <c r="L236" s="291"/>
+      <c r="M236" s="291"/>
+      <c r="N236" s="272">
+        <f t="shared" ref="N236:N241" si="17">J236*L236</f>
+        <v>0</v>
+      </c>
+      <c r="O236" s="272"/>
     </row>
     <row r="237" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C237" s="70"/>
-      <c r="D237" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="E237" s="78"/>
-      <c r="F237" s="78"/>
-      <c r="G237" s="78"/>
-      <c r="H237" s="78"/>
-      <c r="I237" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="J237" s="118"/>
-      <c r="K237" s="81">
-        <f>IF(W4&gt;=-35,M119-D127-D131,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L237" s="118"/>
-      <c r="M237" s="98">
-        <v>5</v>
-      </c>
-      <c r="N237" s="193">
-        <f>K237*M237</f>
-        <v>0</v>
-      </c>
-      <c r="O237" s="193"/>
+      <c r="D237" s="290"/>
+      <c r="E237" s="290"/>
+      <c r="F237" s="290"/>
+      <c r="G237" s="290"/>
+      <c r="H237" s="290"/>
+      <c r="I237" s="290"/>
+      <c r="J237" s="291"/>
+      <c r="K237" s="291"/>
+      <c r="L237" s="291"/>
+      <c r="M237" s="291"/>
+      <c r="N237" s="272">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O237" s="272"/>
     </row>
     <row r="238" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C238" s="70"/>
-      <c r="D238" s="78"/>
-      <c r="E238" s="78"/>
-      <c r="F238" s="78"/>
-      <c r="G238" s="78"/>
-      <c r="H238" s="78"/>
-      <c r="I238" s="117"/>
-      <c r="J238" s="118"/>
-      <c r="K238" s="81"/>
-      <c r="L238" s="118"/>
-      <c r="M238" s="98"/>
-      <c r="N238" s="80"/>
-      <c r="O238" s="80"/>
+      <c r="D238" s="290"/>
+      <c r="E238" s="290"/>
+      <c r="F238" s="290"/>
+      <c r="G238" s="290"/>
+      <c r="H238" s="290"/>
+      <c r="I238" s="290"/>
+      <c r="J238" s="291"/>
+      <c r="K238" s="291"/>
+      <c r="L238" s="291"/>
+      <c r="M238" s="291"/>
+      <c r="N238" s="272">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O238" s="272"/>
     </row>
     <row r="239" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C239" s="70"/>
-      <c r="D239" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E239" s="78"/>
-      <c r="F239" s="78"/>
-      <c r="G239" s="78"/>
-      <c r="H239" s="78"/>
-      <c r="I239" s="120" t="str">
-        <f>IF(W5&gt;1000,"&gt;1,000m.",IF(W6&gt;100,"&gt;100m",""))</f>
-        <v/>
-      </c>
-      <c r="J239" s="121"/>
-      <c r="K239" s="112">
-        <v>500</v>
-      </c>
-      <c r="L239" s="112"/>
-      <c r="M239" s="112"/>
-      <c r="N239" s="193">
-        <f>J239*K239</f>
-        <v>0</v>
-      </c>
-      <c r="O239" s="193"/>
+      <c r="D239" s="290"/>
+      <c r="E239" s="290"/>
+      <c r="F239" s="290"/>
+      <c r="G239" s="290"/>
+      <c r="H239" s="290"/>
+      <c r="I239" s="290"/>
+      <c r="J239" s="291"/>
+      <c r="K239" s="291"/>
+      <c r="L239" s="291"/>
+      <c r="M239" s="291"/>
+      <c r="N239" s="272">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O239" s="272"/>
     </row>
     <row r="240" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C240" s="70"/>
-      <c r="D240" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="E240" s="78"/>
-      <c r="F240" s="78"/>
-      <c r="G240" s="78"/>
-      <c r="H240" s="78"/>
-      <c r="I240" s="120" t="str">
-        <f>IF(W5&gt;1000,"&gt;1,000m.",IF(W6&gt;100,"&gt;100m",""))</f>
-        <v/>
-      </c>
-      <c r="J240" s="121"/>
-      <c r="K240" s="102">
-        <v>500</v>
-      </c>
-      <c r="L240" s="102"/>
-      <c r="M240" s="102"/>
-      <c r="N240" s="200">
-        <f>J240*K240</f>
-        <v>0</v>
-      </c>
-      <c r="O240" s="200"/>
+      <c r="D240" s="290"/>
+      <c r="E240" s="290"/>
+      <c r="F240" s="290"/>
+      <c r="G240" s="290"/>
+      <c r="H240" s="290"/>
+      <c r="I240" s="290"/>
+      <c r="J240" s="291"/>
+      <c r="K240" s="291"/>
+      <c r="L240" s="291"/>
+      <c r="M240" s="291"/>
+      <c r="N240" s="272">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O240" s="272"/>
     </row>
     <row r="241" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C241" s="70"/>
-      <c r="D241" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="E241" s="103"/>
+      <c r="D241" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="E241" s="102"/>
       <c r="F241" s="13"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="10"/>
-      <c r="J241" s="126"/>
-      <c r="K241" s="127"/>
-      <c r="L241" s="127"/>
-      <c r="M241" s="128"/>
-      <c r="N241" s="199">
+      <c r="G241" s="292"/>
+      <c r="H241" s="292"/>
+      <c r="I241" s="292"/>
+      <c r="J241" s="292"/>
+      <c r="K241" s="292"/>
+      <c r="L241" s="292"/>
+      <c r="M241" s="292"/>
+      <c r="N241" s="272">
         <f>SUM(N235:O240)</f>
         <v>0</v>
       </c>
-      <c r="O241" s="199"/>
+      <c r="O241" s="272"/>
     </row>
     <row r="242" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C242" s="70"/>
@@ -20377,16 +20316,16 @@
       <c r="G242" s="78"/>
       <c r="H242" s="78"/>
       <c r="I242" s="78"/>
-      <c r="J242" s="81"/>
-      <c r="K242" s="201"/>
-      <c r="L242" s="201"/>
-      <c r="M242" s="201"/>
+      <c r="J242" s="80"/>
+      <c r="K242" s="273"/>
+      <c r="L242" s="273"/>
+      <c r="M242" s="273"/>
       <c r="N242" s="77"/>
     </row>
     <row r="243" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C243" s="70"/>
       <c r="D243" s="71" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E243" s="71"/>
       <c r="F243" s="72"/>
@@ -20397,46 +20336,46 @@
       <c r="K243" s="72"/>
       <c r="L243" s="72"/>
       <c r="M243" s="72"/>
-      <c r="N243" s="108"/>
-      <c r="O243" s="108"/>
+      <c r="N243" s="107"/>
+      <c r="O243" s="107"/>
     </row>
     <row r="244" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C244" s="70"/>
-      <c r="D244" s="187" t="s">
+      <c r="D244" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="E244" s="187"/>
-      <c r="F244" s="187"/>
-      <c r="G244" s="187"/>
-      <c r="H244" s="187"/>
-      <c r="J244" s="136" t="s">
+      <c r="E244" s="276"/>
+      <c r="F244" s="276"/>
+      <c r="G244" s="276"/>
+      <c r="H244" s="276"/>
+      <c r="J244" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="K244" s="136"/>
-      <c r="L244" s="187" t="s">
+      <c r="K244" s="125"/>
+      <c r="L244" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="M244" s="187"/>
-      <c r="N244" s="187"/>
+      <c r="M244" s="276"/>
+      <c r="N244" s="276"/>
       <c r="O244" s="73" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="245" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C245" s="70"/>
-      <c r="D245" s="188"/>
-      <c r="E245" s="188"/>
-      <c r="F245" s="188"/>
-      <c r="G245" s="188"/>
-      <c r="H245" s="188"/>
+      <c r="D245" s="283"/>
+      <c r="E245" s="283"/>
+      <c r="F245" s="283"/>
+      <c r="G245" s="283"/>
+      <c r="H245" s="283"/>
       <c r="I245" s="6"/>
-      <c r="J245" s="137"/>
-      <c r="K245" s="137"/>
-      <c r="L245" s="192" t="s">
+      <c r="J245" s="126"/>
+      <c r="K245" s="126"/>
+      <c r="L245" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="M245" s="192"/>
-      <c r="N245" s="192"/>
+      <c r="M245" s="274"/>
+      <c r="N245" s="274"/>
       <c r="O245" s="75" t="s">
         <v>57</v>
       </c>
@@ -20444,82 +20383,82 @@
     <row r="246" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C246" s="70"/>
       <c r="D246" s="78" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E246" s="78"/>
       <c r="F246" s="78"/>
       <c r="G246" s="78"/>
       <c r="H246" s="78"/>
       <c r="I246" s="78"/>
-      <c r="J246" s="81"/>
-      <c r="K246" s="138">
+      <c r="J246" s="80"/>
+      <c r="K246" s="127">
         <v>1</v>
       </c>
-      <c r="L246" s="138"/>
-      <c r="M246" s="138"/>
-      <c r="N246" s="190">
+      <c r="L246" s="127"/>
+      <c r="M246" s="127"/>
+      <c r="N246" s="285">
         <f>K246*M246</f>
         <v>0</v>
       </c>
-      <c r="O246" s="190"/>
+      <c r="O246" s="285"/>
     </row>
     <row r="247" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C247" s="70"/>
-      <c r="D247" s="99" t="s">
+      <c r="D247" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E247" s="99"/>
-      <c r="F247" s="99"/>
-      <c r="G247" s="99"/>
-      <c r="H247" s="99"/>
-      <c r="J247" s="100"/>
-      <c r="K247" s="99"/>
-      <c r="L247" s="99"/>
-      <c r="M247" s="99"/>
-      <c r="N247" s="189">
-        <v>0</v>
-      </c>
-      <c r="O247" s="189"/>
+      <c r="E247" s="98"/>
+      <c r="F247" s="98"/>
+      <c r="G247" s="98"/>
+      <c r="H247" s="98"/>
+      <c r="J247" s="99"/>
+      <c r="K247" s="98"/>
+      <c r="L247" s="98"/>
+      <c r="M247" s="98"/>
+      <c r="N247" s="284">
+        <v>0</v>
+      </c>
+      <c r="O247" s="284"/>
     </row>
     <row r="248" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C248" s="144"/>
-      <c r="D248" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="E248" s="145"/>
-      <c r="F248" s="146"/>
-      <c r="G248" s="147"/>
-      <c r="H248" s="147"/>
-      <c r="I248" s="147"/>
-      <c r="J248" s="148"/>
-      <c r="K248" s="148"/>
-      <c r="L248" s="148"/>
-      <c r="M248" s="146"/>
-      <c r="N248" s="191">
+      <c r="C248" s="133"/>
+      <c r="D248" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="E248" s="134"/>
+      <c r="F248" s="135"/>
+      <c r="G248" s="136"/>
+      <c r="H248" s="136"/>
+      <c r="I248" s="136"/>
+      <c r="J248" s="137"/>
+      <c r="K248" s="137"/>
+      <c r="L248" s="137"/>
+      <c r="M248" s="135"/>
+      <c r="N248" s="286">
         <f>SUM(N246:O247)</f>
         <v>0</v>
       </c>
-      <c r="O248" s="191"/>
+      <c r="O248" s="286"/>
     </row>
     <row r="249" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C249" s="144"/>
-      <c r="D249" s="139"/>
-      <c r="E249" s="139"/>
-      <c r="F249" s="139"/>
-      <c r="G249" s="139"/>
-      <c r="H249" s="139"/>
-      <c r="I249" s="139"/>
-      <c r="J249" s="139"/>
-      <c r="K249" s="139"/>
-      <c r="L249" s="139"/>
-      <c r="M249" s="139"/>
-      <c r="N249" s="151"/>
-      <c r="O249" s="151"/>
+      <c r="C249" s="133"/>
+      <c r="D249" s="128"/>
+      <c r="E249" s="128"/>
+      <c r="F249" s="128"/>
+      <c r="G249" s="128"/>
+      <c r="H249" s="128"/>
+      <c r="I249" s="128"/>
+      <c r="J249" s="128"/>
+      <c r="K249" s="128"/>
+      <c r="L249" s="128"/>
+      <c r="M249" s="128"/>
+      <c r="N249" s="140"/>
+      <c r="O249" s="140"/>
     </row>
     <row r="250" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C250" s="70"/>
       <c r="D250" s="71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E250" s="71"/>
       <c r="F250" s="72"/>
@@ -20530,74 +20469,74 @@
       <c r="K250" s="72"/>
       <c r="L250" s="72"/>
       <c r="M250" s="72"/>
-      <c r="N250" s="94"/>
-      <c r="O250" s="108"/>
+      <c r="N250" s="93"/>
+      <c r="O250" s="107"/>
     </row>
     <row r="251" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C251" s="70"/>
-      <c r="D251" s="153" t="s">
-        <v>91</v>
-      </c>
-      <c r="E251" s="153"/>
-      <c r="F251" s="153"/>
-      <c r="G251" s="153"/>
-      <c r="H251" s="153"/>
-      <c r="I251" s="153"/>
-      <c r="J251" s="153"/>
-      <c r="K251" s="153"/>
-      <c r="L251" s="153"/>
-      <c r="M251" s="153"/>
-      <c r="N251" s="197">
+      <c r="D251" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="E251" s="142"/>
+      <c r="F251" s="142"/>
+      <c r="G251" s="142"/>
+      <c r="H251" s="142"/>
+      <c r="I251" s="142"/>
+      <c r="J251" s="142"/>
+      <c r="K251" s="142"/>
+      <c r="L251" s="142"/>
+      <c r="M251" s="142"/>
+      <c r="N251" s="281">
         <f>N241</f>
         <v>0</v>
       </c>
-      <c r="O251" s="197"/>
+      <c r="O251" s="281"/>
       <c r="P251" s="77"/>
       <c r="Q251" s="77"/>
       <c r="R251" s="77"/>
     </row>
     <row r="252" spans="3:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C252" s="144"/>
-      <c r="D252" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="E252" s="139"/>
-      <c r="F252" s="139"/>
-      <c r="G252" s="139"/>
-      <c r="H252" s="139"/>
-      <c r="I252" s="139"/>
-      <c r="J252" s="139"/>
-      <c r="K252" s="139"/>
-      <c r="L252" s="139"/>
-      <c r="M252" s="139"/>
-      <c r="N252" s="198">
+      <c r="C252" s="133"/>
+      <c r="D252" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="E252" s="128"/>
+      <c r="F252" s="128"/>
+      <c r="G252" s="128"/>
+      <c r="H252" s="128"/>
+      <c r="I252" s="128"/>
+      <c r="J252" s="128"/>
+      <c r="K252" s="128"/>
+      <c r="L252" s="128"/>
+      <c r="M252" s="128"/>
+      <c r="N252" s="280">
         <f>N248</f>
         <v>0</v>
       </c>
-      <c r="O252" s="198"/>
+      <c r="O252" s="280"/>
       <c r="P252" s="77"/>
       <c r="Q252" s="77"/>
       <c r="R252" s="77"/>
     </row>
     <row r="253" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C253" s="144"/>
-      <c r="D253" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="E253" s="145"/>
-      <c r="F253" s="146"/>
-      <c r="G253" s="147"/>
-      <c r="H253" s="147"/>
-      <c r="I253" s="147"/>
-      <c r="J253" s="148"/>
-      <c r="K253" s="148"/>
-      <c r="L253" s="148"/>
-      <c r="M253" s="146"/>
-      <c r="N253" s="191">
+      <c r="C253" s="133"/>
+      <c r="D253" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="E253" s="134"/>
+      <c r="F253" s="135"/>
+      <c r="G253" s="136"/>
+      <c r="H253" s="136"/>
+      <c r="I253" s="136"/>
+      <c r="J253" s="137"/>
+      <c r="K253" s="137"/>
+      <c r="L253" s="137"/>
+      <c r="M253" s="135"/>
+      <c r="N253" s="286">
         <f>SUM(N251:O252)</f>
         <v>0</v>
       </c>
-      <c r="O253" s="191"/>
+      <c r="O253" s="286"/>
       <c r="P253" s="77"/>
       <c r="Q253" s="77"/>
       <c r="R253" s="77"/>
@@ -20606,46 +20545,46 @@
       <c r="C254" s="70"/>
       <c r="D254" s="42"/>
       <c r="E254" s="42"/>
-      <c r="N254" s="95"/>
-      <c r="O254" s="95"/>
+      <c r="N254" s="94"/>
+      <c r="O254" s="94"/>
     </row>
     <row r="255" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C255" s="144"/>
-      <c r="D255" s="156" t="s">
-        <v>93</v>
-      </c>
-      <c r="E255" s="156"/>
-      <c r="F255" s="157"/>
-      <c r="G255" s="157"/>
-      <c r="H255" s="157"/>
-      <c r="I255" s="157"/>
-      <c r="J255" s="157"/>
-      <c r="K255" s="157"/>
-      <c r="L255" s="157"/>
-      <c r="M255" s="157"/>
-      <c r="N255" s="158"/>
-      <c r="O255" s="158"/>
+      <c r="C255" s="133"/>
+      <c r="D255" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="E255" s="145"/>
+      <c r="F255" s="146"/>
+      <c r="G255" s="146"/>
+      <c r="H255" s="146"/>
+      <c r="I255" s="146"/>
+      <c r="J255" s="146"/>
+      <c r="K255" s="146"/>
+      <c r="L255" s="146"/>
+      <c r="M255" s="146"/>
+      <c r="N255" s="147"/>
+      <c r="O255" s="147"/>
     </row>
     <row r="256" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C256" s="70"/>
-      <c r="D256" s="153" t="str">
+      <c r="D256" s="142" t="str">
         <f>C123</f>
         <v>ENCAMISADO Y PERFORACION CARGABLES</v>
       </c>
-      <c r="E256" s="153"/>
-      <c r="F256" s="153"/>
-      <c r="G256" s="153"/>
-      <c r="H256" s="153"/>
-      <c r="I256" s="153"/>
-      <c r="J256" s="153"/>
-      <c r="K256" s="153"/>
-      <c r="L256" s="153"/>
-      <c r="M256" s="159"/>
-      <c r="N256" s="197">
+      <c r="E256" s="142"/>
+      <c r="F256" s="142"/>
+      <c r="G256" s="142"/>
+      <c r="H256" s="142"/>
+      <c r="I256" s="142"/>
+      <c r="J256" s="142"/>
+      <c r="K256" s="142"/>
+      <c r="L256" s="142"/>
+      <c r="M256" s="148"/>
+      <c r="N256" s="281">
         <f>M177</f>
         <v>0</v>
       </c>
-      <c r="O256" s="197"/>
+      <c r="O256" s="281"/>
     </row>
     <row r="257" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C257" s="70"/>
@@ -20661,12 +20600,12 @@
       <c r="J257" s="78"/>
       <c r="K257" s="78"/>
       <c r="L257" s="78"/>
-      <c r="M257" s="160"/>
-      <c r="N257" s="193">
+      <c r="M257" s="149"/>
+      <c r="N257" s="255">
         <f>M201</f>
         <v>0</v>
       </c>
-      <c r="O257" s="193"/>
+      <c r="O257" s="255"/>
     </row>
     <row r="258" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C258" s="70"/>
@@ -20682,12 +20621,12 @@
       <c r="J258" s="78"/>
       <c r="K258" s="78"/>
       <c r="L258" s="78"/>
-      <c r="M258" s="160"/>
-      <c r="N258" s="193">
+      <c r="M258" s="149"/>
+      <c r="N258" s="255">
         <f>N241</f>
         <v>0</v>
       </c>
-      <c r="O258" s="193"/>
+      <c r="O258" s="255"/>
     </row>
     <row r="259" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C259" s="70"/>
@@ -20703,101 +20642,352 @@
       <c r="J259" s="78"/>
       <c r="K259" s="78"/>
       <c r="L259" s="78"/>
-      <c r="M259" s="160"/>
-      <c r="N259" s="193">
+      <c r="M259" s="149"/>
+      <c r="N259" s="255">
         <f>N230</f>
         <v>0</v>
       </c>
-      <c r="O259" s="193"/>
+      <c r="O259" s="255"/>
     </row>
     <row r="260" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C260" s="70"/>
-      <c r="D260" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="E260" s="99"/>
-      <c r="F260" s="99"/>
-      <c r="G260" s="99"/>
-      <c r="H260" s="99"/>
-      <c r="I260" s="99"/>
-      <c r="J260" s="99"/>
-      <c r="K260" s="99"/>
-      <c r="L260" s="99"/>
-      <c r="M260" s="161"/>
-      <c r="N260" s="200">
+      <c r="D260" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="E260" s="98"/>
+      <c r="F260" s="98"/>
+      <c r="G260" s="98"/>
+      <c r="H260" s="98"/>
+      <c r="I260" s="98"/>
+      <c r="J260" s="98"/>
+      <c r="K260" s="98"/>
+      <c r="L260" s="98"/>
+      <c r="M260" s="150"/>
+      <c r="N260" s="282">
         <f>N248</f>
         <v>0</v>
       </c>
-      <c r="O260" s="200"/>
+      <c r="O260" s="282"/>
     </row>
     <row r="261" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C261" s="70"/>
-      <c r="D261" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="E261" s="103"/>
+      <c r="D261" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="E261" s="102"/>
       <c r="F261" s="13"/>
       <c r="G261" s="10"/>
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
-      <c r="J261" s="126"/>
-      <c r="K261" s="126"/>
-      <c r="L261" s="126"/>
-      <c r="M261" s="162"/>
-      <c r="N261" s="199">
+      <c r="J261" s="117"/>
+      <c r="K261" s="117"/>
+      <c r="L261" s="117"/>
+      <c r="M261" s="151"/>
+      <c r="N261" s="277">
         <f>SUM(N256:O260)</f>
         <v>0</v>
       </c>
-      <c r="O261" s="199"/>
+      <c r="O261" s="277"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="338">
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G157:H157"/>
+  <mergeCells count="365">
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="L233:M234"/>
+    <mergeCell ref="L235:M235"/>
+    <mergeCell ref="L236:M236"/>
+    <mergeCell ref="L237:M237"/>
+    <mergeCell ref="L238:M238"/>
+    <mergeCell ref="L239:M239"/>
+    <mergeCell ref="L240:M240"/>
+    <mergeCell ref="D235:G235"/>
+    <mergeCell ref="D236:G236"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="D238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="D244:H245"/>
+    <mergeCell ref="N247:O247"/>
+    <mergeCell ref="N246:O246"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="L245:N245"/>
+    <mergeCell ref="L244:N244"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="N225:O225"/>
+    <mergeCell ref="N224:O224"/>
+    <mergeCell ref="N235:O235"/>
+    <mergeCell ref="L204:N204"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="D204:I205"/>
+    <mergeCell ref="N217:O217"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="N237:O237"/>
+    <mergeCell ref="N236:O236"/>
+    <mergeCell ref="K242:M242"/>
+    <mergeCell ref="N241:O241"/>
+    <mergeCell ref="N240:O240"/>
+    <mergeCell ref="N239:O239"/>
+    <mergeCell ref="N238:O238"/>
+    <mergeCell ref="G241:M241"/>
+    <mergeCell ref="J233:K234"/>
+    <mergeCell ref="D233:G234"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="N209:O209"/>
+    <mergeCell ref="N208:O208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="N215:O215"/>
+    <mergeCell ref="H233:I234"/>
+    <mergeCell ref="O233:O234"/>
+    <mergeCell ref="N206:O206"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="L205:N205"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="C180:G181"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="N223:O223"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="N218:O218"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="N219:O219"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="N220:O220"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="N221:O221"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="N222:O222"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="N213:O213"/>
+    <mergeCell ref="N210:O210"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="N211:O211"/>
+    <mergeCell ref="N212:O212"/>
+    <mergeCell ref="N214:O214"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C111:F115"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="C12:C42"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C87:C109"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="D103:D109"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C74:C85"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AU8:AX8"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="BC8:BF8"/>
+    <mergeCell ref="BG8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BR8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="BS8:BS10"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AG9:AH9"/>
     <mergeCell ref="C2:F6"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="T4:V4"/>
@@ -20822,275 +21012,51 @@
     <mergeCell ref="N5:R5"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="BS8:BS10"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AU8:AX8"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="BC8:BF8"/>
-    <mergeCell ref="BG8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BR8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="C12:C42"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C87:C109"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="D103:D109"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C74:C85"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C111:F115"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="N213:O213"/>
-    <mergeCell ref="N210:O210"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="N211:O211"/>
-    <mergeCell ref="N212:O212"/>
-    <mergeCell ref="N214:O214"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="N223:O223"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="N218:O218"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="N219:O219"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="N221:O221"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="N222:O222"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="K194:L194"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="K195:L195"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="K191:L191"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="C180:G181"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="N206:O206"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="L205:N205"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="L233:N233"/>
-    <mergeCell ref="J233:K234"/>
-    <mergeCell ref="D233:G234"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="N209:O209"/>
-    <mergeCell ref="N208:O208"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="N215:O215"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="N251:O251"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="N260:O260"/>
-    <mergeCell ref="N237:O237"/>
-    <mergeCell ref="N236:O236"/>
-    <mergeCell ref="K242:M242"/>
-    <mergeCell ref="N241:O241"/>
-    <mergeCell ref="N240:O240"/>
-    <mergeCell ref="N239:O239"/>
-    <mergeCell ref="D244:H245"/>
-    <mergeCell ref="N247:O247"/>
-    <mergeCell ref="N246:O246"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="L245:N245"/>
-    <mergeCell ref="L244:N244"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="N225:O225"/>
-    <mergeCell ref="N224:O224"/>
-    <mergeCell ref="N235:O235"/>
-    <mergeCell ref="L204:N204"/>
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="D204:I205"/>
-    <mergeCell ref="N217:O217"/>
-    <mergeCell ref="N216:O216"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="L234:N234"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G157:H157"/>
   </mergeCells>
   <conditionalFormatting sqref="K242:L242">
     <cfRule type="expression" dxfId="45" priority="1">
@@ -21109,16 +21075,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K246:L246">
     <cfRule type="expression" dxfId="42" priority="4">
-      <formula>J239=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K239:K240">
-    <cfRule type="expression" dxfId="41" priority="5">
-      <formula>J239=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K239:K240">
-    <cfRule type="expression" dxfId="40" priority="6">
       <formula>J239=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21142,22 +21098,7 @@
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M239:M240">
-    <cfRule type="expression" dxfId="35" priority="11">
-      <formula>#REF!=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M236">
-    <cfRule type="expression" dxfId="34" priority="12">
-      <formula>#REF!=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L235:L240">
-    <cfRule type="expression" dxfId="33" priority="13">
-      <formula>#REF!=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J235:J238">
+  <conditionalFormatting sqref="J235:J240">
     <cfRule type="expression" dxfId="32" priority="14">
       <formula>#REF!=0</formula>
     </cfRule>
@@ -21167,7 +21108,7 @@
       <formula>NOT(ISERROR(SEARCH("0",I66:J71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M235">
+  <conditionalFormatting sqref="L235:L240">
     <cfRule type="expression" dxfId="30" priority="16">
       <formula>#REF!=0</formula>
     </cfRule>

--- a/public/excel_templates/INVOICE_V1.xlsx
+++ b/public/excel_templates/INVOICE_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Facturacion\public\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E4F76B-9A72-41AC-88D7-AB8E86AE05F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DC621E-6776-491D-B3E6-CA3C6009F09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1261,19 +1261,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1915,607 +1902,567 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <sz val="10"/>
@@ -3229,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:WYI261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B223" workbookViewId="0">
-      <selection activeCell="J235" sqref="J235:K235"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,92 +3573,92 @@
   <sheetData>
     <row r="1" spans="3:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="180"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="182"/>
-      <c r="I2" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="158"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="258"/>
+      <c r="I2" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="157"/>
     </row>
     <row r="3" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="183"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="185"/>
-      <c r="I3" s="159" t="s">
+      <c r="C3" s="259"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="261"/>
+      <c r="I3" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="208" t="s">
+      <c r="J3" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="189" t="s">
+      <c r="K3" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="190"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="215" t="s">
+      <c r="L3" s="225"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="216"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="208" t="s">
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="287"/>
+      <c r="S3" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="189" t="s">
+      <c r="T3" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="190"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="260"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="216"/>
     </row>
     <row r="4" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="183"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="185"/>
-      <c r="I4" s="210" t="s">
+      <c r="C4" s="259"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="261"/>
+      <c r="I4" s="281" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="208"/>
-      <c r="K4" s="192" t="s">
+      <c r="J4" s="279"/>
+      <c r="K4" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="176"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="218" t="s">
+      <c r="L4" s="198"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="288" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="192" t="s">
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="279"/>
+      <c r="T4" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="176"/>
-      <c r="V4" s="193"/>
-      <c r="W4" s="261"/>
-      <c r="X4" s="262"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="218"/>
       <c r="Z4" s="1">
         <v>0.3</v>
       </c>
@@ -3732,26 +3679,26 @@
       </c>
     </row>
     <row r="5" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="183"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="185"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="208"/>
-      <c r="K5" s="192" t="s">
+      <c r="C5" s="259"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="261"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="176"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="219"/>
-      <c r="S5" s="208"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="279"/>
       <c r="T5" s="3"/>
       <c r="W5" s="152"/>
-      <c r="X5" s="160"/>
+      <c r="X5" s="159"/>
       <c r="Z5" s="1">
         <v>45</v>
       </c>
@@ -3775,306 +3722,306 @@
       </c>
     </row>
     <row r="6" spans="3:72" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="186"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="188"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="224" t="s">
+      <c r="C6" s="262"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="264"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="280"/>
+      <c r="K6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="221"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="220" t="s">
+      <c r="L6" s="182"/>
+      <c r="M6" s="255"/>
+      <c r="N6" s="289" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="222"/>
-      <c r="S6" s="209"/>
-      <c r="T6" s="224" t="s">
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="280"/>
+      <c r="T6" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="221"/>
-      <c r="V6" s="287"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="162"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="160"/>
+      <c r="X6" s="161"/>
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="212" t="s">
+      <c r="C8" s="283" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="212"/>
-      <c r="E8" s="213" t="s">
+      <c r="D8" s="283"/>
+      <c r="E8" s="284" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="214">
+      <c r="G8" s="254">
         <v>44743</v>
       </c>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="214">
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="254">
         <f>G8+1</f>
         <v>44744</v>
       </c>
-      <c r="L8" s="214"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="214"/>
-      <c r="O8" s="214">
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254">
         <f>K8+1</f>
         <v>44745</v>
       </c>
-      <c r="P8" s="214"/>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214">
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="254"/>
+      <c r="S8" s="254">
         <f>O8+1</f>
         <v>44746</v>
       </c>
-      <c r="T8" s="214"/>
-      <c r="U8" s="214"/>
-      <c r="V8" s="214"/>
-      <c r="W8" s="214">
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="254"/>
+      <c r="W8" s="254">
         <f>S8+1</f>
         <v>44747</v>
       </c>
-      <c r="X8" s="214"/>
-      <c r="Y8" s="214"/>
-      <c r="Z8" s="214"/>
-      <c r="AA8" s="214">
+      <c r="X8" s="254"/>
+      <c r="Y8" s="254"/>
+      <c r="Z8" s="254"/>
+      <c r="AA8" s="254">
         <f>W8+1</f>
         <v>44748</v>
       </c>
-      <c r="AB8" s="214"/>
-      <c r="AC8" s="214"/>
-      <c r="AD8" s="214"/>
-      <c r="AE8" s="214">
+      <c r="AB8" s="254"/>
+      <c r="AC8" s="254"/>
+      <c r="AD8" s="254"/>
+      <c r="AE8" s="254">
         <f>AA8+1</f>
         <v>44749</v>
       </c>
-      <c r="AF8" s="214"/>
-      <c r="AG8" s="214"/>
-      <c r="AH8" s="214"/>
-      <c r="AI8" s="214">
+      <c r="AF8" s="254"/>
+      <c r="AG8" s="254"/>
+      <c r="AH8" s="254"/>
+      <c r="AI8" s="254">
         <f>AE8+1</f>
         <v>44750</v>
       </c>
-      <c r="AJ8" s="214"/>
-      <c r="AK8" s="214"/>
-      <c r="AL8" s="214"/>
-      <c r="AM8" s="214">
+      <c r="AJ8" s="254"/>
+      <c r="AK8" s="254"/>
+      <c r="AL8" s="254"/>
+      <c r="AM8" s="254">
         <f>AI8+1</f>
         <v>44751</v>
       </c>
-      <c r="AN8" s="214"/>
-      <c r="AO8" s="214"/>
-      <c r="AP8" s="214"/>
-      <c r="AQ8" s="214">
+      <c r="AN8" s="254"/>
+      <c r="AO8" s="254"/>
+      <c r="AP8" s="254"/>
+      <c r="AQ8" s="254">
         <f>AM8+1</f>
         <v>44752</v>
       </c>
-      <c r="AR8" s="214"/>
-      <c r="AS8" s="214"/>
-      <c r="AT8" s="214"/>
-      <c r="AU8" s="214">
+      <c r="AR8" s="254"/>
+      <c r="AS8" s="254"/>
+      <c r="AT8" s="254"/>
+      <c r="AU8" s="254">
         <f>AQ8+1</f>
         <v>44753</v>
       </c>
-      <c r="AV8" s="214"/>
-      <c r="AW8" s="214"/>
-      <c r="AX8" s="214"/>
-      <c r="AY8" s="214">
+      <c r="AV8" s="254"/>
+      <c r="AW8" s="254"/>
+      <c r="AX8" s="254"/>
+      <c r="AY8" s="254">
         <f>AU8+1</f>
         <v>44754</v>
       </c>
-      <c r="AZ8" s="214"/>
-      <c r="BA8" s="214"/>
-      <c r="BB8" s="214"/>
-      <c r="BC8" s="214">
+      <c r="AZ8" s="254"/>
+      <c r="BA8" s="254"/>
+      <c r="BB8" s="254"/>
+      <c r="BC8" s="254">
         <f>AY8+1</f>
         <v>44755</v>
       </c>
-      <c r="BD8" s="214"/>
-      <c r="BE8" s="214"/>
-      <c r="BF8" s="214"/>
-      <c r="BG8" s="214">
+      <c r="BD8" s="254"/>
+      <c r="BE8" s="254"/>
+      <c r="BF8" s="254"/>
+      <c r="BG8" s="254">
         <f>BC8+1</f>
         <v>44756</v>
       </c>
-      <c r="BH8" s="214"/>
-      <c r="BI8" s="214"/>
-      <c r="BJ8" s="214"/>
-      <c r="BK8" s="214">
+      <c r="BH8" s="254"/>
+      <c r="BI8" s="254"/>
+      <c r="BJ8" s="254"/>
+      <c r="BK8" s="254">
         <f>BG8+1</f>
         <v>44757</v>
       </c>
-      <c r="BL8" s="214"/>
-      <c r="BM8" s="214"/>
-      <c r="BN8" s="214"/>
-      <c r="BO8" s="214">
+      <c r="BL8" s="254"/>
+      <c r="BM8" s="254"/>
+      <c r="BN8" s="254"/>
+      <c r="BO8" s="254">
         <f>BK8+1</f>
         <v>44758</v>
       </c>
-      <c r="BP8" s="214"/>
-      <c r="BQ8" s="214"/>
-      <c r="BR8" s="214"/>
-      <c r="BS8" s="225" t="s">
+      <c r="BP8" s="254"/>
+      <c r="BQ8" s="254"/>
+      <c r="BR8" s="254"/>
+      <c r="BS8" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="BT8" s="225" t="s">
+      <c r="BT8" s="253" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="212"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="213"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="283"/>
+      <c r="E9" s="284"/>
       <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="226"/>
-      <c r="I9" s="226" t="s">
+      <c r="H9" s="227"/>
+      <c r="I9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="226"/>
-      <c r="K9" s="226" t="s">
+      <c r="J9" s="227"/>
+      <c r="K9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="226"/>
-      <c r="M9" s="226" t="s">
+      <c r="L9" s="227"/>
+      <c r="M9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="226"/>
-      <c r="O9" s="226" t="s">
+      <c r="N9" s="227"/>
+      <c r="O9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="226"/>
-      <c r="Q9" s="226" t="s">
+      <c r="P9" s="227"/>
+      <c r="Q9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="226"/>
-      <c r="S9" s="226" t="s">
+      <c r="R9" s="227"/>
+      <c r="S9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="226"/>
-      <c r="U9" s="226" t="s">
+      <c r="T9" s="227"/>
+      <c r="U9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="226"/>
-      <c r="W9" s="226" t="s">
+      <c r="V9" s="227"/>
+      <c r="W9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="226" t="s">
+      <c r="X9" s="227"/>
+      <c r="Y9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="Z9" s="226"/>
-      <c r="AA9" s="226" t="s">
+      <c r="Z9" s="227"/>
+      <c r="AA9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="AB9" s="226"/>
-      <c r="AC9" s="226" t="s">
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="226"/>
-      <c r="AE9" s="226" t="s">
+      <c r="AD9" s="227"/>
+      <c r="AE9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" s="226"/>
-      <c r="AG9" s="226" t="s">
+      <c r="AF9" s="227"/>
+      <c r="AG9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="AH9" s="226"/>
-      <c r="AI9" s="226" t="s">
+      <c r="AH9" s="227"/>
+      <c r="AI9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="AJ9" s="226"/>
-      <c r="AK9" s="226" t="s">
+      <c r="AJ9" s="227"/>
+      <c r="AK9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="AL9" s="226"/>
-      <c r="AM9" s="226" t="s">
+      <c r="AL9" s="227"/>
+      <c r="AM9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="AN9" s="226"/>
-      <c r="AO9" s="226" t="s">
+      <c r="AN9" s="227"/>
+      <c r="AO9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="AP9" s="226"/>
-      <c r="AQ9" s="226" t="s">
+      <c r="AP9" s="227"/>
+      <c r="AQ9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="AR9" s="226"/>
-      <c r="AS9" s="226" t="s">
+      <c r="AR9" s="227"/>
+      <c r="AS9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="AT9" s="226"/>
-      <c r="AU9" s="226" t="s">
+      <c r="AT9" s="227"/>
+      <c r="AU9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="AV9" s="226"/>
-      <c r="AW9" s="226" t="s">
+      <c r="AV9" s="227"/>
+      <c r="AW9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="AX9" s="226"/>
-      <c r="AY9" s="226" t="s">
+      <c r="AX9" s="227"/>
+      <c r="AY9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="AZ9" s="226"/>
-      <c r="BA9" s="226" t="s">
+      <c r="AZ9" s="227"/>
+      <c r="BA9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="BB9" s="226"/>
-      <c r="BC9" s="226" t="s">
+      <c r="BB9" s="227"/>
+      <c r="BC9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="BD9" s="226"/>
-      <c r="BE9" s="226" t="s">
+      <c r="BD9" s="227"/>
+      <c r="BE9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="BF9" s="226"/>
-      <c r="BG9" s="226" t="s">
+      <c r="BF9" s="227"/>
+      <c r="BG9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="BH9" s="226"/>
-      <c r="BI9" s="226" t="s">
+      <c r="BH9" s="227"/>
+      <c r="BI9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="BJ9" s="226"/>
-      <c r="BK9" s="226" t="s">
+      <c r="BJ9" s="227"/>
+      <c r="BK9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="BL9" s="226"/>
-      <c r="BM9" s="226" t="s">
+      <c r="BL9" s="227"/>
+      <c r="BM9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="BN9" s="226"/>
-      <c r="BO9" s="226" t="s">
+      <c r="BN9" s="227"/>
+      <c r="BO9" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="BP9" s="226"/>
-      <c r="BQ9" s="226" t="s">
+      <c r="BP9" s="227"/>
+      <c r="BQ9" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="BR9" s="226"/>
-      <c r="BS9" s="225"/>
-      <c r="BT9" s="225"/>
+      <c r="BR9" s="227"/>
+      <c r="BS9" s="253"/>
+      <c r="BT9" s="253"/>
     </row>
     <row r="10" spans="3:72" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="213"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="284"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
         <v>19</v>
@@ -4268,8 +4215,8 @@
       <c r="BR10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BS10" s="225"/>
-      <c r="BT10" s="225"/>
+      <c r="BS10" s="253"/>
+      <c r="BT10" s="253"/>
     </row>
     <row r="11" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
@@ -4344,10 +4291,10 @@
       <c r="BT11" s="13"/>
     </row>
     <row r="12" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="230" t="s">
+      <c r="C12" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="194"/>
+      <c r="D12" s="246"/>
       <c r="E12" s="153" t="s">
         <v>23</v>
       </c>
@@ -4486,8 +4433,8 @@
       <c r="BT12" s="16"/>
     </row>
     <row r="13" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="206"/>
       <c r="E13" s="153" t="s">
         <v>25</v>
       </c>
@@ -4626,8 +4573,8 @@
       <c r="BT13" s="16"/>
     </row>
     <row r="14" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="231"/>
-      <c r="D14" s="234"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="207"/>
       <c r="E14" s="154" t="s">
         <v>26</v>
       </c>
@@ -4799,8 +4746,8 @@
       <c r="BT14" s="19"/>
     </row>
     <row r="15" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="231"/>
-      <c r="D15" s="235"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="205"/>
       <c r="E15" s="153" t="s">
         <v>23</v>
       </c>
@@ -4939,8 +4886,8 @@
       <c r="BT15" s="16"/>
     </row>
     <row r="16" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="231"/>
-      <c r="D16" s="233"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="206"/>
       <c r="E16" s="153" t="s">
         <v>25</v>
       </c>
@@ -5079,8 +5026,8 @@
       <c r="BT16" s="16"/>
     </row>
     <row r="17" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="231"/>
-      <c r="D17" s="234"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="207"/>
       <c r="E17" s="154" t="s">
         <v>26</v>
       </c>
@@ -5252,8 +5199,8 @@
       <c r="BT17" s="19"/>
     </row>
     <row r="18" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="231"/>
-      <c r="D18" s="235"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="205"/>
       <c r="E18" s="153" t="s">
         <v>23</v>
       </c>
@@ -5392,8 +5339,8 @@
       <c r="BT18" s="16"/>
     </row>
     <row r="19" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="231"/>
-      <c r="D19" s="233"/>
+      <c r="C19" s="244"/>
+      <c r="D19" s="206"/>
       <c r="E19" s="153" t="s">
         <v>25</v>
       </c>
@@ -5532,8 +5479,8 @@
       <c r="BT19" s="16"/>
     </row>
     <row r="20" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="231"/>
-      <c r="D20" s="234"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="207"/>
       <c r="E20" s="154" t="s">
         <v>26</v>
       </c>
@@ -5705,8 +5652,8 @@
       <c r="BT20" s="19"/>
     </row>
     <row r="21" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="231"/>
-      <c r="D21" s="235"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="205"/>
       <c r="E21" s="153" t="s">
         <v>23</v>
       </c>
@@ -5845,8 +5792,8 @@
       <c r="BT21" s="16"/>
     </row>
     <row r="22" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="231"/>
-      <c r="D22" s="233"/>
+      <c r="C22" s="244"/>
+      <c r="D22" s="206"/>
       <c r="E22" s="153" t="s">
         <v>25</v>
       </c>
@@ -5985,8 +5932,8 @@
       <c r="BT22" s="16"/>
     </row>
     <row r="23" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="231"/>
-      <c r="D23" s="234"/>
+      <c r="C23" s="244"/>
+      <c r="D23" s="207"/>
       <c r="E23" s="154" t="s">
         <v>26</v>
       </c>
@@ -6158,8 +6105,8 @@
       <c r="BT23" s="19"/>
     </row>
     <row r="24" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="231"/>
-      <c r="D24" s="235"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="205"/>
       <c r="E24" s="153" t="s">
         <v>23</v>
       </c>
@@ -6298,8 +6245,8 @@
       <c r="BT24" s="16"/>
     </row>
     <row r="25" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="231"/>
-      <c r="D25" s="233"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="206"/>
       <c r="E25" s="153" t="s">
         <v>25</v>
       </c>
@@ -6438,8 +6385,8 @@
       <c r="BT25" s="16"/>
     </row>
     <row r="26" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="231"/>
-      <c r="D26" s="234"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="207"/>
       <c r="E26" s="154" t="s">
         <v>26</v>
       </c>
@@ -6611,8 +6558,8 @@
       <c r="BT26" s="19"/>
     </row>
     <row r="27" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="231"/>
-      <c r="D27" s="235"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="205"/>
       <c r="E27" s="153" t="s">
         <v>23</v>
       </c>
@@ -6751,8 +6698,8 @@
       <c r="BT27" s="16"/>
     </row>
     <row r="28" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="231"/>
-      <c r="D28" s="233"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="206"/>
       <c r="E28" s="153" t="s">
         <v>25</v>
       </c>
@@ -6891,8 +6838,8 @@
       <c r="BT28" s="16"/>
     </row>
     <row r="29" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="231"/>
-      <c r="D29" s="234"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="207"/>
       <c r="E29" s="154" t="s">
         <v>26</v>
       </c>
@@ -7064,8 +7011,8 @@
       <c r="BT29" s="19"/>
     </row>
     <row r="30" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="231"/>
-      <c r="D30" s="235"/>
+      <c r="C30" s="244"/>
+      <c r="D30" s="205"/>
       <c r="E30" s="153" t="s">
         <v>23</v>
       </c>
@@ -7204,8 +7151,8 @@
       <c r="BT30" s="16"/>
     </row>
     <row r="31" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="231"/>
-      <c r="D31" s="233"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="206"/>
       <c r="E31" s="153" t="s">
         <v>25</v>
       </c>
@@ -7344,8 +7291,8 @@
       <c r="BT31" s="16"/>
     </row>
     <row r="32" spans="3:72" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="231"/>
-      <c r="D32" s="234"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="207"/>
       <c r="E32" s="154" t="s">
         <v>26</v>
       </c>
@@ -7517,8 +7464,8 @@
       <c r="BT32" s="19"/>
     </row>
     <row r="33" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="231"/>
-      <c r="D33" s="235"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="205"/>
       <c r="E33" s="153" t="s">
         <v>23</v>
       </c>
@@ -7657,8 +7604,8 @@
       <c r="BT33" s="16"/>
     </row>
     <row r="34" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="231"/>
-      <c r="D34" s="233"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="206"/>
       <c r="E34" s="153" t="s">
         <v>25</v>
       </c>
@@ -7797,8 +7744,8 @@
       <c r="BT34" s="16"/>
     </row>
     <row r="35" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="231"/>
-      <c r="D35" s="234"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="207"/>
       <c r="E35" s="154" t="s">
         <v>26</v>
       </c>
@@ -7970,8 +7917,8 @@
       <c r="BT35" s="19"/>
     </row>
     <row r="36" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="231"/>
-      <c r="D36" s="235"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="205"/>
       <c r="E36" s="153" t="s">
         <v>23</v>
       </c>
@@ -8110,8 +8057,8 @@
       <c r="BT36" s="16"/>
     </row>
     <row r="37" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="231"/>
-      <c r="D37" s="233"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="206"/>
       <c r="E37" s="153" t="s">
         <v>25</v>
       </c>
@@ -8250,8 +8197,8 @@
       <c r="BT37" s="16"/>
     </row>
     <row r="38" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="231"/>
-      <c r="D38" s="234"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="207"/>
       <c r="E38" s="154" t="s">
         <v>26</v>
       </c>
@@ -8423,8 +8370,8 @@
       <c r="BT38" s="19"/>
     </row>
     <row r="39" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="231"/>
-      <c r="D39" s="235"/>
+      <c r="C39" s="244"/>
+      <c r="D39" s="205"/>
       <c r="E39" s="153" t="s">
         <v>23</v>
       </c>
@@ -8563,8 +8510,8 @@
       <c r="BT39" s="16"/>
     </row>
     <row r="40" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="231"/>
-      <c r="D40" s="233"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="206"/>
       <c r="E40" s="153" t="s">
         <v>25</v>
       </c>
@@ -8703,8 +8650,8 @@
       <c r="BT40" s="16"/>
     </row>
     <row r="41" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="231"/>
-      <c r="D41" s="234"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="207"/>
       <c r="E41" s="154" t="s">
         <v>26</v>
       </c>
@@ -8876,9 +8823,9 @@
       <c r="BT41" s="19"/>
     </row>
     <row r="42" spans="1:74" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="232"/>
-      <c r="D42" s="236"/>
-      <c r="E42" s="236"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="247"/>
+      <c r="E42" s="247"/>
       <c r="F42" s="20" t="s">
         <v>24</v>
       </c>
@@ -9124,12 +9071,12 @@
       <c r="BT43" s="26"/>
     </row>
     <row r="44" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="239" t="s">
+      <c r="C44" s="250" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="189"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="223"/>
+      <c r="D44" s="224"/>
+      <c r="E44" s="225"/>
+      <c r="F44" s="226"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -9210,10 +9157,10 @@
       </c>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C45" s="239"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="192"/>
+      <c r="C45" s="250"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="197"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
@@ -9297,10 +9244,10 @@
       <c r="A46" s="1">
         <v>5</v>
       </c>
-      <c r="C46" s="239"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="219"/>
+      <c r="C46" s="250"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="199"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -9381,10 +9328,10 @@
       </c>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C47" s="239"/>
-      <c r="D47" s="192"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="219"/>
+      <c r="C47" s="250"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="199"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -9465,10 +9412,10 @@
       </c>
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C48" s="239"/>
-      <c r="D48" s="192"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="219"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="198"/>
+      <c r="F48" s="199"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -9549,10 +9496,10 @@
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C49" s="239"/>
-      <c r="D49" s="192"/>
-      <c r="E49" s="176"/>
-      <c r="F49" s="219"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="198"/>
+      <c r="F49" s="199"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
@@ -9636,10 +9583,10 @@
       <c r="A50" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C50" s="239"/>
-      <c r="D50" s="192"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="219"/>
+      <c r="C50" s="250"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="198"/>
+      <c r="F50" s="199"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -9734,10 +9681,10 @@
       <c r="CJ50" s="33"/>
     </row>
     <row r="51" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C51" s="239"/>
-      <c r="D51" s="192"/>
-      <c r="E51" s="176"/>
-      <c r="F51" s="219"/>
+      <c r="C51" s="250"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="198"/>
+      <c r="F51" s="199"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -9818,10 +9765,10 @@
       </c>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C52" s="239"/>
-      <c r="D52" s="192"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="219"/>
+      <c r="C52" s="250"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="199"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -9902,10 +9849,10 @@
       </c>
     </row>
     <row r="53" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C53" s="239"/>
-      <c r="D53" s="192"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="219"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="199"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -9986,10 +9933,10 @@
       </c>
     </row>
     <row r="54" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C54" s="239"/>
-      <c r="D54" s="192"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="219"/>
+      <c r="C54" s="250"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="198"/>
+      <c r="F54" s="199"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -10070,10 +10017,10 @@
       </c>
     </row>
     <row r="55" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C55" s="239"/>
-      <c r="D55" s="192"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="219"/>
+      <c r="C55" s="250"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="198"/>
+      <c r="F55" s="199"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -10154,10 +10101,10 @@
       </c>
     </row>
     <row r="56" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C56" s="239"/>
-      <c r="D56" s="192"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="219"/>
+      <c r="C56" s="250"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="199"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
@@ -10238,10 +10185,10 @@
       </c>
     </row>
     <row r="57" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C57" s="239"/>
-      <c r="D57" s="192"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="219"/>
+      <c r="C57" s="250"/>
+      <c r="D57" s="197"/>
+      <c r="E57" s="198"/>
+      <c r="F57" s="199"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -10322,10 +10269,10 @@
       </c>
     </row>
     <row r="58" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C58" s="239"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="219"/>
+      <c r="C58" s="250"/>
+      <c r="D58" s="197"/>
+      <c r="E58" s="198"/>
+      <c r="F58" s="199"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
       <c r="I58" s="34"/>
@@ -10406,10 +10353,10 @@
       </c>
     </row>
     <row r="59" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C59" s="239"/>
-      <c r="D59" s="192"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="219"/>
+      <c r="C59" s="250"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="199"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
@@ -10490,10 +10437,10 @@
       </c>
     </row>
     <row r="60" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C60" s="239"/>
-      <c r="D60" s="192"/>
-      <c r="E60" s="176"/>
-      <c r="F60" s="219"/>
+      <c r="C60" s="250"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="198"/>
+      <c r="F60" s="199"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
@@ -10574,10 +10521,10 @@
       </c>
     </row>
     <row r="61" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C61" s="239"/>
-      <c r="D61" s="192"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="219"/>
+      <c r="C61" s="250"/>
+      <c r="D61" s="197"/>
+      <c r="E61" s="198"/>
+      <c r="F61" s="199"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
@@ -10658,10 +10605,10 @@
       </c>
     </row>
     <row r="62" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C62" s="239"/>
-      <c r="D62" s="192"/>
-      <c r="E62" s="176"/>
-      <c r="F62" s="219"/>
+      <c r="C62" s="250"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="198"/>
+      <c r="F62" s="199"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
@@ -10742,10 +10689,10 @@
       </c>
     </row>
     <row r="63" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C63" s="239"/>
-      <c r="D63" s="192"/>
-      <c r="E63" s="176"/>
-      <c r="F63" s="219"/>
+      <c r="C63" s="250"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="198"/>
+      <c r="F63" s="199"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
       <c r="I63" s="34"/>
@@ -10826,7 +10773,7 @@
       </c>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="C64" s="239"/>
+      <c r="C64" s="250"/>
       <c r="D64" s="35" t="s">
         <v>31</v>
       </c>
@@ -12531,14 +12478,14 @@
     </row>
     <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
-      <c r="C74" s="240" t="s">
+      <c r="C74" s="251" t="s">
         <v>32</v>
       </c>
-      <c r="D74" s="241" t="s">
+      <c r="D74" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="E74" s="241"/>
-      <c r="F74" s="241"/>
+      <c r="E74" s="252"/>
+      <c r="F74" s="252"/>
       <c r="G74" s="46"/>
       <c r="H74" s="46"/>
       <c r="I74" s="46"/>
@@ -12610,12 +12557,12 @@
       </c>
     </row>
     <row r="75" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C75" s="240"/>
-      <c r="D75" s="242" t="s">
+      <c r="C75" s="251"/>
+      <c r="D75" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="242"/>
-      <c r="F75" s="242"/>
+      <c r="E75" s="222"/>
+      <c r="F75" s="222"/>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
       <c r="I75" s="48"/>
@@ -12687,12 +12634,12 @@
       </c>
     </row>
     <row r="76" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C76" s="240"/>
-      <c r="D76" s="242" t="s">
+      <c r="C76" s="251"/>
+      <c r="D76" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="242"/>
-      <c r="F76" s="242"/>
+      <c r="E76" s="222"/>
+      <c r="F76" s="222"/>
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
       <c r="I76" s="48"/>
@@ -12764,12 +12711,12 @@
       </c>
     </row>
     <row r="77" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C77" s="240"/>
-      <c r="D77" s="242" t="s">
+      <c r="C77" s="251"/>
+      <c r="D77" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="E77" s="242"/>
-      <c r="F77" s="242"/>
+      <c r="E77" s="222"/>
+      <c r="F77" s="222"/>
       <c r="G77" s="48"/>
       <c r="H77" s="48"/>
       <c r="I77" s="48"/>
@@ -12841,12 +12788,12 @@
       </c>
     </row>
     <row r="78" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C78" s="240"/>
-      <c r="D78" s="242" t="s">
+      <c r="C78" s="251"/>
+      <c r="D78" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="242"/>
-      <c r="F78" s="242"/>
+      <c r="E78" s="222"/>
+      <c r="F78" s="222"/>
       <c r="G78" s="48"/>
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
@@ -12921,12 +12868,12 @@
       <c r="A79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="240"/>
-      <c r="D79" s="242" t="s">
+      <c r="C79" s="251"/>
+      <c r="D79" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="242"/>
-      <c r="F79" s="242"/>
+      <c r="E79" s="222"/>
+      <c r="F79" s="222"/>
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
@@ -12998,12 +12945,12 @@
       </c>
     </row>
     <row r="80" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="C80" s="240"/>
-      <c r="D80" s="242" t="s">
+      <c r="C80" s="251"/>
+      <c r="D80" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="242"/>
-      <c r="F80" s="242"/>
+      <c r="E80" s="222"/>
+      <c r="F80" s="222"/>
       <c r="G80" s="48"/>
       <c r="H80" s="48"/>
       <c r="I80" s="48"/>
@@ -13075,12 +13022,12 @@
       </c>
     </row>
     <row r="81" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C81" s="240"/>
-      <c r="D81" s="242" t="s">
+      <c r="C81" s="251"/>
+      <c r="D81" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="242"/>
-      <c r="F81" s="242"/>
+      <c r="E81" s="222"/>
+      <c r="F81" s="222"/>
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
       <c r="I81" s="48"/>
@@ -13152,12 +13099,12 @@
       </c>
     </row>
     <row r="82" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C82" s="240"/>
-      <c r="D82" s="242" t="s">
+      <c r="C82" s="251"/>
+      <c r="D82" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="242"/>
-      <c r="F82" s="242"/>
+      <c r="E82" s="222"/>
+      <c r="F82" s="222"/>
       <c r="G82" s="48"/>
       <c r="H82" s="48"/>
       <c r="I82" s="48"/>
@@ -13229,12 +13176,12 @@
       </c>
     </row>
     <row r="83" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C83" s="240"/>
-      <c r="D83" s="242" t="s">
+      <c r="C83" s="251"/>
+      <c r="D83" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="242"/>
-      <c r="F83" s="242"/>
+      <c r="E83" s="222"/>
+      <c r="F83" s="222"/>
       <c r="G83" s="48"/>
       <c r="H83" s="48"/>
       <c r="I83" s="48"/>
@@ -13306,12 +13253,12 @@
       </c>
     </row>
     <row r="84" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C84" s="240"/>
-      <c r="D84" s="242" t="s">
+      <c r="C84" s="251"/>
+      <c r="D84" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="242"/>
-      <c r="F84" s="242"/>
+      <c r="E84" s="222"/>
+      <c r="F84" s="222"/>
       <c r="G84" s="48"/>
       <c r="H84" s="48"/>
       <c r="I84" s="48"/>
@@ -13383,12 +13330,12 @@
       </c>
     </row>
     <row r="85" spans="3:72" x14ac:dyDescent="0.25">
-      <c r="C85" s="240"/>
-      <c r="D85" s="245" t="s">
+      <c r="C85" s="251"/>
+      <c r="D85" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="245"/>
-      <c r="F85" s="245"/>
+      <c r="E85" s="223"/>
+      <c r="F85" s="223"/>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
       <c r="I85" s="50"/>
@@ -13466,10 +13413,10 @@
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="248" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="238" t="s">
+      <c r="D87" s="249" t="s">
         <v>22</v>
       </c>
       <c r="E87" s="53"/>
@@ -13642,8 +13589,8 @@
       </c>
     </row>
     <row r="88" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="237"/>
-      <c r="D88" s="238"/>
+      <c r="C88" s="248"/>
+      <c r="D88" s="249"/>
       <c r="E88" s="57"/>
       <c r="F88" s="58">
         <v>100</v>
@@ -13814,8 +13761,8 @@
       </c>
     </row>
     <row r="89" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="237"/>
-      <c r="D89" s="238"/>
+      <c r="C89" s="248"/>
+      <c r="D89" s="249"/>
       <c r="E89" s="57"/>
       <c r="F89" s="58">
         <v>2000</v>
@@ -13986,8 +13933,8 @@
       </c>
     </row>
     <row r="90" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="237"/>
-      <c r="D90" s="238"/>
+      <c r="C90" s="248"/>
+      <c r="D90" s="249"/>
       <c r="E90" s="61"/>
       <c r="F90" s="62" t="s">
         <v>46</v>
@@ -14158,8 +14105,8 @@
       </c>
     </row>
     <row r="91" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="237"/>
-      <c r="D91" s="238" t="s">
+      <c r="C91" s="248"/>
+      <c r="D91" s="249" t="s">
         <v>47</v>
       </c>
       <c r="E91" s="53"/>
@@ -14332,8 +14279,8 @@
       </c>
     </row>
     <row r="92" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="237"/>
-      <c r="D92" s="238"/>
+      <c r="C92" s="248"/>
+      <c r="D92" s="249"/>
       <c r="E92" s="57"/>
       <c r="F92" s="58">
         <v>40</v>
@@ -14504,8 +14451,8 @@
       </c>
     </row>
     <row r="93" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="237"/>
-      <c r="D93" s="238"/>
+      <c r="C93" s="248"/>
+      <c r="D93" s="249"/>
       <c r="E93" s="57"/>
       <c r="F93" s="58">
         <v>2000</v>
@@ -14676,8 +14623,8 @@
       </c>
     </row>
     <row r="94" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="237"/>
-      <c r="D94" s="238"/>
+      <c r="C94" s="248"/>
+      <c r="D94" s="249"/>
       <c r="E94" s="61"/>
       <c r="F94" s="62" t="s">
         <v>46</v>
@@ -14848,8 +14795,8 @@
       </c>
     </row>
     <row r="95" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="237"/>
-      <c r="D95" s="238" t="s">
+      <c r="C95" s="248"/>
+      <c r="D95" s="249" t="s">
         <v>48</v>
       </c>
       <c r="E95" s="53"/>
@@ -15022,8 +14969,8 @@
       </c>
     </row>
     <row r="96" spans="3:72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="237"/>
-      <c r="D96" s="238"/>
+      <c r="C96" s="248"/>
+      <c r="D96" s="249"/>
       <c r="E96" s="57"/>
       <c r="F96" s="58">
         <v>200</v>
@@ -15194,8 +15141,8 @@
       </c>
     </row>
     <row r="97" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="237"/>
-      <c r="D97" s="238"/>
+      <c r="C97" s="248"/>
+      <c r="D97" s="249"/>
       <c r="E97" s="57"/>
       <c r="F97" s="58">
         <v>2000</v>
@@ -15366,8 +15313,8 @@
       </c>
     </row>
     <row r="98" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="237"/>
-      <c r="D98" s="238"/>
+      <c r="C98" s="248"/>
+      <c r="D98" s="249"/>
       <c r="E98" s="61"/>
       <c r="F98" s="62" t="s">
         <v>46</v>
@@ -15538,8 +15485,8 @@
       </c>
     </row>
     <row r="99" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="237"/>
-      <c r="D99" s="238" t="s">
+      <c r="C99" s="248"/>
+      <c r="D99" s="249" t="s">
         <v>27</v>
       </c>
       <c r="E99" s="53"/>
@@ -15712,8 +15659,8 @@
       </c>
     </row>
     <row r="100" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="237"/>
-      <c r="D100" s="238"/>
+      <c r="C100" s="248"/>
+      <c r="D100" s="249"/>
       <c r="E100" s="57"/>
       <c r="F100" s="58">
         <v>300</v>
@@ -15884,8 +15831,8 @@
       </c>
     </row>
     <row r="101" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="237"/>
-      <c r="D101" s="238"/>
+      <c r="C101" s="248"/>
+      <c r="D101" s="249"/>
       <c r="E101" s="57"/>
       <c r="F101" s="58">
         <v>2000</v>
@@ -16056,8 +16003,8 @@
       </c>
     </row>
     <row r="102" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="237"/>
-      <c r="D102" s="238"/>
+      <c r="C102" s="248"/>
+      <c r="D102" s="249"/>
       <c r="E102" s="61"/>
       <c r="F102" s="62" t="s">
         <v>46</v>
@@ -16228,8 +16175,8 @@
       </c>
     </row>
     <row r="103" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="237"/>
-      <c r="D103" s="238" t="s">
+      <c r="C103" s="248"/>
+      <c r="D103" s="249" t="s">
         <v>28</v>
       </c>
       <c r="E103" s="53"/>
@@ -16402,8 +16349,8 @@
       </c>
     </row>
     <row r="104" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="237"/>
-      <c r="D104" s="238"/>
+      <c r="C104" s="248"/>
+      <c r="D104" s="249"/>
       <c r="E104" s="57"/>
       <c r="F104" s="58">
         <v>300</v>
@@ -16574,8 +16521,8 @@
       </c>
     </row>
     <row r="105" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="237"/>
-      <c r="D105" s="238"/>
+      <c r="C105" s="248"/>
+      <c r="D105" s="249"/>
       <c r="E105" s="57"/>
       <c r="F105" s="58">
         <v>500</v>
@@ -16746,8 +16693,8 @@
       </c>
     </row>
     <row r="106" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="237"/>
-      <c r="D106" s="238"/>
+      <c r="C106" s="248"/>
+      <c r="D106" s="249"/>
       <c r="E106" s="57"/>
       <c r="F106" s="58">
         <v>800</v>
@@ -16918,8 +16865,8 @@
       </c>
     </row>
     <row r="107" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="237"/>
-      <c r="D107" s="238"/>
+      <c r="C107" s="248"/>
+      <c r="D107" s="249"/>
       <c r="E107" s="57"/>
       <c r="F107" s="58">
         <v>1000</v>
@@ -17090,8 +17037,8 @@
       </c>
     </row>
     <row r="108" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="237"/>
-      <c r="D108" s="238"/>
+      <c r="C108" s="248"/>
+      <c r="D108" s="249"/>
       <c r="E108" s="57"/>
       <c r="F108" s="58">
         <v>2000</v>
@@ -17262,8 +17209,8 @@
       </c>
     </row>
     <row r="109" spans="3:73" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="237"/>
-      <c r="D109" s="238"/>
+      <c r="C109" s="248"/>
+      <c r="D109" s="249"/>
       <c r="E109" s="61"/>
       <c r="F109" s="62" t="s">
         <v>46</v>
@@ -17507,10 +17454,10 @@
       <c r="BU110" s="59"/>
     </row>
     <row r="111" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C111" s="246"/>
-      <c r="D111" s="247"/>
-      <c r="E111" s="247"/>
-      <c r="F111" s="248"/>
+      <c r="C111" s="228"/>
+      <c r="D111" s="229"/>
+      <c r="E111" s="229"/>
+      <c r="F111" s="230"/>
       <c r="I111" s="1" t="s">
         <v>49</v>
       </c>
@@ -17522,10 +17469,10 @@
       <c r="O111" s="5"/>
     </row>
     <row r="112" spans="3:73" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="249"/>
-      <c r="D112" s="250"/>
-      <c r="E112" s="250"/>
-      <c r="F112" s="251"/>
+      <c r="C112" s="231"/>
+      <c r="D112" s="232"/>
+      <c r="E112" s="232"/>
+      <c r="F112" s="233"/>
       <c r="I112" s="1" t="s">
         <v>51</v>
       </c>
@@ -17537,10 +17484,10 @@
       <c r="O112" s="69"/>
     </row>
     <row r="113" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="249"/>
-      <c r="D113" s="250"/>
-      <c r="E113" s="250"/>
-      <c r="F113" s="251"/>
+      <c r="C113" s="231"/>
+      <c r="D113" s="232"/>
+      <c r="E113" s="232"/>
+      <c r="F113" s="233"/>
       <c r="I113" s="1" t="s">
         <v>55</v>
       </c>
@@ -17549,10 +17496,10 @@
       <c r="O113" s="69"/>
     </row>
     <row r="114" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="249"/>
-      <c r="D114" s="250"/>
-      <c r="E114" s="250"/>
-      <c r="F114" s="251"/>
+      <c r="C114" s="231"/>
+      <c r="D114" s="232"/>
+      <c r="E114" s="232"/>
+      <c r="F114" s="233"/>
       <c r="I114" s="1" t="s">
         <v>58</v>
       </c>
@@ -17566,10 +17513,10 @@
       <c r="AD114" s="77"/>
     </row>
     <row r="115" spans="3:30" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="252"/>
-      <c r="D115" s="253"/>
-      <c r="E115" s="253"/>
-      <c r="F115" s="254"/>
+      <c r="C115" s="234"/>
+      <c r="D115" s="235"/>
+      <c r="E115" s="235"/>
+      <c r="F115" s="236"/>
       <c r="I115" s="1" t="s">
         <v>59</v>
       </c>
@@ -17608,11 +17555,11 @@
       <c r="I117" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M117" s="228">
+      <c r="M117" s="239">
         <f>G8</f>
         <v>44743</v>
       </c>
-      <c r="N117" s="228"/>
+      <c r="N117" s="239"/>
       <c r="O117" s="83"/>
       <c r="AC117" s="77"/>
       <c r="AD117" s="77"/>
@@ -17629,11 +17576,11 @@
       <c r="I118" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M118" s="228">
+      <c r="M118" s="239">
         <f>BK8</f>
         <v>44757</v>
       </c>
-      <c r="N118" s="228"/>
+      <c r="N118" s="239"/>
       <c r="O118" s="83"/>
       <c r="AC118" s="77"/>
       <c r="AD118" s="77"/>
@@ -17650,11 +17597,11 @@
       <c r="I119" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M119" s="256">
+      <c r="M119" s="221">
         <f>D127+D131+D134+D138+D141</f>
         <v>0</v>
       </c>
-      <c r="N119" s="256"/>
+      <c r="N119" s="221"/>
       <c r="O119" s="87"/>
       <c r="AC119" s="77"/>
       <c r="AD119" s="77"/>
@@ -17693,11 +17640,11 @@
       <c r="J121" s="90"/>
       <c r="K121" s="90"/>
       <c r="L121" s="90"/>
-      <c r="M121" s="229">
+      <c r="M121" s="242">
         <f>N261</f>
         <v>0</v>
       </c>
-      <c r="N121" s="229"/>
+      <c r="N121" s="242"/>
       <c r="O121" s="87"/>
       <c r="AC121" s="77"/>
       <c r="AD121" s="77"/>
@@ -17713,107 +17660,107 @@
       <c r="AD122" s="77"/>
     </row>
     <row r="123" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="198" t="s">
+      <c r="C123" s="269" t="s">
         <v>70</v>
       </c>
-      <c r="D123" s="199"/>
-      <c r="E123" s="199"/>
-      <c r="F123" s="199"/>
-      <c r="G123" s="199"/>
-      <c r="H123" s="200"/>
-      <c r="I123" s="201"/>
-      <c r="J123" s="202"/>
-      <c r="K123" s="202"/>
-      <c r="L123" s="202"/>
-      <c r="M123" s="202"/>
-      <c r="N123" s="203"/>
+      <c r="D123" s="270"/>
+      <c r="E123" s="270"/>
+      <c r="F123" s="270"/>
+      <c r="G123" s="270"/>
+      <c r="H123" s="271"/>
+      <c r="I123" s="272"/>
+      <c r="J123" s="273"/>
+      <c r="K123" s="273"/>
+      <c r="L123" s="273"/>
+      <c r="M123" s="273"/>
+      <c r="N123" s="274"/>
       <c r="O123" s="87"/>
       <c r="AC123" s="77"/>
       <c r="AD123" s="77"/>
     </row>
     <row r="124" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="227" t="s">
+      <c r="C124" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="D124" s="194" t="s">
+      <c r="D124" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="E124" s="194" t="s">
+      <c r="E124" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="F124" s="177" t="s">
+      <c r="F124" s="237" t="s">
         <v>72</v>
       </c>
-      <c r="G124" s="178"/>
-      <c r="H124" s="179"/>
-      <c r="I124" s="196" t="s">
+      <c r="G124" s="290"/>
+      <c r="H124" s="238"/>
+      <c r="I124" s="241" t="s">
         <v>73</v>
       </c>
-      <c r="J124" s="163"/>
-      <c r="K124" s="163"/>
-      <c r="L124" s="195" t="s">
+      <c r="J124" s="162"/>
+      <c r="K124" s="162"/>
+      <c r="L124" s="267" t="s">
         <v>95</v>
       </c>
-      <c r="M124" s="204" t="s">
+      <c r="M124" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="N124" s="205"/>
+      <c r="N124" s="276"/>
       <c r="O124" s="87"/>
       <c r="AC124" s="77"/>
       <c r="AD124" s="77"/>
     </row>
     <row r="125" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="196"/>
-      <c r="D125" s="195"/>
-      <c r="E125" s="195"/>
-      <c r="F125" s="172" t="s">
+      <c r="C125" s="241"/>
+      <c r="D125" s="267"/>
+      <c r="E125" s="267"/>
+      <c r="F125" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="G125" s="177" t="s">
+      <c r="G125" s="237" t="s">
         <v>76</v>
       </c>
-      <c r="H125" s="179"/>
-      <c r="I125" s="197"/>
-      <c r="J125" s="163"/>
-      <c r="K125" s="163"/>
-      <c r="L125" s="195"/>
-      <c r="M125" s="206"/>
-      <c r="N125" s="207"/>
+      <c r="H125" s="238"/>
+      <c r="I125" s="268"/>
+      <c r="J125" s="162"/>
+      <c r="K125" s="162"/>
+      <c r="L125" s="267"/>
+      <c r="M125" s="277"/>
+      <c r="N125" s="278"/>
       <c r="O125" s="87"/>
       <c r="AC125" s="77"/>
       <c r="AD125" s="77"/>
     </row>
     <row r="126" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="164"/>
-      <c r="D126" s="165"/>
-      <c r="E126" s="165"/>
-      <c r="F126" s="166"/>
-      <c r="G126" s="176"/>
-      <c r="H126" s="176"/>
-      <c r="I126" s="167">
-        <v>0</v>
-      </c>
-      <c r="J126" s="167"/>
-      <c r="K126" s="167"/>
-      <c r="L126" s="167">
-        <v>0</v>
-      </c>
-      <c r="M126" s="257">
+      <c r="C126" s="291"/>
+      <c r="D126" s="163"/>
+      <c r="E126" s="293"/>
+      <c r="F126" s="164"/>
+      <c r="G126" s="198"/>
+      <c r="H126" s="198"/>
+      <c r="I126" s="165">
+        <v>0</v>
+      </c>
+      <c r="J126" s="165"/>
+      <c r="K126" s="165"/>
+      <c r="L126" s="165">
+        <v>0</v>
+      </c>
+      <c r="M126" s="219">
         <f t="shared" ref="M126:M142" si="10">I126*L126</f>
         <v>0</v>
       </c>
-      <c r="N126" s="258"/>
+      <c r="N126" s="220"/>
       <c r="O126" s="87"/>
       <c r="AC126" s="77"/>
       <c r="AD126" s="77"/>
     </row>
     <row r="127" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="155"/>
+      <c r="C127" s="291"/>
       <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
+      <c r="E127" s="44"/>
       <c r="F127" s="68"/>
-      <c r="G127" s="176"/>
-      <c r="H127" s="176"/>
+      <c r="G127" s="198"/>
+      <c r="H127" s="198"/>
       <c r="I127" s="94">
         <v>0</v>
       </c>
@@ -17822,20 +17769,21 @@
       <c r="L127" s="94">
         <v>0</v>
       </c>
-      <c r="M127" s="243">
+      <c r="M127" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N127" s="244"/>
+      <c r="N127" s="204"/>
       <c r="O127" s="87"/>
       <c r="AC127" s="77"/>
       <c r="AD127" s="77"/>
     </row>
     <row r="128" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="152"/>
+      <c r="C128" s="291"/>
+      <c r="E128" s="44"/>
       <c r="F128" s="68"/>
-      <c r="G128" s="176"/>
-      <c r="H128" s="176"/>
+      <c r="G128" s="198"/>
+      <c r="H128" s="198"/>
       <c r="I128" s="94">
         <v>0</v>
       </c>
@@ -17844,22 +17792,22 @@
       <c r="L128" s="94">
         <v>0</v>
       </c>
-      <c r="M128" s="243">
+      <c r="M128" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N128" s="244"/>
+      <c r="N128" s="204"/>
       <c r="O128" s="87"/>
       <c r="AC128" s="77"/>
       <c r="AD128" s="77"/>
     </row>
     <row r="129" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="152"/>
+      <c r="C129" s="291"/>
       <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
+      <c r="E129" s="44"/>
       <c r="F129" s="68"/>
-      <c r="G129" s="176"/>
-      <c r="H129" s="176"/>
+      <c r="G129" s="198"/>
+      <c r="H129" s="198"/>
       <c r="I129" s="94">
         <v>0</v>
       </c>
@@ -17868,20 +17816,21 @@
       <c r="L129" s="94">
         <v>0</v>
       </c>
-      <c r="M129" s="243">
+      <c r="M129" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N129" s="244"/>
+      <c r="N129" s="204"/>
       <c r="O129" s="96"/>
       <c r="AC129" s="77"/>
       <c r="AD129" s="77"/>
     </row>
     <row r="130" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="155"/>
+      <c r="C130" s="291"/>
+      <c r="E130" s="44"/>
       <c r="F130" s="68"/>
-      <c r="G130" s="176"/>
-      <c r="H130" s="176"/>
+      <c r="G130" s="198"/>
+      <c r="H130" s="198"/>
       <c r="I130" s="94">
         <v>0</v>
       </c>
@@ -17890,21 +17839,21 @@
       <c r="L130" s="94">
         <v>0</v>
       </c>
-      <c r="M130" s="243">
+      <c r="M130" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N130" s="244"/>
+      <c r="N130" s="204"/>
       <c r="AC130" s="77"/>
       <c r="AD130" s="30"/>
     </row>
     <row r="131" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="152"/>
+      <c r="C131" s="291"/>
       <c r="D131" s="94"/>
-      <c r="E131" s="30"/>
+      <c r="E131" s="44"/>
       <c r="F131" s="68"/>
-      <c r="G131" s="176"/>
-      <c r="H131" s="176"/>
+      <c r="G131" s="198"/>
+      <c r="H131" s="198"/>
       <c r="I131" s="94">
         <v>0</v>
       </c>
@@ -17913,21 +17862,21 @@
       <c r="L131" s="94">
         <v>0</v>
       </c>
-      <c r="M131" s="243">
+      <c r="M131" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N131" s="244"/>
+      <c r="N131" s="204"/>
       <c r="AC131" s="77"/>
       <c r="AD131" s="77"/>
     </row>
     <row r="132" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="155"/>
+      <c r="C132" s="291"/>
       <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
+      <c r="E132" s="44"/>
       <c r="F132" s="68"/>
-      <c r="G132" s="176"/>
-      <c r="H132" s="176"/>
+      <c r="G132" s="198"/>
+      <c r="H132" s="198"/>
       <c r="I132" s="94">
         <v>0</v>
       </c>
@@ -17936,20 +17885,20 @@
       <c r="L132" s="94">
         <v>0</v>
       </c>
-      <c r="M132" s="243">
+      <c r="M132" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N132" s="244"/>
+      <c r="N132" s="204"/>
       <c r="AC132" s="77"/>
     </row>
     <row r="133" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="155"/>
+      <c r="C133" s="291"/>
       <c r="D133" s="94"/>
-      <c r="E133" s="94"/>
+      <c r="E133" s="294"/>
       <c r="F133" s="68"/>
-      <c r="G133" s="176"/>
-      <c r="H133" s="176"/>
+      <c r="G133" s="198"/>
+      <c r="H133" s="198"/>
       <c r="I133" s="94">
         <v>0</v>
       </c>
@@ -17958,21 +17907,21 @@
       <c r="L133" s="94">
         <v>0</v>
       </c>
-      <c r="M133" s="243">
+      <c r="M133" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N133" s="244"/>
+      <c r="N133" s="204"/>
       <c r="O133" s="68"/>
       <c r="AC133" s="77"/>
     </row>
     <row r="134" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="155"/>
+      <c r="C134" s="291"/>
       <c r="D134" s="94"/>
-      <c r="E134" s="94"/>
+      <c r="E134" s="294"/>
       <c r="F134" s="68"/>
-      <c r="G134" s="176"/>
-      <c r="H134" s="176"/>
+      <c r="G134" s="198"/>
+      <c r="H134" s="198"/>
       <c r="I134" s="94">
         <v>0</v>
       </c>
@@ -17981,21 +17930,21 @@
       <c r="L134" s="94">
         <v>0</v>
       </c>
-      <c r="M134" s="243">
+      <c r="M134" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N134" s="244"/>
+      <c r="N134" s="204"/>
       <c r="O134" s="68"/>
       <c r="AC134" s="77"/>
     </row>
     <row r="135" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="152"/>
+      <c r="C135" s="291"/>
       <c r="D135" s="94"/>
-      <c r="E135" s="94"/>
+      <c r="E135" s="294"/>
       <c r="F135" s="68"/>
-      <c r="G135" s="176"/>
-      <c r="H135" s="176"/>
+      <c r="G135" s="198"/>
+      <c r="H135" s="198"/>
       <c r="I135" s="94">
         <v>0</v>
       </c>
@@ -18004,18 +17953,19 @@
       <c r="L135" s="94">
         <v>0</v>
       </c>
-      <c r="M135" s="243">
+      <c r="M135" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N135" s="244"/>
+      <c r="N135" s="204"/>
       <c r="AC135" s="77"/>
     </row>
     <row r="136" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="152"/>
+      <c r="C136" s="291"/>
+      <c r="E136" s="44"/>
       <c r="F136" s="68"/>
-      <c r="G136" s="176"/>
-      <c r="H136" s="176"/>
+      <c r="G136" s="198"/>
+      <c r="H136" s="198"/>
       <c r="I136" s="94">
         <v>0</v>
       </c>
@@ -18024,18 +17974,19 @@
       <c r="L136" s="94">
         <v>0</v>
       </c>
-      <c r="M136" s="243">
+      <c r="M136" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N136" s="244"/>
+      <c r="N136" s="204"/>
       <c r="AC136" s="77"/>
     </row>
     <row r="137" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="155"/>
+      <c r="C137" s="291"/>
+      <c r="E137" s="44"/>
       <c r="F137" s="68"/>
-      <c r="G137" s="176"/>
-      <c r="H137" s="176"/>
+      <c r="G137" s="198"/>
+      <c r="H137" s="198"/>
       <c r="I137" s="94">
         <v>0</v>
       </c>
@@ -18044,20 +17995,20 @@
       <c r="L137" s="94">
         <v>0</v>
       </c>
-      <c r="M137" s="243">
+      <c r="M137" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N137" s="244"/>
+      <c r="N137" s="204"/>
       <c r="AC137" s="77"/>
     </row>
     <row r="138" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="155"/>
+      <c r="C138" s="291"/>
       <c r="D138" s="94"/>
-      <c r="E138" s="168"/>
+      <c r="E138" s="294"/>
       <c r="F138" s="68"/>
-      <c r="G138" s="176"/>
-      <c r="H138" s="176"/>
+      <c r="G138" s="198"/>
+      <c r="H138" s="198"/>
       <c r="I138" s="94">
         <v>0</v>
       </c>
@@ -18066,20 +18017,20 @@
       <c r="L138" s="94">
         <v>0</v>
       </c>
-      <c r="M138" s="243">
+      <c r="M138" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N138" s="244"/>
+      <c r="N138" s="204"/>
       <c r="AC138" s="77"/>
     </row>
     <row r="139" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="155"/>
+      <c r="C139" s="291"/>
       <c r="D139" s="94"/>
-      <c r="E139" s="94"/>
+      <c r="E139" s="294"/>
       <c r="F139" s="68"/>
-      <c r="G139" s="176"/>
-      <c r="H139" s="176"/>
+      <c r="G139" s="198"/>
+      <c r="H139" s="198"/>
       <c r="I139" s="94">
         <v>0</v>
       </c>
@@ -18088,20 +18039,20 @@
       <c r="L139" s="94">
         <v>0</v>
       </c>
-      <c r="M139" s="243">
+      <c r="M139" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N139" s="244"/>
+      <c r="N139" s="204"/>
       <c r="AC139" s="30"/>
     </row>
     <row r="140" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="155"/>
+      <c r="C140" s="291"/>
       <c r="D140" s="94"/>
-      <c r="E140" s="94"/>
+      <c r="E140" s="294"/>
       <c r="F140" s="68"/>
-      <c r="G140" s="176"/>
-      <c r="H140" s="176"/>
+      <c r="G140" s="198"/>
+      <c r="H140" s="198"/>
       <c r="I140" s="94">
         <v>0</v>
       </c>
@@ -18110,20 +18061,20 @@
       <c r="L140" s="94">
         <v>0</v>
       </c>
-      <c r="M140" s="243">
+      <c r="M140" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N140" s="244"/>
+      <c r="N140" s="204"/>
       <c r="AC140" s="77"/>
     </row>
     <row r="141" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="155"/>
+      <c r="C141" s="291"/>
       <c r="D141" s="94"/>
-      <c r="E141" s="168"/>
+      <c r="E141" s="294"/>
       <c r="F141" s="68"/>
-      <c r="G141" s="176"/>
-      <c r="H141" s="176"/>
+      <c r="G141" s="198"/>
+      <c r="H141" s="198"/>
       <c r="I141" s="94">
         <v>0</v>
       </c>
@@ -18132,19 +18083,19 @@
       <c r="L141" s="94">
         <v>0</v>
       </c>
-      <c r="M141" s="243">
+      <c r="M141" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N141" s="244"/>
+      <c r="N141" s="204"/>
     </row>
     <row r="142" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="155"/>
+      <c r="C142" s="291"/>
       <c r="D142" s="94"/>
-      <c r="E142" s="168"/>
+      <c r="E142" s="294"/>
       <c r="F142" s="68"/>
-      <c r="G142" s="176"/>
-      <c r="H142" s="176"/>
+      <c r="G142" s="198"/>
+      <c r="H142" s="198"/>
       <c r="I142" s="94">
         <v>0</v>
       </c>
@@ -18153,19 +18104,19 @@
       <c r="L142" s="94">
         <v>0</v>
       </c>
-      <c r="M142" s="243">
+      <c r="M142" s="203">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N142" s="244"/>
+      <c r="N142" s="204"/>
     </row>
     <row r="143" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="155"/>
+      <c r="C143" s="291"/>
       <c r="D143" s="94"/>
-      <c r="E143" s="94"/>
+      <c r="E143" s="294"/>
       <c r="F143" s="68"/>
-      <c r="G143" s="176"/>
-      <c r="H143" s="176"/>
+      <c r="G143" s="198"/>
+      <c r="H143" s="198"/>
       <c r="I143" s="94">
         <v>0</v>
       </c>
@@ -18174,20 +18125,20 @@
       <c r="L143" s="94">
         <v>0</v>
       </c>
-      <c r="M143" s="243">
+      <c r="M143" s="203">
         <f>I143*L143</f>
         <v>0</v>
       </c>
-      <c r="N143" s="244"/>
+      <c r="N143" s="204"/>
       <c r="AC143" s="77"/>
     </row>
     <row r="144" spans="3:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="155"/>
+      <c r="C144" s="291"/>
       <c r="D144" s="94"/>
-      <c r="E144" s="94"/>
+      <c r="E144" s="294"/>
       <c r="F144" s="68"/>
-      <c r="G144" s="176"/>
-      <c r="H144" s="176"/>
+      <c r="G144" s="198"/>
+      <c r="H144" s="198"/>
       <c r="I144" s="94">
         <v>0</v>
       </c>
@@ -18196,20 +18147,20 @@
       <c r="L144" s="94">
         <v>0</v>
       </c>
-      <c r="M144" s="243">
+      <c r="M144" s="203">
         <f t="shared" ref="M144:M165" si="11">I144*L144</f>
         <v>0</v>
       </c>
-      <c r="N144" s="244"/>
+      <c r="N144" s="204"/>
       <c r="AC144" s="77"/>
     </row>
     <row r="145" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="155"/>
+      <c r="C145" s="291"/>
       <c r="D145" s="94"/>
-      <c r="E145" s="94"/>
+      <c r="E145" s="294"/>
       <c r="F145" s="68"/>
-      <c r="G145" s="176"/>
-      <c r="H145" s="176"/>
+      <c r="G145" s="198"/>
+      <c r="H145" s="198"/>
       <c r="I145" s="94">
         <v>0</v>
       </c>
@@ -18218,20 +18169,20 @@
       <c r="L145" s="94">
         <v>0</v>
       </c>
-      <c r="M145" s="243">
+      <c r="M145" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N145" s="244"/>
+      <c r="N145" s="204"/>
       <c r="AC145" s="77"/>
     </row>
     <row r="146" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="155"/>
+      <c r="C146" s="291"/>
       <c r="D146" s="94"/>
-      <c r="E146" s="94"/>
+      <c r="E146" s="294"/>
       <c r="F146" s="68"/>
-      <c r="G146" s="176"/>
-      <c r="H146" s="176"/>
+      <c r="G146" s="198"/>
+      <c r="H146" s="198"/>
       <c r="I146" s="94">
         <v>0</v>
       </c>
@@ -18240,20 +18191,20 @@
       <c r="L146" s="94">
         <v>0</v>
       </c>
-      <c r="M146" s="243">
+      <c r="M146" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N146" s="244"/>
+      <c r="N146" s="204"/>
       <c r="AC146" s="77"/>
     </row>
     <row r="147" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="155"/>
+      <c r="C147" s="291"/>
       <c r="D147" s="94"/>
-      <c r="E147" s="94"/>
+      <c r="E147" s="294"/>
       <c r="F147" s="68"/>
-      <c r="G147" s="176"/>
-      <c r="H147" s="176"/>
+      <c r="G147" s="198"/>
+      <c r="H147" s="198"/>
       <c r="I147" s="94">
         <v>0</v>
       </c>
@@ -18262,20 +18213,20 @@
       <c r="L147" s="94">
         <v>0</v>
       </c>
-      <c r="M147" s="243">
+      <c r="M147" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N147" s="244"/>
+      <c r="N147" s="204"/>
       <c r="AC147" s="77"/>
     </row>
     <row r="148" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="155"/>
+      <c r="C148" s="291"/>
       <c r="D148" s="94"/>
-      <c r="E148" s="94"/>
+      <c r="E148" s="294"/>
       <c r="F148" s="68"/>
-      <c r="G148" s="176"/>
-      <c r="H148" s="176"/>
+      <c r="G148" s="198"/>
+      <c r="H148" s="198"/>
       <c r="I148" s="94">
         <v>0</v>
       </c>
@@ -18284,20 +18235,20 @@
       <c r="L148" s="94">
         <v>0</v>
       </c>
-      <c r="M148" s="243">
+      <c r="M148" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N148" s="244"/>
+      <c r="N148" s="204"/>
       <c r="AC148" s="77"/>
     </row>
     <row r="149" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="155"/>
+      <c r="C149" s="291"/>
       <c r="D149" s="94"/>
-      <c r="E149" s="94"/>
+      <c r="E149" s="294"/>
       <c r="F149" s="68"/>
-      <c r="G149" s="176"/>
-      <c r="H149" s="176"/>
+      <c r="G149" s="198"/>
+      <c r="H149" s="198"/>
       <c r="I149" s="94">
         <v>0</v>
       </c>
@@ -18306,20 +18257,20 @@
       <c r="L149" s="94">
         <v>0</v>
       </c>
-      <c r="M149" s="243">
+      <c r="M149" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N149" s="244"/>
+      <c r="N149" s="204"/>
       <c r="AC149" s="77"/>
     </row>
     <row r="150" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="155"/>
+      <c r="C150" s="291"/>
       <c r="D150" s="94"/>
-      <c r="E150" s="94"/>
+      <c r="E150" s="294"/>
       <c r="F150" s="68"/>
-      <c r="G150" s="176"/>
-      <c r="H150" s="176"/>
+      <c r="G150" s="198"/>
+      <c r="H150" s="198"/>
       <c r="I150" s="94">
         <v>0</v>
       </c>
@@ -18328,20 +18279,20 @@
       <c r="L150" s="94">
         <v>0</v>
       </c>
-      <c r="M150" s="243">
+      <c r="M150" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N150" s="244"/>
+      <c r="N150" s="204"/>
       <c r="AC150" s="77"/>
     </row>
     <row r="151" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="155"/>
+      <c r="C151" s="291"/>
       <c r="D151" s="94"/>
-      <c r="E151" s="94"/>
+      <c r="E151" s="294"/>
       <c r="F151" s="68"/>
-      <c r="G151" s="176"/>
-      <c r="H151" s="176"/>
+      <c r="G151" s="198"/>
+      <c r="H151" s="198"/>
       <c r="I151" s="94">
         <v>0</v>
       </c>
@@ -18350,20 +18301,20 @@
       <c r="L151" s="94">
         <v>0</v>
       </c>
-      <c r="M151" s="243">
+      <c r="M151" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N151" s="244"/>
+      <c r="N151" s="204"/>
       <c r="AC151" s="77"/>
     </row>
     <row r="152" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="155"/>
+      <c r="C152" s="291"/>
       <c r="D152" s="94"/>
-      <c r="E152" s="94"/>
+      <c r="E152" s="294"/>
       <c r="F152" s="68"/>
-      <c r="G152" s="176"/>
-      <c r="H152" s="176"/>
+      <c r="G152" s="198"/>
+      <c r="H152" s="198"/>
       <c r="I152" s="94">
         <v>0</v>
       </c>
@@ -18372,20 +18323,20 @@
       <c r="L152" s="94">
         <v>0</v>
       </c>
-      <c r="M152" s="243">
+      <c r="M152" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N152" s="244"/>
+      <c r="N152" s="204"/>
       <c r="AC152" s="77"/>
     </row>
     <row r="153" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="155"/>
+      <c r="C153" s="291"/>
       <c r="D153" s="94"/>
-      <c r="E153" s="94"/>
+      <c r="E153" s="294"/>
       <c r="F153" s="68"/>
-      <c r="G153" s="176"/>
-      <c r="H153" s="176"/>
+      <c r="G153" s="198"/>
+      <c r="H153" s="198"/>
       <c r="I153" s="94">
         <v>0</v>
       </c>
@@ -18394,20 +18345,20 @@
       <c r="L153" s="94">
         <v>0</v>
       </c>
-      <c r="M153" s="243">
+      <c r="M153" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N153" s="244"/>
+      <c r="N153" s="204"/>
       <c r="AC153" s="77"/>
     </row>
     <row r="154" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="155"/>
+      <c r="C154" s="291"/>
       <c r="D154" s="94"/>
-      <c r="E154" s="94"/>
+      <c r="E154" s="294"/>
       <c r="F154" s="68"/>
-      <c r="G154" s="176"/>
-      <c r="H154" s="176"/>
+      <c r="G154" s="198"/>
+      <c r="H154" s="198"/>
       <c r="I154" s="94">
         <v>0</v>
       </c>
@@ -18416,20 +18367,20 @@
       <c r="L154" s="94">
         <v>0</v>
       </c>
-      <c r="M154" s="243">
+      <c r="M154" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N154" s="244"/>
+      <c r="N154" s="204"/>
       <c r="AC154" s="77"/>
     </row>
     <row r="155" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="155"/>
+      <c r="C155" s="291"/>
       <c r="D155" s="94"/>
-      <c r="E155" s="94"/>
+      <c r="E155" s="294"/>
       <c r="F155" s="68"/>
-      <c r="G155" s="176"/>
-      <c r="H155" s="176"/>
+      <c r="G155" s="198"/>
+      <c r="H155" s="198"/>
       <c r="I155" s="94">
         <v>0</v>
       </c>
@@ -18438,20 +18389,20 @@
       <c r="L155" s="94">
         <v>0</v>
       </c>
-      <c r="M155" s="243">
+      <c r="M155" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N155" s="244"/>
+      <c r="N155" s="204"/>
       <c r="AC155" s="77"/>
     </row>
     <row r="156" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="155"/>
+      <c r="C156" s="291"/>
       <c r="D156" s="94"/>
-      <c r="E156" s="94"/>
+      <c r="E156" s="294"/>
       <c r="F156" s="68"/>
-      <c r="G156" s="176"/>
-      <c r="H156" s="176"/>
+      <c r="G156" s="198"/>
+      <c r="H156" s="198"/>
       <c r="I156" s="94">
         <v>0</v>
       </c>
@@ -18460,20 +18411,20 @@
       <c r="L156" s="94">
         <v>0</v>
       </c>
-      <c r="M156" s="243">
+      <c r="M156" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N156" s="244"/>
+      <c r="N156" s="204"/>
       <c r="AC156" s="77"/>
     </row>
     <row r="157" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C157" s="155"/>
+      <c r="C157" s="291"/>
       <c r="D157" s="94"/>
-      <c r="E157" s="94"/>
+      <c r="E157" s="294"/>
       <c r="F157" s="68"/>
-      <c r="G157" s="176"/>
-      <c r="H157" s="176"/>
+      <c r="G157" s="198"/>
+      <c r="H157" s="198"/>
       <c r="I157" s="94">
         <v>0</v>
       </c>
@@ -18482,20 +18433,20 @@
       <c r="L157" s="94">
         <v>0</v>
       </c>
-      <c r="M157" s="243">
+      <c r="M157" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N157" s="244"/>
+      <c r="N157" s="204"/>
       <c r="AC157" s="77"/>
     </row>
     <row r="158" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C158" s="155"/>
+      <c r="C158" s="291"/>
       <c r="D158" s="94"/>
-      <c r="E158" s="94"/>
+      <c r="E158" s="294"/>
       <c r="F158" s="68"/>
-      <c r="G158" s="176"/>
-      <c r="H158" s="176"/>
+      <c r="G158" s="198"/>
+      <c r="H158" s="198"/>
       <c r="I158" s="94">
         <v>0</v>
       </c>
@@ -18504,20 +18455,20 @@
       <c r="L158" s="94">
         <v>0</v>
       </c>
-      <c r="M158" s="243">
+      <c r="M158" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N158" s="244"/>
+      <c r="N158" s="204"/>
       <c r="AC158" s="77"/>
     </row>
     <row r="159" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="155"/>
+      <c r="C159" s="291"/>
       <c r="D159" s="94"/>
-      <c r="E159" s="94"/>
+      <c r="E159" s="294"/>
       <c r="F159" s="68"/>
-      <c r="G159" s="176"/>
-      <c r="H159" s="176"/>
+      <c r="G159" s="198"/>
+      <c r="H159" s="198"/>
       <c r="I159" s="94">
         <v>0</v>
       </c>
@@ -18526,20 +18477,20 @@
       <c r="L159" s="94">
         <v>0</v>
       </c>
-      <c r="M159" s="243">
+      <c r="M159" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N159" s="244"/>
+      <c r="N159" s="204"/>
       <c r="AC159" s="77"/>
     </row>
     <row r="160" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C160" s="155"/>
+      <c r="C160" s="291"/>
       <c r="D160" s="94"/>
-      <c r="E160" s="94"/>
+      <c r="E160" s="294"/>
       <c r="F160" s="68"/>
-      <c r="G160" s="176"/>
-      <c r="H160" s="176"/>
+      <c r="G160" s="198"/>
+      <c r="H160" s="198"/>
       <c r="I160" s="94">
         <v>0</v>
       </c>
@@ -18548,20 +18499,20 @@
       <c r="L160" s="94">
         <v>0</v>
       </c>
-      <c r="M160" s="243">
+      <c r="M160" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N160" s="244"/>
+      <c r="N160" s="204"/>
       <c r="AC160" s="77"/>
     </row>
     <row r="161" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C161" s="155"/>
+      <c r="C161" s="291"/>
       <c r="D161" s="94"/>
-      <c r="E161" s="94"/>
+      <c r="E161" s="294"/>
       <c r="F161" s="68"/>
-      <c r="G161" s="176"/>
-      <c r="H161" s="176"/>
+      <c r="G161" s="198"/>
+      <c r="H161" s="198"/>
       <c r="I161" s="94">
         <v>0</v>
       </c>
@@ -18570,20 +18521,20 @@
       <c r="L161" s="94">
         <v>0</v>
       </c>
-      <c r="M161" s="243">
+      <c r="M161" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N161" s="244"/>
+      <c r="N161" s="204"/>
       <c r="AC161" s="77"/>
     </row>
     <row r="162" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="155"/>
+      <c r="C162" s="291"/>
       <c r="D162" s="94"/>
-      <c r="E162" s="94"/>
+      <c r="E162" s="294"/>
       <c r="F162" s="68"/>
-      <c r="G162" s="176"/>
-      <c r="H162" s="176"/>
+      <c r="G162" s="198"/>
+      <c r="H162" s="198"/>
       <c r="I162" s="94">
         <v>0</v>
       </c>
@@ -18592,20 +18543,20 @@
       <c r="L162" s="94">
         <v>0</v>
       </c>
-      <c r="M162" s="243">
+      <c r="M162" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N162" s="244"/>
+      <c r="N162" s="204"/>
       <c r="AC162" s="77"/>
     </row>
     <row r="163" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C163" s="155"/>
+      <c r="C163" s="291"/>
       <c r="D163" s="94"/>
-      <c r="E163" s="94"/>
+      <c r="E163" s="294"/>
       <c r="F163" s="68"/>
-      <c r="G163" s="176"/>
-      <c r="H163" s="176"/>
+      <c r="G163" s="198"/>
+      <c r="H163" s="198"/>
       <c r="I163" s="94">
         <v>0</v>
       </c>
@@ -18614,20 +18565,20 @@
       <c r="L163" s="94">
         <v>0</v>
       </c>
-      <c r="M163" s="243">
+      <c r="M163" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N163" s="244"/>
+      <c r="N163" s="204"/>
       <c r="AC163" s="77"/>
     </row>
     <row r="164" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="155"/>
+      <c r="C164" s="291"/>
       <c r="D164" s="94"/>
-      <c r="E164" s="94"/>
+      <c r="E164" s="294"/>
       <c r="F164" s="68"/>
-      <c r="G164" s="176"/>
-      <c r="H164" s="176"/>
+      <c r="G164" s="198"/>
+      <c r="H164" s="198"/>
       <c r="I164" s="94">
         <v>0</v>
       </c>
@@ -18636,20 +18587,20 @@
       <c r="L164" s="94">
         <v>0</v>
       </c>
-      <c r="M164" s="243">
+      <c r="M164" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N164" s="244"/>
+      <c r="N164" s="204"/>
       <c r="AC164" s="77"/>
     </row>
     <row r="165" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="155"/>
+      <c r="C165" s="291"/>
       <c r="D165" s="94"/>
-      <c r="E165" s="94"/>
+      <c r="E165" s="294"/>
       <c r="F165" s="68"/>
-      <c r="G165" s="176"/>
-      <c r="H165" s="176"/>
+      <c r="G165" s="198"/>
+      <c r="H165" s="198"/>
       <c r="I165" s="94">
         <v>0</v>
       </c>
@@ -18658,20 +18609,20 @@
       <c r="L165" s="94">
         <v>0</v>
       </c>
-      <c r="M165" s="243">
+      <c r="M165" s="203">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N165" s="244"/>
+      <c r="N165" s="204"/>
       <c r="AC165" s="77"/>
     </row>
     <row r="166" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C166" s="155"/>
+      <c r="C166" s="291"/>
       <c r="D166" s="94"/>
-      <c r="E166" s="94"/>
+      <c r="E166" s="294"/>
       <c r="F166" s="68"/>
-      <c r="G166" s="176"/>
-      <c r="H166" s="176"/>
+      <c r="G166" s="198"/>
+      <c r="H166" s="198"/>
       <c r="I166" s="94">
         <v>0</v>
       </c>
@@ -18680,20 +18631,20 @@
       <c r="L166" s="94">
         <v>0</v>
       </c>
-      <c r="M166" s="243">
+      <c r="M166" s="203">
         <f t="shared" ref="M166:M176" si="12">I166*L166</f>
         <v>0</v>
       </c>
-      <c r="N166" s="244"/>
+      <c r="N166" s="204"/>
       <c r="AC166" s="77"/>
     </row>
     <row r="167" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="155"/>
+      <c r="C167" s="291"/>
       <c r="D167" s="94"/>
-      <c r="E167" s="94"/>
+      <c r="E167" s="294"/>
       <c r="F167" s="68"/>
-      <c r="G167" s="176"/>
-      <c r="H167" s="176"/>
+      <c r="G167" s="198"/>
+      <c r="H167" s="198"/>
       <c r="I167" s="94">
         <v>0</v>
       </c>
@@ -18702,20 +18653,20 @@
       <c r="L167" s="94">
         <v>0</v>
       </c>
-      <c r="M167" s="243">
+      <c r="M167" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N167" s="244"/>
+      <c r="N167" s="204"/>
       <c r="AC167" s="77"/>
     </row>
     <row r="168" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C168" s="155"/>
+      <c r="C168" s="291"/>
       <c r="D168" s="94"/>
-      <c r="E168" s="94"/>
+      <c r="E168" s="294"/>
       <c r="F168" s="68"/>
-      <c r="G168" s="176"/>
-      <c r="H168" s="176"/>
+      <c r="G168" s="198"/>
+      <c r="H168" s="198"/>
       <c r="I168" s="94">
         <v>0</v>
       </c>
@@ -18724,20 +18675,20 @@
       <c r="L168" s="94">
         <v>0</v>
       </c>
-      <c r="M168" s="243">
+      <c r="M168" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N168" s="244"/>
+      <c r="N168" s="204"/>
       <c r="AC168" s="77"/>
     </row>
     <row r="169" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="155"/>
+      <c r="C169" s="291"/>
       <c r="D169" s="94"/>
-      <c r="E169" s="94"/>
+      <c r="E169" s="294"/>
       <c r="F169" s="68"/>
-      <c r="G169" s="176"/>
-      <c r="H169" s="176"/>
+      <c r="G169" s="198"/>
+      <c r="H169" s="198"/>
       <c r="I169" s="94">
         <v>0</v>
       </c>
@@ -18746,20 +18697,20 @@
       <c r="L169" s="94">
         <v>0</v>
       </c>
-      <c r="M169" s="243">
+      <c r="M169" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N169" s="244"/>
+      <c r="N169" s="204"/>
       <c r="AC169" s="77"/>
     </row>
     <row r="170" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="155"/>
+      <c r="C170" s="291"/>
       <c r="D170" s="94"/>
-      <c r="E170" s="94"/>
+      <c r="E170" s="294"/>
       <c r="F170" s="68"/>
-      <c r="G170" s="176"/>
-      <c r="H170" s="176"/>
+      <c r="G170" s="198"/>
+      <c r="H170" s="198"/>
       <c r="I170" s="94">
         <v>0</v>
       </c>
@@ -18768,20 +18719,20 @@
       <c r="L170" s="94">
         <v>0</v>
       </c>
-      <c r="M170" s="243">
+      <c r="M170" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N170" s="244"/>
+      <c r="N170" s="204"/>
       <c r="AC170" s="77"/>
     </row>
     <row r="171" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C171" s="155"/>
+      <c r="C171" s="291"/>
       <c r="D171" s="94"/>
-      <c r="E171" s="94"/>
+      <c r="E171" s="294"/>
       <c r="F171" s="68"/>
-      <c r="G171" s="176"/>
-      <c r="H171" s="176"/>
+      <c r="G171" s="198"/>
+      <c r="H171" s="198"/>
       <c r="I171" s="94">
         <v>0</v>
       </c>
@@ -18790,20 +18741,20 @@
       <c r="L171" s="94">
         <v>0</v>
       </c>
-      <c r="M171" s="243">
+      <c r="M171" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N171" s="244"/>
+      <c r="N171" s="204"/>
       <c r="AC171" s="77"/>
     </row>
     <row r="172" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="155"/>
+      <c r="C172" s="291"/>
       <c r="D172" s="94"/>
-      <c r="E172" s="94"/>
+      <c r="E172" s="294"/>
       <c r="F172" s="68"/>
-      <c r="G172" s="176"/>
-      <c r="H172" s="176"/>
+      <c r="G172" s="198"/>
+      <c r="H172" s="198"/>
       <c r="I172" s="94">
         <v>0</v>
       </c>
@@ -18812,20 +18763,20 @@
       <c r="L172" s="94">
         <v>0</v>
       </c>
-      <c r="M172" s="243">
+      <c r="M172" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N172" s="244"/>
+      <c r="N172" s="204"/>
       <c r="AC172" s="77"/>
     </row>
     <row r="173" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="155"/>
+      <c r="C173" s="291"/>
       <c r="D173" s="94"/>
-      <c r="E173" s="94"/>
+      <c r="E173" s="294"/>
       <c r="F173" s="68"/>
-      <c r="G173" s="176"/>
-      <c r="H173" s="176"/>
+      <c r="G173" s="198"/>
+      <c r="H173" s="198"/>
       <c r="I173" s="94">
         <v>0</v>
       </c>
@@ -18834,20 +18785,20 @@
       <c r="L173" s="94">
         <v>0</v>
       </c>
-      <c r="M173" s="243">
+      <c r="M173" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N173" s="244"/>
+      <c r="N173" s="204"/>
       <c r="AC173" s="77"/>
     </row>
     <row r="174" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="155"/>
+      <c r="C174" s="291"/>
       <c r="D174" s="94"/>
-      <c r="E174" s="94"/>
+      <c r="E174" s="294"/>
       <c r="F174" s="68"/>
-      <c r="G174" s="176"/>
-      <c r="H174" s="176"/>
+      <c r="G174" s="198"/>
+      <c r="H174" s="198"/>
       <c r="I174" s="94">
         <v>0</v>
       </c>
@@ -18856,20 +18807,20 @@
       <c r="L174" s="94">
         <v>0</v>
       </c>
-      <c r="M174" s="243">
+      <c r="M174" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N174" s="244"/>
+      <c r="N174" s="204"/>
       <c r="AC174" s="77"/>
     </row>
     <row r="175" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C175" s="155"/>
+      <c r="C175" s="291"/>
       <c r="D175" s="94"/>
-      <c r="E175" s="94"/>
+      <c r="E175" s="294"/>
       <c r="F175" s="68"/>
-      <c r="G175" s="176"/>
-      <c r="H175" s="176"/>
+      <c r="G175" s="198"/>
+      <c r="H175" s="198"/>
       <c r="I175" s="94">
         <v>0</v>
       </c>
@@ -18878,20 +18829,20 @@
       <c r="L175" s="94">
         <v>0</v>
       </c>
-      <c r="M175" s="243">
+      <c r="M175" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N175" s="244"/>
+      <c r="N175" s="204"/>
       <c r="AC175" s="77"/>
     </row>
     <row r="176" spans="3:29" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="155"/>
+      <c r="C176" s="291"/>
       <c r="D176" s="94"/>
-      <c r="E176" s="94"/>
+      <c r="E176" s="294"/>
       <c r="F176" s="68"/>
-      <c r="G176" s="176"/>
-      <c r="H176" s="176"/>
+      <c r="G176" s="198"/>
+      <c r="H176" s="198"/>
       <c r="I176" s="94">
         <v>0</v>
       </c>
@@ -18900,31 +18851,31 @@
       <c r="L176" s="94">
         <v>0</v>
       </c>
-      <c r="M176" s="243">
+      <c r="M176" s="203">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N176" s="244"/>
+      <c r="N176" s="204"/>
       <c r="AC176" s="77"/>
     </row>
     <row r="177" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="169" t="s">
+      <c r="C177" s="292" t="s">
         <v>80</v>
       </c>
-      <c r="D177" s="170"/>
-      <c r="E177" s="170"/>
-      <c r="F177" s="173"/>
-      <c r="G177" s="173"/>
-      <c r="H177" s="173"/>
-      <c r="I177" s="174"/>
-      <c r="J177" s="174"/>
-      <c r="K177" s="171"/>
-      <c r="L177" s="171"/>
-      <c r="M177" s="267">
+      <c r="D177" s="166"/>
+      <c r="E177" s="166"/>
+      <c r="F177" s="169"/>
+      <c r="G177" s="169"/>
+      <c r="H177" s="169"/>
+      <c r="I177" s="170"/>
+      <c r="J177" s="170"/>
+      <c r="K177" s="167"/>
+      <c r="L177" s="167"/>
+      <c r="M177" s="210">
         <f>SUM(M126:N176)</f>
         <v>0</v>
       </c>
-      <c r="N177" s="268"/>
+      <c r="N177" s="211"/>
       <c r="AC177" s="77"/>
     </row>
     <row r="178" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18961,13 +18912,13 @@
       <c r="AC179" s="77"/>
     </row>
     <row r="180" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="269" t="s">
+      <c r="C180" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="D180" s="269"/>
-      <c r="E180" s="269"/>
-      <c r="F180" s="269"/>
-      <c r="G180" s="269"/>
+      <c r="D180" s="212"/>
+      <c r="E180" s="212"/>
+      <c r="F180" s="212"/>
+      <c r="G180" s="212"/>
       <c r="H180" s="91"/>
       <c r="I180" s="91" t="s">
         <v>46</v>
@@ -18984,11 +18935,11 @@
       <c r="AC180" s="77"/>
     </row>
     <row r="181" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="270"/>
-      <c r="D181" s="270"/>
-      <c r="E181" s="270"/>
-      <c r="F181" s="270"/>
-      <c r="G181" s="270"/>
+      <c r="C181" s="213"/>
+      <c r="D181" s="213"/>
+      <c r="E181" s="213"/>
+      <c r="F181" s="213"/>
+      <c r="G181" s="213"/>
       <c r="H181" s="92"/>
       <c r="I181" s="92" t="s">
         <v>82</v>
@@ -19022,15 +18973,15 @@
         <v>0</v>
       </c>
       <c r="J182" s="120"/>
-      <c r="K182" s="271">
+      <c r="K182" s="214">
         <v>8</v>
       </c>
-      <c r="L182" s="271"/>
-      <c r="M182" s="264">
+      <c r="L182" s="214"/>
+      <c r="M182" s="201">
         <f>IF(I182&gt;24,(I182-24)*K182,0)</f>
         <v>0</v>
       </c>
-      <c r="N182" s="264"/>
+      <c r="N182" s="201"/>
       <c r="AM182" s="121"/>
       <c r="AN182" s="121"/>
     </row>
@@ -19052,15 +19003,15 @@
         <v>0</v>
       </c>
       <c r="J183" s="124"/>
-      <c r="K183" s="263">
-        <v>0</v>
-      </c>
-      <c r="L183" s="263"/>
-      <c r="M183" s="264">
+      <c r="K183" s="200">
+        <v>0</v>
+      </c>
+      <c r="L183" s="200"/>
+      <c r="M183" s="201">
         <f t="shared" ref="M183:M200" si="15">I183*K183</f>
         <v>0</v>
       </c>
-      <c r="N183" s="264"/>
+      <c r="N183" s="201"/>
       <c r="AC183" s="77"/>
       <c r="AO183" s="121"/>
       <c r="AP183" s="121"/>
@@ -19083,15 +19034,15 @@
         <v>0</v>
       </c>
       <c r="J184" s="124"/>
-      <c r="K184" s="263">
-        <v>0</v>
-      </c>
-      <c r="L184" s="263"/>
-      <c r="M184" s="264">
+      <c r="K184" s="200">
+        <v>0</v>
+      </c>
+      <c r="L184" s="200"/>
+      <c r="M184" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N184" s="264"/>
+      <c r="N184" s="201"/>
       <c r="AC184" s="112"/>
       <c r="AD184" s="77"/>
     </row>
@@ -19110,15 +19061,15 @@
         <v>0</v>
       </c>
       <c r="J185" s="124"/>
-      <c r="K185" s="263">
-        <v>0</v>
-      </c>
-      <c r="L185" s="263"/>
-      <c r="M185" s="264">
+      <c r="K185" s="200">
+        <v>0</v>
+      </c>
+      <c r="L185" s="200"/>
+      <c r="M185" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N185" s="264"/>
+      <c r="N185" s="201"/>
       <c r="O185" s="30"/>
       <c r="AC185" s="112"/>
       <c r="AD185" s="77"/>
@@ -19138,15 +19089,15 @@
         <v>0</v>
       </c>
       <c r="J186" s="124"/>
-      <c r="K186" s="263">
+      <c r="K186" s="200">
         <v>8</v>
       </c>
-      <c r="L186" s="263"/>
-      <c r="M186" s="264">
+      <c r="L186" s="200"/>
+      <c r="M186" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N186" s="264"/>
+      <c r="N186" s="201"/>
       <c r="O186" s="77"/>
       <c r="AC186" s="77"/>
       <c r="AD186" s="77"/>
@@ -19166,15 +19117,15 @@
         <v>0</v>
       </c>
       <c r="J187" s="124"/>
-      <c r="K187" s="263">
+      <c r="K187" s="200">
         <v>8</v>
       </c>
-      <c r="L187" s="263"/>
-      <c r="M187" s="264">
+      <c r="L187" s="200"/>
+      <c r="M187" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N187" s="264"/>
+      <c r="N187" s="201"/>
       <c r="O187" s="30"/>
       <c r="AC187" s="77"/>
       <c r="AD187" s="30"/>
@@ -19194,15 +19145,15 @@
         <v>0</v>
       </c>
       <c r="J188" s="131"/>
-      <c r="K188" s="265">
+      <c r="K188" s="208">
         <v>10</v>
       </c>
-      <c r="L188" s="265"/>
-      <c r="M188" s="266">
+      <c r="L188" s="208"/>
+      <c r="M188" s="209">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N188" s="266"/>
+      <c r="N188" s="209"/>
       <c r="O188" s="132"/>
       <c r="AC188" s="138"/>
       <c r="AD188" s="138"/>
@@ -19225,15 +19176,15 @@
         <v>0</v>
       </c>
       <c r="J189" s="131"/>
-      <c r="K189" s="265">
-        <v>0</v>
-      </c>
-      <c r="L189" s="265"/>
-      <c r="M189" s="266">
+      <c r="K189" s="208">
+        <v>0</v>
+      </c>
+      <c r="L189" s="208"/>
+      <c r="M189" s="209">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N189" s="266"/>
+      <c r="N189" s="209"/>
       <c r="O189" s="139"/>
       <c r="AC189" s="132"/>
     </row>
@@ -19252,15 +19203,15 @@
         <v>0</v>
       </c>
       <c r="J190" s="124"/>
-      <c r="K190" s="263">
-        <v>0</v>
-      </c>
-      <c r="L190" s="263"/>
-      <c r="M190" s="264">
+      <c r="K190" s="200">
+        <v>0</v>
+      </c>
+      <c r="L190" s="200"/>
+      <c r="M190" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N190" s="264"/>
+      <c r="N190" s="201"/>
       <c r="O190" s="112"/>
       <c r="AC190" s="77"/>
     </row>
@@ -19282,15 +19233,15 @@
         <v>0</v>
       </c>
       <c r="J191" s="124"/>
-      <c r="K191" s="263">
-        <v>0</v>
-      </c>
-      <c r="L191" s="263"/>
-      <c r="M191" s="264">
+      <c r="K191" s="200">
+        <v>0</v>
+      </c>
+      <c r="L191" s="200"/>
+      <c r="M191" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N191" s="264"/>
+      <c r="N191" s="201"/>
       <c r="O191" s="77"/>
       <c r="AC191" s="77"/>
     </row>
@@ -19312,15 +19263,15 @@
         <v>0</v>
       </c>
       <c r="J192" s="131"/>
-      <c r="K192" s="265">
-        <v>0</v>
-      </c>
-      <c r="L192" s="265"/>
-      <c r="M192" s="266">
+      <c r="K192" s="208">
+        <v>0</v>
+      </c>
+      <c r="L192" s="208"/>
+      <c r="M192" s="209">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N192" s="266"/>
+      <c r="N192" s="209"/>
       <c r="O192" s="138"/>
       <c r="AC192" s="138"/>
     </row>
@@ -19342,15 +19293,15 @@
         <v>0</v>
       </c>
       <c r="J193" s="131"/>
-      <c r="K193" s="265">
+      <c r="K193" s="208">
         <v>8</v>
       </c>
-      <c r="L193" s="265"/>
-      <c r="M193" s="266">
+      <c r="L193" s="208"/>
+      <c r="M193" s="209">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N193" s="266"/>
+      <c r="N193" s="209"/>
       <c r="O193" s="138"/>
       <c r="AC193" s="138"/>
     </row>
@@ -19372,15 +19323,15 @@
         <v>0</v>
       </c>
       <c r="J194" s="124"/>
-      <c r="K194" s="263">
-        <v>0</v>
-      </c>
-      <c r="L194" s="263"/>
-      <c r="M194" s="264">
+      <c r="K194" s="200">
+        <v>0</v>
+      </c>
+      <c r="L194" s="200"/>
+      <c r="M194" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N194" s="264"/>
+      <c r="N194" s="201"/>
       <c r="O194" s="77"/>
       <c r="AC194" s="30"/>
     </row>
@@ -19402,15 +19353,15 @@
         <v>0</v>
       </c>
       <c r="J195" s="131"/>
-      <c r="K195" s="265">
+      <c r="K195" s="208">
         <v>8</v>
       </c>
-      <c r="L195" s="265"/>
-      <c r="M195" s="266">
+      <c r="L195" s="208"/>
+      <c r="M195" s="209">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N195" s="266"/>
+      <c r="N195" s="209"/>
       <c r="O195" s="138"/>
       <c r="AC195" s="138"/>
     </row>
@@ -19432,15 +19383,15 @@
         <v>0</v>
       </c>
       <c r="J196" s="124"/>
-      <c r="K196" s="263">
-        <v>0</v>
-      </c>
-      <c r="L196" s="263"/>
-      <c r="M196" s="264">
+      <c r="K196" s="200">
+        <v>0</v>
+      </c>
+      <c r="L196" s="200"/>
+      <c r="M196" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N196" s="264"/>
+      <c r="N196" s="201"/>
       <c r="O196" s="77"/>
       <c r="AC196" s="77"/>
     </row>
@@ -19459,15 +19410,15 @@
         <v>0</v>
       </c>
       <c r="J197" s="124"/>
-      <c r="K197" s="263">
-        <v>0</v>
-      </c>
-      <c r="L197" s="263"/>
-      <c r="M197" s="264">
+      <c r="K197" s="200">
+        <v>0</v>
+      </c>
+      <c r="L197" s="200"/>
+      <c r="M197" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N197" s="264"/>
+      <c r="N197" s="201"/>
       <c r="O197" s="77"/>
       <c r="AC197" s="77"/>
     </row>
@@ -19486,15 +19437,15 @@
         <v>0</v>
       </c>
       <c r="J198" s="124"/>
-      <c r="K198" s="263">
-        <v>0</v>
-      </c>
-      <c r="L198" s="263"/>
-      <c r="M198" s="264">
+      <c r="K198" s="200">
+        <v>0</v>
+      </c>
+      <c r="L198" s="200"/>
+      <c r="M198" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N198" s="264"/>
+      <c r="N198" s="201"/>
       <c r="O198" s="77"/>
       <c r="AC198" s="77"/>
     </row>
@@ -19513,15 +19464,15 @@
         <v>0</v>
       </c>
       <c r="J199" s="124"/>
-      <c r="K199" s="263">
-        <v>0</v>
-      </c>
-      <c r="L199" s="263"/>
-      <c r="M199" s="264">
+      <c r="K199" s="200">
+        <v>0</v>
+      </c>
+      <c r="L199" s="200"/>
+      <c r="M199" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N199" s="264"/>
+      <c r="N199" s="201"/>
       <c r="O199" s="77"/>
       <c r="AC199" s="77"/>
     </row>
@@ -19540,15 +19491,15 @@
         <v>0</v>
       </c>
       <c r="J200" s="124"/>
-      <c r="K200" s="263">
-        <v>0</v>
-      </c>
-      <c r="L200" s="263"/>
-      <c r="M200" s="264">
+      <c r="K200" s="200">
+        <v>0</v>
+      </c>
+      <c r="L200" s="200"/>
+      <c r="M200" s="201">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N200" s="264"/>
+      <c r="N200" s="201"/>
       <c r="O200" s="77"/>
       <c r="AC200" s="77"/>
     </row>
@@ -19565,13 +19516,13 @@
       <c r="J201" s="111"/>
       <c r="K201" s="111"/>
       <c r="L201" s="111"/>
-      <c r="M201" s="275">
+      <c r="M201" s="202">
         <f>SUM(M182:N200)</f>
         <v>0</v>
       </c>
-      <c r="N201" s="275"/>
+      <c r="N201" s="202"/>
       <c r="O201" s="77"/>
-      <c r="T201" s="175"/>
+      <c r="T201" s="171"/>
       <c r="AC201" s="77"/>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
@@ -19600,23 +19551,23 @@
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C204" s="70"/>
-      <c r="D204" s="276" t="s">
+      <c r="D204" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="E204" s="276"/>
-      <c r="F204" s="276"/>
-      <c r="G204" s="276"/>
-      <c r="H204" s="276"/>
-      <c r="I204" s="276"/>
-      <c r="J204" s="276" t="s">
+      <c r="E204" s="173"/>
+      <c r="F204" s="173"/>
+      <c r="G204" s="173"/>
+      <c r="H204" s="173"/>
+      <c r="I204" s="173"/>
+      <c r="J204" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="K204" s="276"/>
-      <c r="L204" s="276" t="s">
+      <c r="K204" s="173"/>
+      <c r="L204" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="M204" s="276"/>
-      <c r="N204" s="276"/>
+      <c r="M204" s="173"/>
+      <c r="N204" s="173"/>
       <c r="O204" s="73" t="s">
         <v>46</v>
       </c>
@@ -19625,19 +19576,19 @@
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C205" s="70"/>
-      <c r="D205" s="274"/>
-      <c r="E205" s="274"/>
-      <c r="F205" s="274"/>
-      <c r="G205" s="274"/>
-      <c r="H205" s="274"/>
-      <c r="I205" s="274"/>
-      <c r="J205" s="274"/>
-      <c r="K205" s="274"/>
-      <c r="L205" s="274" t="s">
+      <c r="D205" s="174"/>
+      <c r="E205" s="174"/>
+      <c r="F205" s="174"/>
+      <c r="G205" s="174"/>
+      <c r="H205" s="174"/>
+      <c r="I205" s="174"/>
+      <c r="J205" s="174"/>
+      <c r="K205" s="174"/>
+      <c r="L205" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="M205" s="274"/>
-      <c r="N205" s="274"/>
+      <c r="M205" s="174"/>
+      <c r="N205" s="174"/>
       <c r="O205" s="75" t="s">
         <v>57</v>
       </c>
@@ -19652,15 +19603,15 @@
       <c r="G206" s="76"/>
       <c r="H206" s="76"/>
       <c r="I206" s="76"/>
-      <c r="J206" s="273"/>
-      <c r="K206" s="273"/>
-      <c r="L206" s="273"/>
-      <c r="M206" s="273"/>
-      <c r="N206" s="272">
+      <c r="J206" s="189"/>
+      <c r="K206" s="189"/>
+      <c r="L206" s="189"/>
+      <c r="M206" s="189"/>
+      <c r="N206" s="185">
         <f>J206*L206</f>
         <v>0</v>
       </c>
-      <c r="O206" s="272"/>
+      <c r="O206" s="185"/>
       <c r="AA206" s="74"/>
       <c r="AB206" s="74"/>
     </row>
@@ -19672,15 +19623,15 @@
       <c r="G207" s="78"/>
       <c r="H207" s="78"/>
       <c r="I207" s="78"/>
-      <c r="J207" s="279"/>
-      <c r="K207" s="279"/>
+      <c r="J207" s="192"/>
+      <c r="K207" s="192"/>
       <c r="L207" s="79"/>
       <c r="M207" s="79"/>
-      <c r="N207" s="255">
+      <c r="N207" s="180">
         <f>J207*M207</f>
         <v>0</v>
       </c>
-      <c r="O207" s="255"/>
+      <c r="O207" s="180"/>
       <c r="AA207" s="74"/>
       <c r="AB207" s="74"/>
     </row>
@@ -19692,15 +19643,15 @@
       <c r="G208" s="78"/>
       <c r="H208" s="78"/>
       <c r="I208" s="78"/>
-      <c r="J208" s="278"/>
-      <c r="K208" s="278"/>
+      <c r="J208" s="191"/>
+      <c r="K208" s="191"/>
       <c r="L208" s="78"/>
       <c r="M208" s="79"/>
-      <c r="N208" s="255">
+      <c r="N208" s="180">
         <f>J208*M208</f>
         <v>0</v>
       </c>
-      <c r="O208" s="255"/>
+      <c r="O208" s="180"/>
       <c r="AA208" s="74"/>
       <c r="AB208" s="74"/>
     </row>
@@ -19716,11 +19667,11 @@
       <c r="K209" s="79"/>
       <c r="L209" s="79"/>
       <c r="M209" s="79"/>
-      <c r="N209" s="255">
+      <c r="N209" s="180">
         <f t="shared" ref="N209:N228" si="16">M209*K209</f>
         <v>0</v>
       </c>
-      <c r="O209" s="255"/>
+      <c r="O209" s="180"/>
       <c r="AA209" s="74"/>
       <c r="AB209" s="74"/>
     </row>
@@ -19736,11 +19687,11 @@
       <c r="K210" s="79"/>
       <c r="L210" s="79"/>
       <c r="M210" s="79"/>
-      <c r="N210" s="255">
+      <c r="N210" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O210" s="255"/>
+      <c r="O210" s="180"/>
       <c r="AA210" s="74"/>
       <c r="AB210" s="74"/>
     </row>
@@ -19756,11 +19707,11 @@
       <c r="K211" s="79"/>
       <c r="L211" s="79"/>
       <c r="M211" s="79"/>
-      <c r="N211" s="255">
+      <c r="N211" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O211" s="255"/>
+      <c r="O211" s="180"/>
       <c r="AA211" s="74"/>
       <c r="AB211" s="74"/>
     </row>
@@ -19776,11 +19727,11 @@
       <c r="K212" s="79"/>
       <c r="L212" s="79"/>
       <c r="M212" s="79"/>
-      <c r="N212" s="255">
+      <c r="N212" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O212" s="255"/>
+      <c r="O212" s="180"/>
       <c r="AA212" s="74"/>
       <c r="AB212" s="74"/>
     </row>
@@ -19796,11 +19747,11 @@
       <c r="K213" s="79"/>
       <c r="L213" s="79"/>
       <c r="M213" s="79"/>
-      <c r="N213" s="255">
+      <c r="N213" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O213" s="255"/>
+      <c r="O213" s="180"/>
       <c r="AA213" s="74"/>
       <c r="AB213" s="74"/>
     </row>
@@ -19816,11 +19767,11 @@
       <c r="K214" s="79"/>
       <c r="L214" s="79"/>
       <c r="M214" s="79"/>
-      <c r="N214" s="255">
+      <c r="N214" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O214" s="255"/>
+      <c r="O214" s="180"/>
       <c r="AA214" s="74"/>
       <c r="AB214" s="74"/>
     </row>
@@ -19836,11 +19787,11 @@
       <c r="K215" s="79"/>
       <c r="L215" s="79"/>
       <c r="M215" s="79"/>
-      <c r="N215" s="255">
+      <c r="N215" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O215" s="255"/>
+      <c r="O215" s="180"/>
       <c r="AA215" s="74"/>
       <c r="AB215" s="74"/>
     </row>
@@ -19856,11 +19807,11 @@
       <c r="K216" s="79"/>
       <c r="L216" s="79"/>
       <c r="M216" s="79"/>
-      <c r="N216" s="255">
+      <c r="N216" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O216" s="255"/>
+      <c r="O216" s="180"/>
     </row>
     <row r="217" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C217" s="70"/>
@@ -19874,11 +19825,11 @@
       <c r="K217" s="79"/>
       <c r="L217" s="79"/>
       <c r="M217" s="79"/>
-      <c r="N217" s="255">
+      <c r="N217" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O217" s="255"/>
+      <c r="O217" s="180"/>
     </row>
     <row r="218" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C218" s="70"/>
@@ -19892,11 +19843,11 @@
       <c r="K218" s="79"/>
       <c r="L218" s="79"/>
       <c r="M218" s="79"/>
-      <c r="N218" s="255">
+      <c r="N218" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O218" s="255"/>
+      <c r="O218" s="180"/>
     </row>
     <row r="219" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C219" s="70"/>
@@ -19910,11 +19861,11 @@
       <c r="K219" s="79"/>
       <c r="L219" s="79"/>
       <c r="M219" s="79"/>
-      <c r="N219" s="255">
+      <c r="N219" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O219" s="255"/>
+      <c r="O219" s="180"/>
     </row>
     <row r="220" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C220" s="70"/>
@@ -19928,11 +19879,11 @@
       <c r="K220" s="79"/>
       <c r="L220" s="79"/>
       <c r="M220" s="79"/>
-      <c r="N220" s="255">
+      <c r="N220" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O220" s="255"/>
+      <c r="O220" s="180"/>
     </row>
     <row r="221" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C221" s="70"/>
@@ -19946,11 +19897,11 @@
       <c r="K221" s="79"/>
       <c r="L221" s="79"/>
       <c r="M221" s="79"/>
-      <c r="N221" s="255">
+      <c r="N221" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O221" s="255"/>
+      <c r="O221" s="180"/>
     </row>
     <row r="222" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C222" s="70"/>
@@ -19964,11 +19915,11 @@
       <c r="K222" s="79"/>
       <c r="L222" s="79"/>
       <c r="M222" s="79"/>
-      <c r="N222" s="255">
+      <c r="N222" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O222" s="255"/>
+      <c r="O222" s="180"/>
     </row>
     <row r="223" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C223" s="70"/>
@@ -19982,11 +19933,11 @@
       <c r="K223" s="79"/>
       <c r="L223" s="79"/>
       <c r="M223" s="79"/>
-      <c r="N223" s="255">
+      <c r="N223" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O223" s="255"/>
+      <c r="O223" s="180"/>
     </row>
     <row r="224" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C224" s="70"/>
@@ -20000,11 +19951,11 @@
       <c r="K224" s="79"/>
       <c r="L224" s="79"/>
       <c r="M224" s="79"/>
-      <c r="N224" s="255">
+      <c r="N224" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O224" s="255"/>
+      <c r="O224" s="180"/>
     </row>
     <row r="225" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C225" s="70"/>
@@ -20018,11 +19969,11 @@
       <c r="K225" s="97"/>
       <c r="L225" s="97"/>
       <c r="M225" s="97"/>
-      <c r="N225" s="255">
+      <c r="N225" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O225" s="255"/>
+      <c r="O225" s="180"/>
     </row>
     <row r="226" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C226" s="70"/>
@@ -20036,11 +19987,11 @@
       <c r="K226" s="79"/>
       <c r="L226" s="79"/>
       <c r="M226" s="79"/>
-      <c r="N226" s="255">
+      <c r="N226" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O226" s="255"/>
+      <c r="O226" s="180"/>
     </row>
     <row r="227" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C227" s="70"/>
@@ -20054,11 +20005,11 @@
       <c r="K227" s="79"/>
       <c r="L227" s="79"/>
       <c r="M227" s="79"/>
-      <c r="N227" s="255">
+      <c r="N227" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O227" s="255"/>
+      <c r="O227" s="180"/>
     </row>
     <row r="228" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C228" s="70"/>
@@ -20072,11 +20023,11 @@
       <c r="K228" s="79"/>
       <c r="L228" s="79"/>
       <c r="M228" s="79"/>
-      <c r="N228" s="255">
+      <c r="N228" s="180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O228" s="255"/>
+      <c r="O228" s="180"/>
     </row>
     <row r="229" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C229" s="70"/>
@@ -20092,11 +20043,11 @@
       <c r="K229" s="100"/>
       <c r="L229" s="101"/>
       <c r="M229" s="101"/>
-      <c r="N229" s="282">
+      <c r="N229" s="186">
         <f>(SUM(N206:O228)*K229)</f>
         <v>0</v>
       </c>
-      <c r="O229" s="282"/>
+      <c r="O229" s="186"/>
     </row>
     <row r="230" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C230" s="70"/>
@@ -20112,11 +20063,11 @@
       <c r="K230" s="105"/>
       <c r="L230" s="105"/>
       <c r="M230" s="106"/>
-      <c r="N230" s="277">
+      <c r="N230" s="188">
         <f>SUM(N206:O229)</f>
         <v>0</v>
       </c>
-      <c r="O230" s="277"/>
+      <c r="O230" s="188"/>
     </row>
     <row r="231" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C231" s="70"/>
@@ -20142,151 +20093,151 @@
     </row>
     <row r="233" spans="3:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="70"/>
-      <c r="D233" s="276" t="s">
+      <c r="D233" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="E233" s="276"/>
-      <c r="F233" s="276"/>
-      <c r="G233" s="276"/>
-      <c r="H233" s="293" t="s">
+      <c r="E233" s="173"/>
+      <c r="F233" s="173"/>
+      <c r="G233" s="173"/>
+      <c r="H233" s="193" t="s">
         <v>100</v>
       </c>
-      <c r="I233" s="293"/>
-      <c r="J233" s="276" t="s">
+      <c r="I233" s="193"/>
+      <c r="J233" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="K233" s="276"/>
-      <c r="L233" s="276" t="s">
+      <c r="K233" s="173"/>
+      <c r="L233" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="M233" s="276"/>
+      <c r="M233" s="173"/>
       <c r="N233" s="125"/>
-      <c r="O233" s="288" t="s">
+      <c r="O233" s="195" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="234" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C234" s="70"/>
-      <c r="D234" s="274"/>
-      <c r="E234" s="274"/>
-      <c r="F234" s="274"/>
-      <c r="G234" s="274"/>
-      <c r="H234" s="294"/>
-      <c r="I234" s="294"/>
-      <c r="J234" s="274"/>
-      <c r="K234" s="274"/>
-      <c r="L234" s="274"/>
-      <c r="M234" s="274"/>
+      <c r="D234" s="174"/>
+      <c r="E234" s="174"/>
+      <c r="F234" s="174"/>
+      <c r="G234" s="174"/>
+      <c r="H234" s="194"/>
+      <c r="I234" s="194"/>
+      <c r="J234" s="174"/>
+      <c r="K234" s="174"/>
+      <c r="L234" s="174"/>
+      <c r="M234" s="174"/>
       <c r="N234" s="126"/>
-      <c r="O234" s="289"/>
+      <c r="O234" s="196"/>
     </row>
     <row r="235" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C235" s="70"/>
-      <c r="D235" s="290"/>
-      <c r="E235" s="290"/>
-      <c r="F235" s="290"/>
-      <c r="G235" s="290"/>
-      <c r="H235" s="290"/>
-      <c r="I235" s="290"/>
-      <c r="J235" s="291"/>
-      <c r="K235" s="291"/>
-      <c r="L235" s="291"/>
-      <c r="M235" s="291"/>
-      <c r="N235" s="272">
+      <c r="D235" s="175"/>
+      <c r="E235" s="175"/>
+      <c r="F235" s="175"/>
+      <c r="G235" s="175"/>
+      <c r="H235" s="175"/>
+      <c r="I235" s="175"/>
+      <c r="J235" s="172"/>
+      <c r="K235" s="172"/>
+      <c r="L235" s="172"/>
+      <c r="M235" s="172"/>
+      <c r="N235" s="185">
         <f>J235*L235</f>
         <v>0</v>
       </c>
-      <c r="O235" s="272"/>
+      <c r="O235" s="185"/>
     </row>
     <row r="236" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C236" s="70"/>
-      <c r="D236" s="290"/>
-      <c r="E236" s="290"/>
-      <c r="F236" s="290"/>
-      <c r="G236" s="290"/>
-      <c r="H236" s="290"/>
-      <c r="I236" s="290"/>
-      <c r="J236" s="291"/>
-      <c r="K236" s="291"/>
-      <c r="L236" s="291"/>
-      <c r="M236" s="291"/>
-      <c r="N236" s="272">
-        <f t="shared" ref="N236:N241" si="17">J236*L236</f>
-        <v>0</v>
-      </c>
-      <c r="O236" s="272"/>
+      <c r="D236" s="175"/>
+      <c r="E236" s="175"/>
+      <c r="F236" s="175"/>
+      <c r="G236" s="175"/>
+      <c r="H236" s="175"/>
+      <c r="I236" s="175"/>
+      <c r="J236" s="172"/>
+      <c r="K236" s="172"/>
+      <c r="L236" s="172"/>
+      <c r="M236" s="172"/>
+      <c r="N236" s="185">
+        <f t="shared" ref="N236:N240" si="17">J236*L236</f>
+        <v>0</v>
+      </c>
+      <c r="O236" s="185"/>
     </row>
     <row r="237" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C237" s="70"/>
-      <c r="D237" s="290"/>
-      <c r="E237" s="290"/>
-      <c r="F237" s="290"/>
-      <c r="G237" s="290"/>
-      <c r="H237" s="290"/>
-      <c r="I237" s="290"/>
-      <c r="J237" s="291"/>
-      <c r="K237" s="291"/>
-      <c r="L237" s="291"/>
-      <c r="M237" s="291"/>
-      <c r="N237" s="272">
+      <c r="D237" s="175"/>
+      <c r="E237" s="175"/>
+      <c r="F237" s="175"/>
+      <c r="G237" s="175"/>
+      <c r="H237" s="175"/>
+      <c r="I237" s="175"/>
+      <c r="J237" s="172"/>
+      <c r="K237" s="172"/>
+      <c r="L237" s="172"/>
+      <c r="M237" s="172"/>
+      <c r="N237" s="185">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O237" s="272"/>
+      <c r="O237" s="185"/>
     </row>
     <row r="238" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C238" s="70"/>
-      <c r="D238" s="290"/>
-      <c r="E238" s="290"/>
-      <c r="F238" s="290"/>
-      <c r="G238" s="290"/>
-      <c r="H238" s="290"/>
-      <c r="I238" s="290"/>
-      <c r="J238" s="291"/>
-      <c r="K238" s="291"/>
-      <c r="L238" s="291"/>
-      <c r="M238" s="291"/>
-      <c r="N238" s="272">
+      <c r="D238" s="175"/>
+      <c r="E238" s="175"/>
+      <c r="F238" s="175"/>
+      <c r="G238" s="175"/>
+      <c r="H238" s="175"/>
+      <c r="I238" s="175"/>
+      <c r="J238" s="172"/>
+      <c r="K238" s="172"/>
+      <c r="L238" s="172"/>
+      <c r="M238" s="172"/>
+      <c r="N238" s="185">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O238" s="272"/>
+      <c r="O238" s="185"/>
     </row>
     <row r="239" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C239" s="70"/>
-      <c r="D239" s="290"/>
-      <c r="E239" s="290"/>
-      <c r="F239" s="290"/>
-      <c r="G239" s="290"/>
-      <c r="H239" s="290"/>
-      <c r="I239" s="290"/>
-      <c r="J239" s="291"/>
-      <c r="K239" s="291"/>
-      <c r="L239" s="291"/>
-      <c r="M239" s="291"/>
-      <c r="N239" s="272">
+      <c r="D239" s="175"/>
+      <c r="E239" s="175"/>
+      <c r="F239" s="175"/>
+      <c r="G239" s="175"/>
+      <c r="H239" s="175"/>
+      <c r="I239" s="175"/>
+      <c r="J239" s="172"/>
+      <c r="K239" s="172"/>
+      <c r="L239" s="172"/>
+      <c r="M239" s="172"/>
+      <c r="N239" s="185">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O239" s="272"/>
+      <c r="O239" s="185"/>
     </row>
     <row r="240" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C240" s="70"/>
-      <c r="D240" s="290"/>
-      <c r="E240" s="290"/>
-      <c r="F240" s="290"/>
-      <c r="G240" s="290"/>
-      <c r="H240" s="290"/>
-      <c r="I240" s="290"/>
-      <c r="J240" s="291"/>
-      <c r="K240" s="291"/>
-      <c r="L240" s="291"/>
-      <c r="M240" s="291"/>
-      <c r="N240" s="272">
+      <c r="D240" s="175"/>
+      <c r="E240" s="175"/>
+      <c r="F240" s="175"/>
+      <c r="G240" s="175"/>
+      <c r="H240" s="175"/>
+      <c r="I240" s="175"/>
+      <c r="J240" s="172"/>
+      <c r="K240" s="172"/>
+      <c r="L240" s="172"/>
+      <c r="M240" s="172"/>
+      <c r="N240" s="185">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="O240" s="272"/>
+      <c r="O240" s="185"/>
     </row>
     <row r="241" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C241" s="70"/>
@@ -20295,18 +20246,18 @@
       </c>
       <c r="E241" s="102"/>
       <c r="F241" s="13"/>
-      <c r="G241" s="292"/>
-      <c r="H241" s="292"/>
-      <c r="I241" s="292"/>
-      <c r="J241" s="292"/>
-      <c r="K241" s="292"/>
-      <c r="L241" s="292"/>
-      <c r="M241" s="292"/>
-      <c r="N241" s="272">
+      <c r="G241" s="190"/>
+      <c r="H241" s="190"/>
+      <c r="I241" s="190"/>
+      <c r="J241" s="190"/>
+      <c r="K241" s="190"/>
+      <c r="L241" s="190"/>
+      <c r="M241" s="190"/>
+      <c r="N241" s="185">
         <f>SUM(N235:O240)</f>
         <v>0</v>
       </c>
-      <c r="O241" s="272"/>
+      <c r="O241" s="185"/>
     </row>
     <row r="242" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C242" s="70"/>
@@ -20317,9 +20268,9 @@
       <c r="H242" s="78"/>
       <c r="I242" s="78"/>
       <c r="J242" s="80"/>
-      <c r="K242" s="273"/>
-      <c r="L242" s="273"/>
-      <c r="M242" s="273"/>
+      <c r="K242" s="189"/>
+      <c r="L242" s="189"/>
+      <c r="M242" s="189"/>
       <c r="N242" s="77"/>
     </row>
     <row r="243" spans="3:18" x14ac:dyDescent="0.25">
@@ -20341,41 +20292,41 @@
     </row>
     <row r="244" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C244" s="70"/>
-      <c r="D244" s="276" t="s">
+      <c r="D244" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="E244" s="276"/>
-      <c r="F244" s="276"/>
-      <c r="G244" s="276"/>
-      <c r="H244" s="276"/>
+      <c r="E244" s="173"/>
+      <c r="F244" s="173"/>
+      <c r="G244" s="173"/>
+      <c r="H244" s="173"/>
       <c r="J244" s="125" t="s">
         <v>53</v>
       </c>
       <c r="K244" s="125"/>
-      <c r="L244" s="276" t="s">
+      <c r="L244" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="M244" s="276"/>
-      <c r="N244" s="276"/>
+      <c r="M244" s="173"/>
+      <c r="N244" s="173"/>
       <c r="O244" s="73" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="245" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C245" s="70"/>
-      <c r="D245" s="283"/>
-      <c r="E245" s="283"/>
-      <c r="F245" s="283"/>
-      <c r="G245" s="283"/>
-      <c r="H245" s="283"/>
+      <c r="D245" s="176"/>
+      <c r="E245" s="176"/>
+      <c r="F245" s="176"/>
+      <c r="G245" s="176"/>
+      <c r="H245" s="176"/>
       <c r="I245" s="6"/>
       <c r="J245" s="126"/>
       <c r="K245" s="126"/>
-      <c r="L245" s="274" t="s">
+      <c r="L245" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="M245" s="274"/>
-      <c r="N245" s="274"/>
+      <c r="M245" s="174"/>
+      <c r="N245" s="174"/>
       <c r="O245" s="75" t="s">
         <v>57</v>
       </c>
@@ -20396,11 +20347,11 @@
       </c>
       <c r="L246" s="127"/>
       <c r="M246" s="127"/>
-      <c r="N246" s="285">
+      <c r="N246" s="178">
         <f>K246*M246</f>
         <v>0</v>
       </c>
-      <c r="O246" s="285"/>
+      <c r="O246" s="178"/>
     </row>
     <row r="247" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C247" s="70"/>
@@ -20415,10 +20366,10 @@
       <c r="K247" s="98"/>
       <c r="L247" s="98"/>
       <c r="M247" s="98"/>
-      <c r="N247" s="284">
-        <v>0</v>
-      </c>
-      <c r="O247" s="284"/>
+      <c r="N247" s="177">
+        <v>0</v>
+      </c>
+      <c r="O247" s="177"/>
     </row>
     <row r="248" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C248" s="133"/>
@@ -20434,11 +20385,11 @@
       <c r="K248" s="137"/>
       <c r="L248" s="137"/>
       <c r="M248" s="135"/>
-      <c r="N248" s="286">
+      <c r="N248" s="179">
         <f>SUM(N246:O247)</f>
         <v>0</v>
       </c>
-      <c r="O248" s="286"/>
+      <c r="O248" s="179"/>
     </row>
     <row r="249" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C249" s="133"/>
@@ -20486,11 +20437,11 @@
       <c r="K251" s="142"/>
       <c r="L251" s="142"/>
       <c r="M251" s="142"/>
-      <c r="N251" s="281">
+      <c r="N251" s="184">
         <f>N241</f>
         <v>0</v>
       </c>
-      <c r="O251" s="281"/>
+      <c r="O251" s="184"/>
       <c r="P251" s="77"/>
       <c r="Q251" s="77"/>
       <c r="R251" s="77"/>
@@ -20509,11 +20460,11 @@
       <c r="K252" s="128"/>
       <c r="L252" s="128"/>
       <c r="M252" s="128"/>
-      <c r="N252" s="280">
+      <c r="N252" s="187">
         <f>N248</f>
         <v>0</v>
       </c>
-      <c r="O252" s="280"/>
+      <c r="O252" s="187"/>
       <c r="P252" s="77"/>
       <c r="Q252" s="77"/>
       <c r="R252" s="77"/>
@@ -20532,11 +20483,11 @@
       <c r="K253" s="137"/>
       <c r="L253" s="137"/>
       <c r="M253" s="135"/>
-      <c r="N253" s="286">
+      <c r="N253" s="179">
         <f>SUM(N251:O252)</f>
         <v>0</v>
       </c>
-      <c r="O253" s="286"/>
+      <c r="O253" s="179"/>
       <c r="P253" s="77"/>
       <c r="Q253" s="77"/>
       <c r="R253" s="77"/>
@@ -20580,11 +20531,11 @@
       <c r="K256" s="142"/>
       <c r="L256" s="142"/>
       <c r="M256" s="148"/>
-      <c r="N256" s="281">
+      <c r="N256" s="184">
         <f>M177</f>
         <v>0</v>
       </c>
-      <c r="O256" s="281"/>
+      <c r="O256" s="184"/>
     </row>
     <row r="257" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C257" s="70"/>
@@ -20601,11 +20552,11 @@
       <c r="K257" s="78"/>
       <c r="L257" s="78"/>
       <c r="M257" s="149"/>
-      <c r="N257" s="255">
+      <c r="N257" s="180">
         <f>M201</f>
         <v>0</v>
       </c>
-      <c r="O257" s="255"/>
+      <c r="O257" s="180"/>
     </row>
     <row r="258" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C258" s="70"/>
@@ -20622,11 +20573,11 @@
       <c r="K258" s="78"/>
       <c r="L258" s="78"/>
       <c r="M258" s="149"/>
-      <c r="N258" s="255">
+      <c r="N258" s="180">
         <f>N241</f>
         <v>0</v>
       </c>
-      <c r="O258" s="255"/>
+      <c r="O258" s="180"/>
     </row>
     <row r="259" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C259" s="70"/>
@@ -20643,11 +20594,11 @@
       <c r="K259" s="78"/>
       <c r="L259" s="78"/>
       <c r="M259" s="149"/>
-      <c r="N259" s="255">
+      <c r="N259" s="180">
         <f>N230</f>
         <v>0</v>
       </c>
-      <c r="O259" s="255"/>
+      <c r="O259" s="180"/>
     </row>
     <row r="260" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C260" s="70"/>
@@ -20663,11 +20614,11 @@
       <c r="K260" s="98"/>
       <c r="L260" s="98"/>
       <c r="M260" s="150"/>
-      <c r="N260" s="282">
+      <c r="N260" s="186">
         <f>N248</f>
         <v>0</v>
       </c>
-      <c r="O260" s="282"/>
+      <c r="O260" s="186"/>
     </row>
     <row r="261" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C261" s="70"/>
@@ -20683,87 +20634,284 @@
       <c r="K261" s="117"/>
       <c r="L261" s="117"/>
       <c r="M261" s="151"/>
-      <c r="N261" s="277">
+      <c r="N261" s="188">
         <f>SUM(N256:O260)</f>
         <v>0</v>
       </c>
-      <c r="O261" s="277"/>
+      <c r="O261" s="188"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="365">
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="L233:M234"/>
-    <mergeCell ref="L235:M235"/>
-    <mergeCell ref="L236:M236"/>
-    <mergeCell ref="L237:M237"/>
-    <mergeCell ref="L238:M238"/>
-    <mergeCell ref="L239:M239"/>
-    <mergeCell ref="L240:M240"/>
-    <mergeCell ref="D235:G235"/>
-    <mergeCell ref="D236:G236"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="D238:G238"/>
-    <mergeCell ref="D239:G239"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="D244:H245"/>
-    <mergeCell ref="N247:O247"/>
-    <mergeCell ref="N246:O246"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="L245:N245"/>
-    <mergeCell ref="L244:N244"/>
-    <mergeCell ref="N253:O253"/>
-    <mergeCell ref="N258:O258"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="N257:O257"/>
-    <mergeCell ref="N256:O256"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="N225:O225"/>
-    <mergeCell ref="N224:O224"/>
-    <mergeCell ref="N235:O235"/>
-    <mergeCell ref="L204:N204"/>
-    <mergeCell ref="J204:K205"/>
-    <mergeCell ref="D204:I205"/>
-    <mergeCell ref="N217:O217"/>
-    <mergeCell ref="N216:O216"/>
-    <mergeCell ref="N229:O229"/>
-    <mergeCell ref="N259:O259"/>
-    <mergeCell ref="N252:O252"/>
-    <mergeCell ref="N251:O251"/>
-    <mergeCell ref="N261:O261"/>
-    <mergeCell ref="N260:O260"/>
-    <mergeCell ref="N237:O237"/>
-    <mergeCell ref="N236:O236"/>
-    <mergeCell ref="K242:M242"/>
-    <mergeCell ref="N241:O241"/>
-    <mergeCell ref="N240:O240"/>
-    <mergeCell ref="N239:O239"/>
-    <mergeCell ref="N238:O238"/>
-    <mergeCell ref="G241:M241"/>
-    <mergeCell ref="J233:K234"/>
-    <mergeCell ref="D233:G234"/>
-    <mergeCell ref="N230:O230"/>
-    <mergeCell ref="N209:O209"/>
-    <mergeCell ref="N208:O208"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="N207:O207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="N215:O215"/>
-    <mergeCell ref="H233:I234"/>
-    <mergeCell ref="O233:O234"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="C2:F6"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="I123:N123"/>
+    <mergeCell ref="M124:N125"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="BS8:BS10"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AU8:AX8"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="BC8:BF8"/>
+    <mergeCell ref="BG8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="BO8:BR8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="C12:C42"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C87:C109"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="D103:D109"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C74:C85"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="C111:F115"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="N213:O213"/>
+    <mergeCell ref="N210:O210"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="N211:O211"/>
+    <mergeCell ref="N212:O212"/>
+    <mergeCell ref="N214:O214"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="N223:O223"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="N218:O218"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="N219:O219"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="N220:O220"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="N221:O221"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="N222:O222"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="C180:G181"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
     <mergeCell ref="N206:O206"/>
     <mergeCell ref="L206:M206"/>
     <mergeCell ref="J206:K206"/>
@@ -20788,313 +20936,116 @@
     <mergeCell ref="M160:N160"/>
     <mergeCell ref="M161:N161"/>
     <mergeCell ref="M162:N162"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="C180:G181"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="K194:L194"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="K195:L195"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="K191:L191"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="N223:O223"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="N218:O218"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="N219:O219"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="N221:O221"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="N222:O222"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="N213:O213"/>
-    <mergeCell ref="N210:O210"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="N211:O211"/>
-    <mergeCell ref="N212:O212"/>
-    <mergeCell ref="N214:O214"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="C111:F115"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="C12:C42"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C87:C109"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="D103:D109"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C74:C85"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AU8:AX8"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="BC8:BF8"/>
-    <mergeCell ref="BG8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="BO8:BR8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="BS8:BS10"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="C2:F6"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="L124:L125"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="I123:N123"/>
-    <mergeCell ref="M124:N125"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="S3:S6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="D233:G234"/>
+    <mergeCell ref="N230:O230"/>
+    <mergeCell ref="N209:O209"/>
+    <mergeCell ref="N208:O208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="N207:O207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="N215:O215"/>
+    <mergeCell ref="H233:I234"/>
+    <mergeCell ref="O233:O234"/>
+    <mergeCell ref="N259:O259"/>
+    <mergeCell ref="N252:O252"/>
+    <mergeCell ref="N251:O251"/>
+    <mergeCell ref="N261:O261"/>
+    <mergeCell ref="N260:O260"/>
+    <mergeCell ref="N237:O237"/>
+    <mergeCell ref="N236:O236"/>
+    <mergeCell ref="K242:M242"/>
+    <mergeCell ref="N241:O241"/>
+    <mergeCell ref="N240:O240"/>
+    <mergeCell ref="N239:O239"/>
+    <mergeCell ref="N238:O238"/>
+    <mergeCell ref="G241:M241"/>
+    <mergeCell ref="D244:H245"/>
+    <mergeCell ref="N247:O247"/>
+    <mergeCell ref="N246:O246"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="L245:N245"/>
+    <mergeCell ref="L244:N244"/>
+    <mergeCell ref="N253:O253"/>
+    <mergeCell ref="N258:O258"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="N257:O257"/>
+    <mergeCell ref="N256:O256"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="N225:O225"/>
+    <mergeCell ref="N224:O224"/>
+    <mergeCell ref="N235:O235"/>
+    <mergeCell ref="L204:N204"/>
+    <mergeCell ref="J204:K205"/>
+    <mergeCell ref="D204:I205"/>
+    <mergeCell ref="N217:O217"/>
+    <mergeCell ref="N216:O216"/>
+    <mergeCell ref="N229:O229"/>
+    <mergeCell ref="J233:K234"/>
+    <mergeCell ref="D235:G235"/>
+    <mergeCell ref="D236:G236"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="D238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="L233:M234"/>
+    <mergeCell ref="L235:M235"/>
+    <mergeCell ref="L236:M236"/>
+    <mergeCell ref="L237:M237"/>
+    <mergeCell ref="L238:M238"/>
+    <mergeCell ref="L239:M239"/>
+    <mergeCell ref="L240:M240"/>
   </mergeCells>
   <conditionalFormatting sqref="K242:L242">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>J239=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K242:L242">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>J239=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K246:L246">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="38" priority="3">
       <formula>J239=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K246:L246">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>J239=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66:H71">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G66:H71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS66:BT71">
-    <cfRule type="containsText" dxfId="38" priority="8" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",BS66:BT71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M242">
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M246">
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
